--- a/new_data_worksheet_2.xlsx
+++ b/new_data_worksheet_2.xlsx
@@ -1046,7 +1046,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1056,7 +1056,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BZ128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="C115" sqref="C115"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7008,28 +7010,30 @@
       <c r="A115" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B115" s="25"/>
+      <c r="B115" s="25">
+        <v>240131</v>
+      </c>
       <c r="C115" s="25"/>
       <c r="D115" s="6">
         <f>SUM(B115+C115)</f>
-        <v>0</v>
+        <v>240131</v>
       </c>
       <c r="E115" s="7"/>
       <c r="F115" s="6" t="str">
         <f>A115</f>
         <v>male</v>
       </c>
-      <c r="G115" s="6" t="e">
+      <c r="G115" s="6">
         <f>(D115*B117)/D117</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H115" s="10" t="e">
+        <v>240131</v>
+      </c>
+      <c r="H115" s="10">
         <f>(D115*C117)/D117</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I115" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="I115" s="6">
         <f>SUM(G115:H115)</f>
-        <v>#DIV/0!</v>
+        <v>240131</v>
       </c>
       <c r="J115" s="8"/>
       <c r="K115" s="27"/>
@@ -7069,28 +7073,30 @@
       <c r="A116" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B116" s="26"/>
+      <c r="B116" s="26">
+        <v>49682</v>
+      </c>
       <c r="C116" s="26"/>
       <c r="D116" s="6">
         <f>SUM(B116+C116)</f>
-        <v>0</v>
+        <v>49682</v>
       </c>
       <c r="E116" s="7"/>
       <c r="F116" s="6" t="str">
         <f>A116</f>
         <v>not male</v>
       </c>
-      <c r="G116" s="6" t="e">
+      <c r="G116" s="6">
         <f>(D116*B117)/D117</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H116" s="6" t="e">
+        <v>49682</v>
+      </c>
+      <c r="H116" s="6">
         <f>(D116*C117)/D117</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I116" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="I116" s="6">
         <f>SUM(G116:H116)</f>
-        <v>#DIV/0!</v>
+        <v>49682</v>
       </c>
       <c r="J116" s="8"/>
       <c r="K116" s="27"/>
@@ -7130,7 +7136,7 @@
       <c r="A117" s="5"/>
       <c r="B117" s="6">
         <f>(B115+B116)</f>
-        <v>0</v>
+        <v>289813</v>
       </c>
       <c r="C117" s="6">
         <f>(C115+C116)</f>
@@ -7138,21 +7144,21 @@
       </c>
       <c r="D117" s="6">
         <f>IF(SUM(D115:D116)&lt;&gt;SUM(B117:C117),"PROBLEM",SUM(D115:D116))</f>
-        <v>0</v>
+        <v>289813</v>
       </c>
       <c r="E117" s="7"/>
       <c r="F117" s="7"/>
-      <c r="G117" s="6" t="e">
+      <c r="G117" s="6">
         <f>SUM(G115:G116)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H117" s="6" t="e">
+        <v>289813</v>
+      </c>
+      <c r="H117" s="6">
         <f>SUM(H115:H116)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I117" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="I117" s="6">
         <f>SUM(G117:H117)</f>
-        <v>#DIV/0!</v>
+        <v>289813</v>
       </c>
       <c r="J117" s="8"/>
       <c r="K117" s="27"/>
@@ -7277,23 +7283,23 @@
     <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
         <f>B115</f>
+        <v>240131</v>
+      </c>
+      <c r="B121" s="6">
+        <f>G115</f>
+        <v>240131</v>
+      </c>
+      <c r="C121" s="6">
+        <f>A121-B121</f>
         <v>0</v>
       </c>
-      <c r="B121" s="6" t="e">
-        <f>G115</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C121" s="6" t="e">
-        <f>A121-B121</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D121" s="6" t="e">
+      <c r="D121" s="6">
         <f>C121*C121</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E121" s="22" t="e">
+        <v>0</v>
+      </c>
+      <c r="E121" s="22">
         <f>D121/B121</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
@@ -7330,23 +7336,23 @@
     <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
         <f>B116</f>
+        <v>49682</v>
+      </c>
+      <c r="B122" s="6">
+        <f>G116</f>
+        <v>49682</v>
+      </c>
+      <c r="C122" s="6">
+        <f t="shared" ref="C122:C124" si="48">A122-B122</f>
         <v>0</v>
       </c>
-      <c r="B122" s="6" t="e">
-        <f>G116</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C122" s="6" t="e">
-        <f t="shared" ref="C122:C124" si="48">A122-B122</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D122" s="6" t="e">
+      <c r="D122" s="6">
         <f t="shared" ref="D122:D124" si="49">C122*C122</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E122" s="22" t="e">
+        <v>0</v>
+      </c>
+      <c r="E122" s="22">
         <f t="shared" ref="E122:E124" si="50">D122/B122</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
@@ -7385,17 +7391,17 @@
         <f>C115</f>
         <v>0</v>
       </c>
-      <c r="B123" s="6" t="e">
+      <c r="B123" s="6">
         <f>H115</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C123" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="C123" s="6">
         <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D123" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="D123" s="6">
         <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="E123" s="22" t="e">
         <f t="shared" si="50"/>
@@ -7438,17 +7444,17 @@
         <f>C116</f>
         <v>0</v>
       </c>
-      <c r="B124" s="6" t="e">
+      <c r="B124" s="6">
         <f>H116</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C124" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="C124" s="6">
         <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D124" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="D124" s="6">
         <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="E124" s="22" t="e">
         <f t="shared" si="50"/>

--- a/new_data_worksheet_2.xlsx
+++ b/new_data_worksheet_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ma_public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B762058-3797-48BE-B768-EE0091DEB8FA}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212382DF-8F72-4640-A5E9-FF94AA8B8484}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="222">
   <si>
     <t>OBSERVED</t>
   </si>
@@ -588,6 +588,108 @@
   </si>
   <si>
     <t>h1: there is an association between male homicide guilty verdicts pre 1740 and post 1740 at the Old Bailey</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>not death</t>
+  </si>
+  <si>
+    <t>h1: there is an association between being male and being sentenced to death at the Old Bailey (between 1722-1802)</t>
+  </si>
+  <si>
+    <t>h1: there is an association between being male and being sentenced to death in Surrey/Sussex (between 1722-1802)</t>
+  </si>
+  <si>
+    <t>h1: there is an association between being male and being sentenced to transportation at the Old Bailey (between 1722-1802)</t>
+  </si>
+  <si>
+    <t>h1: there is an association between being male and being sentenced to transportation in Surrey/Sussex (between 1722-1802)</t>
+  </si>
+  <si>
+    <t>h1: there is an association between being male and being sentenced to imprisonment at the Old Bailey (between 1722-1802)</t>
+  </si>
+  <si>
+    <t>h1: there is an association between being male and being sentenced to imprisonment in Surrey/Sussex (between 1722-1802)</t>
+  </si>
+  <si>
+    <t>transportation</t>
+  </si>
+  <si>
+    <t>not transportation</t>
+  </si>
+  <si>
+    <t>imprisonment</t>
+  </si>
+  <si>
+    <t>not imprisonment</t>
+  </si>
+  <si>
+    <t>h1: there is an association between being female and being sentenced to death for infanticide at the Old Bailey (between 1663-1802)</t>
+  </si>
+  <si>
+    <t>h1: there is an association between being female and being sentenced to death for infanticide in Surrey/Sussex (between 1663-1802)</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>not female</t>
+  </si>
+  <si>
+    <t>infanticide</t>
+  </si>
+  <si>
+    <t>not infanticide</t>
+  </si>
+  <si>
+    <t>h1: there is an association between being charged with Homicide and found guilty at the Old Bailey (1660-1740 &amp; 1740-1802)</t>
+  </si>
+  <si>
+    <t>h1: there is an association between being charged with Homicide and found guilty in Surrey/Sussex (1660-1740 &amp; 1740-1802)</t>
+  </si>
+  <si>
+    <t>1660-1740</t>
+  </si>
+  <si>
+    <t>1740-1802</t>
+  </si>
+  <si>
+    <t>Due to the small counts found in the Beattie data it is necessary to try a different approach. For this we will use Guttman's Lamda</t>
+  </si>
+  <si>
+    <t>Initial Logic:</t>
+  </si>
+  <si>
+    <t>Only Guess:</t>
+  </si>
+  <si>
+    <t>Therefore:</t>
+  </si>
+  <si>
+    <t>Ratio of Increase:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">λ = </t>
+  </si>
+  <si>
+    <t>Condition Dependent:</t>
+  </si>
+  <si>
+    <t>Not very strong</t>
+  </si>
+  <si>
+    <t>Context Dependent:</t>
+  </si>
+  <si>
+    <t>Initial:</t>
+  </si>
+  <si>
+    <t>Minus:</t>
+  </si>
+  <si>
+    <t>Over:</t>
   </si>
 </sst>
 </file>
@@ -745,7 +847,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -786,9 +888,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -807,6 +906,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1121,10 +1229,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BM164"/>
+  <dimension ref="A1:BM254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="C153" sqref="C153"/>
+    <sheetView tabSelected="1" topLeftCell="O58" workbookViewId="0">
+      <selection activeCell="W77" sqref="W77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1144,8 +1252,10 @@
     <col min="17" max="17" width="10" customWidth="1"/>
     <col min="18" max="18" width="17.140625" customWidth="1"/>
     <col min="19" max="19" width="20" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" customWidth="1"/>
+    <col min="23" max="23" width="10.85546875" customWidth="1"/>
+    <col min="24" max="24" width="17.7109375" customWidth="1"/>
     <col min="25" max="25" width="17.85546875" customWidth="1"/>
+    <col min="28" max="28" width="21" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="14.42578125" customWidth="1"/>
     <col min="30" max="30" width="17.42578125" customWidth="1"/>
     <col min="35" max="35" width="16.42578125" customWidth="1"/>
@@ -5080,7 +5190,7 @@
       <c r="T64" s="7"/>
       <c r="U64" s="8"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -5103,7 +5213,7 @@
       <c r="T65" s="7"/>
       <c r="U65" s="8"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>2</v>
       </c>
@@ -5146,7 +5256,7 @@
       <c r="T66" s="7"/>
       <c r="U66" s="8"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <f>B61</f>
         <v>18322</v>
@@ -5199,7 +5309,7 @@
       <c r="T67" s="7"/>
       <c r="U67" s="8"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <f>B62</f>
         <v>4357</v>
@@ -5252,7 +5362,7 @@
       <c r="T68" s="7"/>
       <c r="U68" s="8"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <f>C61</f>
         <v>5950</v>
@@ -5305,7 +5415,7 @@
       <c r="T69" s="7"/>
       <c r="U69" s="8"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <f>C62</f>
         <v>1704</v>
@@ -5362,7 +5472,7 @@
       <c r="T70" s="7"/>
       <c r="U70" s="8"/>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -5401,7 +5511,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -5450,7 +5560,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -5473,7 +5583,7 @@
       <c r="T73" s="7"/>
       <c r="U73" s="8"/>
     </row>
-    <row r="74" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="14"/>
       <c r="B74" s="15" t="str">
         <f>IF(E72&gt;=G72,IF(E72&gt;H72,IF(E72&gt;I72,IF(E72&gt;J72,"ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 99.9%","ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 99%"),"ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 95%"),"ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 90%"),"REJECT THE HYPOTHESIS")</f>
@@ -5502,8 +5612,8 @@
       <c r="T74" s="16"/>
       <c r="U74" s="17"/>
     </row>
-    <row r="75" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>123</v>
       </c>
@@ -5529,8 +5639,20 @@
       <c r="S76" s="3"/>
       <c r="T76" s="3"/>
       <c r="U76" s="4"/>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W76" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="X76" s="2"/>
+      <c r="Y76" s="2"/>
+      <c r="Z76" s="2"/>
+      <c r="AA76" s="3"/>
+      <c r="AB76" s="3"/>
+      <c r="AC76" s="3"/>
+      <c r="AD76" s="3"/>
+      <c r="AE76" s="3"/>
+      <c r="AF76" s="4"/>
+    </row>
+    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -5552,8 +5674,18 @@
       <c r="S77" s="7"/>
       <c r="T77" s="7"/>
       <c r="U77" s="8"/>
-    </row>
-    <row r="78" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="W77" s="5"/>
+      <c r="X77" s="6"/>
+      <c r="Y77" s="6"/>
+      <c r="Z77" s="6"/>
+      <c r="AA77" s="7"/>
+      <c r="AB77" s="7"/>
+      <c r="AC77" s="7"/>
+      <c r="AD77" s="7"/>
+      <c r="AE77" s="7"/>
+      <c r="AF77" s="8"/>
+    </row>
+    <row r="78" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>0</v>
       </c>
@@ -5603,8 +5735,24 @@
       </c>
       <c r="T78" s="7"/>
       <c r="U78" s="8"/>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W78" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="X78" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y78" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z78" s="6"/>
+      <c r="AA78" s="7"/>
+      <c r="AB78" s="6"/>
+      <c r="AC78" s="21"/>
+      <c r="AD78" s="21"/>
+      <c r="AE78" s="7"/>
+      <c r="AF78" s="8"/>
+    </row>
+    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>37</v>
       </c>
@@ -5668,8 +5816,25 @@
         <v>2131.223</v>
       </c>
       <c r="U79" s="8"/>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W79" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="X79" s="24">
+        <v>2079.2640000000001</v>
+      </c>
+      <c r="Y79" s="24">
+        <v>51.959000000000003</v>
+      </c>
+      <c r="Z79" s="6">
+        <f>SUM(X79+Y79)</f>
+        <v>2131.223</v>
+      </c>
+      <c r="AA79" s="7"/>
+      <c r="AD79" s="10"/>
+      <c r="AE79" s="7"/>
+      <c r="AF79" s="8"/>
+    </row>
+    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="str">
         <f>CONCATENATE("not ",A79)</f>
         <v>not male</v>
@@ -5735,8 +5900,26 @@
         <v>492.51300000000015</v>
       </c>
       <c r="U80" s="8"/>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W80" s="5" t="str">
+        <f>CONCATENATE("not ",W79)</f>
+        <v>not male</v>
+      </c>
+      <c r="X80" s="25">
+        <v>487.51600000000002</v>
+      </c>
+      <c r="Y80" s="25">
+        <v>4.9969999999999999</v>
+      </c>
+      <c r="Z80" s="6">
+        <f>SUM(X80+Y80)</f>
+        <v>492.51300000000003</v>
+      </c>
+      <c r="AA80" s="7"/>
+      <c r="AD80" s="6"/>
+      <c r="AE80" s="6"/>
+      <c r="AF80" s="8"/>
+    </row>
+    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
       <c r="B81" s="6">
         <f>(B79+B80)</f>
@@ -5794,8 +5977,25 @@
         <v>2623.7360000000003</v>
       </c>
       <c r="U81" s="8"/>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W81" s="5"/>
+      <c r="X81" s="6">
+        <f>(X79+X80)</f>
+        <v>2566.7800000000002</v>
+      </c>
+      <c r="Y81" s="6">
+        <f>(Y79+Y80)</f>
+        <v>56.956000000000003</v>
+      </c>
+      <c r="Z81" s="6">
+        <f>IF(SUM(Z79:Z80)&lt;&gt;SUM(X81:Y81),"PROBLEM",SUM(Z79:Z80))</f>
+        <v>2623.7359999999999</v>
+      </c>
+      <c r="AA81" s="7"/>
+      <c r="AD81" s="6"/>
+      <c r="AE81" s="7"/>
+      <c r="AF81" s="8"/>
+    </row>
+    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -5817,8 +6017,16 @@
       <c r="S82" s="7"/>
       <c r="T82" s="7"/>
       <c r="U82" s="8"/>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W82" s="5"/>
+      <c r="X82" s="6"/>
+      <c r="Y82" s="6"/>
+      <c r="Z82" s="6"/>
+      <c r="AA82" s="7"/>
+      <c r="AD82" s="7"/>
+      <c r="AE82" s="7"/>
+      <c r="AF82" s="8"/>
+    </row>
+    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -5840,8 +6048,22 @@
       <c r="S83" s="7"/>
       <c r="T83" s="7"/>
       <c r="U83" s="8"/>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W83" s="5"/>
+      <c r="X83" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y83" s="43"/>
+      <c r="Z83" s="6"/>
+      <c r="AA83" s="7"/>
+      <c r="AB83" s="43" t="s">
+        <v>216</v>
+      </c>
+      <c r="AC83" s="43"/>
+      <c r="AD83" s="7"/>
+      <c r="AE83" s="7"/>
+      <c r="AF83" s="8"/>
+    </row>
+    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>2</v>
       </c>
@@ -5883,8 +6105,28 @@
       <c r="S84" s="7"/>
       <c r="T84" s="7"/>
       <c r="U84" s="8"/>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W84" s="5"/>
+      <c r="X84" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y84" s="6">
+        <f>X79+Y79</f>
+        <v>2131.223</v>
+      </c>
+      <c r="Z84" s="6"/>
+      <c r="AA84" s="6"/>
+      <c r="AB84" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="AC84" s="6">
+        <f>X79+X80</f>
+        <v>2566.7800000000002</v>
+      </c>
+      <c r="AD84" s="7"/>
+      <c r="AE84" s="7"/>
+      <c r="AF84" s="8"/>
+    </row>
+    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <f>B79</f>
         <v>618259</v>
@@ -5936,8 +6178,28 @@
       <c r="S85" s="7"/>
       <c r="T85" s="7"/>
       <c r="U85" s="8"/>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W85" s="5"/>
+      <c r="X85" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y85" s="6">
+        <f>Z79</f>
+        <v>2131.223</v>
+      </c>
+      <c r="Z85" s="6"/>
+      <c r="AA85" s="7"/>
+      <c r="AB85" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC85" s="44">
+        <f>X81</f>
+        <v>2566.7800000000002</v>
+      </c>
+      <c r="AD85" s="7"/>
+      <c r="AE85" s="7"/>
+      <c r="AF85" s="8"/>
+    </row>
+    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <f>B80</f>
         <v>135474</v>
@@ -5989,8 +6251,28 @@
       <c r="S86" s="7"/>
       <c r="T86" s="7"/>
       <c r="U86" s="8"/>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W86" s="5"/>
+      <c r="X86" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y86" s="6">
+        <f>Y84-Y85</f>
+        <v>0</v>
+      </c>
+      <c r="Z86" s="6"/>
+      <c r="AA86" s="7"/>
+      <c r="AB86" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC86" s="6">
+        <f>Z81-X81</f>
+        <v>56.955999999999676</v>
+      </c>
+      <c r="AD86" s="7"/>
+      <c r="AE86" s="7"/>
+      <c r="AF86" s="8"/>
+    </row>
+    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <f>C79</f>
         <v>18322</v>
@@ -6042,8 +6324,23 @@
       <c r="S87" s="7"/>
       <c r="T87" s="7"/>
       <c r="U87" s="8"/>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W87" s="5"/>
+      <c r="X87" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y87" s="6">
+        <f>Z81-Y85</f>
+        <v>492.51299999999992</v>
+      </c>
+      <c r="Z87" s="6"/>
+      <c r="AA87" s="7"/>
+      <c r="AB87" s="7"/>
+      <c r="AC87" s="7"/>
+      <c r="AD87" s="7"/>
+      <c r="AE87" s="7"/>
+      <c r="AF87" s="8"/>
+    </row>
+    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <f>C80</f>
         <v>4357</v>
@@ -6099,8 +6396,28 @@
       <c r="S88" s="7"/>
       <c r="T88" s="7"/>
       <c r="U88" s="8"/>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W88" s="5"/>
+      <c r="X88" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y88" s="7">
+        <f>Y86/Y87</f>
+        <v>0</v>
+      </c>
+      <c r="Z88" s="6"/>
+      <c r="AA88" s="7"/>
+      <c r="AB88" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="AC88" s="7">
+        <f>(AC84-AC85)/AC86</f>
+        <v>0</v>
+      </c>
+      <c r="AD88" s="7"/>
+      <c r="AE88" s="7"/>
+      <c r="AF88" s="8"/>
+    </row>
+    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
@@ -6138,8 +6455,17 @@
       <c r="U89" s="13">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W89" s="5"/>
+      <c r="X89" s="6"/>
+      <c r="Y89" s="6"/>
+      <c r="Z89" s="6"/>
+      <c r="AA89" s="7"/>
+      <c r="AB89" s="7"/>
+      <c r="AD89" s="12"/>
+      <c r="AE89" s="12"/>
+      <c r="AF89" s="13"/>
+    </row>
+    <row r="90" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
@@ -6187,8 +6513,26 @@
       <c r="U90" s="8">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W90" s="5"/>
+      <c r="X90" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y90" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z90" s="6"/>
+      <c r="AA90" s="7"/>
+      <c r="AB90" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="AC90" t="s">
+        <v>217</v>
+      </c>
+      <c r="AD90" s="7"/>
+      <c r="AE90" s="7"/>
+      <c r="AF90" s="8"/>
+    </row>
+    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -6210,8 +6554,17 @@
       <c r="S91" s="7"/>
       <c r="T91" s="7"/>
       <c r="U91" s="8"/>
-    </row>
-    <row r="92" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W91" s="5"/>
+      <c r="X91" s="6"/>
+      <c r="Y91" s="6"/>
+      <c r="Z91" s="6"/>
+      <c r="AA91" s="7"/>
+      <c r="AB91" s="7"/>
+      <c r="AD91" s="7"/>
+      <c r="AE91" s="7"/>
+      <c r="AF91" s="8"/>
+    </row>
+    <row r="92" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="14"/>
       <c r="B92" s="15" t="str">
         <f>IF(E90&gt;=G90,IF(E90&gt;H90,IF(E90&gt;I90,IF(E90&gt;J90,"ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 99.9%","ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 99%"),"ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 95%"),"ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 90%"),"REJECT THE HYPOTHESIS")</f>
@@ -6239,9 +6592,19 @@
       <c r="S92" s="16"/>
       <c r="T92" s="16"/>
       <c r="U92" s="17"/>
-    </row>
-    <row r="93" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W92" s="14"/>
+      <c r="X92" s="15"/>
+      <c r="Y92" s="15"/>
+      <c r="Z92" s="15"/>
+      <c r="AA92" s="16"/>
+      <c r="AB92" s="16"/>
+      <c r="AC92" s="16"/>
+      <c r="AD92" s="16"/>
+      <c r="AE92" s="16"/>
+      <c r="AF92" s="17"/>
+    </row>
+    <row r="93" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>132</v>
       </c>
@@ -6268,7 +6631,7 @@
       <c r="T94" s="3"/>
       <c r="U94" s="4"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A95" s="31" t="s">
         <v>133</v>
       </c>
@@ -6293,7 +6656,7 @@
       <c r="T95" s="7"/>
       <c r="U95" s="8"/>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>0</v>
       </c>
@@ -9173,7 +9536,3691 @@
       <c r="T164" s="16"/>
       <c r="U164" s="17"/>
     </row>
+    <row r="165" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B166" s="2"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="3"/>
+      <c r="F166" s="3"/>
+      <c r="G166" s="3"/>
+      <c r="H166" s="3"/>
+      <c r="I166" s="3"/>
+      <c r="J166" s="4"/>
+      <c r="K166" s="26"/>
+      <c r="L166" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M166" s="2"/>
+      <c r="N166" s="2"/>
+      <c r="O166" s="2"/>
+      <c r="P166" s="3"/>
+      <c r="Q166" s="3"/>
+      <c r="R166" s="3"/>
+      <c r="S166" s="3"/>
+      <c r="T166" s="3"/>
+      <c r="U166" s="4"/>
+    </row>
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A167" s="31"/>
+      <c r="B167" s="6"/>
+      <c r="C167" s="6"/>
+      <c r="D167" s="6"/>
+      <c r="E167" s="7"/>
+      <c r="F167" s="7"/>
+      <c r="G167" s="7"/>
+      <c r="H167" s="7"/>
+      <c r="I167" s="7"/>
+      <c r="J167" s="8"/>
+      <c r="K167" s="26"/>
+      <c r="L167" s="5"/>
+      <c r="M167" s="6"/>
+      <c r="N167" s="6"/>
+      <c r="O167" s="6"/>
+      <c r="P167" s="7"/>
+      <c r="Q167" s="7"/>
+      <c r="R167" s="7"/>
+      <c r="S167" s="7"/>
+      <c r="T167" s="7"/>
+      <c r="U167" s="8"/>
+    </row>
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A168" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B168" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="C168" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="D168" s="6"/>
+      <c r="E168" s="7"/>
+      <c r="F168" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G168" s="21" t="str">
+        <f>B168</f>
+        <v>death</v>
+      </c>
+      <c r="H168" s="21" t="str">
+        <f>C168</f>
+        <v>not death</v>
+      </c>
+      <c r="I168" s="7"/>
+      <c r="J168" s="8"/>
+      <c r="K168" s="26"/>
+      <c r="L168" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M168" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="N168" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="O168" s="6"/>
+      <c r="P168" s="7"/>
+      <c r="Q168" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="R168" s="21" t="str">
+        <f>M168</f>
+        <v>death</v>
+      </c>
+      <c r="S168" s="21" t="str">
+        <f>N168</f>
+        <v>not death</v>
+      </c>
+      <c r="T168" s="7"/>
+      <c r="U168" s="8"/>
+    </row>
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A169" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B169" s="24">
+        <v>143300</v>
+      </c>
+      <c r="C169" s="24">
+        <v>226969</v>
+      </c>
+      <c r="D169" s="6">
+        <f>SUM(B169+C169)</f>
+        <v>370269</v>
+      </c>
+      <c r="E169" s="7"/>
+      <c r="F169" s="6" t="str">
+        <f>A169</f>
+        <v>male</v>
+      </c>
+      <c r="G169" s="6">
+        <f>(D169*B171)/D171</f>
+        <v>138369.80882218998</v>
+      </c>
+      <c r="H169" s="10">
+        <f>(D169*C171)/D171</f>
+        <v>231899.19117781002</v>
+      </c>
+      <c r="I169" s="6">
+        <f>SUM(G169:H169)</f>
+        <v>370269</v>
+      </c>
+      <c r="J169" s="8"/>
+      <c r="K169" s="26"/>
+      <c r="L169" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M169" s="24">
+        <v>942</v>
+      </c>
+      <c r="N169" s="24">
+        <v>803</v>
+      </c>
+      <c r="O169" s="6">
+        <f>SUM(M169+N169)</f>
+        <v>1745</v>
+      </c>
+      <c r="P169" s="7"/>
+      <c r="Q169" s="6" t="str">
+        <f>L169</f>
+        <v>male</v>
+      </c>
+      <c r="R169" s="7">
+        <f>(O169*M171)/O171</f>
+        <v>939.05433646812958</v>
+      </c>
+      <c r="S169" s="10">
+        <f>(O169*N171)/O171</f>
+        <v>805.94566353187042</v>
+      </c>
+      <c r="T169" s="7">
+        <f>SUM(R169:S169)</f>
+        <v>1745</v>
+      </c>
+      <c r="U169" s="8"/>
+    </row>
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A170" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B170" s="25">
+        <v>33126</v>
+      </c>
+      <c r="C170" s="25">
+        <v>68710</v>
+      </c>
+      <c r="D170" s="6">
+        <f>SUM(B170+C170)</f>
+        <v>101836</v>
+      </c>
+      <c r="E170" s="7"/>
+      <c r="F170" s="6" t="str">
+        <f>A170</f>
+        <v>not male</v>
+      </c>
+      <c r="G170" s="6">
+        <f>(D170*B171)/D171</f>
+        <v>38056.191177810018</v>
+      </c>
+      <c r="H170" s="6">
+        <f>(D170*C171)/D171</f>
+        <v>63779.808822189982</v>
+      </c>
+      <c r="I170" s="6">
+        <f>SUM(G170:H170)</f>
+        <v>101836</v>
+      </c>
+      <c r="J170" s="8"/>
+      <c r="K170" s="26"/>
+      <c r="L170" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="M170" s="25">
+        <v>88</v>
+      </c>
+      <c r="N170" s="25">
+        <v>81</v>
+      </c>
+      <c r="O170" s="6">
+        <f>SUM(M170+N170)</f>
+        <v>169</v>
+      </c>
+      <c r="P170" s="7"/>
+      <c r="Q170" s="6" t="str">
+        <f>L170</f>
+        <v>not male</v>
+      </c>
+      <c r="R170" s="6">
+        <f>(O170*M171)/O171</f>
+        <v>90.945663531870423</v>
+      </c>
+      <c r="S170" s="6">
+        <f>(O170*N171)/O171</f>
+        <v>78.054336468129577</v>
+      </c>
+      <c r="T170" s="6">
+        <f>SUM(R170:S170)</f>
+        <v>169</v>
+      </c>
+      <c r="U170" s="8"/>
+    </row>
+    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A171" s="5"/>
+      <c r="B171" s="6">
+        <f>(B169+B170)</f>
+        <v>176426</v>
+      </c>
+      <c r="C171" s="6">
+        <f>(C169+C170)</f>
+        <v>295679</v>
+      </c>
+      <c r="D171" s="6">
+        <f>IF(SUM(D169:D170)&lt;&gt;SUM(B171:C171),"PROBLEM",SUM(D169:D170))</f>
+        <v>472105</v>
+      </c>
+      <c r="E171" s="7"/>
+      <c r="F171" s="7"/>
+      <c r="G171" s="6">
+        <f>SUM(G169:G170)</f>
+        <v>176426</v>
+      </c>
+      <c r="H171" s="6">
+        <f>SUM(H169:H170)</f>
+        <v>295679</v>
+      </c>
+      <c r="I171" s="6">
+        <f>SUM(G171:H171)</f>
+        <v>472105</v>
+      </c>
+      <c r="J171" s="8"/>
+      <c r="K171" s="26"/>
+      <c r="L171" s="5"/>
+      <c r="M171" s="6">
+        <f>(M169+M170)</f>
+        <v>1030</v>
+      </c>
+      <c r="N171" s="6">
+        <f>(N169+N170)</f>
+        <v>884</v>
+      </c>
+      <c r="O171" s="6">
+        <f>IF(SUM(O169:O170)&lt;&gt;SUM(M171:N171),"PROBLEM",SUM(O169:O170))</f>
+        <v>1914</v>
+      </c>
+      <c r="P171" s="7"/>
+      <c r="Q171" s="7"/>
+      <c r="R171" s="7">
+        <f>SUM(R169:R170)</f>
+        <v>1030</v>
+      </c>
+      <c r="S171" s="6">
+        <f>SUM(S169:S170)</f>
+        <v>884</v>
+      </c>
+      <c r="T171" s="7">
+        <f>SUM(R171:S171)</f>
+        <v>1914</v>
+      </c>
+      <c r="U171" s="8"/>
+    </row>
+    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A172" s="5"/>
+      <c r="B172" s="6"/>
+      <c r="C172" s="6"/>
+      <c r="D172" s="6"/>
+      <c r="E172" s="7"/>
+      <c r="F172" s="7"/>
+      <c r="G172" s="7"/>
+      <c r="H172" s="7"/>
+      <c r="I172" s="7"/>
+      <c r="J172" s="8"/>
+      <c r="K172" s="26"/>
+      <c r="L172" s="5"/>
+      <c r="M172" s="6"/>
+      <c r="N172" s="6"/>
+      <c r="O172" s="6"/>
+      <c r="P172" s="7"/>
+      <c r="Q172" s="7"/>
+      <c r="R172" s="7"/>
+      <c r="S172" s="7"/>
+      <c r="T172" s="7"/>
+      <c r="U172" s="8"/>
+    </row>
+    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A173" s="5"/>
+      <c r="B173" s="6"/>
+      <c r="C173" s="6"/>
+      <c r="D173" s="6"/>
+      <c r="E173" s="7"/>
+      <c r="F173" s="7"/>
+      <c r="G173" s="7"/>
+      <c r="H173" s="7"/>
+      <c r="I173" s="7"/>
+      <c r="J173" s="8"/>
+      <c r="K173" s="26"/>
+      <c r="L173" s="5"/>
+      <c r="M173" s="6"/>
+      <c r="N173" s="6"/>
+      <c r="O173" s="6"/>
+      <c r="P173" s="7"/>
+      <c r="Q173" s="7"/>
+      <c r="R173" s="7"/>
+      <c r="S173" s="7"/>
+      <c r="T173" s="7"/>
+      <c r="U173" s="8"/>
+    </row>
+    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A174" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E174" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F174" s="7"/>
+      <c r="G174" s="7"/>
+      <c r="H174" s="7"/>
+      <c r="I174" s="7"/>
+      <c r="J174" s="8"/>
+      <c r="K174" s="26"/>
+      <c r="L174" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M174" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N174" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O174" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P174" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q174" s="7"/>
+      <c r="R174" s="7"/>
+      <c r="S174" s="7"/>
+      <c r="T174" s="7"/>
+      <c r="U174" s="8"/>
+    </row>
+    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A175" s="5">
+        <f>B169</f>
+        <v>143300</v>
+      </c>
+      <c r="B175" s="6">
+        <f>G169</f>
+        <v>138369.80882218998</v>
+      </c>
+      <c r="C175" s="6">
+        <f>A175-B175</f>
+        <v>4930.1911778100184</v>
+      </c>
+      <c r="D175" s="6">
+        <f>C175*C175</f>
+        <v>24306785.049755737</v>
+      </c>
+      <c r="E175" s="22">
+        <f>D175/B175</f>
+        <v>175.66538001791127</v>
+      </c>
+      <c r="F175" s="7"/>
+      <c r="G175" s="7"/>
+      <c r="H175" s="7"/>
+      <c r="I175" s="7"/>
+      <c r="J175" s="8"/>
+      <c r="K175" s="26"/>
+      <c r="L175" s="5">
+        <f>M169</f>
+        <v>942</v>
+      </c>
+      <c r="M175" s="6">
+        <f>R169</f>
+        <v>939.05433646812958</v>
+      </c>
+      <c r="N175" s="6">
+        <f>L175-M175</f>
+        <v>2.945663531870423</v>
+      </c>
+      <c r="O175" s="6">
+        <f>N175*N175</f>
+        <v>8.6769336429913348</v>
+      </c>
+      <c r="P175" s="7">
+        <f>O175/M175</f>
+        <v>9.2400762192591402E-3</v>
+      </c>
+      <c r="Q175" s="7"/>
+      <c r="R175" s="7"/>
+      <c r="S175" s="7"/>
+      <c r="T175" s="7"/>
+      <c r="U175" s="8"/>
+    </row>
+    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A176" s="5">
+        <f>B170</f>
+        <v>33126</v>
+      </c>
+      <c r="B176" s="6">
+        <f>G170</f>
+        <v>38056.191177810018</v>
+      </c>
+      <c r="C176" s="6">
+        <f t="shared" ref="C176:C178" si="66">A176-B176</f>
+        <v>-4930.1911778100184</v>
+      </c>
+      <c r="D176" s="6">
+        <f t="shared" ref="D176:D178" si="67">C176*C176</f>
+        <v>24306785.049755737</v>
+      </c>
+      <c r="E176" s="22">
+        <f t="shared" ref="E176:E178" si="68">D176/B176</f>
+        <v>638.70777125821905</v>
+      </c>
+      <c r="F176" s="7"/>
+      <c r="G176" s="7"/>
+      <c r="H176" s="7"/>
+      <c r="I176" s="7"/>
+      <c r="J176" s="8"/>
+      <c r="K176" s="26"/>
+      <c r="L176" s="5">
+        <f>M170</f>
+        <v>88</v>
+      </c>
+      <c r="M176" s="6">
+        <f>R170</f>
+        <v>90.945663531870423</v>
+      </c>
+      <c r="N176" s="6">
+        <f t="shared" ref="N176:N178" si="69">L176-M176</f>
+        <v>-2.945663531870423</v>
+      </c>
+      <c r="O176" s="6">
+        <f t="shared" ref="O176:O178" si="70">N176*N176</f>
+        <v>8.6769336429913348</v>
+      </c>
+      <c r="P176" s="7">
+        <f t="shared" ref="P176:P178" si="71">O176/M176</f>
+        <v>9.5407887589391713E-2</v>
+      </c>
+      <c r="Q176" s="7"/>
+      <c r="R176" s="7"/>
+      <c r="S176" s="7"/>
+      <c r="T176" s="7"/>
+      <c r="U176" s="8"/>
+    </row>
+    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A177" s="5">
+        <f>C169</f>
+        <v>226969</v>
+      </c>
+      <c r="B177" s="6">
+        <f>H169</f>
+        <v>231899.19117781002</v>
+      </c>
+      <c r="C177" s="6">
+        <f t="shared" si="66"/>
+        <v>-4930.1911778100184</v>
+      </c>
+      <c r="D177" s="6">
+        <f t="shared" si="67"/>
+        <v>24306785.049755737</v>
+      </c>
+      <c r="E177" s="22">
+        <f t="shared" si="68"/>
+        <v>104.81617001897334</v>
+      </c>
+      <c r="F177" s="7"/>
+      <c r="G177" s="7"/>
+      <c r="H177" s="7"/>
+      <c r="I177" s="7"/>
+      <c r="J177" s="8"/>
+      <c r="K177" s="26"/>
+      <c r="L177" s="5">
+        <f>N169</f>
+        <v>803</v>
+      </c>
+      <c r="M177" s="6">
+        <f>S169</f>
+        <v>805.94566353187042</v>
+      </c>
+      <c r="N177" s="6">
+        <f t="shared" si="69"/>
+        <v>-2.945663531870423</v>
+      </c>
+      <c r="O177" s="6">
+        <f t="shared" si="70"/>
+        <v>8.6769336429913348</v>
+      </c>
+      <c r="P177" s="7">
+        <f t="shared" si="71"/>
+        <v>1.0766152155924111E-2</v>
+      </c>
+      <c r="Q177" s="7"/>
+      <c r="R177" s="7"/>
+      <c r="S177" s="7"/>
+      <c r="T177" s="7"/>
+      <c r="U177" s="8"/>
+    </row>
+    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A178" s="5">
+        <f>C170</f>
+        <v>68710</v>
+      </c>
+      <c r="B178" s="6">
+        <f>H170</f>
+        <v>63779.808822189982</v>
+      </c>
+      <c r="C178" s="6">
+        <f t="shared" si="66"/>
+        <v>4930.1911778100184</v>
+      </c>
+      <c r="D178" s="6">
+        <f t="shared" si="67"/>
+        <v>24306785.049755737</v>
+      </c>
+      <c r="E178" s="22">
+        <f t="shared" si="68"/>
+        <v>381.10470223452648</v>
+      </c>
+      <c r="F178" s="7"/>
+      <c r="G178" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H178" s="7"/>
+      <c r="I178" s="7"/>
+      <c r="J178" s="8"/>
+      <c r="K178" s="26"/>
+      <c r="L178" s="5">
+        <f>N170</f>
+        <v>81</v>
+      </c>
+      <c r="M178" s="6">
+        <f>S170</f>
+        <v>78.054336468129577</v>
+      </c>
+      <c r="N178" s="6">
+        <f t="shared" si="69"/>
+        <v>2.945663531870423</v>
+      </c>
+      <c r="O178" s="6">
+        <f t="shared" si="70"/>
+        <v>8.6769336429913348</v>
+      </c>
+      <c r="P178" s="7">
+        <f t="shared" si="71"/>
+        <v>0.11116529888809214</v>
+      </c>
+      <c r="Q178" s="7"/>
+      <c r="R178" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="S178" s="7"/>
+      <c r="T178" s="7"/>
+      <c r="U178" s="8"/>
+    </row>
+    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A179" s="5"/>
+      <c r="B179" s="6"/>
+      <c r="C179" s="6"/>
+      <c r="D179" s="6"/>
+      <c r="E179" s="7"/>
+      <c r="F179" s="7"/>
+      <c r="G179" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H179" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="I179" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="J179" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="K179" s="26"/>
+      <c r="L179" s="5"/>
+      <c r="M179" s="6"/>
+      <c r="N179" s="6"/>
+      <c r="O179" s="6"/>
+      <c r="P179" s="7"/>
+      <c r="Q179" s="7"/>
+      <c r="R179" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="S179" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="T179" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="U179" s="13">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A180" s="5"/>
+      <c r="B180" s="6"/>
+      <c r="C180" s="6"/>
+      <c r="D180" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E180" s="22">
+        <f>SUM(E175:E178)</f>
+        <v>1300.2940235296301</v>
+      </c>
+      <c r="F180" s="7"/>
+      <c r="G180" s="7">
+        <v>2.71</v>
+      </c>
+      <c r="H180" s="7">
+        <v>3.84</v>
+      </c>
+      <c r="I180" s="7">
+        <v>6.63</v>
+      </c>
+      <c r="J180" s="8">
+        <v>10.8</v>
+      </c>
+      <c r="K180" s="26"/>
+      <c r="L180" s="5"/>
+      <c r="M180" s="6"/>
+      <c r="N180" s="6"/>
+      <c r="O180" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P180" s="7">
+        <f>SUM(P175:P178)</f>
+        <v>0.22657941485266708</v>
+      </c>
+      <c r="Q180" s="7"/>
+      <c r="R180" s="7">
+        <v>2.71</v>
+      </c>
+      <c r="S180" s="7">
+        <v>3.84</v>
+      </c>
+      <c r="T180" s="7">
+        <v>6.63</v>
+      </c>
+      <c r="U180" s="8">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A181" s="5"/>
+      <c r="B181" s="6"/>
+      <c r="C181" s="6"/>
+      <c r="D181" s="6"/>
+      <c r="E181" s="7"/>
+      <c r="F181" s="7"/>
+      <c r="G181" s="7"/>
+      <c r="H181" s="7"/>
+      <c r="I181" s="7"/>
+      <c r="J181" s="8"/>
+      <c r="K181" s="26"/>
+      <c r="L181" s="5"/>
+      <c r="M181" s="6"/>
+      <c r="N181" s="6"/>
+      <c r="O181" s="6"/>
+      <c r="P181" s="7"/>
+      <c r="Q181" s="7"/>
+      <c r="R181" s="7"/>
+      <c r="S181" s="7"/>
+      <c r="T181" s="7"/>
+      <c r="U181" s="8"/>
+    </row>
+    <row r="182" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="14"/>
+      <c r="B182" s="15" t="str">
+        <f>IF(E180&gt;=G180,IF(E180&gt;H180,IF(E180&gt;I180,IF(E180&gt;J180,"ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 99.9%","ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 99%"),"ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 95%"),"ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 90%"),"REJECT THE HYPOTHESIS")</f>
+        <v>ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 99.9%</v>
+      </c>
+      <c r="C182" s="15"/>
+      <c r="D182" s="15"/>
+      <c r="E182" s="16"/>
+      <c r="F182" s="16"/>
+      <c r="G182" s="16"/>
+      <c r="H182" s="16"/>
+      <c r="I182" s="16"/>
+      <c r="J182" s="17"/>
+      <c r="K182" s="26"/>
+      <c r="L182" s="14"/>
+      <c r="M182" s="15" t="str">
+        <f>IF(P180&gt;=R180,IF(P180&gt;S180,IF(P180&gt;T180,IF(P180&gt;U180,"ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 99.9%","ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 99%"),"ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 95%"),"ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 90%"),"REJECT THE HYPOTHESIS")</f>
+        <v>REJECT THE HYPOTHESIS</v>
+      </c>
+      <c r="N182" s="15"/>
+      <c r="O182" s="15"/>
+      <c r="P182" s="16"/>
+      <c r="Q182" s="16"/>
+      <c r="R182" s="16"/>
+      <c r="S182" s="16"/>
+      <c r="T182" s="16"/>
+      <c r="U182" s="17"/>
+    </row>
+    <row r="183" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
+      <c r="D184" s="2"/>
+      <c r="E184" s="3"/>
+      <c r="F184" s="3"/>
+      <c r="G184" s="3"/>
+      <c r="H184" s="3"/>
+      <c r="I184" s="3"/>
+      <c r="J184" s="4"/>
+      <c r="K184" s="26"/>
+      <c r="L184" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="M184" s="2"/>
+      <c r="N184" s="2"/>
+      <c r="O184" s="2"/>
+      <c r="P184" s="3"/>
+      <c r="Q184" s="3"/>
+      <c r="R184" s="3"/>
+      <c r="S184" s="3"/>
+      <c r="T184" s="3"/>
+      <c r="U184" s="4"/>
+    </row>
+    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A185" s="31"/>
+      <c r="B185" s="6"/>
+      <c r="C185" s="6"/>
+      <c r="D185" s="6"/>
+      <c r="E185" s="7"/>
+      <c r="F185" s="7"/>
+      <c r="G185" s="7"/>
+      <c r="H185" s="7"/>
+      <c r="I185" s="7"/>
+      <c r="J185" s="8"/>
+      <c r="K185" s="26"/>
+      <c r="L185" s="5"/>
+      <c r="M185" s="6"/>
+      <c r="N185" s="6"/>
+      <c r="O185" s="6"/>
+      <c r="P185" s="7"/>
+      <c r="Q185" s="7"/>
+      <c r="R185" s="7"/>
+      <c r="S185" s="7"/>
+      <c r="T185" s="7"/>
+      <c r="U185" s="8"/>
+    </row>
+    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A186" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B186" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="C186" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="D186" s="6"/>
+      <c r="E186" s="7"/>
+      <c r="F186" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G186" s="21" t="str">
+        <f>B186</f>
+        <v>transportation</v>
+      </c>
+      <c r="H186" s="21" t="str">
+        <f>C186</f>
+        <v>not transportation</v>
+      </c>
+      <c r="I186" s="7"/>
+      <c r="J186" s="8"/>
+      <c r="K186" s="26"/>
+      <c r="L186" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M186" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="N186" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="O186" s="6"/>
+      <c r="P186" s="7"/>
+      <c r="Q186" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="R186" s="21" t="str">
+        <f>M186</f>
+        <v>transportation</v>
+      </c>
+      <c r="S186" s="21" t="str">
+        <f>N186</f>
+        <v>not transportation</v>
+      </c>
+      <c r="T186" s="7"/>
+      <c r="U186" s="8"/>
+    </row>
+    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A187" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B187" s="24">
+        <v>142528</v>
+      </c>
+      <c r="C187" s="24">
+        <v>227741</v>
+      </c>
+      <c r="D187" s="6">
+        <f>SUM(B187+C187)</f>
+        <v>370269</v>
+      </c>
+      <c r="E187" s="7"/>
+      <c r="F187" s="6" t="str">
+        <f>A187</f>
+        <v>male</v>
+      </c>
+      <c r="G187" s="6">
+        <f>(D187*B189)/D189</f>
+        <v>145840.20677391681</v>
+      </c>
+      <c r="H187" s="10">
+        <f>(D187*C189)/D189</f>
+        <v>224428.79322608319</v>
+      </c>
+      <c r="I187" s="6">
+        <f>SUM(G187:H187)</f>
+        <v>370269</v>
+      </c>
+      <c r="J187" s="8"/>
+      <c r="K187" s="26"/>
+      <c r="L187" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M187" s="24">
+        <v>383</v>
+      </c>
+      <c r="N187" s="24">
+        <v>1362</v>
+      </c>
+      <c r="O187" s="6">
+        <f>SUM(M187+N187)</f>
+        <v>1745</v>
+      </c>
+      <c r="P187" s="7"/>
+      <c r="Q187" s="6" t="str">
+        <f>L187</f>
+        <v>male</v>
+      </c>
+      <c r="R187" s="7">
+        <f>(O187*M189)/O189</f>
+        <v>385.65047021943576</v>
+      </c>
+      <c r="S187" s="10">
+        <f>(O187*N189)/O189</f>
+        <v>1359.3495297805644</v>
+      </c>
+      <c r="T187" s="7">
+        <f>SUM(R187:S187)</f>
+        <v>1745</v>
+      </c>
+      <c r="U187" s="8"/>
+    </row>
+    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A188" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B188" s="25">
+        <v>43423</v>
+      </c>
+      <c r="C188" s="25">
+        <v>58413</v>
+      </c>
+      <c r="D188" s="6">
+        <f>SUM(B188+C188)</f>
+        <v>101836</v>
+      </c>
+      <c r="E188" s="7"/>
+      <c r="F188" s="6" t="str">
+        <f>A188</f>
+        <v>not male</v>
+      </c>
+      <c r="G188" s="6">
+        <f>(D188*B189)/D189</f>
+        <v>40110.79322608318</v>
+      </c>
+      <c r="H188" s="6">
+        <f>(D188*C189)/D189</f>
+        <v>61725.20677391682</v>
+      </c>
+      <c r="I188" s="6">
+        <f>SUM(G188:H188)</f>
+        <v>101836</v>
+      </c>
+      <c r="J188" s="8"/>
+      <c r="K188" s="26"/>
+      <c r="L188" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="M188" s="25">
+        <v>40</v>
+      </c>
+      <c r="N188" s="25">
+        <v>129</v>
+      </c>
+      <c r="O188" s="6">
+        <f>SUM(M188+N188)</f>
+        <v>169</v>
+      </c>
+      <c r="P188" s="7"/>
+      <c r="Q188" s="6" t="str">
+        <f>L188</f>
+        <v>not male</v>
+      </c>
+      <c r="R188" s="6">
+        <f>(O188*M189)/O189</f>
+        <v>37.349529780564261</v>
+      </c>
+      <c r="S188" s="6">
+        <f>(O188*N189)/O189</f>
+        <v>131.65047021943573</v>
+      </c>
+      <c r="T188" s="6">
+        <f>SUM(R188:S188)</f>
+        <v>169</v>
+      </c>
+      <c r="U188" s="8"/>
+    </row>
+    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A189" s="5"/>
+      <c r="B189" s="6">
+        <f>(B187+B188)</f>
+        <v>185951</v>
+      </c>
+      <c r="C189" s="6">
+        <f>(C187+C188)</f>
+        <v>286154</v>
+      </c>
+      <c r="D189" s="6">
+        <f>IF(SUM(D187:D188)&lt;&gt;SUM(B189:C189),"PROBLEM",SUM(D187:D188))</f>
+        <v>472105</v>
+      </c>
+      <c r="E189" s="7"/>
+      <c r="F189" s="7"/>
+      <c r="G189" s="6">
+        <f>SUM(G187:G188)</f>
+        <v>185951</v>
+      </c>
+      <c r="H189" s="6">
+        <f>SUM(H187:H188)</f>
+        <v>286154</v>
+      </c>
+      <c r="I189" s="6">
+        <f>SUM(G189:H189)</f>
+        <v>472105</v>
+      </c>
+      <c r="J189" s="8"/>
+      <c r="K189" s="26"/>
+      <c r="L189" s="5"/>
+      <c r="M189" s="6">
+        <f>(M187+M188)</f>
+        <v>423</v>
+      </c>
+      <c r="N189" s="6">
+        <f>(N187+N188)</f>
+        <v>1491</v>
+      </c>
+      <c r="O189" s="6">
+        <f>IF(SUM(O187:O188)&lt;&gt;SUM(M189:N189),"PROBLEM",SUM(O187:O188))</f>
+        <v>1914</v>
+      </c>
+      <c r="P189" s="7"/>
+      <c r="Q189" s="7"/>
+      <c r="R189" s="7">
+        <f>SUM(R187:R188)</f>
+        <v>423</v>
+      </c>
+      <c r="S189" s="6">
+        <f>SUM(S187:S188)</f>
+        <v>1491</v>
+      </c>
+      <c r="T189" s="7">
+        <f>SUM(R189:S189)</f>
+        <v>1914</v>
+      </c>
+      <c r="U189" s="8"/>
+    </row>
+    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A190" s="5"/>
+      <c r="B190" s="6"/>
+      <c r="C190" s="6"/>
+      <c r="D190" s="6"/>
+      <c r="E190" s="7"/>
+      <c r="F190" s="7"/>
+      <c r="G190" s="7"/>
+      <c r="H190" s="7"/>
+      <c r="I190" s="7"/>
+      <c r="J190" s="8"/>
+      <c r="K190" s="26"/>
+      <c r="L190" s="5"/>
+      <c r="M190" s="6"/>
+      <c r="N190" s="6"/>
+      <c r="O190" s="6"/>
+      <c r="P190" s="7"/>
+      <c r="Q190" s="7"/>
+      <c r="R190" s="7"/>
+      <c r="S190" s="7"/>
+      <c r="T190" s="7"/>
+      <c r="U190" s="8"/>
+    </row>
+    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A191" s="5"/>
+      <c r="B191" s="6"/>
+      <c r="C191" s="6"/>
+      <c r="D191" s="6"/>
+      <c r="E191" s="7"/>
+      <c r="F191" s="7"/>
+      <c r="G191" s="7"/>
+      <c r="H191" s="7"/>
+      <c r="I191" s="7"/>
+      <c r="J191" s="8"/>
+      <c r="K191" s="26"/>
+      <c r="L191" s="5"/>
+      <c r="M191" s="6"/>
+      <c r="N191" s="6"/>
+      <c r="O191" s="6"/>
+      <c r="P191" s="7"/>
+      <c r="Q191" s="7"/>
+      <c r="R191" s="7"/>
+      <c r="S191" s="7"/>
+      <c r="T191" s="7"/>
+      <c r="U191" s="8"/>
+    </row>
+    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A192" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D192" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E192" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F192" s="7"/>
+      <c r="G192" s="7"/>
+      <c r="H192" s="7"/>
+      <c r="I192" s="7"/>
+      <c r="J192" s="8"/>
+      <c r="K192" s="26"/>
+      <c r="L192" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M192" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N192" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O192" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P192" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q192" s="7"/>
+      <c r="R192" s="7"/>
+      <c r="S192" s="7"/>
+      <c r="T192" s="7"/>
+      <c r="U192" s="8"/>
+    </row>
+    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A193" s="5">
+        <f>B187</f>
+        <v>142528</v>
+      </c>
+      <c r="B193" s="6">
+        <f>G187</f>
+        <v>145840.20677391681</v>
+      </c>
+      <c r="C193" s="6">
+        <f>A193-B193</f>
+        <v>-3312.2067739168124</v>
+      </c>
+      <c r="D193" s="6">
+        <f>C193*C193</f>
+        <v>10970713.713180417</v>
+      </c>
+      <c r="E193" s="22">
+        <f>D193/B193</f>
+        <v>75.22420569649455</v>
+      </c>
+      <c r="F193" s="7"/>
+      <c r="G193" s="7"/>
+      <c r="H193" s="7"/>
+      <c r="I193" s="7"/>
+      <c r="J193" s="8"/>
+      <c r="K193" s="26"/>
+      <c r="L193" s="5">
+        <f>M187</f>
+        <v>383</v>
+      </c>
+      <c r="M193" s="6">
+        <f>R187</f>
+        <v>385.65047021943576</v>
+      </c>
+      <c r="N193" s="6">
+        <f>L193-M193</f>
+        <v>-2.6504702194357606</v>
+      </c>
+      <c r="O193" s="6">
+        <f>N193*N193</f>
+        <v>7.0249923841158486</v>
+      </c>
+      <c r="P193" s="7">
+        <f>O193/M193</f>
+        <v>1.8215957004068001E-2</v>
+      </c>
+      <c r="Q193" s="7"/>
+      <c r="R193" s="7"/>
+      <c r="S193" s="7"/>
+      <c r="T193" s="7"/>
+      <c r="U193" s="8"/>
+    </row>
+    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A194" s="5">
+        <f>B188</f>
+        <v>43423</v>
+      </c>
+      <c r="B194" s="6">
+        <f>G188</f>
+        <v>40110.79322608318</v>
+      </c>
+      <c r="C194" s="6">
+        <f t="shared" ref="C194:C196" si="72">A194-B194</f>
+        <v>3312.2067739168197</v>
+      </c>
+      <c r="D194" s="6">
+        <f t="shared" ref="D194:D196" si="73">C194*C194</f>
+        <v>10970713.713180466</v>
+      </c>
+      <c r="E194" s="22">
+        <f t="shared" ref="E194:E196" si="74">D194/B194</f>
+        <v>273.51026571188447</v>
+      </c>
+      <c r="F194" s="7"/>
+      <c r="G194" s="7"/>
+      <c r="H194" s="7"/>
+      <c r="I194" s="7"/>
+      <c r="J194" s="8"/>
+      <c r="K194" s="26"/>
+      <c r="L194" s="5">
+        <f>M188</f>
+        <v>40</v>
+      </c>
+      <c r="M194" s="6">
+        <f>R188</f>
+        <v>37.349529780564261</v>
+      </c>
+      <c r="N194" s="6">
+        <f t="shared" ref="N194:N196" si="75">L194-M194</f>
+        <v>2.6504702194357392</v>
+      </c>
+      <c r="O194" s="6">
+        <f t="shared" ref="O194:O196" si="76">N194*N194</f>
+        <v>7.0249923841157358</v>
+      </c>
+      <c r="P194" s="7">
+        <f t="shared" ref="P194:P196" si="77">O194/M194</f>
+        <v>0.18808784007158671</v>
+      </c>
+      <c r="Q194" s="7"/>
+      <c r="R194" s="7"/>
+      <c r="S194" s="7"/>
+      <c r="T194" s="7"/>
+      <c r="U194" s="8"/>
+    </row>
+    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A195" s="5">
+        <f>C187</f>
+        <v>227741</v>
+      </c>
+      <c r="B195" s="6">
+        <f>H187</f>
+        <v>224428.79322608319</v>
+      </c>
+      <c r="C195" s="6">
+        <f t="shared" si="72"/>
+        <v>3312.2067739168124</v>
+      </c>
+      <c r="D195" s="6">
+        <f t="shared" si="73"/>
+        <v>10970713.713180417</v>
+      </c>
+      <c r="E195" s="22">
+        <f t="shared" si="74"/>
+        <v>48.882826287484562</v>
+      </c>
+      <c r="F195" s="7"/>
+      <c r="G195" s="7"/>
+      <c r="H195" s="7"/>
+      <c r="I195" s="7"/>
+      <c r="J195" s="8"/>
+      <c r="K195" s="26"/>
+      <c r="L195" s="5">
+        <f>N187</f>
+        <v>1362</v>
+      </c>
+      <c r="M195" s="6">
+        <f>S187</f>
+        <v>1359.3495297805644</v>
+      </c>
+      <c r="N195" s="6">
+        <f t="shared" si="75"/>
+        <v>2.6504702194356469</v>
+      </c>
+      <c r="O195" s="6">
+        <f t="shared" si="76"/>
+        <v>7.0249923841152464</v>
+      </c>
+      <c r="P195" s="7">
+        <f t="shared" si="77"/>
+        <v>5.1679073190611024E-3</v>
+      </c>
+      <c r="Q195" s="7"/>
+      <c r="R195" s="7"/>
+      <c r="S195" s="7"/>
+      <c r="T195" s="7"/>
+      <c r="U195" s="8"/>
+    </row>
+    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A196" s="5">
+        <f>C188</f>
+        <v>58413</v>
+      </c>
+      <c r="B196" s="6">
+        <f>H188</f>
+        <v>61725.20677391682</v>
+      </c>
+      <c r="C196" s="6">
+        <f t="shared" si="72"/>
+        <v>-3312.2067739168197</v>
+      </c>
+      <c r="D196" s="6">
+        <f t="shared" si="73"/>
+        <v>10970713.713180466</v>
+      </c>
+      <c r="E196" s="22">
+        <f t="shared" si="74"/>
+        <v>177.73474219962196</v>
+      </c>
+      <c r="F196" s="7"/>
+      <c r="G196" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H196" s="7"/>
+      <c r="I196" s="7"/>
+      <c r="J196" s="8"/>
+      <c r="K196" s="26"/>
+      <c r="L196" s="5">
+        <f>N188</f>
+        <v>129</v>
+      </c>
+      <c r="M196" s="6">
+        <f>S188</f>
+        <v>131.65047021943573</v>
+      </c>
+      <c r="N196" s="6">
+        <f t="shared" si="75"/>
+        <v>-2.6504702194357321</v>
+      </c>
+      <c r="O196" s="6">
+        <f t="shared" si="76"/>
+        <v>7.0249923841156985</v>
+      </c>
+      <c r="P196" s="7">
+        <f t="shared" si="77"/>
+        <v>5.3360936519302987E-2</v>
+      </c>
+      <c r="Q196" s="7"/>
+      <c r="R196" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="S196" s="7"/>
+      <c r="T196" s="7"/>
+      <c r="U196" s="8"/>
+    </row>
+    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A197" s="5"/>
+      <c r="B197" s="6"/>
+      <c r="C197" s="6"/>
+      <c r="D197" s="6"/>
+      <c r="E197" s="7"/>
+      <c r="F197" s="7"/>
+      <c r="G197" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H197" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="I197" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="J197" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="K197" s="26"/>
+      <c r="L197" s="5"/>
+      <c r="M197" s="6"/>
+      <c r="N197" s="6"/>
+      <c r="O197" s="6"/>
+      <c r="P197" s="7"/>
+      <c r="Q197" s="7"/>
+      <c r="R197" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="S197" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="T197" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="U197" s="13">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A198" s="5"/>
+      <c r="B198" s="6"/>
+      <c r="C198" s="6"/>
+      <c r="D198" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E198" s="22">
+        <f>SUM(E193:E196)</f>
+        <v>575.35203989548563</v>
+      </c>
+      <c r="F198" s="7"/>
+      <c r="G198" s="7">
+        <v>2.71</v>
+      </c>
+      <c r="H198" s="7">
+        <v>3.84</v>
+      </c>
+      <c r="I198" s="7">
+        <v>6.63</v>
+      </c>
+      <c r="J198" s="8">
+        <v>10.8</v>
+      </c>
+      <c r="K198" s="26"/>
+      <c r="L198" s="5"/>
+      <c r="M198" s="6"/>
+      <c r="N198" s="6"/>
+      <c r="O198" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P198" s="7">
+        <f>SUM(P193:P196)</f>
+        <v>0.26483264091401881</v>
+      </c>
+      <c r="Q198" s="7"/>
+      <c r="R198" s="7">
+        <v>2.71</v>
+      </c>
+      <c r="S198" s="7">
+        <v>3.84</v>
+      </c>
+      <c r="T198" s="7">
+        <v>6.63</v>
+      </c>
+      <c r="U198" s="8">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A199" s="5"/>
+      <c r="B199" s="6"/>
+      <c r="C199" s="6"/>
+      <c r="D199" s="6"/>
+      <c r="E199" s="7"/>
+      <c r="F199" s="7"/>
+      <c r="G199" s="7"/>
+      <c r="H199" s="7"/>
+      <c r="I199" s="7"/>
+      <c r="J199" s="8"/>
+      <c r="K199" s="26"/>
+      <c r="L199" s="5"/>
+      <c r="M199" s="6"/>
+      <c r="N199" s="6"/>
+      <c r="O199" s="6"/>
+      <c r="P199" s="7"/>
+      <c r="Q199" s="7"/>
+      <c r="R199" s="7"/>
+      <c r="S199" s="7"/>
+      <c r="T199" s="7"/>
+      <c r="U199" s="8"/>
+    </row>
+    <row r="200" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="14"/>
+      <c r="B200" s="15" t="str">
+        <f>IF(E198&gt;=G198,IF(E198&gt;H198,IF(E198&gt;I198,IF(E198&gt;J198,"ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 99.9%","ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 99%"),"ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 95%"),"ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 90%"),"REJECT THE HYPOTHESIS")</f>
+        <v>ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 99.9%</v>
+      </c>
+      <c r="C200" s="15"/>
+      <c r="D200" s="15"/>
+      <c r="E200" s="16"/>
+      <c r="F200" s="16"/>
+      <c r="G200" s="16"/>
+      <c r="H200" s="16"/>
+      <c r="I200" s="16"/>
+      <c r="J200" s="17"/>
+      <c r="K200" s="26"/>
+      <c r="L200" s="14"/>
+      <c r="M200" s="15" t="str">
+        <f>IF(P198&gt;=R198,IF(P198&gt;S198,IF(P198&gt;T198,IF(P198&gt;U198,"ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 99.9%","ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 99%"),"ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 95%"),"ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 90%"),"REJECT THE HYPOTHESIS")</f>
+        <v>REJECT THE HYPOTHESIS</v>
+      </c>
+      <c r="N200" s="15"/>
+      <c r="O200" s="15"/>
+      <c r="P200" s="16"/>
+      <c r="Q200" s="16"/>
+      <c r="R200" s="16"/>
+      <c r="S200" s="16"/>
+      <c r="T200" s="16"/>
+      <c r="U200" s="17"/>
+    </row>
+    <row r="201" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B202" s="2"/>
+      <c r="C202" s="2"/>
+      <c r="D202" s="2"/>
+      <c r="E202" s="3"/>
+      <c r="F202" s="3"/>
+      <c r="G202" s="3"/>
+      <c r="H202" s="3"/>
+      <c r="I202" s="3"/>
+      <c r="J202" s="4"/>
+      <c r="K202" s="26"/>
+      <c r="L202" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="M202" s="2"/>
+      <c r="N202" s="2"/>
+      <c r="O202" s="2"/>
+      <c r="P202" s="3"/>
+      <c r="Q202" s="3"/>
+      <c r="R202" s="3"/>
+      <c r="S202" s="3"/>
+      <c r="T202" s="3"/>
+      <c r="U202" s="4"/>
+    </row>
+    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A203" s="31"/>
+      <c r="B203" s="6"/>
+      <c r="C203" s="6"/>
+      <c r="D203" s="6"/>
+      <c r="E203" s="7"/>
+      <c r="F203" s="7"/>
+      <c r="G203" s="7"/>
+      <c r="H203" s="7"/>
+      <c r="I203" s="7"/>
+      <c r="J203" s="8"/>
+      <c r="K203" s="26"/>
+      <c r="L203" s="5"/>
+      <c r="M203" s="6"/>
+      <c r="N203" s="6"/>
+      <c r="O203" s="6"/>
+      <c r="P203" s="7"/>
+      <c r="Q203" s="7"/>
+      <c r="R203" s="7"/>
+      <c r="S203" s="7"/>
+      <c r="T203" s="7"/>
+      <c r="U203" s="8"/>
+    </row>
+    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A204" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B204" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C204" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="D204" s="6"/>
+      <c r="E204" s="7"/>
+      <c r="F204" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G204" s="21" t="str">
+        <f>B204</f>
+        <v>imprisonment</v>
+      </c>
+      <c r="H204" s="21" t="str">
+        <f>C204</f>
+        <v>not imprisonment</v>
+      </c>
+      <c r="I204" s="7"/>
+      <c r="J204" s="8"/>
+      <c r="K204" s="26"/>
+      <c r="L204" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M204" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="N204" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="O204" s="6"/>
+      <c r="P204" s="7"/>
+      <c r="Q204" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="R204" s="21" t="str">
+        <f>M204</f>
+        <v>imprisonment</v>
+      </c>
+      <c r="S204" s="21" t="str">
+        <f>N204</f>
+        <v>not imprisonment</v>
+      </c>
+      <c r="T204" s="7"/>
+      <c r="U204" s="8"/>
+    </row>
+    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A205" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B205" s="24">
+        <v>46315</v>
+      </c>
+      <c r="C205" s="24">
+        <v>380790</v>
+      </c>
+      <c r="D205" s="6">
+        <f>SUM(B205+C205)</f>
+        <v>427105</v>
+      </c>
+      <c r="E205" s="7"/>
+      <c r="F205" s="6" t="str">
+        <f>A205</f>
+        <v>male</v>
+      </c>
+      <c r="G205" s="6">
+        <f>(D205*B207)/D207</f>
+        <v>46603.241335044928</v>
+      </c>
+      <c r="H205" s="10">
+        <f>(D205*C207)/D207</f>
+        <v>380501.75866495509</v>
+      </c>
+      <c r="I205" s="6">
+        <f>SUM(G205:H205)</f>
+        <v>427105</v>
+      </c>
+      <c r="J205" s="8"/>
+      <c r="K205" s="26"/>
+      <c r="L205" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M205" s="24">
+        <v>24</v>
+      </c>
+      <c r="N205" s="24">
+        <v>1721</v>
+      </c>
+      <c r="O205" s="6">
+        <f>SUM(M205+N205)</f>
+        <v>1745</v>
+      </c>
+      <c r="P205" s="7"/>
+      <c r="Q205" s="6" t="str">
+        <f>L205</f>
+        <v>male</v>
+      </c>
+      <c r="R205" s="7">
+        <f>(O205*M207)/O207</f>
+        <v>36.468129571577848</v>
+      </c>
+      <c r="S205" s="10">
+        <f>(O205*N207)/O207</f>
+        <v>1708.5318704284221</v>
+      </c>
+      <c r="T205" s="7">
+        <f>SUM(R205:S205)</f>
+        <v>1745</v>
+      </c>
+      <c r="U205" s="8"/>
+    </row>
+    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A206" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B206" s="25">
+        <v>11400</v>
+      </c>
+      <c r="C206" s="25">
+        <v>90436</v>
+      </c>
+      <c r="D206" s="6">
+        <f>SUM(B206+C206)</f>
+        <v>101836</v>
+      </c>
+      <c r="E206" s="7"/>
+      <c r="F206" s="6" t="str">
+        <f>A206</f>
+        <v>not male</v>
+      </c>
+      <c r="G206" s="6">
+        <f>(D206*B207)/D207</f>
+        <v>11111.75866495507</v>
+      </c>
+      <c r="H206" s="6">
+        <f>(D206*C207)/D207</f>
+        <v>90724.241335044935</v>
+      </c>
+      <c r="I206" s="6">
+        <f>SUM(G206:H206)</f>
+        <v>101836</v>
+      </c>
+      <c r="J206" s="8"/>
+      <c r="K206" s="26"/>
+      <c r="L206" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="M206" s="25">
+        <v>16</v>
+      </c>
+      <c r="N206" s="25">
+        <v>153</v>
+      </c>
+      <c r="O206" s="6">
+        <f>SUM(M206+N206)</f>
+        <v>169</v>
+      </c>
+      <c r="P206" s="7"/>
+      <c r="Q206" s="6" t="str">
+        <f>L206</f>
+        <v>not male</v>
+      </c>
+      <c r="R206" s="6">
+        <f>(O206*M207)/O207</f>
+        <v>3.5318704284221525</v>
+      </c>
+      <c r="S206" s="6">
+        <f>(O206*N207)/O207</f>
+        <v>165.46812957157783</v>
+      </c>
+      <c r="T206" s="6">
+        <f>SUM(R206:S206)</f>
+        <v>169</v>
+      </c>
+      <c r="U206" s="8"/>
+    </row>
+    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A207" s="5"/>
+      <c r="B207" s="6">
+        <f>(B205+B206)</f>
+        <v>57715</v>
+      </c>
+      <c r="C207" s="6">
+        <f>(C205+C206)</f>
+        <v>471226</v>
+      </c>
+      <c r="D207" s="6">
+        <f>IF(SUM(D205:D206)&lt;&gt;SUM(B207:C207),"PROBLEM",SUM(D205:D206))</f>
+        <v>528941</v>
+      </c>
+      <c r="E207" s="7"/>
+      <c r="F207" s="7"/>
+      <c r="G207" s="6">
+        <f>SUM(G205:G206)</f>
+        <v>57715</v>
+      </c>
+      <c r="H207" s="6">
+        <f>SUM(H205:H206)</f>
+        <v>471226</v>
+      </c>
+      <c r="I207" s="6">
+        <f>SUM(G207:H207)</f>
+        <v>528941</v>
+      </c>
+      <c r="J207" s="8"/>
+      <c r="K207" s="26"/>
+      <c r="L207" s="5"/>
+      <c r="M207" s="6">
+        <f>(M205+M206)</f>
+        <v>40</v>
+      </c>
+      <c r="N207" s="6">
+        <f>(N205+N206)</f>
+        <v>1874</v>
+      </c>
+      <c r="O207" s="6">
+        <f>IF(SUM(O205:O206)&lt;&gt;SUM(M207:N207),"PROBLEM",SUM(O205:O206))</f>
+        <v>1914</v>
+      </c>
+      <c r="P207" s="7"/>
+      <c r="Q207" s="7"/>
+      <c r="R207" s="7">
+        <f>SUM(R205:R206)</f>
+        <v>40</v>
+      </c>
+      <c r="S207" s="6">
+        <f>SUM(S205:S206)</f>
+        <v>1874</v>
+      </c>
+      <c r="T207" s="7">
+        <f>SUM(R207:S207)</f>
+        <v>1914</v>
+      </c>
+      <c r="U207" s="8"/>
+    </row>
+    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A208" s="5"/>
+      <c r="B208" s="6"/>
+      <c r="C208" s="6"/>
+      <c r="D208" s="6"/>
+      <c r="E208" s="7"/>
+      <c r="F208" s="7"/>
+      <c r="G208" s="7"/>
+      <c r="H208" s="7"/>
+      <c r="I208" s="7"/>
+      <c r="J208" s="8"/>
+      <c r="K208" s="26"/>
+      <c r="L208" s="5"/>
+      <c r="M208" s="6"/>
+      <c r="N208" s="6"/>
+      <c r="O208" s="6"/>
+      <c r="P208" s="7"/>
+      <c r="Q208" s="7"/>
+      <c r="R208" s="7"/>
+      <c r="S208" s="7"/>
+      <c r="T208" s="7"/>
+      <c r="U208" s="8"/>
+    </row>
+    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A209" s="5"/>
+      <c r="B209" s="6"/>
+      <c r="C209" s="6"/>
+      <c r="D209" s="6"/>
+      <c r="E209" s="7"/>
+      <c r="F209" s="7"/>
+      <c r="G209" s="7"/>
+      <c r="H209" s="7"/>
+      <c r="I209" s="7"/>
+      <c r="J209" s="8"/>
+      <c r="K209" s="26"/>
+      <c r="L209" s="5"/>
+      <c r="M209" s="6"/>
+      <c r="N209" s="6"/>
+      <c r="O209" s="6"/>
+      <c r="P209" s="7"/>
+      <c r="Q209" s="7"/>
+      <c r="R209" s="7"/>
+      <c r="S209" s="7"/>
+      <c r="T209" s="7"/>
+      <c r="U209" s="8"/>
+    </row>
+    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A210" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B210" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D210" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E210" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F210" s="7"/>
+      <c r="G210" s="7"/>
+      <c r="H210" s="7"/>
+      <c r="I210" s="7"/>
+      <c r="J210" s="8"/>
+      <c r="K210" s="26"/>
+      <c r="L210" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M210" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N210" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O210" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P210" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q210" s="7"/>
+      <c r="R210" s="7"/>
+      <c r="S210" s="7"/>
+      <c r="T210" s="7"/>
+      <c r="U210" s="8"/>
+    </row>
+    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A211" s="5">
+        <f>B205</f>
+        <v>46315</v>
+      </c>
+      <c r="B211" s="6">
+        <f>G205</f>
+        <v>46603.241335044928</v>
+      </c>
+      <c r="C211" s="6">
+        <f>A211-B211</f>
+        <v>-288.24133504492784</v>
+      </c>
+      <c r="D211" s="6">
+        <f>C211*C211</f>
+        <v>83083.067228482338</v>
+      </c>
+      <c r="E211" s="22">
+        <f>D211/B211</f>
+        <v>1.7827744347474204</v>
+      </c>
+      <c r="F211" s="7"/>
+      <c r="G211" s="7"/>
+      <c r="H211" s="7"/>
+      <c r="I211" s="7"/>
+      <c r="J211" s="8"/>
+      <c r="K211" s="26"/>
+      <c r="L211" s="5">
+        <f>M205</f>
+        <v>24</v>
+      </c>
+      <c r="M211" s="6">
+        <f>R205</f>
+        <v>36.468129571577848</v>
+      </c>
+      <c r="N211" s="6">
+        <f>L211-M211</f>
+        <v>-12.468129571577848</v>
+      </c>
+      <c r="O211" s="6">
+        <f>N211*N211</f>
+        <v>155.45425501365401</v>
+      </c>
+      <c r="P211" s="7">
+        <f>O211/M211</f>
+        <v>4.2627427520936072</v>
+      </c>
+      <c r="Q211" s="7"/>
+      <c r="R211" s="7"/>
+      <c r="S211" s="7"/>
+      <c r="T211" s="7"/>
+      <c r="U211" s="8"/>
+    </row>
+    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A212" s="5">
+        <f>B206</f>
+        <v>11400</v>
+      </c>
+      <c r="B212" s="6">
+        <f>G206</f>
+        <v>11111.75866495507</v>
+      </c>
+      <c r="C212" s="6">
+        <f t="shared" ref="C212:C214" si="78">A212-B212</f>
+        <v>288.24133504492966</v>
+      </c>
+      <c r="D212" s="6">
+        <f t="shared" ref="D212:D214" si="79">C212*C212</f>
+        <v>83083.0672284834</v>
+      </c>
+      <c r="E212" s="22">
+        <f t="shared" ref="E212:E214" si="80">D212/B212</f>
+        <v>7.4770402898072064</v>
+      </c>
+      <c r="F212" s="7"/>
+      <c r="G212" s="7"/>
+      <c r="H212" s="7"/>
+      <c r="I212" s="7"/>
+      <c r="J212" s="8"/>
+      <c r="K212" s="26"/>
+      <c r="L212" s="5">
+        <f>M206</f>
+        <v>16</v>
+      </c>
+      <c r="M212" s="6">
+        <f>R206</f>
+        <v>3.5318704284221525</v>
+      </c>
+      <c r="N212" s="6">
+        <f t="shared" ref="N212:N214" si="81">L212-M212</f>
+        <v>12.468129571577848</v>
+      </c>
+      <c r="O212" s="6">
+        <f t="shared" ref="O212:O214" si="82">N212*N212</f>
+        <v>155.45425501365401</v>
+      </c>
+      <c r="P212" s="7">
+        <f t="shared" ref="P212:P214" si="83">O212/M212</f>
+        <v>44.014710665108545</v>
+      </c>
+      <c r="Q212" s="7"/>
+      <c r="R212" s="7"/>
+      <c r="S212" s="7"/>
+      <c r="T212" s="7"/>
+      <c r="U212" s="8"/>
+    </row>
+    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A213" s="5">
+        <f>C205</f>
+        <v>380790</v>
+      </c>
+      <c r="B213" s="6">
+        <f>H205</f>
+        <v>380501.75866495509</v>
+      </c>
+      <c r="C213" s="6">
+        <f t="shared" si="78"/>
+        <v>288.24133504490601</v>
+      </c>
+      <c r="D213" s="6">
+        <f t="shared" si="79"/>
+        <v>83083.067228469765</v>
+      </c>
+      <c r="E213" s="22">
+        <f t="shared" si="80"/>
+        <v>0.21835133566787865</v>
+      </c>
+      <c r="F213" s="7"/>
+      <c r="G213" s="7"/>
+      <c r="H213" s="7"/>
+      <c r="I213" s="7"/>
+      <c r="J213" s="8"/>
+      <c r="K213" s="26"/>
+      <c r="L213" s="5">
+        <f>N205</f>
+        <v>1721</v>
+      </c>
+      <c r="M213" s="6">
+        <f>S205</f>
+        <v>1708.5318704284221</v>
+      </c>
+      <c r="N213" s="6">
+        <f t="shared" si="81"/>
+        <v>12.468129571577947</v>
+      </c>
+      <c r="O213" s="6">
+        <f t="shared" si="82"/>
+        <v>155.45425501365648</v>
+      </c>
+      <c r="P213" s="7">
+        <f t="shared" si="83"/>
+        <v>9.0987038465179831E-2</v>
+      </c>
+      <c r="Q213" s="7"/>
+      <c r="R213" s="7"/>
+      <c r="S213" s="7"/>
+      <c r="T213" s="7"/>
+      <c r="U213" s="8"/>
+    </row>
+    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A214" s="5">
+        <f>C206</f>
+        <v>90436</v>
+      </c>
+      <c r="B214" s="6">
+        <f>H206</f>
+        <v>90724.241335044935</v>
+      </c>
+      <c r="C214" s="6">
+        <f t="shared" si="78"/>
+        <v>-288.24133504493511</v>
+      </c>
+      <c r="D214" s="6">
+        <f t="shared" si="79"/>
+        <v>83083.067228486543</v>
+      </c>
+      <c r="E214" s="22">
+        <f t="shared" si="80"/>
+        <v>0.91577582800235813</v>
+      </c>
+      <c r="F214" s="7"/>
+      <c r="G214" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H214" s="7"/>
+      <c r="I214" s="7"/>
+      <c r="J214" s="8"/>
+      <c r="K214" s="26"/>
+      <c r="L214" s="5">
+        <f>N206</f>
+        <v>153</v>
+      </c>
+      <c r="M214" s="6">
+        <f>S206</f>
+        <v>165.46812957157783</v>
+      </c>
+      <c r="N214" s="6">
+        <f t="shared" si="81"/>
+        <v>-12.468129571577833</v>
+      </c>
+      <c r="O214" s="6">
+        <f t="shared" si="82"/>
+        <v>155.45425501365364</v>
+      </c>
+      <c r="P214" s="7">
+        <f t="shared" si="83"/>
+        <v>0.9394815510161888</v>
+      </c>
+      <c r="Q214" s="7"/>
+      <c r="R214" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="S214" s="7"/>
+      <c r="T214" s="7"/>
+      <c r="U214" s="8"/>
+    </row>
+    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A215" s="5"/>
+      <c r="B215" s="6"/>
+      <c r="C215" s="6"/>
+      <c r="D215" s="6"/>
+      <c r="E215" s="7"/>
+      <c r="F215" s="7"/>
+      <c r="G215" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H215" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="I215" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="J215" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="K215" s="26"/>
+      <c r="L215" s="5"/>
+      <c r="M215" s="6"/>
+      <c r="N215" s="6"/>
+      <c r="O215" s="6"/>
+      <c r="P215" s="7"/>
+      <c r="Q215" s="7"/>
+      <c r="R215" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="S215" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="T215" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="U215" s="13">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A216" s="5"/>
+      <c r="B216" s="6"/>
+      <c r="C216" s="6"/>
+      <c r="D216" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E216" s="22">
+        <f>SUM(E211:E214)</f>
+        <v>10.393941888224864</v>
+      </c>
+      <c r="F216" s="7"/>
+      <c r="G216" s="7">
+        <v>2.71</v>
+      </c>
+      <c r="H216" s="7">
+        <v>3.84</v>
+      </c>
+      <c r="I216" s="7">
+        <v>6.63</v>
+      </c>
+      <c r="J216" s="8">
+        <v>10.8</v>
+      </c>
+      <c r="K216" s="26"/>
+      <c r="L216" s="5"/>
+      <c r="M216" s="6"/>
+      <c r="N216" s="6"/>
+      <c r="O216" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P216" s="7">
+        <f>SUM(P211:P214)</f>
+        <v>49.307922006683519</v>
+      </c>
+      <c r="Q216" s="7"/>
+      <c r="R216" s="7">
+        <v>2.71</v>
+      </c>
+      <c r="S216" s="7">
+        <v>3.84</v>
+      </c>
+      <c r="T216" s="7">
+        <v>6.63</v>
+      </c>
+      <c r="U216" s="8">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A217" s="5"/>
+      <c r="B217" s="6"/>
+      <c r="C217" s="6"/>
+      <c r="D217" s="6"/>
+      <c r="E217" s="7"/>
+      <c r="F217" s="7"/>
+      <c r="G217" s="7"/>
+      <c r="H217" s="7"/>
+      <c r="I217" s="7"/>
+      <c r="J217" s="8"/>
+      <c r="K217" s="26"/>
+      <c r="L217" s="5"/>
+      <c r="M217" s="6"/>
+      <c r="N217" s="6"/>
+      <c r="O217" s="6"/>
+      <c r="P217" s="7"/>
+      <c r="Q217" s="7"/>
+      <c r="R217" s="7"/>
+      <c r="S217" s="7"/>
+      <c r="T217" s="7"/>
+      <c r="U217" s="8"/>
+    </row>
+    <row r="218" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="14"/>
+      <c r="B218" s="15" t="str">
+        <f>IF(E216&gt;=G216,IF(E216&gt;H216,IF(E216&gt;I216,IF(E216&gt;J216,"ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 99.9%","ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 99%"),"ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 95%"),"ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 90%"),"REJECT THE HYPOTHESIS")</f>
+        <v>ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 99%</v>
+      </c>
+      <c r="C218" s="15"/>
+      <c r="D218" s="15"/>
+      <c r="E218" s="16"/>
+      <c r="F218" s="16"/>
+      <c r="G218" s="16"/>
+      <c r="H218" s="16"/>
+      <c r="I218" s="16"/>
+      <c r="J218" s="17"/>
+      <c r="K218" s="26"/>
+      <c r="L218" s="14"/>
+      <c r="M218" s="15" t="str">
+        <f>IF(P216&gt;=R216,IF(P216&gt;S216,IF(P216&gt;T216,IF(P216&gt;U216,"ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 99.9%","ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 99%"),"ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 95%"),"ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 90%"),"REJECT THE HYPOTHESIS")</f>
+        <v>ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 99.9%</v>
+      </c>
+      <c r="N218" s="15"/>
+      <c r="O218" s="15"/>
+      <c r="P218" s="16"/>
+      <c r="Q218" s="16"/>
+      <c r="R218" s="16"/>
+      <c r="S218" s="16"/>
+      <c r="T218" s="16"/>
+      <c r="U218" s="17"/>
+    </row>
+    <row r="219" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B220" s="2"/>
+      <c r="C220" s="2"/>
+      <c r="D220" s="2"/>
+      <c r="E220" s="3"/>
+      <c r="F220" s="3"/>
+      <c r="G220" s="3"/>
+      <c r="H220" s="3"/>
+      <c r="I220" s="3"/>
+      <c r="J220" s="4"/>
+      <c r="K220" s="26"/>
+      <c r="L220" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="M220" s="2"/>
+      <c r="N220" s="2"/>
+      <c r="O220" s="2"/>
+      <c r="P220" s="3"/>
+      <c r="Q220" s="3"/>
+      <c r="R220" s="3"/>
+      <c r="S220" s="3"/>
+      <c r="T220" s="3"/>
+      <c r="U220" s="4"/>
+    </row>
+    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A221" s="31"/>
+      <c r="B221" s="6"/>
+      <c r="C221" s="6"/>
+      <c r="D221" s="6"/>
+      <c r="E221" s="7"/>
+      <c r="F221" s="7"/>
+      <c r="G221" s="7"/>
+      <c r="H221" s="7"/>
+      <c r="I221" s="7"/>
+      <c r="J221" s="8"/>
+      <c r="K221" s="26"/>
+      <c r="L221" s="5"/>
+      <c r="M221" s="6"/>
+      <c r="N221" s="6"/>
+      <c r="O221" s="6"/>
+      <c r="P221" s="7"/>
+      <c r="Q221" s="7"/>
+      <c r="R221" s="7"/>
+      <c r="S221" s="7"/>
+      <c r="T221" s="7"/>
+      <c r="U221" s="8"/>
+    </row>
+    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A222" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B222" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="C222" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="D222" s="6"/>
+      <c r="E222" s="7"/>
+      <c r="F222" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G222" s="21" t="str">
+        <f>B222</f>
+        <v>infanticide</v>
+      </c>
+      <c r="H222" s="21" t="str">
+        <f>C222</f>
+        <v>not infanticide</v>
+      </c>
+      <c r="I222" s="7"/>
+      <c r="J222" s="8"/>
+      <c r="K222" s="26"/>
+      <c r="L222" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M222" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="N222" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="O222" s="6"/>
+      <c r="P222" s="7"/>
+      <c r="Q222" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="R222" s="21" t="str">
+        <f>M222</f>
+        <v>infanticide</v>
+      </c>
+      <c r="S222" s="21" t="str">
+        <f>N222</f>
+        <v>not infanticide</v>
+      </c>
+      <c r="T222" s="7"/>
+      <c r="U222" s="8"/>
+    </row>
+    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A223" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B223" s="24">
+        <v>62</v>
+      </c>
+      <c r="C223" s="24">
+        <v>2472</v>
+      </c>
+      <c r="D223" s="6">
+        <f>SUM(B223+C223)</f>
+        <v>2534</v>
+      </c>
+      <c r="E223" s="7"/>
+      <c r="F223" s="6" t="str">
+        <f>A223</f>
+        <v>female</v>
+      </c>
+      <c r="G223" s="6">
+        <f>(D223*B225)/D225</f>
+        <v>12.055555555555555</v>
+      </c>
+      <c r="H223" s="10">
+        <f>(D223*C225)/D225</f>
+        <v>2521.9444444444443</v>
+      </c>
+      <c r="I223" s="6">
+        <f>SUM(G223:H223)</f>
+        <v>2534</v>
+      </c>
+      <c r="J223" s="8"/>
+      <c r="K223" s="26"/>
+      <c r="L223" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="M223" s="24">
+        <v>4</v>
+      </c>
+      <c r="N223" s="24">
+        <v>33</v>
+      </c>
+      <c r="O223" s="6">
+        <f>SUM(M223+N223)</f>
+        <v>37</v>
+      </c>
+      <c r="P223" s="7"/>
+      <c r="Q223" s="6" t="str">
+        <f>L223</f>
+        <v>female</v>
+      </c>
+      <c r="R223" s="7">
+        <f>(O223*M225)/O225</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="S223" s="10">
+        <f>(O223*N225)/O225</f>
+        <v>36.714285714285715</v>
+      </c>
+      <c r="T223" s="7">
+        <f>SUM(R223:S223)</f>
+        <v>37</v>
+      </c>
+      <c r="U223" s="8"/>
+    </row>
+    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A224" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B224" s="25">
+        <v>0</v>
+      </c>
+      <c r="C224" s="25">
+        <v>10498</v>
+      </c>
+      <c r="D224" s="6">
+        <f>SUM(B224+C224)</f>
+        <v>10498</v>
+      </c>
+      <c r="E224" s="7"/>
+      <c r="F224" s="6" t="str">
+        <f>A224</f>
+        <v>not female</v>
+      </c>
+      <c r="G224" s="6">
+        <f>(D224*B225)/D225</f>
+        <v>49.944444444444443</v>
+      </c>
+      <c r="H224" s="6">
+        <f>(D224*C225)/D225</f>
+        <v>10448.055555555555</v>
+      </c>
+      <c r="I224" s="6">
+        <f>SUM(G224:H224)</f>
+        <v>10498</v>
+      </c>
+      <c r="J224" s="8"/>
+      <c r="K224" s="26"/>
+      <c r="L224" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="M224" s="25">
+        <v>0</v>
+      </c>
+      <c r="N224" s="25">
+        <v>481</v>
+      </c>
+      <c r="O224" s="6">
+        <f>SUM(M224+N224)</f>
+        <v>481</v>
+      </c>
+      <c r="P224" s="7"/>
+      <c r="Q224" s="6" t="str">
+        <f>L224</f>
+        <v>not female</v>
+      </c>
+      <c r="R224" s="6">
+        <f>(O224*M225)/O225</f>
+        <v>3.7142857142857144</v>
+      </c>
+      <c r="S224" s="6">
+        <f>(O224*N225)/O225</f>
+        <v>477.28571428571428</v>
+      </c>
+      <c r="T224" s="6">
+        <f>SUM(R224:S224)</f>
+        <v>481</v>
+      </c>
+      <c r="U224" s="8"/>
+    </row>
+    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A225" s="5"/>
+      <c r="B225" s="6">
+        <f>(B223+B224)</f>
+        <v>62</v>
+      </c>
+      <c r="C225" s="6">
+        <f>(C223+C224)</f>
+        <v>12970</v>
+      </c>
+      <c r="D225" s="6">
+        <f>IF(SUM(D223:D224)&lt;&gt;SUM(B225:C225),"PROBLEM",SUM(D223:D224))</f>
+        <v>13032</v>
+      </c>
+      <c r="E225" s="7"/>
+      <c r="F225" s="7"/>
+      <c r="G225" s="6">
+        <f>SUM(G223:G224)</f>
+        <v>62</v>
+      </c>
+      <c r="H225" s="6">
+        <f>SUM(H223:H224)</f>
+        <v>12970</v>
+      </c>
+      <c r="I225" s="6">
+        <f>SUM(G225:H225)</f>
+        <v>13032</v>
+      </c>
+      <c r="J225" s="8"/>
+      <c r="K225" s="26"/>
+      <c r="L225" s="5"/>
+      <c r="M225" s="6">
+        <f>(M223+M224)</f>
+        <v>4</v>
+      </c>
+      <c r="N225" s="6">
+        <f>(N223+N224)</f>
+        <v>514</v>
+      </c>
+      <c r="O225" s="6">
+        <f>IF(SUM(O223:O224)&lt;&gt;SUM(M225:N225),"PROBLEM",SUM(O223:O224))</f>
+        <v>518</v>
+      </c>
+      <c r="P225" s="7"/>
+      <c r="Q225" s="7"/>
+      <c r="R225" s="7">
+        <f>SUM(R223:R224)</f>
+        <v>4</v>
+      </c>
+      <c r="S225" s="6">
+        <f>SUM(S223:S224)</f>
+        <v>514</v>
+      </c>
+      <c r="T225" s="7">
+        <f>SUM(R225:S225)</f>
+        <v>518</v>
+      </c>
+      <c r="U225" s="8"/>
+    </row>
+    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A226" s="5"/>
+      <c r="B226" s="6"/>
+      <c r="C226" s="6"/>
+      <c r="D226" s="6"/>
+      <c r="E226" s="7"/>
+      <c r="F226" s="7"/>
+      <c r="G226" s="7"/>
+      <c r="H226" s="7"/>
+      <c r="I226" s="7"/>
+      <c r="J226" s="8"/>
+      <c r="K226" s="26"/>
+      <c r="L226" s="5"/>
+      <c r="M226" s="6"/>
+      <c r="N226" s="6"/>
+      <c r="O226" s="6"/>
+      <c r="P226" s="7"/>
+      <c r="Q226" s="7"/>
+      <c r="R226" s="7"/>
+      <c r="S226" s="7"/>
+      <c r="T226" s="7"/>
+      <c r="U226" s="8"/>
+    </row>
+    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A227" s="5"/>
+      <c r="B227" s="6"/>
+      <c r="C227" s="6"/>
+      <c r="D227" s="6"/>
+      <c r="E227" s="7"/>
+      <c r="F227" s="7"/>
+      <c r="G227" s="7"/>
+      <c r="H227" s="7"/>
+      <c r="I227" s="7"/>
+      <c r="J227" s="8"/>
+      <c r="K227" s="26"/>
+      <c r="L227" s="5"/>
+      <c r="M227" s="6"/>
+      <c r="N227" s="6"/>
+      <c r="O227" s="6"/>
+      <c r="P227" s="7"/>
+      <c r="Q227" s="7"/>
+      <c r="R227" s="7"/>
+      <c r="S227" s="7"/>
+      <c r="T227" s="7"/>
+      <c r="U227" s="8"/>
+    </row>
+    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A228" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B228" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C228" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D228" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E228" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F228" s="7"/>
+      <c r="G228" s="7"/>
+      <c r="H228" s="7"/>
+      <c r="I228" s="7"/>
+      <c r="J228" s="8"/>
+      <c r="K228" s="26"/>
+      <c r="L228" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M228" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N228" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O228" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P228" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q228" s="7"/>
+      <c r="R228" s="7"/>
+      <c r="S228" s="7"/>
+      <c r="T228" s="7"/>
+      <c r="U228" s="8"/>
+    </row>
+    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A229" s="5">
+        <f>B223</f>
+        <v>62</v>
+      </c>
+      <c r="B229" s="6">
+        <f>G223</f>
+        <v>12.055555555555555</v>
+      </c>
+      <c r="C229" s="6">
+        <f>A229-B229</f>
+        <v>49.944444444444443</v>
+      </c>
+      <c r="D229" s="6">
+        <f>C229*C229</f>
+        <v>2494.4475308641972</v>
+      </c>
+      <c r="E229" s="22">
+        <f>D229/B229</f>
+        <v>206.9126984126984</v>
+      </c>
+      <c r="F229" s="7"/>
+      <c r="G229" s="7"/>
+      <c r="H229" s="7"/>
+      <c r="I229" s="7"/>
+      <c r="J229" s="8"/>
+      <c r="K229" s="26"/>
+      <c r="L229" s="5">
+        <f>M223</f>
+        <v>4</v>
+      </c>
+      <c r="M229" s="6">
+        <f>R223</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="N229" s="6">
+        <f>L229-M229</f>
+        <v>3.7142857142857144</v>
+      </c>
+      <c r="O229" s="6">
+        <f>N229*N229</f>
+        <v>13.795918367346939</v>
+      </c>
+      <c r="P229" s="7">
+        <f>O229/M229</f>
+        <v>48.285714285714292</v>
+      </c>
+      <c r="Q229" s="7"/>
+      <c r="R229" s="7"/>
+      <c r="S229" s="7"/>
+      <c r="T229" s="7"/>
+      <c r="U229" s="8"/>
+    </row>
+    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A230" s="5">
+        <f>B224</f>
+        <v>0</v>
+      </c>
+      <c r="B230" s="6">
+        <f>G224</f>
+        <v>49.944444444444443</v>
+      </c>
+      <c r="C230" s="6">
+        <f t="shared" ref="C230:C232" si="84">A230-B230</f>
+        <v>-49.944444444444443</v>
+      </c>
+      <c r="D230" s="6">
+        <f t="shared" ref="D230:D232" si="85">C230*C230</f>
+        <v>2494.4475308641972</v>
+      </c>
+      <c r="E230" s="22">
+        <f t="shared" ref="E230:E232" si="86">D230/B230</f>
+        <v>49.944444444444443</v>
+      </c>
+      <c r="F230" s="7"/>
+      <c r="G230" s="7"/>
+      <c r="H230" s="7"/>
+      <c r="I230" s="7"/>
+      <c r="J230" s="8"/>
+      <c r="K230" s="26"/>
+      <c r="L230" s="5">
+        <f>M224</f>
+        <v>0</v>
+      </c>
+      <c r="M230" s="6">
+        <f>R224</f>
+        <v>3.7142857142857144</v>
+      </c>
+      <c r="N230" s="6">
+        <f t="shared" ref="N230:N232" si="87">L230-M230</f>
+        <v>-3.7142857142857144</v>
+      </c>
+      <c r="O230" s="6">
+        <f t="shared" ref="O230:O232" si="88">N230*N230</f>
+        <v>13.795918367346939</v>
+      </c>
+      <c r="P230" s="7">
+        <f t="shared" ref="P230:P232" si="89">O230/M230</f>
+        <v>3.7142857142857144</v>
+      </c>
+      <c r="Q230" s="7"/>
+      <c r="R230" s="7"/>
+      <c r="S230" s="7"/>
+      <c r="T230" s="7"/>
+      <c r="U230" s="8"/>
+    </row>
+    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A231" s="5">
+        <f>C223</f>
+        <v>2472</v>
+      </c>
+      <c r="B231" s="6">
+        <f>H223</f>
+        <v>2521.9444444444443</v>
+      </c>
+      <c r="C231" s="6">
+        <f t="shared" si="84"/>
+        <v>-49.944444444444343</v>
+      </c>
+      <c r="D231" s="6">
+        <f t="shared" si="85"/>
+        <v>2494.4475308641872</v>
+      </c>
+      <c r="E231" s="22">
+        <f t="shared" si="86"/>
+        <v>0.98909693921258668</v>
+      </c>
+      <c r="F231" s="7"/>
+      <c r="G231" s="7"/>
+      <c r="H231" s="7"/>
+      <c r="I231" s="7"/>
+      <c r="J231" s="8"/>
+      <c r="K231" s="26"/>
+      <c r="L231" s="5">
+        <f>N223</f>
+        <v>33</v>
+      </c>
+      <c r="M231" s="6">
+        <f>S223</f>
+        <v>36.714285714285715</v>
+      </c>
+      <c r="N231" s="6">
+        <f t="shared" si="87"/>
+        <v>-3.7142857142857153</v>
+      </c>
+      <c r="O231" s="6">
+        <f t="shared" si="88"/>
+        <v>13.795918367346946</v>
+      </c>
+      <c r="P231" s="7">
+        <f t="shared" si="89"/>
+        <v>0.37576431350750433</v>
+      </c>
+      <c r="Q231" s="7"/>
+      <c r="R231" s="7"/>
+      <c r="S231" s="7"/>
+      <c r="T231" s="7"/>
+      <c r="U231" s="8"/>
+    </row>
+    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A232" s="5">
+        <f>C224</f>
+        <v>10498</v>
+      </c>
+      <c r="B232" s="6">
+        <f>H224</f>
+        <v>10448.055555555555</v>
+      </c>
+      <c r="C232" s="6">
+        <f t="shared" si="84"/>
+        <v>49.944444444445253</v>
+      </c>
+      <c r="D232" s="6">
+        <f t="shared" si="85"/>
+        <v>2494.4475308642782</v>
+      </c>
+      <c r="E232" s="22">
+        <f t="shared" si="86"/>
+        <v>0.23874753705132273</v>
+      </c>
+      <c r="F232" s="7"/>
+      <c r="G232" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H232" s="7"/>
+      <c r="I232" s="7"/>
+      <c r="J232" s="8"/>
+      <c r="K232" s="26"/>
+      <c r="L232" s="5">
+        <f>N224</f>
+        <v>481</v>
+      </c>
+      <c r="M232" s="6">
+        <f>S224</f>
+        <v>477.28571428571428</v>
+      </c>
+      <c r="N232" s="6">
+        <f t="shared" si="87"/>
+        <v>3.7142857142857224</v>
+      </c>
+      <c r="O232" s="6">
+        <f t="shared" si="88"/>
+        <v>13.795918367346999</v>
+      </c>
+      <c r="P232" s="7">
+        <f t="shared" si="89"/>
+        <v>2.8904947192885062E-2</v>
+      </c>
+      <c r="Q232" s="7"/>
+      <c r="R232" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="S232" s="7"/>
+      <c r="T232" s="7"/>
+      <c r="U232" s="8"/>
+    </row>
+    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A233" s="5"/>
+      <c r="B233" s="6"/>
+      <c r="C233" s="6"/>
+      <c r="D233" s="6"/>
+      <c r="E233" s="7"/>
+      <c r="F233" s="7"/>
+      <c r="G233" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H233" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="I233" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="J233" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="K233" s="26"/>
+      <c r="L233" s="5"/>
+      <c r="M233" s="6"/>
+      <c r="N233" s="6"/>
+      <c r="O233" s="6"/>
+      <c r="P233" s="7"/>
+      <c r="Q233" s="7"/>
+      <c r="R233" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="S233" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="T233" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="U233" s="13">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A234" s="5"/>
+      <c r="B234" s="6"/>
+      <c r="C234" s="6"/>
+      <c r="D234" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E234" s="22">
+        <f>SUM(E229:E232)</f>
+        <v>258.08498733340673</v>
+      </c>
+      <c r="F234" s="7"/>
+      <c r="G234" s="7">
+        <v>2.71</v>
+      </c>
+      <c r="H234" s="7">
+        <v>3.84</v>
+      </c>
+      <c r="I234" s="7">
+        <v>6.63</v>
+      </c>
+      <c r="J234" s="8">
+        <v>10.8</v>
+      </c>
+      <c r="K234" s="26"/>
+      <c r="L234" s="5"/>
+      <c r="M234" s="6"/>
+      <c r="N234" s="6"/>
+      <c r="O234" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P234" s="7">
+        <f>SUM(P229:P232)</f>
+        <v>52.404669260700395</v>
+      </c>
+      <c r="Q234" s="7"/>
+      <c r="R234" s="7">
+        <v>2.71</v>
+      </c>
+      <c r="S234" s="7">
+        <v>3.84</v>
+      </c>
+      <c r="T234" s="7">
+        <v>6.63</v>
+      </c>
+      <c r="U234" s="8">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A235" s="5"/>
+      <c r="B235" s="6"/>
+      <c r="C235" s="6"/>
+      <c r="D235" s="6"/>
+      <c r="E235" s="7"/>
+      <c r="F235" s="7"/>
+      <c r="G235" s="7"/>
+      <c r="H235" s="7"/>
+      <c r="I235" s="7"/>
+      <c r="J235" s="8"/>
+      <c r="K235" s="26"/>
+      <c r="L235" s="5"/>
+      <c r="M235" s="6"/>
+      <c r="N235" s="6"/>
+      <c r="O235" s="6"/>
+      <c r="P235" s="7"/>
+      <c r="Q235" s="7"/>
+      <c r="R235" s="7"/>
+      <c r="S235" s="7"/>
+      <c r="T235" s="7"/>
+      <c r="U235" s="8"/>
+    </row>
+    <row r="236" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="14"/>
+      <c r="B236" s="15" t="str">
+        <f>IF(E234&gt;=G234,IF(E234&gt;H234,IF(E234&gt;I234,IF(E234&gt;J234,"ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 99.9%","ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 99%"),"ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 95%"),"ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 90%"),"REJECT THE HYPOTHESIS")</f>
+        <v>ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 99.9%</v>
+      </c>
+      <c r="C236" s="15"/>
+      <c r="D236" s="15"/>
+      <c r="E236" s="16"/>
+      <c r="F236" s="16"/>
+      <c r="G236" s="16"/>
+      <c r="H236" s="16"/>
+      <c r="I236" s="16"/>
+      <c r="J236" s="17"/>
+      <c r="K236" s="26"/>
+      <c r="L236" s="14"/>
+      <c r="M236" s="15" t="str">
+        <f>IF(P234&gt;=R234,IF(P234&gt;S234,IF(P234&gt;T234,IF(P234&gt;U234,"ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 99.9%","ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 99%"),"ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 95%"),"ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 90%"),"REJECT THE HYPOTHESIS")</f>
+        <v>ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 99.9%</v>
+      </c>
+      <c r="N236" s="15"/>
+      <c r="O236" s="15"/>
+      <c r="P236" s="16"/>
+      <c r="Q236" s="16"/>
+      <c r="R236" s="16"/>
+      <c r="S236" s="16"/>
+      <c r="T236" s="16"/>
+      <c r="U236" s="17"/>
+    </row>
+    <row r="237" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B238" s="2"/>
+      <c r="C238" s="2"/>
+      <c r="D238" s="2"/>
+      <c r="E238" s="3"/>
+      <c r="F238" s="3"/>
+      <c r="G238" s="3"/>
+      <c r="H238" s="3"/>
+      <c r="I238" s="3"/>
+      <c r="J238" s="4"/>
+      <c r="K238" s="26"/>
+      <c r="L238" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="M238" s="2"/>
+      <c r="N238" s="2"/>
+      <c r="O238" s="2"/>
+      <c r="P238" s="3"/>
+      <c r="Q238" s="3"/>
+      <c r="R238" s="3"/>
+      <c r="S238" s="3"/>
+      <c r="T238" s="3"/>
+      <c r="U238" s="4"/>
+    </row>
+    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A239" s="31"/>
+      <c r="B239" s="6"/>
+      <c r="C239" s="6"/>
+      <c r="D239" s="6"/>
+      <c r="E239" s="7"/>
+      <c r="F239" s="7"/>
+      <c r="G239" s="7"/>
+      <c r="H239" s="7"/>
+      <c r="I239" s="7"/>
+      <c r="J239" s="8"/>
+      <c r="K239" s="26"/>
+      <c r="L239" s="5"/>
+      <c r="M239" s="6"/>
+      <c r="N239" s="6"/>
+      <c r="O239" s="6"/>
+      <c r="P239" s="7"/>
+      <c r="Q239" s="7"/>
+      <c r="R239" s="7"/>
+      <c r="S239" s="7"/>
+      <c r="T239" s="7"/>
+      <c r="U239" s="8"/>
+    </row>
+    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A240" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B240" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C240" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D240" s="6"/>
+      <c r="E240" s="7"/>
+      <c r="F240" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G240" s="21" t="str">
+        <f>B240</f>
+        <v>Guilty</v>
+      </c>
+      <c r="H240" s="21" t="str">
+        <f>C240</f>
+        <v>Not Guilty</v>
+      </c>
+      <c r="I240" s="7"/>
+      <c r="J240" s="8"/>
+      <c r="K240" s="26"/>
+      <c r="L240" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M240" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="N240" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="O240" s="6"/>
+      <c r="P240" s="7"/>
+      <c r="Q240" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="R240" s="21" t="str">
+        <f>M240</f>
+        <v>Guilty</v>
+      </c>
+      <c r="S240" s="21" t="str">
+        <f>N240</f>
+        <v>Not Guilty</v>
+      </c>
+      <c r="T240" s="7"/>
+      <c r="U240" s="8"/>
+    </row>
+    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A241" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B241" s="24">
+        <v>3185</v>
+      </c>
+      <c r="C241" s="24">
+        <v>608</v>
+      </c>
+      <c r="D241" s="6">
+        <f>SUM(B241+C241)</f>
+        <v>3793</v>
+      </c>
+      <c r="E241" s="7"/>
+      <c r="F241" s="6" t="str">
+        <f>A241</f>
+        <v>1660-1740</v>
+      </c>
+      <c r="G241" s="6">
+        <f>(D241*B243)/D243</f>
+        <v>2793.5571799221634</v>
+      </c>
+      <c r="H241" s="10">
+        <f>(D241*C243)/D243</f>
+        <v>999.44282007783659</v>
+      </c>
+      <c r="I241" s="6">
+        <f>SUM(G241:H241)</f>
+        <v>3793</v>
+      </c>
+      <c r="J241" s="8"/>
+      <c r="K241" s="26"/>
+      <c r="L241" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="M241" s="24">
+        <v>27.373000000000001</v>
+      </c>
+      <c r="N241" s="24">
+        <v>91.334999999999994</v>
+      </c>
+      <c r="O241" s="6">
+        <f>SUM(M241+N241)</f>
+        <v>118.708</v>
+      </c>
+      <c r="P241" s="7"/>
+      <c r="Q241" s="6" t="str">
+        <f>L241</f>
+        <v>1660-1740</v>
+      </c>
+      <c r="R241" s="7">
+        <f>(O241*M243)/O243</f>
+        <v>40.178032554816966</v>
+      </c>
+      <c r="S241" s="10">
+        <f>(O241*N243)/O243</f>
+        <v>78.529967445183033</v>
+      </c>
+      <c r="T241" s="7">
+        <f>SUM(R241:S241)</f>
+        <v>118.708</v>
+      </c>
+      <c r="U241" s="8"/>
+    </row>
+    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A242" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B242" s="25">
+        <v>11576</v>
+      </c>
+      <c r="C242" s="25">
+        <v>4673</v>
+      </c>
+      <c r="D242" s="6">
+        <f>SUM(B242+C242)</f>
+        <v>16249</v>
+      </c>
+      <c r="E242" s="7"/>
+      <c r="F242" s="6" t="str">
+        <f>A242</f>
+        <v>1740-1802</v>
+      </c>
+      <c r="G242" s="6">
+        <f>(D242*B243)/D243</f>
+        <v>11967.442820077837</v>
+      </c>
+      <c r="H242" s="6">
+        <f>(D242*C243)/D243</f>
+        <v>4281.5571799221634</v>
+      </c>
+      <c r="I242" s="6">
+        <f>SUM(G242:H242)</f>
+        <v>16249</v>
+      </c>
+      <c r="J242" s="8"/>
+      <c r="K242" s="26"/>
+      <c r="L242" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="M242" s="25">
+        <v>34.695</v>
+      </c>
+      <c r="N242" s="25">
+        <v>29.979999999999997</v>
+      </c>
+      <c r="O242" s="6">
+        <f>SUM(M242+N242)</f>
+        <v>64.674999999999997</v>
+      </c>
+      <c r="P242" s="7"/>
+      <c r="Q242" s="6" t="str">
+        <f>L242</f>
+        <v>1740-1802</v>
+      </c>
+      <c r="R242" s="6">
+        <f>(O242*M243)/O243</f>
+        <v>21.889967445183032</v>
+      </c>
+      <c r="S242" s="6">
+        <f>(O242*N243)/O243</f>
+        <v>42.785032554816965</v>
+      </c>
+      <c r="T242" s="6">
+        <f>SUM(R242:S242)</f>
+        <v>64.674999999999997</v>
+      </c>
+      <c r="U242" s="8"/>
+    </row>
+    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A243" s="5"/>
+      <c r="B243" s="6">
+        <f>(B241+B242)</f>
+        <v>14761</v>
+      </c>
+      <c r="C243" s="6">
+        <f>(C241+C242)</f>
+        <v>5281</v>
+      </c>
+      <c r="D243" s="6">
+        <f>IF(SUM(D241:D242)&lt;&gt;SUM(B243:C243),"PROBLEM",SUM(D241:D242))</f>
+        <v>20042</v>
+      </c>
+      <c r="E243" s="7"/>
+      <c r="F243" s="7"/>
+      <c r="G243" s="6">
+        <f>SUM(G241:G242)</f>
+        <v>14761</v>
+      </c>
+      <c r="H243" s="6">
+        <f>SUM(H241:H242)</f>
+        <v>5281</v>
+      </c>
+      <c r="I243" s="6">
+        <f>SUM(G243:H243)</f>
+        <v>20042</v>
+      </c>
+      <c r="J243" s="8"/>
+      <c r="K243" s="26"/>
+      <c r="L243" s="5"/>
+      <c r="M243" s="6">
+        <f>(M241+M242)</f>
+        <v>62.067999999999998</v>
+      </c>
+      <c r="N243" s="6">
+        <f>(N241+N242)</f>
+        <v>121.315</v>
+      </c>
+      <c r="O243" s="6">
+        <f>IF(SUM(O241:O242)&lt;&gt;SUM(M243:N243),"PROBLEM",SUM(O241:O242))</f>
+        <v>183.38299999999998</v>
+      </c>
+      <c r="P243" s="7"/>
+      <c r="Q243" s="7"/>
+      <c r="R243" s="7">
+        <f>SUM(R241:R242)</f>
+        <v>62.067999999999998</v>
+      </c>
+      <c r="S243" s="6">
+        <f>SUM(S241:S242)</f>
+        <v>121.315</v>
+      </c>
+      <c r="T243" s="7">
+        <f>SUM(R243:S243)</f>
+        <v>183.38299999999998</v>
+      </c>
+      <c r="U243" s="8"/>
+    </row>
+    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A244" s="5"/>
+      <c r="B244" s="6"/>
+      <c r="C244" s="6"/>
+      <c r="D244" s="6"/>
+      <c r="E244" s="7"/>
+      <c r="F244" s="7"/>
+      <c r="G244" s="7"/>
+      <c r="H244" s="7"/>
+      <c r="I244" s="7"/>
+      <c r="J244" s="8"/>
+      <c r="K244" s="26"/>
+      <c r="L244" s="5"/>
+      <c r="M244" s="6"/>
+      <c r="N244" s="6"/>
+      <c r="O244" s="6"/>
+      <c r="P244" s="7"/>
+      <c r="Q244" s="7"/>
+      <c r="R244" s="7"/>
+      <c r="S244" s="7"/>
+      <c r="T244" s="7"/>
+      <c r="U244" s="8"/>
+    </row>
+    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A245" s="5"/>
+      <c r="B245" s="6"/>
+      <c r="C245" s="6"/>
+      <c r="D245" s="6"/>
+      <c r="E245" s="7"/>
+      <c r="F245" s="7"/>
+      <c r="G245" s="7"/>
+      <c r="H245" s="7"/>
+      <c r="I245" s="7"/>
+      <c r="J245" s="8"/>
+      <c r="K245" s="26"/>
+      <c r="L245" s="5"/>
+      <c r="M245" s="6"/>
+      <c r="N245" s="6"/>
+      <c r="O245" s="6"/>
+      <c r="P245" s="7"/>
+      <c r="Q245" s="7"/>
+      <c r="R245" s="7"/>
+      <c r="S245" s="7"/>
+      <c r="T245" s="7"/>
+      <c r="U245" s="8"/>
+    </row>
+    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A246" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B246" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C246" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D246" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E246" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F246" s="7"/>
+      <c r="G246" s="7"/>
+      <c r="H246" s="7"/>
+      <c r="I246" s="7"/>
+      <c r="J246" s="8"/>
+      <c r="K246" s="26"/>
+      <c r="L246" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M246" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N246" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O246" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P246" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q246" s="7"/>
+      <c r="R246" s="7"/>
+      <c r="S246" s="7"/>
+      <c r="T246" s="7"/>
+      <c r="U246" s="8"/>
+    </row>
+    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A247" s="5">
+        <f>B241</f>
+        <v>3185</v>
+      </c>
+      <c r="B247" s="6">
+        <f>G241</f>
+        <v>2793.5571799221634</v>
+      </c>
+      <c r="C247" s="6">
+        <f>A247-B247</f>
+        <v>391.44282007783659</v>
+      </c>
+      <c r="D247" s="6">
+        <f>C247*C247</f>
+        <v>153227.48139048956</v>
+      </c>
+      <c r="E247" s="22">
+        <f>D247/B247</f>
+        <v>54.850311456577707</v>
+      </c>
+      <c r="F247" s="7"/>
+      <c r="G247" s="7"/>
+      <c r="H247" s="7"/>
+      <c r="I247" s="7"/>
+      <c r="J247" s="8"/>
+      <c r="K247" s="26"/>
+      <c r="L247" s="5">
+        <f>M241</f>
+        <v>27.373000000000001</v>
+      </c>
+      <c r="M247" s="6">
+        <f>R241</f>
+        <v>40.178032554816966</v>
+      </c>
+      <c r="N247" s="6">
+        <f>L247-M247</f>
+        <v>-12.805032554816965</v>
+      </c>
+      <c r="O247" s="6">
+        <f>N247*N247</f>
+        <v>163.96885872992229</v>
+      </c>
+      <c r="P247" s="7">
+        <f>O247/M247</f>
+        <v>4.0810574411828426</v>
+      </c>
+      <c r="Q247" s="7"/>
+      <c r="R247" s="7"/>
+      <c r="S247" s="7"/>
+      <c r="T247" s="7"/>
+      <c r="U247" s="8"/>
+    </row>
+    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A248" s="5">
+        <f>B242</f>
+        <v>11576</v>
+      </c>
+      <c r="B248" s="6">
+        <f>G242</f>
+        <v>11967.442820077837</v>
+      </c>
+      <c r="C248" s="6">
+        <f t="shared" ref="C248:C250" si="90">A248-B248</f>
+        <v>-391.44282007783659</v>
+      </c>
+      <c r="D248" s="6">
+        <f t="shared" ref="D248:D250" si="91">C248*C248</f>
+        <v>153227.48139048956</v>
+      </c>
+      <c r="E248" s="22">
+        <f t="shared" ref="E248:E250" si="92">D248/B248</f>
+        <v>12.80369446457008</v>
+      </c>
+      <c r="F248" s="7"/>
+      <c r="G248" s="7"/>
+      <c r="H248" s="7"/>
+      <c r="I248" s="7"/>
+      <c r="J248" s="8"/>
+      <c r="K248" s="26"/>
+      <c r="L248" s="5">
+        <f>M242</f>
+        <v>34.695</v>
+      </c>
+      <c r="M248" s="6">
+        <f>R242</f>
+        <v>21.889967445183032</v>
+      </c>
+      <c r="N248" s="6">
+        <f t="shared" ref="N248:N250" si="93">L248-M248</f>
+        <v>12.805032554816968</v>
+      </c>
+      <c r="O248" s="6">
+        <f t="shared" ref="O248:O250" si="94">N248*N248</f>
+        <v>163.96885872992237</v>
+      </c>
+      <c r="P248" s="7">
+        <f t="shared" ref="P248:P250" si="95">O248/M248</f>
+        <v>7.4905939965664192</v>
+      </c>
+      <c r="Q248" s="7"/>
+      <c r="R248" s="7"/>
+      <c r="S248" s="7"/>
+      <c r="T248" s="7"/>
+      <c r="U248" s="8"/>
+    </row>
+    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A249" s="5">
+        <f>C241</f>
+        <v>608</v>
+      </c>
+      <c r="B249" s="6">
+        <f>H241</f>
+        <v>999.44282007783659</v>
+      </c>
+      <c r="C249" s="6">
+        <f t="shared" si="90"/>
+        <v>-391.44282007783659</v>
+      </c>
+      <c r="D249" s="6">
+        <f t="shared" si="91"/>
+        <v>153227.48139048956</v>
+      </c>
+      <c r="E249" s="22">
+        <f t="shared" si="92"/>
+        <v>153.31290426255322</v>
+      </c>
+      <c r="F249" s="7"/>
+      <c r="G249" s="7"/>
+      <c r="H249" s="7"/>
+      <c r="I249" s="7"/>
+      <c r="J249" s="8"/>
+      <c r="K249" s="26"/>
+      <c r="L249" s="5">
+        <f>N241</f>
+        <v>91.334999999999994</v>
+      </c>
+      <c r="M249" s="6">
+        <f>S241</f>
+        <v>78.529967445183033</v>
+      </c>
+      <c r="N249" s="6">
+        <f t="shared" si="93"/>
+        <v>12.805032554816961</v>
+      </c>
+      <c r="O249" s="6">
+        <f t="shared" si="94"/>
+        <v>163.96885872992218</v>
+      </c>
+      <c r="P249" s="7">
+        <f t="shared" si="95"/>
+        <v>2.0879781829067841</v>
+      </c>
+      <c r="Q249" s="7"/>
+      <c r="R249" s="7"/>
+      <c r="S249" s="7"/>
+      <c r="T249" s="7"/>
+      <c r="U249" s="8"/>
+    </row>
+    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A250" s="5">
+        <f>C242</f>
+        <v>4673</v>
+      </c>
+      <c r="B250" s="6">
+        <f>H242</f>
+        <v>4281.5571799221634</v>
+      </c>
+      <c r="C250" s="6">
+        <f t="shared" si="90"/>
+        <v>391.44282007783659</v>
+      </c>
+      <c r="D250" s="6">
+        <f t="shared" si="91"/>
+        <v>153227.48139048956</v>
+      </c>
+      <c r="E250" s="22">
+        <f t="shared" si="92"/>
+        <v>35.787792840658774</v>
+      </c>
+      <c r="F250" s="7"/>
+      <c r="G250" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H250" s="7"/>
+      <c r="I250" s="7"/>
+      <c r="J250" s="8"/>
+      <c r="K250" s="26"/>
+      <c r="L250" s="5">
+        <f>N242</f>
+        <v>29.979999999999997</v>
+      </c>
+      <c r="M250" s="6">
+        <f>S242</f>
+        <v>42.785032554816965</v>
+      </c>
+      <c r="N250" s="6">
+        <f t="shared" si="93"/>
+        <v>-12.805032554816968</v>
+      </c>
+      <c r="O250" s="6">
+        <f t="shared" si="94"/>
+        <v>163.96885872992237</v>
+      </c>
+      <c r="P250" s="7">
+        <f t="shared" si="95"/>
+        <v>3.8323883128952274</v>
+      </c>
+      <c r="Q250" s="7"/>
+      <c r="R250" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="S250" s="7"/>
+      <c r="T250" s="7"/>
+      <c r="U250" s="8"/>
+    </row>
+    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A251" s="5"/>
+      <c r="B251" s="6"/>
+      <c r="C251" s="6"/>
+      <c r="D251" s="6"/>
+      <c r="E251" s="7"/>
+      <c r="F251" s="7"/>
+      <c r="G251" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H251" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="I251" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="J251" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="K251" s="26"/>
+      <c r="L251" s="5"/>
+      <c r="M251" s="6"/>
+      <c r="N251" s="6"/>
+      <c r="O251" s="6"/>
+      <c r="P251" s="7"/>
+      <c r="Q251" s="7"/>
+      <c r="R251" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="S251" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="T251" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="U251" s="13">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A252" s="5"/>
+      <c r="B252" s="6"/>
+      <c r="C252" s="6"/>
+      <c r="D252" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E252" s="22">
+        <f>SUM(E247:E250)</f>
+        <v>256.7547030243598</v>
+      </c>
+      <c r="F252" s="7"/>
+      <c r="G252" s="7">
+        <v>2.71</v>
+      </c>
+      <c r="H252" s="7">
+        <v>3.84</v>
+      </c>
+      <c r="I252" s="7">
+        <v>6.63</v>
+      </c>
+      <c r="J252" s="8">
+        <v>10.8</v>
+      </c>
+      <c r="K252" s="26"/>
+      <c r="L252" s="5"/>
+      <c r="M252" s="6"/>
+      <c r="N252" s="6"/>
+      <c r="O252" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P252" s="7">
+        <f>SUM(P247:P250)</f>
+        <v>17.492017933551274</v>
+      </c>
+      <c r="Q252" s="7"/>
+      <c r="R252" s="7">
+        <v>2.71</v>
+      </c>
+      <c r="S252" s="7">
+        <v>3.84</v>
+      </c>
+      <c r="T252" s="7">
+        <v>6.63</v>
+      </c>
+      <c r="U252" s="8">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A253" s="5"/>
+      <c r="B253" s="6"/>
+      <c r="C253" s="6"/>
+      <c r="D253" s="6"/>
+      <c r="E253" s="7"/>
+      <c r="F253" s="7"/>
+      <c r="G253" s="7"/>
+      <c r="H253" s="7"/>
+      <c r="I253" s="7"/>
+      <c r="J253" s="8"/>
+      <c r="K253" s="26"/>
+      <c r="L253" s="5"/>
+      <c r="M253" s="6"/>
+      <c r="N253" s="6"/>
+      <c r="O253" s="6"/>
+      <c r="P253" s="7"/>
+      <c r="Q253" s="7"/>
+      <c r="R253" s="7"/>
+      <c r="S253" s="7"/>
+      <c r="T253" s="7"/>
+      <c r="U253" s="8"/>
+    </row>
+    <row r="254" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="14"/>
+      <c r="B254" s="15" t="str">
+        <f>IF(E252&gt;=G252,IF(E252&gt;H252,IF(E252&gt;I252,IF(E252&gt;J252,"ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 99.9%","ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 99%"),"ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 95%"),"ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 90%"),"REJECT THE HYPOTHESIS")</f>
+        <v>ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 99.9%</v>
+      </c>
+      <c r="C254" s="15"/>
+      <c r="D254" s="15"/>
+      <c r="E254" s="16"/>
+      <c r="F254" s="16"/>
+      <c r="G254" s="16"/>
+      <c r="H254" s="16"/>
+      <c r="I254" s="16"/>
+      <c r="J254" s="17"/>
+      <c r="K254" s="26"/>
+      <c r="L254" s="14"/>
+      <c r="M254" s="15" t="str">
+        <f>IF(P252&gt;=R252,IF(P252&gt;S252,IF(P252&gt;T252,IF(P252&gt;U252,"ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 99.9%","ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 99%"),"ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 95%"),"ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 90%"),"REJECT THE HYPOTHESIS")</f>
+        <v>ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 99.9%</v>
+      </c>
+      <c r="N254" s="15"/>
+      <c r="O254" s="15"/>
+      <c r="P254" s="16"/>
+      <c r="Q254" s="16"/>
+      <c r="R254" s="16"/>
+      <c r="S254" s="16"/>
+      <c r="T254" s="16"/>
+      <c r="U254" s="17"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="X83:Y83"/>
+    <mergeCell ref="AB83:AC83"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -9181,10 +13228,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AI35"/>
+  <dimension ref="A1:AI65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9193,7 +13240,7 @@
     <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
@@ -9359,177 +13406,177 @@
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:35" s="38" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G6" s="34" t="s">
+    <row r="6" spans="1:35" s="37" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="M6" s="34" t="s">
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="M6" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="S6" s="34" t="s">
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="S6" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="Y6" s="34" t="s">
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="Y6" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="34"/>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="34"/>
-      <c r="AE6" s="34" t="s">
+      <c r="Z6" s="40"/>
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="40"/>
+      <c r="AC6" s="40"/>
+      <c r="AE6" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="AF6" s="34"/>
-      <c r="AG6" s="34"/>
-      <c r="AH6" s="34"/>
-      <c r="AI6" s="34"/>
-    </row>
-    <row r="7" spans="1:35" s="39" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="AF6" s="40"/>
+      <c r="AG6" s="40"/>
+      <c r="AH6" s="40"/>
+      <c r="AI6" s="40"/>
+    </row>
+    <row r="7" spans="1:35" s="38" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="34" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="M7" s="34" t="s">
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="M7" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="S7" s="34" t="s">
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="S7" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="T7" s="34"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="34"/>
-      <c r="Y7" s="34" t="s">
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="Y7" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="Z7" s="34"/>
-      <c r="AA7" s="34"/>
-      <c r="AB7" s="34"/>
-      <c r="AC7" s="34"/>
-      <c r="AE7" s="34" t="s">
+      <c r="Z7" s="40"/>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="40"/>
+      <c r="AC7" s="40"/>
+      <c r="AE7" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="AF7" s="34"/>
-      <c r="AG7" s="34"/>
-      <c r="AH7" s="34"/>
-      <c r="AI7" s="34"/>
+      <c r="AF7" s="40"/>
+      <c r="AG7" s="40"/>
+      <c r="AH7" s="40"/>
+      <c r="AI7" s="40"/>
     </row>
     <row r="8" spans="1:35" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8" s="36">
         <v>576.65418642572456</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="36">
         <v>2.4584311246501244E-2</v>
       </c>
       <c r="E8" s="26" t="s">
         <v>159</v>
       </c>
       <c r="F8" s="32"/>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="36">
         <v>3.481753407425835E-3</v>
       </c>
-      <c r="I8" s="35" t="s">
+      <c r="I8" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="J8" s="37">
+      <c r="J8" s="36">
         <v>5.5028522525845519E-4</v>
       </c>
       <c r="K8" s="26" t="str">
         <f>I2</f>
         <v>No Relationship</v>
       </c>
-      <c r="M8" s="36" t="s">
+      <c r="M8" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="N8" s="37">
+      <c r="N8" s="36">
         <v>7.6958201154428349E-2</v>
       </c>
-      <c r="O8" s="35" t="s">
+      <c r="O8" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="P8" s="37">
+      <c r="P8" s="36">
         <v>2.5871183821500484E-3</v>
       </c>
       <c r="Q8" s="26" t="str">
         <f>I2</f>
         <v>No Relationship</v>
       </c>
-      <c r="S8" s="36" t="s">
+      <c r="S8" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="T8" s="37">
+      <c r="T8" s="36">
         <v>0.46389805172004117</v>
       </c>
-      <c r="U8" s="35" t="s">
+      <c r="U8" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="V8" s="37">
+      <c r="V8" s="36">
         <v>6.3518483696409049E-3</v>
       </c>
       <c r="W8" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="Y8" s="36" t="s">
+      <c r="Y8" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="Z8" s="37">
+      <c r="Z8" s="36">
         <v>35.263039122471767</v>
       </c>
-      <c r="AA8" s="35" t="s">
+      <c r="AA8" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="AB8" s="37">
+      <c r="AB8" s="36">
         <v>5.5379460084725274E-2</v>
       </c>
       <c r="AC8" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="AE8" s="36" t="s">
+      <c r="AE8" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="AF8" s="37">
+      <c r="AF8" s="36">
         <v>41.028605905359122</v>
       </c>
-      <c r="AG8" s="35" t="s">
+      <c r="AG8" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="AH8" s="37">
+      <c r="AH8" s="36">
         <v>5.9735462161708518E-2</v>
       </c>
       <c r="AI8" s="26" t="s">
@@ -9537,178 +13584,178 @@
       </c>
     </row>
     <row r="9" spans="1:35" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="B9" s="37">
+      <c r="B9" s="36">
         <v>954112</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="36">
         <v>6.0438835946484751E-4</v>
       </c>
       <c r="F9" s="32"/>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="36">
         <v>11498</v>
       </c>
-      <c r="I9" s="35" t="s">
+      <c r="I9" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="J9" s="37">
+      <c r="J9" s="36">
         <v>3.0281382913774875E-7</v>
       </c>
-      <c r="M9" s="36" t="s">
+      <c r="M9" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="N9" s="37">
+      <c r="N9" s="36">
         <v>11498</v>
       </c>
-      <c r="O9" s="35" t="s">
+      <c r="O9" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="P9" s="37">
+      <c r="P9" s="36">
         <v>6.6931815232586836E-6</v>
       </c>
-      <c r="S9" s="36" t="s">
+      <c r="S9" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="T9" s="37">
+      <c r="T9" s="36">
         <v>11498</v>
       </c>
-      <c r="U9" s="35" t="s">
+      <c r="U9" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="V9" s="37">
+      <c r="V9" s="36">
         <v>4.034597771090982E-5</v>
       </c>
-      <c r="Y9" s="36" t="s">
+      <c r="Y9" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="Z9" s="37">
+      <c r="Z9" s="36">
         <v>11498</v>
       </c>
-      <c r="AA9" s="35" t="s">
+      <c r="AA9" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="AB9" s="37">
+      <c r="AB9" s="36">
         <v>3.0668845992756796E-3</v>
       </c>
-      <c r="AE9" s="36" t="s">
+      <c r="AE9" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="AF9" s="37">
+      <c r="AF9" s="36">
         <v>11498</v>
       </c>
-      <c r="AG9" s="35" t="s">
+      <c r="AG9" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="AH9" s="37">
+      <c r="AH9" s="36">
         <v>3.5683254396729099E-3</v>
       </c>
     </row>
     <row r="10" spans="1:35" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="37"/>
-      <c r="C10" s="36" t="s">
+      <c r="B10" s="36"/>
+      <c r="C10" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10" s="36">
         <v>2.4576885376642314E-2</v>
       </c>
       <c r="F10" s="32"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="36" t="s">
+      <c r="H10" s="36"/>
+      <c r="I10" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="J10" s="37">
+      <c r="J10" s="36">
         <v>5.5028514194148598E-4</v>
       </c>
-      <c r="N10" s="37"/>
-      <c r="O10" s="36" t="s">
+      <c r="N10" s="36"/>
+      <c r="O10" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="P10" s="37">
+      <c r="P10" s="36">
         <v>2.5871097241670334E-3</v>
       </c>
-      <c r="T10" s="37"/>
-      <c r="U10" s="36" t="s">
+      <c r="T10" s="36"/>
+      <c r="U10" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="V10" s="37">
+      <c r="V10" s="36">
         <v>6.3517202377517236E-3</v>
       </c>
-      <c r="Z10" s="37"/>
-      <c r="AA10" s="36" t="s">
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="AB10" s="37">
+      <c r="AB10" s="36">
         <v>5.5294733712872864E-2</v>
       </c>
-      <c r="AF10" s="37"/>
-      <c r="AG10" s="36" t="s">
+      <c r="AF10" s="36"/>
+      <c r="AG10" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="AH10" s="37">
+      <c r="AH10" s="36">
         <v>5.9629168759716515E-2</v>
       </c>
     </row>
     <row r="11" spans="1:35" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="37"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="37"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
       <c r="F11" s="32"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="37"/>
-    </row>
-    <row r="12" spans="1:35" s="39" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="H11" s="36"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="36"/>
+    </row>
+    <row r="12" spans="1:35" s="38" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="40" t="s">
         <v>173</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="34" t="s">
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="B13" s="37">
+      <c r="B13" s="36">
         <v>391.49609119216802</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="D13" s="37">
+      <c r="D13" s="36">
         <v>2.0117506111218E-2</v>
       </c>
       <c r="E13" s="26" t="s">
         <v>159</v>
       </c>
       <c r="F13" s="26"/>
-      <c r="G13" s="36" t="s">
+      <c r="G13" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="36">
         <v>35.081043968922003</v>
       </c>
-      <c r="I13" s="35" t="s">
+      <c r="I13" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="J13" s="37">
+      <c r="J13" s="36">
         <v>8.0414873522702615E-2</v>
       </c>
       <c r="K13" s="26" t="s">
@@ -9716,111 +13763,111 @@
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="B14" s="37">
+      <c r="B14" s="36">
         <v>967340</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="36">
         <v>4.047140521348936E-4</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
-      <c r="G14" s="36" t="s">
+      <c r="G14" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="H14" s="37">
+      <c r="H14" s="36">
         <v>5425</v>
       </c>
-      <c r="I14" s="35" t="s">
+      <c r="I14" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="J14" s="37">
+      <c r="J14" s="36">
         <v>6.4665518836722578E-3</v>
       </c>
       <c r="K14" s="26"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="36" t="s">
+      <c r="B15" s="36"/>
+      <c r="C15" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="36">
         <v>2.0113436427761349E-2</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="26"/>
       <c r="G15" s="26"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="36" t="s">
+      <c r="H15" s="36"/>
+      <c r="I15" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="J15" s="37">
+      <c r="J15" s="36">
         <v>8.0156124284239225E-2</v>
       </c>
       <c r="K15" s="26"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="37"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="37"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="36"/>
       <c r="K16" s="26"/>
     </row>
-    <row r="17" spans="1:11" s="39" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+    <row r="17" spans="1:11" s="38" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="G17" s="34" t="s">
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="G17" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="B18" s="37">
+      <c r="B18" s="36">
         <v>250.13015789781213</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="D18" s="37">
+      <c r="D18" s="36">
         <v>1.6080274398708093E-2</v>
       </c>
       <c r="E18" s="26" t="s">
         <v>159</v>
       </c>
       <c r="F18" s="26"/>
-      <c r="G18" s="36" t="s">
+      <c r="G18" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="36">
         <v>1.7132655289676475</v>
       </c>
-      <c r="I18" s="35" t="s">
+      <c r="I18" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="J18" s="37">
+      <c r="J18" s="36">
         <v>1.777102456515715E-2</v>
       </c>
       <c r="K18" s="26" t="s">
@@ -9828,111 +13875,111 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="B19" s="37">
+      <c r="B19" s="36">
         <v>967340</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="D19" s="37">
+      <c r="D19" s="36">
         <v>2.585752247377469E-4</v>
       </c>
       <c r="E19" s="26"/>
       <c r="F19" s="26"/>
-      <c r="G19" s="36" t="s">
+      <c r="G19" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="H19" s="37">
+      <c r="H19" s="36">
         <v>5425</v>
       </c>
-      <c r="I19" s="35" t="s">
+      <c r="I19" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="J19" s="37">
+      <c r="J19" s="36">
         <v>3.158093140954189E-4</v>
       </c>
       <c r="K19" s="26"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="36" t="s">
+      <c r="B20" s="36"/>
+      <c r="C20" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="D20" s="37">
+      <c r="D20" s="36">
         <v>1.6078195821517587E-2</v>
       </c>
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
       <c r="G20" s="26"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="36" t="s">
+      <c r="H20" s="36"/>
+      <c r="I20" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="J20" s="37">
+      <c r="J20" s="36">
         <v>1.7768219102093842E-2</v>
       </c>
       <c r="K20" s="26"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="37"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36"/>
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
       <c r="G21" s="26"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="37"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="36"/>
       <c r="K21" s="26"/>
     </row>
-    <row r="22" spans="1:11" s="39" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
+    <row r="22" spans="1:11" s="38" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="G22" s="34" t="s">
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="G22" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="B23" s="37">
+      <c r="B23" s="36">
         <v>33.322482127939345</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="D23" s="37">
+      <c r="D23" s="36">
         <v>3.3144463170987293E-2</v>
       </c>
       <c r="E23" s="26" t="s">
         <v>159</v>
       </c>
       <c r="F23" s="26"/>
-      <c r="G23" s="36" t="s">
+      <c r="G23" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="H23" s="37">
+      <c r="H23" s="36">
         <v>0.57850607106068519</v>
       </c>
-      <c r="I23" s="35" t="s">
+      <c r="I23" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="J23" s="37">
+      <c r="J23" s="36">
         <v>4.0713763260088409E-2</v>
       </c>
       <c r="K23" s="26" t="s">
@@ -9940,110 +13987,110 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="B24" s="37">
+      <c r="B24" s="36">
         <v>30333</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="D24" s="37">
+      <c r="D24" s="36">
         <v>1.098555438892933E-3</v>
       </c>
       <c r="E24" s="26"/>
       <c r="F24" s="26"/>
-      <c r="G24" s="36" t="s">
+      <c r="G24" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="36">
         <v>349</v>
       </c>
-      <c r="I24" s="35" t="s">
+      <c r="I24" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="J24" s="37">
+      <c r="J24" s="36">
         <v>1.6576105187985249E-3</v>
       </c>
       <c r="K24" s="26"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="26"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="36" t="s">
+      <c r="B25" s="36"/>
+      <c r="C25" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="D25" s="37">
+      <c r="D25" s="36">
         <v>3.3126272641951615E-2</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="36" t="s">
+      <c r="H25" s="36"/>
+      <c r="I25" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="J25" s="37">
+      <c r="J25" s="36">
         <v>4.0680061371639292E-2</v>
       </c>
       <c r="K25" s="26"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="26"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="37"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="36"/>
       <c r="E26" s="26"/>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="37"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="36"/>
       <c r="K26" s="26"/>
     </row>
-    <row r="27" spans="1:11" s="39" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="34" t="s">
+    <row r="27" spans="1:11" s="38" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="G27" s="34" t="s">
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="G27" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="B28" s="37">
+      <c r="B28" s="36">
         <v>22.846744340227737</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="D28" s="37">
+      <c r="D28" s="36">
         <v>5.4245790378314312E-3</v>
       </c>
       <c r="E28" t="s">
         <v>159</v>
       </c>
-      <c r="G28" s="36" t="s">
+      <c r="G28" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="H28" s="37">
+      <c r="H28" s="36">
         <v>3.8167251594338989</v>
       </c>
-      <c r="I28" s="35" t="s">
+      <c r="I28" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="J28" s="37">
+      <c r="J28" s="36">
         <v>3.8140411708340836E-2</v>
       </c>
       <c r="K28" s="26" t="s">
@@ -10051,103 +14098,103 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="B29" s="37">
+      <c r="B29" s="36">
         <v>776412</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="D29" s="37">
+      <c r="D29" s="36">
         <v>2.9426057737680176E-5</v>
       </c>
-      <c r="G29" s="36" t="s">
+      <c r="G29" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="H29" s="37">
+      <c r="H29" s="36">
         <v>2623.7359999999999</v>
       </c>
-      <c r="I29" s="35" t="s">
+      <c r="I29" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="J29" s="37">
+      <c r="J29" s="36">
         <v>1.4546910052817429E-3</v>
       </c>
       <c r="K29" s="26"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="37"/>
-      <c r="C30" s="36" t="s">
+      <c r="B30" s="36"/>
+      <c r="C30" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="D30" s="37">
+      <c r="D30" s="36">
         <v>5.4244992276048171E-3</v>
       </c>
       <c r="G30" s="26"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="36" t="s">
+      <c r="H30" s="36"/>
+      <c r="I30" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="J30" s="37">
+      <c r="J30" s="36">
         <v>3.8112700680990243E-2</v>
       </c>
       <c r="K30" s="26"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="37"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="37"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="36"/>
       <c r="G31" s="26"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="37"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="36"/>
       <c r="K31" s="26"/>
     </row>
-    <row r="32" spans="1:11" s="39" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="34" t="s">
+    <row r="32" spans="1:11" s="38" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="G32" s="34" t="s">
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="G32" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="B33" s="37">
+      <c r="B33" s="36">
         <v>250.13015789781213</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="D33" s="37">
+      <c r="D33" s="36">
         <v>2.8205164538170565E-2</v>
       </c>
       <c r="E33" s="26" t="s">
         <v>159</v>
       </c>
       <c r="F33" s="26"/>
-      <c r="G33" s="36" t="s">
+      <c r="G33" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="H33" s="37">
+      <c r="H33" s="36">
         <v>3.7492297364752059</v>
       </c>
-      <c r="I33" s="35" t="s">
+      <c r="I33" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="J33" s="37">
+      <c r="J33" s="36">
         <v>8.5075820561194879E-2</v>
       </c>
       <c r="K33" s="26" t="s">
@@ -10155,30 +14202,30 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="B34" s="37">
+      <c r="B34" s="36">
         <v>314419</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="D34" s="37">
+      <c r="D34" s="36">
         <v>7.9553130662527436E-4</v>
       </c>
       <c r="E34" s="26"/>
       <c r="F34" s="26"/>
-      <c r="G34" s="36" t="s">
+      <c r="G34" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="H34" s="37">
+      <c r="H34" s="36">
         <v>518</v>
       </c>
-      <c r="I34" s="35" t="s">
+      <c r="I34" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="J34" s="37">
+      <c r="J34" s="36">
         <v>7.2378952441606295E-3</v>
       </c>
       <c r="K34" s="26"/>
@@ -10186,35 +14233,710 @@
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="26"/>
       <c r="B35" s="26"/>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="D35" s="37">
+      <c r="D35" s="36">
         <v>2.8193952181863276E-2</v>
       </c>
       <c r="E35" s="26"/>
       <c r="F35" s="26"/>
       <c r="G35" s="26"/>
       <c r="H35" s="26"/>
-      <c r="I35" s="36" t="s">
+      <c r="I35" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="J35" s="37">
+      <c r="J35" s="36">
         <v>8.4769596934552757E-2</v>
       </c>
       <c r="K35" s="26"/>
     </row>
+    <row r="37" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="40" t="str">
+        <f>chisquared!A148</f>
+        <v>h1: there is an association between male homicide guilty verdicts pre 1740 and post 1740 at the Old Bailey</v>
+      </c>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="40" t="str">
+        <f>chisquared!L148</f>
+        <v>h1: there is an association between male homicide guilty verdicts pre 1740 and post 1740 in Surrey/Sussex</v>
+      </c>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="B38" s="36">
+        <f>chisquared!E162</f>
+        <v>168.28461168176366</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D38" s="36">
+        <f>SQRT(B38/B39)</f>
+        <v>8.3341904383829712E-2</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="F38" s="26"/>
+      <c r="G38" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="H38" s="36">
+        <f>chisquared!P162</f>
+        <v>19.896196845047292</v>
+      </c>
+      <c r="I38" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="J38" s="36">
+        <f>SQRT(H38/H39)</f>
+        <v>0.26897919382224139</v>
+      </c>
+      <c r="K38" s="26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="B39" s="36">
+        <f>chisquared!D153</f>
+        <v>24228</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D39" s="36">
+        <f>D38*D38</f>
+        <v>6.9458730263234139E-3</v>
+      </c>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="H39" s="36">
+        <f>chisquared!O153</f>
+        <v>275</v>
+      </c>
+      <c r="I39" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="J39" s="36">
+        <f>J38*J38</f>
+        <v>7.2349806709262901E-2</v>
+      </c>
+      <c r="K39" s="26"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="D40" s="36">
+        <f>SQRT(D39/(1+D39))</f>
+        <v>8.3053962382219723E-2</v>
+      </c>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="J40" s="36">
+        <f>SQRT(J39/(1+J39))</f>
+        <v>0.25974694520752228</v>
+      </c>
+      <c r="K40" s="26"/>
+    </row>
+    <row r="42" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="40" t="str">
+        <f>chisquared!A166</f>
+        <v>h1: there is an association between being male and being sentenced to death at the Old Bailey (between 1722-1802)</v>
+      </c>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="40" t="str">
+        <f>chisquared!L166</f>
+        <v>h1: there is an association between being male and being sentenced to death in Surrey/Sussex (between 1722-1802)</v>
+      </c>
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="40"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="B43" s="36">
+        <f>chisquared!E180</f>
+        <v>1300.2940235296301</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D43" s="36">
+        <f>SQRT(B43/B44)</f>
+        <v>5.248092525837874E-2</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="F43" s="26"/>
+      <c r="G43" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="H43" s="36">
+        <f>chisquared!P180</f>
+        <v>0.22657941485266708</v>
+      </c>
+      <c r="I43" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="J43" s="36">
+        <f>SQRT(H43/H44)</f>
+        <v>1.0880259627292785E-2</v>
+      </c>
+      <c r="K43" s="26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="B44" s="36">
+        <f>chisquared!D171</f>
+        <v>472105</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D44" s="36">
+        <f>D43*D43</f>
+        <v>2.7542475159755358E-3</v>
+      </c>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="H44" s="36">
+        <f>chisquared!O171</f>
+        <v>1914</v>
+      </c>
+      <c r="I44" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="J44" s="36">
+        <f>J43*J43</f>
+        <v>1.1838004955729734E-4</v>
+      </c>
+      <c r="K44" s="26"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="D45" s="36">
+        <f>SQRT(D44/(1+D44))</f>
+        <v>5.2408801480268635E-2</v>
+      </c>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="J45" s="36">
+        <f>SQRT(J44/(1+J44))</f>
+        <v>1.0879615681628024E-2</v>
+      </c>
+      <c r="K45" s="26"/>
+    </row>
+    <row r="47" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="40" t="str">
+        <f>chisquared!A184</f>
+        <v>h1: there is an association between being male and being sentenced to transportation at the Old Bailey (between 1722-1802)</v>
+      </c>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="40" t="str">
+        <f>chisquared!L184</f>
+        <v>h1: there is an association between being male and being sentenced to transportation in Surrey/Sussex (between 1722-1802)</v>
+      </c>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="40"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="B48" s="36">
+        <f>chisquared!E198</f>
+        <v>575.35203989548563</v>
+      </c>
+      <c r="C48" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D48" s="36">
+        <f>SQRT(B48/B49)</f>
+        <v>3.4909813494259326E-2</v>
+      </c>
+      <c r="E48" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="F48" s="26"/>
+      <c r="G48" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="H48" s="36">
+        <f>chisquared!P198</f>
+        <v>0.26483264091401881</v>
+      </c>
+      <c r="I48" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="J48" s="36">
+        <f>SQRT(H48/H49)</f>
+        <v>1.1762910400220023E-2</v>
+      </c>
+      <c r="K48" s="26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="B49" s="36">
+        <f>chisquared!D189</f>
+        <v>472105</v>
+      </c>
+      <c r="C49" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D49" s="36">
+        <f>D48*D48</f>
+        <v>1.2186950782039705E-3</v>
+      </c>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="H49" s="36">
+        <f>chisquared!O189</f>
+        <v>1914</v>
+      </c>
+      <c r="I49" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="J49" s="36">
+        <f>J48*J48</f>
+        <v>1.3836606108360438E-4</v>
+      </c>
+      <c r="K49" s="26"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="26"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="D50" s="36">
+        <f>SQRT(D49/(1+D49))</f>
+        <v>3.4888560708843219E-2</v>
+      </c>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="J50" s="36">
+        <f>SQRT(J49/(1+J49))</f>
+        <v>1.1762096690871889E-2</v>
+      </c>
+      <c r="K50" s="26"/>
+    </row>
+    <row r="52" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="40" t="str">
+        <f>chisquared!A202</f>
+        <v>h1: there is an association between being male and being sentenced to imprisonment at the Old Bailey (between 1722-1802)</v>
+      </c>
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="40" t="str">
+        <f>chisquared!L202</f>
+        <v>h1: there is an association between being male and being sentenced to imprisonment in Surrey/Sussex (between 1722-1802)</v>
+      </c>
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="40"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="B53" s="36">
+        <f>chisquared!E216</f>
+        <v>10.393941888224864</v>
+      </c>
+      <c r="C53" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D53" s="36">
+        <f>SQRT(B53/B54)</f>
+        <v>4.4328856271572421E-3</v>
+      </c>
+      <c r="E53" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="F53" s="26"/>
+      <c r="G53" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="H53" s="36">
+        <f>chisquared!P216</f>
+        <v>49.307922006683519</v>
+      </c>
+      <c r="I53" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="J53" s="36">
+        <f>SQRT(H53/H54)</f>
+        <v>0.16050456297885812</v>
+      </c>
+      <c r="K53" s="26" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="B54" s="36">
+        <f>chisquared!D207</f>
+        <v>528941</v>
+      </c>
+      <c r="C54" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D54" s="36">
+        <f>D53*D53</f>
+        <v>1.9650474983457256E-5</v>
+      </c>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="H54" s="36">
+        <f>chisquared!O207</f>
+        <v>1914</v>
+      </c>
+      <c r="I54" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="J54" s="36">
+        <f>J53*J53</f>
+        <v>2.5761714737034234E-2</v>
+      </c>
+      <c r="K54" s="26"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="26"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="D55" s="36">
+        <f>SQRT(D54/(1+D54))</f>
+        <v>4.4328420736450659E-3</v>
+      </c>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="J55" s="36">
+        <f>SQRT(J54/(1+J54))</f>
+        <v>0.15847623346413706</v>
+      </c>
+      <c r="K55" s="26"/>
+    </row>
+    <row r="57" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="40" t="str">
+        <f>chisquared!A220</f>
+        <v>h1: there is an association between being female and being sentenced to death for infanticide at the Old Bailey (between 1663-1802)</v>
+      </c>
+      <c r="B57" s="40"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="40" t="str">
+        <f>chisquared!L220</f>
+        <v>h1: there is an association between being female and being sentenced to death for infanticide in Surrey/Sussex (between 1663-1802)</v>
+      </c>
+      <c r="H57" s="40"/>
+      <c r="I57" s="40"/>
+      <c r="J57" s="40"/>
+      <c r="K57" s="40"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="B58" s="36">
+        <f>chisquared!E234</f>
+        <v>258.08498733340673</v>
+      </c>
+      <c r="C58" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D58" s="36">
+        <f>SQRT(B58/B59)</f>
+        <v>0.14072648352583414</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="F58" s="26"/>
+      <c r="G58" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="H58" s="36">
+        <f>chisquared!P234</f>
+        <v>52.404669260700395</v>
+      </c>
+      <c r="I58" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="J58" s="36">
+        <f>SQRT(H58/H59)</f>
+        <v>0.3180680983297402</v>
+      </c>
+      <c r="K58" s="26" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="B59" s="36">
+        <f>chisquared!D225</f>
+        <v>13032</v>
+      </c>
+      <c r="C59" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D59" s="36">
+        <f>D58*D58</f>
+        <v>1.9803943165546869E-2</v>
+      </c>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="H59" s="36">
+        <f>chisquared!O225</f>
+        <v>518</v>
+      </c>
+      <c r="I59" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="J59" s="36">
+        <f>J58*J58</f>
+        <v>0.10116731517509728</v>
+      </c>
+      <c r="K59" s="26"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="26"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="D60" s="36">
+        <f>SQRT(D59/(1+D59))</f>
+        <v>0.13935337527456859</v>
+      </c>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="J60" s="36">
+        <f>SQRT(J59/(1+J59))</f>
+        <v>0.30310524825452073</v>
+      </c>
+      <c r="K60" s="26"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="40" t="str">
+        <f>chisquared!A238</f>
+        <v>h1: there is an association between being charged with Homicide and found guilty at the Old Bailey (1660-1740 &amp; 1740-1802)</v>
+      </c>
+      <c r="B62" s="40"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="40" t="str">
+        <f>chisquared!L238</f>
+        <v>h1: there is an association between being charged with Homicide and found guilty in Surrey/Sussex (1660-1740 &amp; 1740-1802)</v>
+      </c>
+      <c r="H62" s="40"/>
+      <c r="I62" s="40"/>
+      <c r="J62" s="40"/>
+      <c r="K62" s="40"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="B63" s="36">
+        <f>chisquared!E252</f>
+        <v>256.7547030243598</v>
+      </c>
+      <c r="C63" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D63" s="36">
+        <f>SQRT(B63/B64)</f>
+        <v>0.11318494777651016</v>
+      </c>
+      <c r="E63" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="F63" s="26"/>
+      <c r="G63" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="H63" s="36">
+        <f>chisquared!P252</f>
+        <v>17.492017933551274</v>
+      </c>
+      <c r="I63" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="J63" s="36">
+        <f>SQRT(H63/H64)</f>
+        <v>0.30884489019832884</v>
+      </c>
+      <c r="K63" s="26" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="B64" s="36">
+        <f>chisquared!D243</f>
+        <v>20042</v>
+      </c>
+      <c r="C64" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D64" s="36">
+        <f>D63*D63</f>
+        <v>1.2810832403171331E-2</v>
+      </c>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="H64" s="36">
+        <f>chisquared!O243</f>
+        <v>183.38299999999998</v>
+      </c>
+      <c r="I64" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="J64" s="36">
+        <f>J63*J63</f>
+        <v>9.5385166201617799E-2</v>
+      </c>
+      <c r="K64" s="26"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="26"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="D65" s="36">
+        <f>SQRT(D64/(1+D64))</f>
+        <v>0.11246684339536961</v>
+      </c>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="J65" s="36">
+        <f>SQRT(J64/(1+J64))</f>
+        <v>0.29509169888364611</v>
+      </c>
+      <c r="K65" s="26"/>
+    </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AE7:AI7"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="M7:Q7"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="S7:W7"/>
-    <mergeCell ref="Y6:AC6"/>
-    <mergeCell ref="Y7:AC7"/>
+  <mergeCells count="33">
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="G52:K52"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="G57:K57"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="G62:K62"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="G37:K37"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="G47:K47"/>
     <mergeCell ref="A32:E32"/>
     <mergeCell ref="G7:K7"/>
     <mergeCell ref="G12:K12"/>
@@ -10227,6 +14949,15 @@
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="A27:E27"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AE7:AI7"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="S7:W7"/>
+    <mergeCell ref="Y6:AC6"/>
+    <mergeCell ref="Y7:AC7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10238,7 +14969,7 @@
   <dimension ref="A1:AD84"/>
   <sheetViews>
     <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/new_data_worksheet_2.xlsx
+++ b/new_data_worksheet_2.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ma_public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212382DF-8F72-4640-A5E9-FF94AA8B8484}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF115F7-EC66-49FB-AD8E-BF6D1A6D63C8}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chisquared" sheetId="1" r:id="rId1"/>
     <sheet name="phi_cramersv" sheetId="8" r:id="rId2"/>
-    <sheet name="Beattie_descStats" sheetId="4" r:id="rId3"/>
-    <sheet name="oldBailey_descStats" sheetId="5" r:id="rId4"/>
-    <sheet name="Notes" sheetId="6" r:id="rId5"/>
+    <sheet name="kendallstau" sheetId="9" r:id="rId3"/>
+    <sheet name="Beattie_descStats" sheetId="4" r:id="rId4"/>
+    <sheet name="oldBailey_descStats" sheetId="5" r:id="rId5"/>
+    <sheet name="Notes" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="237">
   <si>
     <t>OBSERVED</t>
   </si>
@@ -691,11 +692,59 @@
   <si>
     <t>Over:</t>
   </si>
+  <si>
+    <t>tau-b =</t>
+  </si>
+  <si>
+    <t>(P - Q)</t>
+  </si>
+  <si>
+    <t>(P + Q + TR)</t>
+  </si>
+  <si>
+    <t>(P + Q + TC)</t>
+  </si>
+  <si>
+    <t>P =</t>
+  </si>
+  <si>
+    <t>Q =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tau-b = </t>
+  </si>
+  <si>
+    <t>Assumption #5: Rape, Attempted Rape are all crimes committed by only men; Infanticide is only committed by women; 0% of crime is male with 100% of crime female for all other crimes (men are somehow acquitted of all other crimes)</t>
+  </si>
+  <si>
+    <t>0.000 - 0.200</t>
+  </si>
+  <si>
+    <t>0.200 - 0.400</t>
+  </si>
+  <si>
+    <t>0.400 - 0.600</t>
+  </si>
+  <si>
+    <t>0.600 - 0.800</t>
+  </si>
+  <si>
+    <t>0.800 - 1.000</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -847,7 +896,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -906,15 +955,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1231,8 +1311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O58" workbookViewId="0">
-      <selection activeCell="W77" sqref="W77"/>
+    <sheetView topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1286,7 +1366,7 @@
         <v>120</v>
       </c>
       <c r="BD1" s="26" t="s">
-        <v>121</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:65" x14ac:dyDescent="0.25">
@@ -6191,7 +6271,7 @@
       <c r="AB85" t="s">
         <v>220</v>
       </c>
-      <c r="AC85" s="44">
+      <c r="AC85" s="42">
         <f>X81</f>
         <v>2566.7800000000002</v>
       </c>
@@ -6325,7 +6405,7 @@
       <c r="T87" s="7"/>
       <c r="U87" s="8"/>
       <c r="W87" s="5"/>
-      <c r="X87" s="41" t="s">
+      <c r="X87" s="40" t="s">
         <v>214</v>
       </c>
       <c r="Y87" s="6">
@@ -6514,7 +6594,7 @@
         <v>10.8</v>
       </c>
       <c r="W90" s="5"/>
-      <c r="X90" s="42" t="s">
+      <c r="X90" s="41" t="s">
         <v>218</v>
       </c>
       <c r="Y90" s="7" t="s">
@@ -6522,7 +6602,7 @@
       </c>
       <c r="Z90" s="6"/>
       <c r="AA90" s="7"/>
-      <c r="AB90" s="42" t="s">
+      <c r="AB90" s="41" t="s">
         <v>216</v>
       </c>
       <c r="AC90" t="s">
@@ -13230,8 +13310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AI65"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="K63" sqref="K63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13407,86 +13487,86 @@
       <c r="K5" s="32"/>
     </row>
     <row r="6" spans="1:35" s="37" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="M6" s="40" t="s">
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="M6" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="S6" s="40" t="s">
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="S6" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40"/>
-      <c r="Y6" s="40" t="s">
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
+      <c r="Y6" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="Z6" s="40"/>
-      <c r="AA6" s="40"/>
-      <c r="AB6" s="40"/>
-      <c r="AC6" s="40"/>
-      <c r="AE6" s="40" t="s">
+      <c r="Z6" s="44"/>
+      <c r="AA6" s="44"/>
+      <c r="AB6" s="44"/>
+      <c r="AC6" s="44"/>
+      <c r="AE6" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="AF6" s="40"/>
-      <c r="AG6" s="40"/>
-      <c r="AH6" s="40"/>
-      <c r="AI6" s="40"/>
+      <c r="AF6" s="44"/>
+      <c r="AG6" s="44"/>
+      <c r="AH6" s="44"/>
+      <c r="AI6" s="44"/>
     </row>
     <row r="7" spans="1:35" s="38" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
       <c r="F7" s="39"/>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="M7" s="40" t="s">
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="M7" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="S7" s="40" t="s">
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="S7" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="Y7" s="40" t="s">
+      <c r="T7" s="44"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="Y7" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="Z7" s="40"/>
-      <c r="AA7" s="40"/>
-      <c r="AB7" s="40"/>
-      <c r="AC7" s="40"/>
-      <c r="AE7" s="40" t="s">
+      <c r="Z7" s="44"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="44"/>
+      <c r="AC7" s="44"/>
+      <c r="AE7" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="AF7" s="40"/>
-      <c r="AG7" s="40"/>
-      <c r="AH7" s="40"/>
-      <c r="AI7" s="40"/>
+      <c r="AF7" s="44"/>
+      <c r="AG7" s="44"/>
+      <c r="AH7" s="44"/>
+      <c r="AI7" s="44"/>
     </row>
     <row r="8" spans="1:35" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
@@ -13713,21 +13793,21 @@
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="1:35" s="38" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
       <c r="F12" s="39"/>
-      <c r="G12" s="40" t="s">
+      <c r="G12" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
@@ -13826,20 +13906,20 @@
       <c r="K16" s="26"/>
     </row>
     <row r="17" spans="1:11" s="38" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="G17" s="40" t="s">
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="G17" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
@@ -13938,20 +14018,20 @@
       <c r="K21" s="26"/>
     </row>
     <row r="22" spans="1:11" s="38" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="G22" s="40" t="s">
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="G22" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="35" t="s">
@@ -14050,20 +14130,20 @@
       <c r="K26" s="26"/>
     </row>
     <row r="27" spans="1:11" s="38" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="G27" s="40" t="s">
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="G27" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="35" t="s">
@@ -14153,20 +14233,20 @@
       <c r="K31" s="26"/>
     </row>
     <row r="32" spans="1:11" s="38" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="G32" s="40" t="s">
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="G32" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="35" t="s">
@@ -14252,23 +14332,23 @@
       <c r="K35" s="26"/>
     </row>
     <row r="37" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="40" t="str">
+      <c r="A37" s="44" t="str">
         <f>chisquared!A148</f>
         <v>h1: there is an association between male homicide guilty verdicts pre 1740 and post 1740 at the Old Bailey</v>
       </c>
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
       <c r="F37" s="38"/>
-      <c r="G37" s="40" t="str">
+      <c r="G37" s="44" t="str">
         <f>chisquared!L148</f>
         <v>h1: there is an association between male homicide guilty verdicts pre 1740 and post 1740 in Surrey/Sussex</v>
       </c>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="35" t="s">
@@ -14364,23 +14444,23 @@
       <c r="K40" s="26"/>
     </row>
     <row r="42" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="40" t="str">
+      <c r="A42" s="44" t="str">
         <f>chisquared!A166</f>
         <v>h1: there is an association between being male and being sentenced to death at the Old Bailey (between 1722-1802)</v>
       </c>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
       <c r="F42" s="38"/>
-      <c r="G42" s="40" t="str">
+      <c r="G42" s="44" t="str">
         <f>chisquared!L166</f>
         <v>h1: there is an association between being male and being sentenced to death in Surrey/Sussex (between 1722-1802)</v>
       </c>
-      <c r="H42" s="40"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="40"/>
-      <c r="K42" s="40"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="44"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="35" t="s">
@@ -14476,23 +14556,23 @@
       <c r="K45" s="26"/>
     </row>
     <row r="47" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="40" t="str">
+      <c r="A47" s="44" t="str">
         <f>chisquared!A184</f>
         <v>h1: there is an association between being male and being sentenced to transportation at the Old Bailey (between 1722-1802)</v>
       </c>
-      <c r="B47" s="40"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
       <c r="F47" s="38"/>
-      <c r="G47" s="40" t="str">
+      <c r="G47" s="44" t="str">
         <f>chisquared!L184</f>
         <v>h1: there is an association between being male and being sentenced to transportation in Surrey/Sussex (between 1722-1802)</v>
       </c>
-      <c r="H47" s="40"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="40"/>
-      <c r="K47" s="40"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="44"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="35" t="s">
@@ -14588,23 +14668,23 @@
       <c r="K50" s="26"/>
     </row>
     <row r="52" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="40" t="str">
+      <c r="A52" s="44" t="str">
         <f>chisquared!A202</f>
         <v>h1: there is an association between being male and being sentenced to imprisonment at the Old Bailey (between 1722-1802)</v>
       </c>
-      <c r="B52" s="40"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="44"/>
       <c r="F52" s="38"/>
-      <c r="G52" s="40" t="str">
+      <c r="G52" s="44" t="str">
         <f>chisquared!L202</f>
         <v>h1: there is an association between being male and being sentenced to imprisonment in Surrey/Sussex (between 1722-1802)</v>
       </c>
-      <c r="H52" s="40"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="40"/>
-      <c r="K52" s="40"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="44"/>
+      <c r="J52" s="44"/>
+      <c r="K52" s="44"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="35" t="s">
@@ -14700,23 +14780,23 @@
       <c r="K55" s="26"/>
     </row>
     <row r="57" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="40" t="str">
+      <c r="A57" s="44" t="str">
         <f>chisquared!A220</f>
         <v>h1: there is an association between being female and being sentenced to death for infanticide at the Old Bailey (between 1663-1802)</v>
       </c>
-      <c r="B57" s="40"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="40"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="44"/>
       <c r="F57" s="38"/>
-      <c r="G57" s="40" t="str">
+      <c r="G57" s="44" t="str">
         <f>chisquared!L220</f>
         <v>h1: there is an association between being female and being sentenced to death for infanticide in Surrey/Sussex (between 1663-1802)</v>
       </c>
-      <c r="H57" s="40"/>
-      <c r="I57" s="40"/>
-      <c r="J57" s="40"/>
-      <c r="K57" s="40"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="44"/>
+      <c r="J57" s="44"/>
+      <c r="K57" s="44"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="35" t="s">
@@ -14812,23 +14892,23 @@
       <c r="K60" s="26"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="40" t="str">
+      <c r="A62" s="44" t="str">
         <f>chisquared!A238</f>
         <v>h1: there is an association between being charged with Homicide and found guilty at the Old Bailey (1660-1740 &amp; 1740-1802)</v>
       </c>
-      <c r="B62" s="40"/>
-      <c r="C62" s="40"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="40"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="44"/>
       <c r="F62" s="38"/>
-      <c r="G62" s="40" t="str">
+      <c r="G62" s="44" t="str">
         <f>chisquared!L238</f>
         <v>h1: there is an association between being charged with Homicide and found guilty in Surrey/Sussex (1660-1740 &amp; 1740-1802)</v>
       </c>
-      <c r="H62" s="40"/>
-      <c r="I62" s="40"/>
-      <c r="J62" s="40"/>
-      <c r="K62" s="40"/>
+      <c r="H62" s="44"/>
+      <c r="I62" s="44"/>
+      <c r="J62" s="44"/>
+      <c r="K62" s="44"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="35" t="s">
@@ -14925,18 +15005,15 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="G52:K52"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="G57:K57"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="G62:K62"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="G37:K37"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="G47:K47"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AE7:AI7"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="S7:W7"/>
+    <mergeCell ref="Y6:AC6"/>
+    <mergeCell ref="Y7:AC7"/>
     <mergeCell ref="A32:E32"/>
     <mergeCell ref="G7:K7"/>
     <mergeCell ref="G12:K12"/>
@@ -14949,15 +15026,18 @@
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="A27:E27"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AE7:AI7"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="M7:Q7"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="S7:W7"/>
-    <mergeCell ref="Y6:AC6"/>
-    <mergeCell ref="Y7:AC7"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="G37:K37"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="G47:K47"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="G52:K52"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="G57:K57"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="G62:K62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14965,6 +15045,4602 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{763B1C3C-ACDF-4E91-B784-59FAE74FEFAF}">
+  <dimension ref="A1:AC188"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="K182" sqref="K182"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" customWidth="1"/>
+    <col min="17" max="17" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.85546875" customWidth="1"/>
+    <col min="22" max="22" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.7109375" customWidth="1"/>
+    <col min="27" max="27" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+    </row>
+    <row r="3" spans="1:29" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+    </row>
+    <row r="6" spans="1:29" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="52" t="str">
+        <f>chisquared!L1</f>
+        <v>Assumption #1: Rape, Attempted Rape are all crimes committed by only men; Infanticide is only committed by women; Even split of other crimes between men and women</v>
+      </c>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="K6" s="52" t="str">
+        <f>chisquared!W1</f>
+        <v>Assumption #2: Rape, Attempted Rape are all crimes committed by only men; Infanticide is only committed by women; 70% of crime is male with 30% of crime female for all other crimes (average distribution found in Old Bailey)</v>
+      </c>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="P6" s="52" t="str">
+        <f>chisquared!AH1</f>
+        <v>Assumption #3: Rape, Attempted Rape are all crimes committed by only men; Infanticide is only committed by women; 85% of crime is male with 15% of crime female for all other crimes (averagre distribution of property crimes)</v>
+      </c>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="52"/>
+      <c r="U6" s="52" t="str">
+        <f>chisquared!AS1</f>
+        <v>Assumption #4: Rape, Attempted Rape are all crimes committed by only men; Infanticide is only committed by women; 100% of crime is male with 0% of crime female for all other crimes (women are somehow acquitted of all other crimes)</v>
+      </c>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Z6" s="52" t="str">
+        <f>chisquared!BD1</f>
+        <v>Assumption #5: Rape, Attempted Rape are all crimes committed by only men; Infanticide is only committed by women; 0% of crime is male with 100% of crime female for all other crimes (men are somehow acquitted of all other crimes)</v>
+      </c>
+      <c r="AA6" s="52"/>
+      <c r="AB6" s="52"/>
+      <c r="AC6" s="52"/>
+    </row>
+    <row r="7" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="49" t="str">
+        <f>chisquared!A2</f>
+        <v>h1: there is an association between being male and property offences at the old bailey</v>
+      </c>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="51"/>
+      <c r="F7" s="49" t="str">
+        <f>chisquared!L2</f>
+        <v>h1: there is an association between being male and property offences in Surrey &amp; Sussex</v>
+      </c>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="49" t="str">
+        <f>chisquared!W2</f>
+        <v>h1: there is an association between being male and property offences in Surrey &amp; Sussex</v>
+      </c>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="51"/>
+      <c r="P7" s="49" t="str">
+        <f>chisquared!AH2</f>
+        <v>h1: there is an association between being male and property offences in Surrey &amp; Sussex</v>
+      </c>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="51"/>
+      <c r="U7" s="49" t="str">
+        <f>chisquared!AS2</f>
+        <v>h1: there is an association between being male and property offences in Surrey &amp; Sussex</v>
+      </c>
+      <c r="V7" s="50"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="51"/>
+      <c r="Z7" s="49" t="str">
+        <f>chisquared!BD2</f>
+        <v>h1: there is an association between being male and property offences in Surrey &amp; Sussex</v>
+      </c>
+      <c r="AA7" s="50"/>
+      <c r="AB7" s="50"/>
+      <c r="AC7" s="51"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="8"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="8"/>
+    </row>
+    <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="str">
+        <f>chisquared!A4</f>
+        <v>OBSERVED</v>
+      </c>
+      <c r="B9" s="21" t="str">
+        <f>chisquared!B4</f>
+        <v>property offence</v>
+      </c>
+      <c r="C9" s="21" t="str">
+        <f>chisquared!C4</f>
+        <v>not property offence</v>
+      </c>
+      <c r="D9" s="45"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="5" t="str">
+        <f>chisquared!L4</f>
+        <v>OBSERVED</v>
+      </c>
+      <c r="G9" s="21" t="str">
+        <f>chisquared!M4</f>
+        <v>property offence</v>
+      </c>
+      <c r="H9" s="21" t="str">
+        <f>chisquared!N4</f>
+        <v>not property offence</v>
+      </c>
+      <c r="I9" s="45"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="5" t="str">
+        <f>chisquared!W4</f>
+        <v>OBSERVED</v>
+      </c>
+      <c r="L9" s="21" t="str">
+        <f>chisquared!X4</f>
+        <v>property offence</v>
+      </c>
+      <c r="M9" s="21" t="str">
+        <f>chisquared!Y4</f>
+        <v>not property offence</v>
+      </c>
+      <c r="N9" s="45"/>
+      <c r="P9" s="5" t="str">
+        <f>chisquared!AH4</f>
+        <v>OBSERVED</v>
+      </c>
+      <c r="Q9" s="21" t="str">
+        <f>chisquared!AI4</f>
+        <v>property offence</v>
+      </c>
+      <c r="R9" s="21" t="str">
+        <f>chisquared!AJ4</f>
+        <v>not property offence</v>
+      </c>
+      <c r="S9" s="45"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="5" t="str">
+        <f>chisquared!AS4</f>
+        <v>OBSERVED</v>
+      </c>
+      <c r="V9" s="21" t="str">
+        <f>chisquared!AT4</f>
+        <v>property offence</v>
+      </c>
+      <c r="W9" s="21" t="str">
+        <f>chisquared!AU4</f>
+        <v>not property offence</v>
+      </c>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="5" t="str">
+        <f>chisquared!BD4</f>
+        <v>OBSERVED</v>
+      </c>
+      <c r="AA9" s="21" t="str">
+        <f>chisquared!BE4</f>
+        <v>property offence</v>
+      </c>
+      <c r="AB9" s="21" t="str">
+        <f>chisquared!BF4</f>
+        <v>not property offence</v>
+      </c>
+      <c r="AC9" s="45"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="str">
+        <f>chisquared!A5</f>
+        <v>male</v>
+      </c>
+      <c r="B10" s="24">
+        <f>chisquared!B5</f>
+        <v>742655</v>
+      </c>
+      <c r="C10" s="24">
+        <f>chisquared!C5</f>
+        <v>32423</v>
+      </c>
+      <c r="D10" s="45">
+        <f>chisquared!D5</f>
+        <v>775078</v>
+      </c>
+      <c r="E10" s="42"/>
+      <c r="F10" s="5" t="str">
+        <f>chisquared!L5</f>
+        <v>male</v>
+      </c>
+      <c r="G10" s="24">
+        <f>chisquared!M5</f>
+        <v>2585</v>
+      </c>
+      <c r="H10" s="24">
+        <f>chisquared!N5</f>
+        <v>3167.5</v>
+      </c>
+      <c r="I10" s="45">
+        <f>chisquared!O5</f>
+        <v>5752.5</v>
+      </c>
+      <c r="J10" s="42"/>
+      <c r="K10" s="5" t="str">
+        <f>chisquared!W5</f>
+        <v>male</v>
+      </c>
+      <c r="L10" s="24">
+        <f>chisquared!X5</f>
+        <v>3618.9999999999995</v>
+      </c>
+      <c r="M10" s="24">
+        <f>chisquared!Y5</f>
+        <v>4414.5</v>
+      </c>
+      <c r="N10" s="45">
+        <f>chisquared!Z5</f>
+        <v>8033.5</v>
+      </c>
+      <c r="P10" s="5" t="str">
+        <f>chisquared!AH5</f>
+        <v>male</v>
+      </c>
+      <c r="Q10" s="24">
+        <f>chisquared!AI5</f>
+        <v>4394.5</v>
+      </c>
+      <c r="R10" s="24">
+        <f>chisquared!AJ5</f>
+        <v>5349.75</v>
+      </c>
+      <c r="S10" s="45">
+        <f>chisquared!AK5</f>
+        <v>9744.25</v>
+      </c>
+      <c r="T10" s="26"/>
+      <c r="U10" s="5" t="str">
+        <f>chisquared!AS5</f>
+        <v>male</v>
+      </c>
+      <c r="V10" s="24">
+        <f>chisquared!AT5</f>
+        <v>5170</v>
+      </c>
+      <c r="W10" s="24">
+        <f>chisquared!AU5</f>
+        <v>6285</v>
+      </c>
+      <c r="X10" s="45">
+        <f>chisquared!AV5</f>
+        <v>11455</v>
+      </c>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="5" t="str">
+        <f>chisquared!BD5</f>
+        <v>male</v>
+      </c>
+      <c r="AA10" s="24">
+        <f>chisquared!BE5</f>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="24">
+        <f>chisquared!BF5</f>
+        <v>50</v>
+      </c>
+      <c r="AC10" s="45">
+        <f>chisquared!BG5</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="str">
+        <f>chisquared!A6</f>
+        <v>not male</v>
+      </c>
+      <c r="B11" s="25">
+        <f>chisquared!B6</f>
+        <v>169226</v>
+      </c>
+      <c r="C11" s="25">
+        <f>chisquared!C6</f>
+        <v>9808</v>
+      </c>
+      <c r="D11" s="45">
+        <f>chisquared!D6</f>
+        <v>179034</v>
+      </c>
+      <c r="E11" s="42"/>
+      <c r="F11" s="5" t="str">
+        <f>chisquared!L6</f>
+        <v>not male</v>
+      </c>
+      <c r="G11" s="25">
+        <f>chisquared!M6</f>
+        <v>2585</v>
+      </c>
+      <c r="H11" s="25">
+        <f>chisquared!N6</f>
+        <v>3160.5</v>
+      </c>
+      <c r="I11" s="45">
+        <f>chisquared!O6</f>
+        <v>5745.5</v>
+      </c>
+      <c r="J11" s="42"/>
+      <c r="K11" s="5" t="str">
+        <f>chisquared!W6</f>
+        <v>not male</v>
+      </c>
+      <c r="L11" s="25">
+        <f>chisquared!X6</f>
+        <v>1551</v>
+      </c>
+      <c r="M11" s="25">
+        <f>chisquared!Y6</f>
+        <v>1913.5</v>
+      </c>
+      <c r="N11" s="45">
+        <f>chisquared!Z6</f>
+        <v>3464.5</v>
+      </c>
+      <c r="P11" s="5" t="str">
+        <f>chisquared!AH6</f>
+        <v>not male</v>
+      </c>
+      <c r="Q11" s="25">
+        <f>chisquared!AI6</f>
+        <v>775.5</v>
+      </c>
+      <c r="R11" s="25">
+        <f>chisquared!AJ6</f>
+        <v>978.25</v>
+      </c>
+      <c r="S11" s="45">
+        <f>chisquared!AK6</f>
+        <v>1753.75</v>
+      </c>
+      <c r="T11" s="26"/>
+      <c r="U11" s="5" t="str">
+        <f>chisquared!AS6</f>
+        <v>not male</v>
+      </c>
+      <c r="V11" s="25">
+        <f>chisquared!AT6</f>
+        <v>0</v>
+      </c>
+      <c r="W11" s="25">
+        <f>chisquared!AU6</f>
+        <v>43</v>
+      </c>
+      <c r="X11" s="45">
+        <f>chisquared!AV6</f>
+        <v>43</v>
+      </c>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="5" t="str">
+        <f>chisquared!BD6</f>
+        <v>not male</v>
+      </c>
+      <c r="AA11" s="25">
+        <f>chisquared!BE6</f>
+        <v>5170</v>
+      </c>
+      <c r="AB11" s="25">
+        <f>chisquared!BF6</f>
+        <v>6278</v>
+      </c>
+      <c r="AC11" s="45">
+        <f>chisquared!BG6</f>
+        <v>11448</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6">
+        <f>chisquared!B7</f>
+        <v>911881</v>
+      </c>
+      <c r="C12" s="6">
+        <f>chisquared!C7</f>
+        <v>42231</v>
+      </c>
+      <c r="D12" s="45">
+        <f>chisquared!D7</f>
+        <v>954112</v>
+      </c>
+      <c r="E12" s="42"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6">
+        <f>chisquared!M7</f>
+        <v>5170</v>
+      </c>
+      <c r="H12" s="6">
+        <f>chisquared!N7</f>
+        <v>6328</v>
+      </c>
+      <c r="I12" s="45">
+        <f>chisquared!O7</f>
+        <v>11498</v>
+      </c>
+      <c r="J12" s="42"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="6">
+        <f>chisquared!X7</f>
+        <v>5170</v>
+      </c>
+      <c r="M12" s="6">
+        <f>chisquared!Y7</f>
+        <v>6328</v>
+      </c>
+      <c r="N12" s="45">
+        <f>chisquared!Z7</f>
+        <v>11498</v>
+      </c>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="6">
+        <f>chisquared!AI7</f>
+        <v>5170</v>
+      </c>
+      <c r="R12" s="6">
+        <f>chisquared!AJ7</f>
+        <v>6328</v>
+      </c>
+      <c r="S12" s="45">
+        <f>chisquared!AK7</f>
+        <v>11498</v>
+      </c>
+      <c r="T12" s="26"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="6">
+        <f>chisquared!AT7</f>
+        <v>5170</v>
+      </c>
+      <c r="W12" s="6">
+        <f>chisquared!AU7</f>
+        <v>6328</v>
+      </c>
+      <c r="X12" s="45">
+        <f>chisquared!AV7</f>
+        <v>11498</v>
+      </c>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="6">
+        <f>chisquared!BE7</f>
+        <v>5170</v>
+      </c>
+      <c r="AB12" s="6">
+        <f>chisquared!BF7</f>
+        <v>6328</v>
+      </c>
+      <c r="AC12" s="45">
+        <f>chisquared!BG7</f>
+        <v>11498</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13" s="46"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="45"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="45"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="45"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="45"/>
+      <c r="Z13" s="46"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="45"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14" s="46"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="D14" s="45">
+        <f>B10*C11</f>
+        <v>7283960240</v>
+      </c>
+      <c r="E14" s="42"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="I14" s="45">
+        <f>G10*H11</f>
+        <v>8169892.5</v>
+      </c>
+      <c r="K14" s="46"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="N14" s="45">
+        <f>L10*M11</f>
+        <v>6924956.4999999991</v>
+      </c>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="S14" s="45">
+        <f>Q10*R11</f>
+        <v>4298919.625</v>
+      </c>
+      <c r="U14" s="46"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="X14" s="45">
+        <f>V10*W11</f>
+        <v>222310</v>
+      </c>
+      <c r="Z14" s="46"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC14" s="45">
+        <f>AA10*AB11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15" s="46"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="D15" s="45">
+        <f>C10*B11</f>
+        <v>5486814598</v>
+      </c>
+      <c r="E15" s="42"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="I15" s="45">
+        <f>H10*G11</f>
+        <v>8187987.5</v>
+      </c>
+      <c r="K15" s="46"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="N15" s="45">
+        <f>M10*L11</f>
+        <v>6846889.5</v>
+      </c>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="S15" s="45">
+        <f>R10*Q11</f>
+        <v>4148731.125</v>
+      </c>
+      <c r="U15" s="46"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="X15" s="45">
+        <f>W10*V11</f>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="46"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="AC15" s="45">
+        <f>AB10*AA11</f>
+        <v>258500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16" s="46"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="D16" s="45">
+        <f>(B10*C10)+(B11*C11)</f>
+        <v>25738871673</v>
+      </c>
+      <c r="E16" s="42"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="I16" s="45">
+        <f>(G10*H10)+(G11*H11)</f>
+        <v>16357880</v>
+      </c>
+      <c r="K16" s="46"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="N16" s="45">
+        <f>(L10*M10)+(L11*M11)</f>
+        <v>18943914</v>
+      </c>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="S16" s="45">
+        <f>(Q10*R10)+(Q11*R11)</f>
+        <v>24268109.25</v>
+      </c>
+      <c r="U16" s="46"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="X16" s="45">
+        <f>(V10*W10)+(V11*W11)</f>
+        <v>32493450</v>
+      </c>
+      <c r="Z16" s="46"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="AC16" s="45">
+        <f>(AA10*AB10)+(AA11*AB11)</f>
+        <v>32457260</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A17" s="46"/>
+      <c r="B17" s="7" t="str">
+        <f>IF(ABS(D18)&gt;0.8,$F$4,IF(ABS(D18)&gt;0.6,$E$4,IF(ABS(D18)&gt;0.4,$D$4,IF(ABS(D18)&gt;0.2,$C$4,$B$4))))</f>
+        <v>Very Weak</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="D17" s="45">
+        <f>(B10*B11)+(C10*C11)</f>
+        <v>125994539814</v>
+      </c>
+      <c r="E17" s="42"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="7" t="str">
+        <f>IF(ABS(I18)&gt;0.8,$F$4,IF(ABS(I18)&gt;0.6,$E$4,IF(ABS(I18)&gt;0.4,$D$4,IF(ABS(I18)&gt;0.2,$C$4,$B$4))))</f>
+        <v>Very Weak</v>
+      </c>
+      <c r="H17" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="I17" s="45">
+        <f>(G10*G11)+(H10*H11)</f>
+        <v>16693108.75</v>
+      </c>
+      <c r="K17" s="46"/>
+      <c r="L17" s="7" t="str">
+        <f>IF(ABS(N18)&gt;0.8,$F$4,IF(ABS(N18)&gt;0.6,$E$4,IF(ABS(N18)&gt;0.4,$D$4,IF(ABS(N18)&gt;0.2,$C$4,$B$4))))</f>
+        <v>Very Weak</v>
+      </c>
+      <c r="M17" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="N17" s="45">
+        <f>(L10*L11)+(M10*M11)</f>
+        <v>14060214.75</v>
+      </c>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="7" t="str">
+        <f>IF(ABS(S18)&gt;0.8,$F$4,IF(ABS(S18)&gt;0.6,$E$4,IF(ABS(S18)&gt;0.4,$D$4,IF(ABS(S18)&gt;0.2,$C$4,$B$4))))</f>
+        <v>Very Weak</v>
+      </c>
+      <c r="R17" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="S17" s="45">
+        <f>(Q10*Q11)+(R10*R11)</f>
+        <v>8641327.6875</v>
+      </c>
+      <c r="U17" s="46"/>
+      <c r="V17" s="7" t="str">
+        <f>IF(ABS(X18)&gt;0.8,$F$4,IF(ABS(X18)&gt;0.6,$E$4,IF(ABS(X18)&gt;0.4,$D$4,IF(ABS(X18)&gt;0.2,$C$4,$B$4))))</f>
+        <v>Very Weak</v>
+      </c>
+      <c r="W17" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="X17" s="45">
+        <f>(V10*V11)+(W10*W11)</f>
+        <v>270255</v>
+      </c>
+      <c r="Z17" s="46"/>
+      <c r="AA17" s="7" t="str">
+        <f>IF(ABS(AC18)&gt;0.8,$F$4,IF(ABS(AC18)&gt;0.6,$E$4,IF(ABS(AC18)&gt;0.4,$D$4,IF(ABS(AC18)&gt;0.2,$C$4,$B$4))))</f>
+        <v>Very Weak</v>
+      </c>
+      <c r="AB17" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC17" s="45">
+        <f>(AA10*AA11)+(AB10*AB11)</f>
+        <v>313900</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="47"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="D18" s="48">
+        <f>(D14-D15)/(SQRT((D14+D15+D16)*(D14+D15+D17)))</f>
+        <v>2.4584311246501254E-2</v>
+      </c>
+      <c r="F18" s="47"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="I18" s="48">
+        <f>(I14-I15)/(SQRT((I14+I15+I16)*(I14+I15+I17)))</f>
+        <v>-5.5028522525847807E-4</v>
+      </c>
+      <c r="K18" s="47"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="N18" s="48">
+        <f>(N14-N15)/(SQRT((N14+N15+N16)*(N14+N15+N17)))</f>
+        <v>2.5871183821500562E-3</v>
+      </c>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="S18" s="48">
+        <f>(S14-S15)/(SQRT((S14+S15+S16)*(S14+S15+S17)))</f>
+        <v>6.3518483696409023E-3</v>
+      </c>
+      <c r="U18" s="47"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="X18" s="48">
+        <f>(X14-X15)/(SQRT((X14+X15+X16)*(X14+X15+X17)))</f>
+        <v>5.5379460084725274E-2</v>
+      </c>
+      <c r="Z18" s="47"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="AC18" s="48">
+        <f>(AC14-AC15)/(SQRT((AC14+AC15+AC16)*(AC14+AC15+AC17)))</f>
+        <v>-5.9735462161708525E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+    </row>
+    <row r="20" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="49" t="str">
+        <f>chisquared!A20</f>
+        <v>h1: there is an association between being guilty and property offences at the Old Bailey</v>
+      </c>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="51"/>
+      <c r="F20" s="49" t="str">
+        <f>chisquared!L20</f>
+        <v>h1: there is an association between being guilty and property offences in Surrey &amp; Sussex</v>
+      </c>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="51"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="str">
+        <f>chisquared!A22</f>
+        <v>OBSERVED</v>
+      </c>
+      <c r="B22" s="21" t="str">
+        <f>chisquared!B22</f>
+        <v>property offence</v>
+      </c>
+      <c r="C22" s="21" t="str">
+        <f>chisquared!C22</f>
+        <v>not property offence</v>
+      </c>
+      <c r="D22" s="45"/>
+      <c r="F22" s="5" t="str">
+        <f>chisquared!L22</f>
+        <v>OBSERVED</v>
+      </c>
+      <c r="G22" s="21" t="str">
+        <f>chisquared!M22</f>
+        <v>property offence</v>
+      </c>
+      <c r="H22" s="21" t="str">
+        <f>chisquared!N22</f>
+        <v>not property offence</v>
+      </c>
+      <c r="I22" s="45"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="str">
+        <f>chisquared!A23</f>
+        <v>guilty</v>
+      </c>
+      <c r="B23" s="24">
+        <f>chisquared!B23</f>
+        <v>763954</v>
+      </c>
+      <c r="C23" s="24">
+        <f>chisquared!C23</f>
+        <v>34216</v>
+      </c>
+      <c r="D23" s="45">
+        <f>chisquared!D23</f>
+        <v>798170</v>
+      </c>
+      <c r="F23" s="5" t="str">
+        <f>chisquared!L23</f>
+        <v>guilty</v>
+      </c>
+      <c r="G23" s="24">
+        <f>chisquared!M23</f>
+        <v>2571</v>
+      </c>
+      <c r="H23" s="24">
+        <f>chisquared!N23</f>
+        <v>526</v>
+      </c>
+      <c r="I23" s="45">
+        <f>chisquared!O23</f>
+        <v>3097</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="str">
+        <f>chisquared!A24</f>
+        <v>not guilty</v>
+      </c>
+      <c r="B24" s="25">
+        <f>chisquared!B24</f>
+        <v>160065</v>
+      </c>
+      <c r="C24" s="25">
+        <f>chisquared!C24</f>
+        <v>9105</v>
+      </c>
+      <c r="D24" s="45">
+        <f>chisquared!D24</f>
+        <v>169170</v>
+      </c>
+      <c r="F24" s="5" t="str">
+        <f>chisquared!L24</f>
+        <v>not guilty</v>
+      </c>
+      <c r="G24" s="25">
+        <f>chisquared!M24</f>
+        <v>1782</v>
+      </c>
+      <c r="H24" s="25">
+        <f>chisquared!N24</f>
+        <v>546</v>
+      </c>
+      <c r="I24" s="45">
+        <f>chisquared!O24</f>
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6">
+        <f>chisquared!B25</f>
+        <v>924019</v>
+      </c>
+      <c r="C25" s="6">
+        <f>chisquared!C25</f>
+        <v>43321</v>
+      </c>
+      <c r="D25" s="45">
+        <f>chisquared!D25</f>
+        <v>967340</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="6">
+        <f>chisquared!M25</f>
+        <v>4353</v>
+      </c>
+      <c r="H25" s="6">
+        <f>chisquared!N25</f>
+        <v>1072</v>
+      </c>
+      <c r="I25" s="45">
+        <f>chisquared!O25</f>
+        <v>5425</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A26" s="46"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="45"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="45"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A27" s="46"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="D27" s="45">
+        <f>B23*C24</f>
+        <v>6955801170</v>
+      </c>
+      <c r="F27" s="46"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="I27" s="45">
+        <f>G23*H24</f>
+        <v>1403766</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A28" s="46"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="D28" s="45">
+        <f>C23*B24</f>
+        <v>5476784040</v>
+      </c>
+      <c r="F28" s="46"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="I28" s="45">
+        <f>H23*G24</f>
+        <v>937332</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A29" s="46"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="D29" s="45">
+        <f>(B23*C23)+(B24*C24)</f>
+        <v>27596841889</v>
+      </c>
+      <c r="F29" s="46"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="I29" s="45">
+        <f>(G23*H23)+(G24*H24)</f>
+        <v>2325318</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A30" s="46"/>
+      <c r="B30" s="7" t="str">
+        <f>IF(ABS(D31)&gt;0.8,$F$4,IF(ABS(D31)&gt;0.6,$E$4,IF(ABS(D31)&gt;0.4,$D$4,IF(ABS(D31)&gt;0.2,$C$4,$B$4))))</f>
+        <v>Very Weak</v>
+      </c>
+      <c r="C30" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="D30" s="45">
+        <f>(B23*B24)+(C23*C24)</f>
+        <v>122593833690</v>
+      </c>
+      <c r="F30" s="46"/>
+      <c r="G30" s="7" t="str">
+        <f>IF(ABS(I31)&gt;0.8,$F$4,IF(ABS(I31)&gt;0.6,$E$4,IF(ABS(I31)&gt;0.4,$D$4,IF(ABS(I31)&gt;0.2,$C$4,$B$4))))</f>
+        <v>Very Weak</v>
+      </c>
+      <c r="H30" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="I30" s="45">
+        <f>(G23*G24)+(H23*H24)</f>
+        <v>4868718</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="47"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="D31" s="48">
+        <f>(D27-D28)/(SQRT((D27+D28+D29)*(D27+D28+D30)))</f>
+        <v>2.0117506111218E-2</v>
+      </c>
+      <c r="F31" s="47"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="I31" s="48">
+        <f>(I27-I28)/(SQRT((I27+I28+I29)*(I27+I28+I30)))</f>
+        <v>8.0414873522702601E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="49" t="str">
+        <f>chisquared!A39</f>
+        <v>h1: there is an association between being male and being sentenced to death for property offences at the old bailey</v>
+      </c>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="49" t="str">
+        <f>chisquared!L39</f>
+        <v>h1: there is an association between being male and being sentenced to death for property offences in surrey</v>
+      </c>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="51"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="8"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="str">
+        <f>chisquared!A41</f>
+        <v>OBSERVED</v>
+      </c>
+      <c r="B35" s="21" t="str">
+        <f>chisquared!B41</f>
+        <v>property offence</v>
+      </c>
+      <c r="C35" s="21" t="str">
+        <f>chisquared!C41</f>
+        <v>not property offence</v>
+      </c>
+      <c r="D35" s="45"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="5" t="str">
+        <f>chisquared!L41</f>
+        <v>OBSERVED</v>
+      </c>
+      <c r="G35" s="21" t="str">
+        <f>chisquared!M41</f>
+        <v>property offence</v>
+      </c>
+      <c r="H35" s="21" t="str">
+        <f>chisquared!N41</f>
+        <v>not property offence</v>
+      </c>
+      <c r="I35" s="45"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="str">
+        <f>chisquared!A42</f>
+        <v>male</v>
+      </c>
+      <c r="B36" s="24">
+        <f>chisquared!B42</f>
+        <v>240131</v>
+      </c>
+      <c r="C36" s="24">
+        <f>chisquared!C42</f>
+        <v>19407</v>
+      </c>
+      <c r="D36" s="45">
+        <f>chisquared!D42</f>
+        <v>259538</v>
+      </c>
+      <c r="E36" s="26"/>
+      <c r="F36" s="5" t="str">
+        <f>chisquared!L42</f>
+        <v>male</v>
+      </c>
+      <c r="G36" s="24">
+        <f>chisquared!M42</f>
+        <v>233</v>
+      </c>
+      <c r="H36" s="24">
+        <f>chisquared!N42</f>
+        <v>52</v>
+      </c>
+      <c r="I36" s="45">
+        <f>chisquared!O42</f>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="str">
+        <f>chisquared!A43</f>
+        <v>not male</v>
+      </c>
+      <c r="B37" s="25">
+        <f>chisquared!B43</f>
+        <v>49682</v>
+      </c>
+      <c r="C37" s="25">
+        <f>chisquared!C43</f>
+        <v>5199</v>
+      </c>
+      <c r="D37" s="45">
+        <f>chisquared!D43</f>
+        <v>54881</v>
+      </c>
+      <c r="E37" s="26"/>
+      <c r="F37" s="5" t="str">
+        <f>chisquared!L43</f>
+        <v>not male</v>
+      </c>
+      <c r="G37" s="25">
+        <f>chisquared!M43</f>
+        <v>8</v>
+      </c>
+      <c r="H37" s="25">
+        <f>chisquared!N43</f>
+        <v>4</v>
+      </c>
+      <c r="I37" s="45">
+        <f>chisquared!O43</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="6">
+        <f>chisquared!B44</f>
+        <v>289813</v>
+      </c>
+      <c r="C38" s="6">
+        <f>chisquared!C44</f>
+        <v>24606</v>
+      </c>
+      <c r="D38" s="45">
+        <f>chisquared!D44</f>
+        <v>314419</v>
+      </c>
+      <c r="E38" s="26"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="6">
+        <f>chisquared!M44</f>
+        <v>241</v>
+      </c>
+      <c r="H38" s="6">
+        <f>chisquared!N44</f>
+        <v>56</v>
+      </c>
+      <c r="I38" s="45">
+        <f>chisquared!O44</f>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="46"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="45"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="46"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="D40" s="45">
+        <f>B36*C37</f>
+        <v>1248441069</v>
+      </c>
+      <c r="E40" s="26"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="I40" s="45">
+        <f>G36*H37</f>
+        <v>932</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="46"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="D41" s="45">
+        <f>C36*B37</f>
+        <v>964178574</v>
+      </c>
+      <c r="E41" s="26"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="I41" s="45">
+        <f>H36*G37</f>
+        <v>416</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="46"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="D42" s="45">
+        <f>(B36*C36)+(B37*C37)</f>
+        <v>4918519035</v>
+      </c>
+      <c r="E42" s="26"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="I42" s="45">
+        <f>(G36*H36)+(G37*H37)</f>
+        <v>12148</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="46"/>
+      <c r="B43" s="7" t="str">
+        <f>IF(ABS(D44)&gt;0.8,$F$4,IF(ABS(D44)&gt;0.6,$E$4,IF(ABS(D44)&gt;0.4,$D$4,IF(ABS(D44)&gt;0.2,$C$4,$B$4))))</f>
+        <v>Very Weak</v>
+      </c>
+      <c r="C43" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="D43" s="45">
+        <f>(B36*B37)+(C36*C37)</f>
+        <v>12031085335</v>
+      </c>
+      <c r="E43" s="26"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="7" t="str">
+        <f>IF(ABS(I44)&gt;0.8,$F$4,IF(ABS(I44)&gt;0.6,$E$4,IF(ABS(I44)&gt;0.4,$D$4,IF(ABS(I44)&gt;0.2,$C$4,$B$4))))</f>
+        <v>Very Weak</v>
+      </c>
+      <c r="H43" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="I43" s="45">
+        <f>(G36*G37)+(H36*H37)</f>
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="47"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="D44" s="48">
+        <f>(D40-D41)/(SQRT((D40+D41+D42)*(D40+D41+D43)))</f>
+        <v>2.8205164538170582E-2</v>
+      </c>
+      <c r="E44" s="26"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="I44" s="48">
+        <f>(I40-I41)/(SQRT((I40+I41+I42)*(I40+I41+I43)))</f>
+        <v>7.5951107988000241E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="30" t="str">
+        <f>chisquared!A57</f>
+        <v>From Beattie first and then the Old Bailey</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="49" t="str">
+        <f>chisquared!A58</f>
+        <v>h1: there is an association between being male and found guilty in Homicide Cases (or for Manslaughter) at the Old Bailey</v>
+      </c>
+      <c r="B47" s="50"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="49" t="str">
+        <f>chisquared!L58</f>
+        <v>h1: there is an association between being male and found guilty in Homicide Cases (or for Manslaughter) in Surrey/Sussex</v>
+      </c>
+      <c r="G47" s="50"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="51"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="8"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="str">
+        <f>chisquared!A60</f>
+        <v>OBSERVED</v>
+      </c>
+      <c r="B49" s="21" t="str">
+        <f>chisquared!B60</f>
+        <v>guilty</v>
+      </c>
+      <c r="C49" s="21" t="str">
+        <f>chisquared!C60</f>
+        <v>not guilty</v>
+      </c>
+      <c r="D49" s="45"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="5" t="str">
+        <f>chisquared!L60</f>
+        <v>OBSERVED</v>
+      </c>
+      <c r="G49" s="21" t="str">
+        <f>chisquared!M60</f>
+        <v>guilty</v>
+      </c>
+      <c r="H49" s="21" t="str">
+        <f>chisquared!N60</f>
+        <v>not guilty</v>
+      </c>
+      <c r="I49" s="45"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="str">
+        <f>chisquared!A61</f>
+        <v>male</v>
+      </c>
+      <c r="B50" s="24">
+        <f>chisquared!B61</f>
+        <v>18322</v>
+      </c>
+      <c r="C50" s="24">
+        <f>chisquared!C61</f>
+        <v>5950</v>
+      </c>
+      <c r="D50" s="45">
+        <f>chisquared!D61</f>
+        <v>24272</v>
+      </c>
+      <c r="E50" s="26"/>
+      <c r="F50" s="5" t="str">
+        <f>chisquared!L61</f>
+        <v>male</v>
+      </c>
+      <c r="G50" s="24">
+        <f>chisquared!M61</f>
+        <v>136</v>
+      </c>
+      <c r="H50" s="24">
+        <f>chisquared!N61</f>
+        <v>171</v>
+      </c>
+      <c r="I50" s="45">
+        <f>chisquared!O61</f>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="str">
+        <f>chisquared!A62</f>
+        <v>not male</v>
+      </c>
+      <c r="B51" s="25">
+        <f>chisquared!B62</f>
+        <v>4357</v>
+      </c>
+      <c r="C51" s="25">
+        <f>chisquared!C62</f>
+        <v>1704</v>
+      </c>
+      <c r="D51" s="45">
+        <f>chisquared!D62</f>
+        <v>6061</v>
+      </c>
+      <c r="E51" s="26"/>
+      <c r="F51" s="5" t="str">
+        <f>chisquared!L62</f>
+        <v>not male</v>
+      </c>
+      <c r="G51" s="25">
+        <f>chisquared!M62</f>
+        <v>16</v>
+      </c>
+      <c r="H51" s="25">
+        <f>chisquared!N62</f>
+        <v>26</v>
+      </c>
+      <c r="I51" s="45">
+        <f>chisquared!O62</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="5"/>
+      <c r="B52" s="6">
+        <f>chisquared!B63</f>
+        <v>22679</v>
+      </c>
+      <c r="C52" s="6">
+        <f>chisquared!C63</f>
+        <v>7654</v>
+      </c>
+      <c r="D52" s="45">
+        <f>chisquared!D63</f>
+        <v>30333</v>
+      </c>
+      <c r="E52" s="26"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="6">
+        <f>chisquared!M63</f>
+        <v>152</v>
+      </c>
+      <c r="H52" s="6">
+        <f>chisquared!N63</f>
+        <v>197</v>
+      </c>
+      <c r="I52" s="45">
+        <f>chisquared!O63</f>
+        <v>349</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="46"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="45"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="46"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="D54" s="45">
+        <f>B50*C51</f>
+        <v>31220688</v>
+      </c>
+      <c r="E54" s="26"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="I54" s="45">
+        <f>G50*H51</f>
+        <v>3536</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="46"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="D55" s="45">
+        <f>C50*B51</f>
+        <v>25924150</v>
+      </c>
+      <c r="E55" s="26"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="I55" s="45">
+        <f>H50*G51</f>
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="46"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="D56" s="45">
+        <f>(B50*C50)+(B51*C51)</f>
+        <v>116440228</v>
+      </c>
+      <c r="E56" s="26"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="I56" s="45">
+        <f>(G50*H50)+(G51*H51)</f>
+        <v>23672</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="46"/>
+      <c r="B57" s="7" t="str">
+        <f>IF(ABS(D58)&gt;0.8,$F$4,IF(ABS(D58)&gt;0.6,$E$4,IF(ABS(D58)&gt;0.4,$D$4,IF(ABS(D58)&gt;0.2,$C$4,$B$4))))</f>
+        <v>Very Weak</v>
+      </c>
+      <c r="C57" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="D57" s="45">
+        <f>(B50*B51)+(C50*C51)</f>
+        <v>89967754</v>
+      </c>
+      <c r="E57" s="26"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="7" t="str">
+        <f>IF(ABS(I58)&gt;0.8,$F$4,IF(ABS(I58)&gt;0.6,$E$4,IF(ABS(I58)&gt;0.4,$D$4,IF(ABS(I58)&gt;0.2,$C$4,$B$4))))</f>
+        <v>Very Weak</v>
+      </c>
+      <c r="H57" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="I57" s="45">
+        <f>(G50*G51)+(H50*H51)</f>
+        <v>6622</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="47"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="D58" s="48">
+        <f>(D54-D55)/(SQRT((D54+D55+D56)*(D54+D55+D57)))</f>
+        <v>3.31444631709873E-2</v>
+      </c>
+      <c r="E58" s="26"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="I58" s="48">
+        <f>(I54-I55)/(SQRT((I54+I55+I56)*(I54+I55+I57)))</f>
+        <v>4.0713763260088416E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="49" t="str">
+        <f>chisquared!A76</f>
+        <v>h1: there is an association between being male and found guilty in Property Cases vs Murder Cases at the Old Bailey</v>
+      </c>
+      <c r="B60" s="50"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="51"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="49" t="str">
+        <f>chisquared!L76</f>
+        <v>h1: there is an association between being male and found guilty in Property Cases vs Murder Cases in Surrey/Sussex</v>
+      </c>
+      <c r="G60" s="50"/>
+      <c r="H60" s="50"/>
+      <c r="I60" s="51"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="5"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="8"/>
+    </row>
+    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="str">
+        <f>chisquared!A78</f>
+        <v>OBSERVED</v>
+      </c>
+      <c r="B62" s="21" t="str">
+        <f>chisquared!B78</f>
+        <v>guilty of property</v>
+      </c>
+      <c r="C62" s="21" t="str">
+        <f>chisquared!C78</f>
+        <v>guilty of murder</v>
+      </c>
+      <c r="D62" s="45"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="5" t="str">
+        <f>chisquared!L78</f>
+        <v>OBSERVED</v>
+      </c>
+      <c r="G62" s="21" t="str">
+        <f>chisquared!M78</f>
+        <v>guilty of property</v>
+      </c>
+      <c r="H62" s="21" t="str">
+        <f>chisquared!N78</f>
+        <v>guilty of murder</v>
+      </c>
+      <c r="I62" s="45"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="str">
+        <f>chisquared!A79</f>
+        <v>male</v>
+      </c>
+      <c r="B63" s="24">
+        <f>chisquared!B79</f>
+        <v>618259</v>
+      </c>
+      <c r="C63" s="24">
+        <f>chisquared!C79</f>
+        <v>18322</v>
+      </c>
+      <c r="D63" s="45">
+        <f>chisquared!D79</f>
+        <v>636581</v>
+      </c>
+      <c r="E63" s="26"/>
+      <c r="F63" s="5" t="str">
+        <f>chisquared!L79</f>
+        <v>male</v>
+      </c>
+      <c r="G63" s="24">
+        <f>chisquared!M79</f>
+        <v>2079.2640000000001</v>
+      </c>
+      <c r="H63" s="24">
+        <f>chisquared!N79</f>
+        <v>51.959000000000003</v>
+      </c>
+      <c r="I63" s="45">
+        <f>chisquared!O79</f>
+        <v>2131.223</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="str">
+        <f>chisquared!A80</f>
+        <v>not male</v>
+      </c>
+      <c r="B64" s="25">
+        <f>chisquared!B80</f>
+        <v>135474</v>
+      </c>
+      <c r="C64" s="25">
+        <f>chisquared!C80</f>
+        <v>4357</v>
+      </c>
+      <c r="D64" s="45">
+        <f>chisquared!D80</f>
+        <v>139831</v>
+      </c>
+      <c r="E64" s="26"/>
+      <c r="F64" s="5" t="str">
+        <f>chisquared!L80</f>
+        <v>not male</v>
+      </c>
+      <c r="G64" s="25">
+        <f>chisquared!M80</f>
+        <v>487.51600000000002</v>
+      </c>
+      <c r="H64" s="25">
+        <f>chisquared!N80</f>
+        <v>4.9969999999999999</v>
+      </c>
+      <c r="I64" s="45">
+        <f>chisquared!O80</f>
+        <v>492.51300000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="5"/>
+      <c r="B65" s="6">
+        <f>chisquared!B81</f>
+        <v>753733</v>
+      </c>
+      <c r="C65" s="6">
+        <f>chisquared!C81</f>
+        <v>22679</v>
+      </c>
+      <c r="D65" s="45">
+        <f>chisquared!D81</f>
+        <v>776412</v>
+      </c>
+      <c r="E65" s="26"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="6">
+        <f>chisquared!M81</f>
+        <v>2566.7800000000002</v>
+      </c>
+      <c r="H65" s="6">
+        <f>chisquared!N81</f>
+        <v>56.956000000000003</v>
+      </c>
+      <c r="I65" s="45">
+        <f>chisquared!O81</f>
+        <v>2623.7359999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="46"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="45"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="46"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="D67" s="45">
+        <f>B63*C64</f>
+        <v>2693754463</v>
+      </c>
+      <c r="E67" s="26"/>
+      <c r="F67" s="46"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="I67" s="45">
+        <f>G63*H64</f>
+        <v>10390.082208</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="46"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="D68" s="45">
+        <f>C63*B64</f>
+        <v>2482154628</v>
+      </c>
+      <c r="E68" s="26"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="I68" s="45">
+        <f>H63*G64</f>
+        <v>25330.843844000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="46"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="D69" s="45">
+        <f>(B63*C63)+(B64*C64)</f>
+        <v>11918001616</v>
+      </c>
+      <c r="E69" s="26"/>
+      <c r="F69" s="46"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="I69" s="45">
+        <f>(G63*H63)+(G64*H64)</f>
+        <v>110472.59562800002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="46"/>
+      <c r="B70" s="7" t="str">
+        <f>IF(ABS(D71)&gt;0.8,$F$4,IF(ABS(D71)&gt;0.6,$E$4,IF(ABS(D71)&gt;0.4,$D$4,IF(ABS(D71)&gt;0.2,$C$4,$B$4))))</f>
+        <v>Very Weak</v>
+      </c>
+      <c r="C70" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="D70" s="45">
+        <f>(B63*B64)+(C63*C64)</f>
+        <v>83837848720</v>
+      </c>
+      <c r="E70" s="26"/>
+      <c r="F70" s="46"/>
+      <c r="G70" s="7" t="str">
+        <f>IF(ABS(I71)&gt;0.8,$F$4,IF(ABS(I71)&gt;0.6,$E$4,IF(ABS(I71)&gt;0.4,$D$4,IF(ABS(I71)&gt;0.2,$C$4,$B$4))))</f>
+        <v>Very Weak</v>
+      </c>
+      <c r="H70" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="I70" s="45">
+        <f>(G63*G64)+(H63*H64)</f>
+        <v>1013934.107347</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="47"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="D71" s="48">
+        <f>(D67-D68)/(SQRT((D67+D68+D69)*(D67+D68+D70)))</f>
+        <v>5.4245790378314434E-3</v>
+      </c>
+      <c r="E71" s="26"/>
+      <c r="F71" s="47"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="I71" s="48">
+        <f>(I67-I68)/(SQRT((I67+I68+I69)*(I67+I68+I70)))</f>
+        <v>-3.8140411708340864E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="49" t="str">
+        <f>chisquared!A94</f>
+        <v>h1: there is an association between being rape/attempted rape and pre/post 1740 at the Old Bailey</v>
+      </c>
+      <c r="B73" s="50"/>
+      <c r="C73" s="50"/>
+      <c r="D73" s="51"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="49" t="str">
+        <f>chisquared!L94</f>
+        <v>h1: there is an association between being rape/attempted rape and pre/post 1740 in Surrey/Sussex</v>
+      </c>
+      <c r="G73" s="50"/>
+      <c r="H73" s="50"/>
+      <c r="I73" s="51"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="55" t="str">
+        <f>chisquared!A95</f>
+        <v>- Can't be done, rape and attempted rape are combined into "sexual crimes"</v>
+      </c>
+      <c r="B74" s="56"/>
+      <c r="C74" s="56"/>
+      <c r="D74" s="57"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="8"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="str">
+        <f>chisquared!A96</f>
+        <v>OBSERVED</v>
+      </c>
+      <c r="B75" s="21" t="str">
+        <f>chisquared!B96</f>
+        <v>rape</v>
+      </c>
+      <c r="C75" s="21" t="str">
+        <f>chisquared!C96</f>
+        <v>attempted rape</v>
+      </c>
+      <c r="D75" s="45"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="5" t="str">
+        <f>chisquared!L96</f>
+        <v>OBSERVED</v>
+      </c>
+      <c r="G75" s="21" t="str">
+        <f>chisquared!M96</f>
+        <v>rape</v>
+      </c>
+      <c r="H75" s="21" t="str">
+        <f>chisquared!N96</f>
+        <v>attempted rape</v>
+      </c>
+      <c r="I75" s="45"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="str">
+        <f>chisquared!A97</f>
+        <v>pre-1740</v>
+      </c>
+      <c r="B76" s="24">
+        <f>chisquared!B97</f>
+        <v>0</v>
+      </c>
+      <c r="C76" s="24">
+        <f>chisquared!C97</f>
+        <v>0</v>
+      </c>
+      <c r="D76" s="45">
+        <f>chisquared!D97</f>
+        <v>0</v>
+      </c>
+      <c r="E76" s="26"/>
+      <c r="F76" s="5" t="str">
+        <f>chisquared!L97</f>
+        <v>pre-1740</v>
+      </c>
+      <c r="G76" s="24">
+        <f>chisquared!M97</f>
+        <v>20</v>
+      </c>
+      <c r="H76" s="24">
+        <f>chisquared!N97</f>
+        <v>19</v>
+      </c>
+      <c r="I76" s="45">
+        <f>chisquared!O97</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="str">
+        <f>chisquared!A98</f>
+        <v>post-1740</v>
+      </c>
+      <c r="B77" s="25">
+        <f>chisquared!B98</f>
+        <v>0</v>
+      </c>
+      <c r="C77" s="25">
+        <f>chisquared!C98</f>
+        <v>0</v>
+      </c>
+      <c r="D77" s="45">
+        <f>chisquared!D98</f>
+        <v>0</v>
+      </c>
+      <c r="E77" s="26"/>
+      <c r="F77" s="5" t="str">
+        <f>chisquared!L98</f>
+        <v>post-1740</v>
+      </c>
+      <c r="G77" s="25">
+        <f>chisquared!M98</f>
+        <v>39</v>
+      </c>
+      <c r="H77" s="25">
+        <f>chisquared!N98</f>
+        <v>86</v>
+      </c>
+      <c r="I77" s="45">
+        <f>chisquared!O98</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="5"/>
+      <c r="B78" s="6">
+        <f>chisquared!B99</f>
+        <v>0</v>
+      </c>
+      <c r="C78" s="6">
+        <f>chisquared!C99</f>
+        <v>0</v>
+      </c>
+      <c r="D78" s="45">
+        <f>chisquared!D99</f>
+        <v>0</v>
+      </c>
+      <c r="E78" s="26"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="6">
+        <f>chisquared!M99</f>
+        <v>59</v>
+      </c>
+      <c r="H78" s="6">
+        <f>chisquared!N99</f>
+        <v>105</v>
+      </c>
+      <c r="I78" s="45">
+        <f>chisquared!O99</f>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="46"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="45"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="46"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="45"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="46"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="D80" s="45">
+        <f>B76*C77</f>
+        <v>0</v>
+      </c>
+      <c r="E80" s="26"/>
+      <c r="F80" s="46"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="I80" s="45">
+        <f>G76*H77</f>
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="46"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="D81" s="45">
+        <f>C76*B77</f>
+        <v>0</v>
+      </c>
+      <c r="E81" s="26"/>
+      <c r="F81" s="46"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="I81" s="45">
+        <f>H76*G77</f>
+        <v>741</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="46"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="D82" s="45">
+        <f>(B76*C76)+(B77*C77)</f>
+        <v>0</v>
+      </c>
+      <c r="E82" s="26"/>
+      <c r="F82" s="46"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="I82" s="45">
+        <f>(G76*H76)+(G77*H77)</f>
+        <v>3734</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="46"/>
+      <c r="B83" s="7" t="e">
+        <f>IF(ABS(D84)&gt;0.8,$F$4,IF(ABS(D84)&gt;0.6,$E$4,IF(ABS(D84)&gt;0.4,$D$4,IF(ABS(D84)&gt;0.2,$C$4,$B$4))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C83" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="D83" s="45">
+        <f>(B76*B77)+(C76*C77)</f>
+        <v>0</v>
+      </c>
+      <c r="E83" s="26"/>
+      <c r="F83" s="46"/>
+      <c r="G83" s="7" t="str">
+        <f>IF(ABS(I84)&gt;0.8,$F$4,IF(ABS(I84)&gt;0.6,$E$4,IF(ABS(I84)&gt;0.4,$D$4,IF(ABS(I84)&gt;0.2,$C$4,$B$4))))</f>
+        <v>Very Weak</v>
+      </c>
+      <c r="H83" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="I83" s="45">
+        <f>(G76*G77)+(H76*H77)</f>
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="47"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="D84" s="48" t="e">
+        <f>(D80-D81)/(SQRT((D80+D81+D82)*(D80+D81+D83)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E84" s="26"/>
+      <c r="F84" s="47"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="I84" s="48">
+        <f>(I80-I81)/(SQRT((I80+I81+I82)*(I80+I81+I83)))</f>
+        <v>0.17814544667124804</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="49" t="str">
+        <f>chisquared!A112</f>
+        <v>h1: there is an association between being sentenced to death for different crimes as a male at the Old Bailey</v>
+      </c>
+      <c r="B86" s="50"/>
+      <c r="C86" s="50"/>
+      <c r="D86" s="51"/>
+      <c r="E86" s="26"/>
+      <c r="F86" s="49" t="str">
+        <f>chisquared!L112</f>
+        <v>h1: there is an association between being sentenced to death for different crimes as a male in Surrey/Sussex</v>
+      </c>
+      <c r="G86" s="50"/>
+      <c r="H86" s="50"/>
+      <c r="I86" s="51"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="55"/>
+      <c r="B87" s="56"/>
+      <c r="C87" s="56"/>
+      <c r="D87" s="57"/>
+      <c r="E87" s="26"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="8"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="str">
+        <f>chisquared!A114</f>
+        <v>OBSERVED</v>
+      </c>
+      <c r="B88" s="21" t="str">
+        <f>chisquared!B114</f>
+        <v>property crimes</v>
+      </c>
+      <c r="C88" s="21" t="str">
+        <f>chisquared!C114</f>
+        <v>not property crimes</v>
+      </c>
+      <c r="D88" s="45"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="5" t="str">
+        <f>chisquared!L114</f>
+        <v>OBSERVED</v>
+      </c>
+      <c r="G88" s="21" t="str">
+        <f>chisquared!M114</f>
+        <v>property crimes</v>
+      </c>
+      <c r="H88" s="21" t="str">
+        <f>chisquared!N114</f>
+        <v>not property crimes</v>
+      </c>
+      <c r="I88" s="45"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="str">
+        <f>chisquared!A115</f>
+        <v>male</v>
+      </c>
+      <c r="B89" s="24">
+        <f>chisquared!B115</f>
+        <v>240131</v>
+      </c>
+      <c r="C89" s="24">
+        <f>chisquared!C115</f>
+        <v>19407</v>
+      </c>
+      <c r="D89" s="45">
+        <f>chisquared!D115</f>
+        <v>259538</v>
+      </c>
+      <c r="E89" s="26"/>
+      <c r="F89" s="5" t="str">
+        <f>chisquared!L115</f>
+        <v>male</v>
+      </c>
+      <c r="G89" s="24">
+        <f>chisquared!M115</f>
+        <v>409</v>
+      </c>
+      <c r="H89" s="24">
+        <f>chisquared!N115</f>
+        <v>72</v>
+      </c>
+      <c r="I89" s="45">
+        <f>chisquared!O115</f>
+        <v>481</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="str">
+        <f>chisquared!A116</f>
+        <v>not male</v>
+      </c>
+      <c r="B90" s="25">
+        <f>chisquared!B116</f>
+        <v>49682</v>
+      </c>
+      <c r="C90" s="25">
+        <f>chisquared!C116</f>
+        <v>5199</v>
+      </c>
+      <c r="D90" s="45">
+        <f>chisquared!D116</f>
+        <v>54881</v>
+      </c>
+      <c r="E90" s="26"/>
+      <c r="F90" s="5" t="str">
+        <f>chisquared!L116</f>
+        <v>not male</v>
+      </c>
+      <c r="G90" s="25">
+        <f>chisquared!M116</f>
+        <v>27</v>
+      </c>
+      <c r="H90" s="25">
+        <f>chisquared!N116</f>
+        <v>10</v>
+      </c>
+      <c r="I90" s="45">
+        <f>chisquared!O116</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="5"/>
+      <c r="B91" s="6">
+        <f>chisquared!B117</f>
+        <v>289813</v>
+      </c>
+      <c r="C91" s="6">
+        <f>chisquared!C117</f>
+        <v>24606</v>
+      </c>
+      <c r="D91" s="45">
+        <f>chisquared!D117</f>
+        <v>314419</v>
+      </c>
+      <c r="E91" s="26"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="6">
+        <f>chisquared!M117</f>
+        <v>436</v>
+      </c>
+      <c r="H91" s="6">
+        <f>chisquared!N117</f>
+        <v>82</v>
+      </c>
+      <c r="I91" s="45">
+        <f>chisquared!O117</f>
+        <v>518</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="46"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="45"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="46"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="45"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="46"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="D93" s="45">
+        <f>B89*C90</f>
+        <v>1248441069</v>
+      </c>
+      <c r="E93" s="26"/>
+      <c r="F93" s="46"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="I93" s="45">
+        <f>G89*H90</f>
+        <v>4090</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="46"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="D94" s="45">
+        <f>C89*B90</f>
+        <v>964178574</v>
+      </c>
+      <c r="E94" s="26"/>
+      <c r="F94" s="46"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="I94" s="45">
+        <f>H89*G90</f>
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="46"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="D95" s="45">
+        <f>(B89*C89)+(B90*C90)</f>
+        <v>4918519035</v>
+      </c>
+      <c r="E95" s="26"/>
+      <c r="F95" s="46"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="I95" s="45">
+        <f>(G89*H89)+(G90*H90)</f>
+        <v>29718</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="46"/>
+      <c r="B96" s="7" t="str">
+        <f>IF(ABS(D97)&gt;0.8,$F$4,IF(ABS(D97)&gt;0.6,$E$4,IF(ABS(D97)&gt;0.4,$D$4,IF(ABS(D97)&gt;0.2,$C$4,$B$4))))</f>
+        <v>Very Weak</v>
+      </c>
+      <c r="C96" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="D96" s="45">
+        <f>(B89*B90)+(C89*C90)</f>
+        <v>12031085335</v>
+      </c>
+      <c r="E96" s="26"/>
+      <c r="F96" s="46"/>
+      <c r="G96" s="7" t="str">
+        <f>IF(ABS(I97)&gt;0.8,$F$4,IF(ABS(I97)&gt;0.6,$E$4,IF(ABS(I97)&gt;0.4,$D$4,IF(ABS(I97)&gt;0.2,$C$4,$B$4))))</f>
+        <v>Very Weak</v>
+      </c>
+      <c r="H96" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="I96" s="45">
+        <f>(G89*G90)+(H89*H90)</f>
+        <v>11763</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="47"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="D97" s="48">
+        <f>(D93-D94)/(SQRT((D93+D94+D95)*(D93+D94+D96)))</f>
+        <v>2.8205164538170582E-2</v>
+      </c>
+      <c r="E97" s="26"/>
+      <c r="F97" s="47"/>
+      <c r="G97" s="16"/>
+      <c r="H97" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="I97" s="48">
+        <f>(I93-I94)/(SQRT((I93+I94+I95)*(I93+I94+I96)))</f>
+        <v>8.5075820561194879E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="49" t="str">
+        <f>chisquared!A130</f>
+        <v>h1: there is an association between being guilty and being a primary accusee (rather than accessory) at the Old Bailey</v>
+      </c>
+      <c r="B99" s="50"/>
+      <c r="C99" s="50"/>
+      <c r="D99" s="51"/>
+      <c r="E99" s="26"/>
+      <c r="F99" s="49" t="str">
+        <f>chisquared!L130</f>
+        <v>h1: there is an association between being guilty and being a primary accusee (rather than accessory) in Surrey/Sussex</v>
+      </c>
+      <c r="G99" s="50"/>
+      <c r="H99" s="50"/>
+      <c r="I99" s="51"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="55" t="str">
+        <f>chisquared!A131</f>
+        <v>- Can't be either accused or not; no way to be an accessory</v>
+      </c>
+      <c r="B100" s="56"/>
+      <c r="C100" s="56"/>
+      <c r="D100" s="57"/>
+      <c r="E100" s="26"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="8"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="str">
+        <f>chisquared!A132</f>
+        <v>OBSERVED</v>
+      </c>
+      <c r="B101" s="21" t="str">
+        <f>chisquared!B132</f>
+        <v>guilty</v>
+      </c>
+      <c r="C101" s="21" t="str">
+        <f>chisquared!C132</f>
+        <v>not guilty</v>
+      </c>
+      <c r="D101" s="45"/>
+      <c r="E101" s="26"/>
+      <c r="F101" s="5" t="str">
+        <f>chisquared!L132</f>
+        <v>OBSERVED</v>
+      </c>
+      <c r="G101" s="21" t="str">
+        <f>chisquared!M132</f>
+        <v>guilty</v>
+      </c>
+      <c r="H101" s="21" t="str">
+        <f>chisquared!N132</f>
+        <v>not guilty</v>
+      </c>
+      <c r="I101" s="45"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="str">
+        <f>chisquared!A133</f>
+        <v>primary</v>
+      </c>
+      <c r="B102" s="24">
+        <f>chisquared!B133</f>
+        <v>0</v>
+      </c>
+      <c r="C102" s="24">
+        <f>chisquared!C133</f>
+        <v>0</v>
+      </c>
+      <c r="D102" s="45">
+        <f>chisquared!D133</f>
+        <v>0</v>
+      </c>
+      <c r="E102" s="26"/>
+      <c r="F102" s="5" t="str">
+        <f>chisquared!L133</f>
+        <v>primary</v>
+      </c>
+      <c r="G102" s="24">
+        <f>chisquared!M133</f>
+        <v>145</v>
+      </c>
+      <c r="H102" s="24">
+        <f>chisquared!N133</f>
+        <v>126</v>
+      </c>
+      <c r="I102" s="45">
+        <f>chisquared!O133</f>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="str">
+        <f>chisquared!A134</f>
+        <v>accessory</v>
+      </c>
+      <c r="B103" s="25">
+        <f>chisquared!B134</f>
+        <v>0</v>
+      </c>
+      <c r="C103" s="25">
+        <f>chisquared!C134</f>
+        <v>0</v>
+      </c>
+      <c r="D103" s="45">
+        <f>chisquared!D134</f>
+        <v>0</v>
+      </c>
+      <c r="E103" s="26"/>
+      <c r="F103" s="5" t="str">
+        <f>chisquared!L134</f>
+        <v>accessory</v>
+      </c>
+      <c r="G103" s="25">
+        <f>chisquared!M134</f>
+        <v>6</v>
+      </c>
+      <c r="H103" s="25">
+        <f>chisquared!N134</f>
+        <v>18</v>
+      </c>
+      <c r="I103" s="45">
+        <f>chisquared!O134</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="5"/>
+      <c r="B104" s="6">
+        <f>chisquared!B135</f>
+        <v>0</v>
+      </c>
+      <c r="C104" s="6">
+        <f>chisquared!C135</f>
+        <v>0</v>
+      </c>
+      <c r="D104" s="45">
+        <f>chisquared!D135</f>
+        <v>0</v>
+      </c>
+      <c r="E104" s="26"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="6">
+        <f>chisquared!M135</f>
+        <v>151</v>
+      </c>
+      <c r="H104" s="6">
+        <f>chisquared!N135</f>
+        <v>144</v>
+      </c>
+      <c r="I104" s="45">
+        <f>chisquared!O135</f>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="46"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="45"/>
+      <c r="E105" s="26"/>
+      <c r="F105" s="46"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="45"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="46"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="D106" s="45">
+        <f>B102*C103</f>
+        <v>0</v>
+      </c>
+      <c r="E106" s="26"/>
+      <c r="F106" s="46"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="I106" s="45">
+        <f>G102*H103</f>
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="46"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="D107" s="45">
+        <f>C102*B103</f>
+        <v>0</v>
+      </c>
+      <c r="E107" s="26"/>
+      <c r="F107" s="46"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="I107" s="45">
+        <f>H102*G103</f>
+        <v>756</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="46"/>
+      <c r="B108" s="7"/>
+      <c r="C108" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="D108" s="45">
+        <f>(B102*C102)+(B103*C103)</f>
+        <v>0</v>
+      </c>
+      <c r="E108" s="26"/>
+      <c r="F108" s="46"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="I108" s="45">
+        <f>(G102*H102)+(G103*H103)</f>
+        <v>18378</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="46"/>
+      <c r="B109" s="7" t="e">
+        <f>IF(ABS(D110)&gt;0.8,$F$4,IF(ABS(D110)&gt;0.6,$E$4,IF(ABS(D110)&gt;0.4,$D$4,IF(ABS(D110)&gt;0.2,$C$4,$B$4))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C109" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="D109" s="45">
+        <f>(B102*B103)+(C102*C103)</f>
+        <v>0</v>
+      </c>
+      <c r="E109" s="26"/>
+      <c r="F109" s="46"/>
+      <c r="G109" s="7" t="str">
+        <f>IF(ABS(I110)&gt;0.8,$F$4,IF(ABS(I110)&gt;0.6,$E$4,IF(ABS(I110)&gt;0.4,$D$4,IF(ABS(I110)&gt;0.2,$C$4,$B$4))))</f>
+        <v>Very Weak</v>
+      </c>
+      <c r="H109" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="I109" s="45">
+        <f>(G102*G103)+(H102*H103)</f>
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="47"/>
+      <c r="B110" s="16"/>
+      <c r="C110" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="D110" s="48" t="e">
+        <f>(D106-D107)/(SQRT((D106+D107+D108)*(D106+D107+D109)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E110" s="26"/>
+      <c r="F110" s="47"/>
+      <c r="G110" s="16"/>
+      <c r="H110" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="I110" s="48">
+        <f>(I106-I107)/(SQRT((I106+I107+I108)*(I106+I107+I109)))</f>
+        <v>0.15590130258656587</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="49" t="str">
+        <f>chisquared!A148</f>
+        <v>h1: there is an association between male homicide guilty verdicts pre 1740 and post 1740 at the Old Bailey</v>
+      </c>
+      <c r="B112" s="50"/>
+      <c r="C112" s="50"/>
+      <c r="D112" s="51"/>
+      <c r="E112" s="26"/>
+      <c r="F112" s="49" t="str">
+        <f>chisquared!L148</f>
+        <v>h1: there is an association between male homicide guilty verdicts pre 1740 and post 1740 in Surrey/Sussex</v>
+      </c>
+      <c r="G112" s="50"/>
+      <c r="H112" s="50"/>
+      <c r="I112" s="51"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="55"/>
+      <c r="B113" s="56"/>
+      <c r="C113" s="56"/>
+      <c r="D113" s="57"/>
+      <c r="E113" s="26"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="8"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="str">
+        <f>chisquared!A150</f>
+        <v>OBSERVED</v>
+      </c>
+      <c r="B114" s="21" t="str">
+        <f>chisquared!B150</f>
+        <v>guilty</v>
+      </c>
+      <c r="C114" s="21" t="str">
+        <f>chisquared!C150</f>
+        <v>not guilty</v>
+      </c>
+      <c r="D114" s="45"/>
+      <c r="E114" s="26"/>
+      <c r="F114" s="5" t="str">
+        <f>chisquared!L150</f>
+        <v>OBSERVED</v>
+      </c>
+      <c r="G114" s="21" t="str">
+        <f>chisquared!M150</f>
+        <v>guilty</v>
+      </c>
+      <c r="H114" s="21" t="str">
+        <f>chisquared!N150</f>
+        <v>not guilty</v>
+      </c>
+      <c r="I114" s="45"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="str">
+        <f>chisquared!A151</f>
+        <v>pre-1740</v>
+      </c>
+      <c r="B115" s="24">
+        <f>chisquared!B151</f>
+        <v>3187</v>
+      </c>
+      <c r="C115" s="24">
+        <f>chisquared!C151</f>
+        <v>610</v>
+      </c>
+      <c r="D115" s="45">
+        <f>chisquared!D151</f>
+        <v>3797</v>
+      </c>
+      <c r="E115" s="26"/>
+      <c r="F115" s="5" t="str">
+        <f>chisquared!L151</f>
+        <v>pre-1740</v>
+      </c>
+      <c r="G115" s="24">
+        <f>chisquared!M151</f>
+        <v>75</v>
+      </c>
+      <c r="H115" s="24">
+        <f>chisquared!N151</f>
+        <v>91</v>
+      </c>
+      <c r="I115" s="45">
+        <f>chisquared!O151</f>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="5" t="str">
+        <f>chisquared!A152</f>
+        <v>post-1740</v>
+      </c>
+      <c r="B116" s="25">
+        <f>chisquared!B152</f>
+        <v>15138</v>
+      </c>
+      <c r="C116" s="25">
+        <f>chisquared!C152</f>
+        <v>5293</v>
+      </c>
+      <c r="D116" s="45">
+        <f>chisquared!D152</f>
+        <v>20431</v>
+      </c>
+      <c r="E116" s="26"/>
+      <c r="F116" s="5" t="str">
+        <f>chisquared!L152</f>
+        <v>post-1740</v>
+      </c>
+      <c r="G116" s="25">
+        <f>chisquared!M152</f>
+        <v>79</v>
+      </c>
+      <c r="H116" s="25">
+        <f>chisquared!N152</f>
+        <v>30</v>
+      </c>
+      <c r="I116" s="45">
+        <f>chisquared!O152</f>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="5"/>
+      <c r="B117" s="6">
+        <f>chisquared!B153</f>
+        <v>18325</v>
+      </c>
+      <c r="C117" s="6">
+        <f>chisquared!C153</f>
+        <v>5903</v>
+      </c>
+      <c r="D117" s="45">
+        <f>chisquared!D153</f>
+        <v>24228</v>
+      </c>
+      <c r="E117" s="26"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="6">
+        <f>chisquared!M153</f>
+        <v>154</v>
+      </c>
+      <c r="H117" s="6">
+        <f>chisquared!N153</f>
+        <v>121</v>
+      </c>
+      <c r="I117" s="45">
+        <f>chisquared!O153</f>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="46"/>
+      <c r="B118" s="7"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="45"/>
+      <c r="E118" s="26"/>
+      <c r="F118" s="46"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="6"/>
+      <c r="I118" s="45"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="46"/>
+      <c r="B119" s="7"/>
+      <c r="C119" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="D119" s="45">
+        <f>B115*C116</f>
+        <v>16868791</v>
+      </c>
+      <c r="E119" s="26"/>
+      <c r="F119" s="46"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="I119" s="45">
+        <f>G115*H116</f>
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="46"/>
+      <c r="B120" s="7"/>
+      <c r="C120" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="D120" s="45">
+        <f>C115*B116</f>
+        <v>9234180</v>
+      </c>
+      <c r="E120" s="26"/>
+      <c r="F120" s="46"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="I120" s="45">
+        <f>H115*G116</f>
+        <v>7189</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="46"/>
+      <c r="B121" s="7"/>
+      <c r="C121" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="D121" s="45">
+        <f>(B115*C115)+(B116*C116)</f>
+        <v>82069504</v>
+      </c>
+      <c r="E121" s="26"/>
+      <c r="F121" s="46"/>
+      <c r="G121" s="7"/>
+      <c r="H121" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="I121" s="45">
+        <f>(G115*H115)+(G116*H116)</f>
+        <v>9195</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="46"/>
+      <c r="B122" s="7" t="str">
+        <f>IF(ABS(D123)&gt;0.8,$F$4,IF(ABS(D123)&gt;0.6,$E$4,IF(ABS(D123)&gt;0.4,$D$4,IF(ABS(D123)&gt;0.2,$C$4,$B$4))))</f>
+        <v>Very Weak</v>
+      </c>
+      <c r="C122" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="D122" s="45">
+        <f>(B115*B116)+(C115*C116)</f>
+        <v>51473536</v>
+      </c>
+      <c r="E122" s="26"/>
+      <c r="F122" s="46"/>
+      <c r="G122" s="7" t="str">
+        <f>IF(ABS(I123)&gt;0.8,$F$4,IF(ABS(I123)&gt;0.6,$E$4,IF(ABS(I123)&gt;0.4,$D$4,IF(ABS(I123)&gt;0.2,$C$4,$B$4))))</f>
+        <v>Weak</v>
+      </c>
+      <c r="H122" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="I122" s="45">
+        <f>(G115*G116)+(H115*H116)</f>
+        <v>8655</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="47"/>
+      <c r="B123" s="16"/>
+      <c r="C123" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="D123" s="48">
+        <f>(D119-D120)/(SQRT((D119+D120+D121)*(D119+D120+D122)))</f>
+        <v>8.3341904383829712E-2</v>
+      </c>
+      <c r="E123" s="26"/>
+      <c r="F123" s="47"/>
+      <c r="G123" s="16"/>
+      <c r="H123" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="I123" s="48">
+        <f>(I119-I120)/(SQRT((I119+I120+I121)*(I119+I120+I122)))</f>
+        <v>-0.26897919382224134</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="49" t="str">
+        <f>chisquared!A166</f>
+        <v>h1: there is an association between being male and being sentenced to death at the Old Bailey (between 1722-1802)</v>
+      </c>
+      <c r="B125" s="50"/>
+      <c r="C125" s="50"/>
+      <c r="D125" s="51"/>
+      <c r="E125" s="26"/>
+      <c r="F125" s="49" t="str">
+        <f>chisquared!L166</f>
+        <v>h1: there is an association between being male and being sentenced to death in Surrey/Sussex (between 1722-1802)</v>
+      </c>
+      <c r="G125" s="50"/>
+      <c r="H125" s="50"/>
+      <c r="I125" s="51"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="55"/>
+      <c r="B126" s="56"/>
+      <c r="C126" s="56"/>
+      <c r="D126" s="57"/>
+      <c r="E126" s="26"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="7"/>
+      <c r="H126" s="7"/>
+      <c r="I126" s="8"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="5" t="str">
+        <f>chisquared!A168</f>
+        <v>OBSERVED</v>
+      </c>
+      <c r="B127" s="21" t="str">
+        <f>chisquared!B168</f>
+        <v>death</v>
+      </c>
+      <c r="C127" s="21" t="str">
+        <f>chisquared!C168</f>
+        <v>not death</v>
+      </c>
+      <c r="D127" s="45"/>
+      <c r="E127" s="26"/>
+      <c r="F127" s="5" t="str">
+        <f>chisquared!L168</f>
+        <v>OBSERVED</v>
+      </c>
+      <c r="G127" s="21" t="str">
+        <f>chisquared!M168</f>
+        <v>death</v>
+      </c>
+      <c r="H127" s="21" t="str">
+        <f>chisquared!N168</f>
+        <v>not death</v>
+      </c>
+      <c r="I127" s="45"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="5" t="str">
+        <f>chisquared!A169</f>
+        <v>male</v>
+      </c>
+      <c r="B128" s="24">
+        <f>chisquared!B169</f>
+        <v>143300</v>
+      </c>
+      <c r="C128" s="24">
+        <f>chisquared!C169</f>
+        <v>226969</v>
+      </c>
+      <c r="D128" s="45">
+        <f>chisquared!D169</f>
+        <v>370269</v>
+      </c>
+      <c r="E128" s="26"/>
+      <c r="F128" s="5" t="str">
+        <f>chisquared!L169</f>
+        <v>male</v>
+      </c>
+      <c r="G128" s="24">
+        <f>chisquared!M169</f>
+        <v>942</v>
+      </c>
+      <c r="H128" s="24">
+        <f>chisquared!N169</f>
+        <v>803</v>
+      </c>
+      <c r="I128" s="45">
+        <f>chisquared!O169</f>
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="5" t="str">
+        <f>chisquared!A170</f>
+        <v>not male</v>
+      </c>
+      <c r="B129" s="25">
+        <f>chisquared!B170</f>
+        <v>33126</v>
+      </c>
+      <c r="C129" s="25">
+        <f>chisquared!C170</f>
+        <v>68710</v>
+      </c>
+      <c r="D129" s="45">
+        <f>chisquared!D170</f>
+        <v>101836</v>
+      </c>
+      <c r="E129" s="26"/>
+      <c r="F129" s="5" t="str">
+        <f>chisquared!L170</f>
+        <v>not male</v>
+      </c>
+      <c r="G129" s="25">
+        <f>chisquared!M170</f>
+        <v>88</v>
+      </c>
+      <c r="H129" s="25">
+        <f>chisquared!N170</f>
+        <v>81</v>
+      </c>
+      <c r="I129" s="45">
+        <f>chisquared!O170</f>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="5"/>
+      <c r="B130" s="6">
+        <f>chisquared!B171</f>
+        <v>176426</v>
+      </c>
+      <c r="C130" s="6">
+        <f>chisquared!C171</f>
+        <v>295679</v>
+      </c>
+      <c r="D130" s="45">
+        <f>chisquared!D171</f>
+        <v>472105</v>
+      </c>
+      <c r="E130" s="26"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="6">
+        <f>chisquared!M171</f>
+        <v>1030</v>
+      </c>
+      <c r="H130" s="6">
+        <f>chisquared!N171</f>
+        <v>884</v>
+      </c>
+      <c r="I130" s="45">
+        <f>chisquared!O171</f>
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="46"/>
+      <c r="B131" s="7"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="45"/>
+      <c r="E131" s="26"/>
+      <c r="F131" s="46"/>
+      <c r="G131" s="7"/>
+      <c r="H131" s="6"/>
+      <c r="I131" s="45"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="46"/>
+      <c r="B132" s="7"/>
+      <c r="C132" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="D132" s="45">
+        <f>B128*C129</f>
+        <v>9846143000</v>
+      </c>
+      <c r="E132" s="26"/>
+      <c r="F132" s="46"/>
+      <c r="G132" s="7"/>
+      <c r="H132" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="I132" s="45">
+        <f>G128*H129</f>
+        <v>76302</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="46"/>
+      <c r="B133" s="7"/>
+      <c r="C133" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="D133" s="45">
+        <f>C128*B129</f>
+        <v>7518575094</v>
+      </c>
+      <c r="E133" s="26"/>
+      <c r="F133" s="46"/>
+      <c r="G133" s="7"/>
+      <c r="H133" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="I133" s="45">
+        <f>H128*G129</f>
+        <v>70664</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="46"/>
+      <c r="B134" s="7"/>
+      <c r="C134" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="D134" s="45">
+        <f>(B128*C128)+(B129*C129)</f>
+        <v>34800745160</v>
+      </c>
+      <c r="E134" s="26"/>
+      <c r="F134" s="46"/>
+      <c r="G134" s="7"/>
+      <c r="H134" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="I134" s="45">
+        <f>(G128*H128)+(G129*H129)</f>
+        <v>763554</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="46"/>
+      <c r="B135" s="7" t="str">
+        <f>IF(ABS(D136)&gt;0.8,$F$4,IF(ABS(D136)&gt;0.6,$E$4,IF(ABS(D136)&gt;0.4,$D$4,IF(ABS(D136)&gt;0.2,$C$4,$B$4))))</f>
+        <v>Very Weak</v>
+      </c>
+      <c r="C135" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="D135" s="45">
+        <f>(B128*B129)+(C128*C129)</f>
+        <v>20341995790</v>
+      </c>
+      <c r="E135" s="26"/>
+      <c r="F135" s="46"/>
+      <c r="G135" s="7" t="str">
+        <f>IF(ABS(I136)&gt;0.8,$F$4,IF(ABS(I136)&gt;0.6,$E$4,IF(ABS(I136)&gt;0.4,$D$4,IF(ABS(I136)&gt;0.2,$C$4,$B$4))))</f>
+        <v>Very Weak</v>
+      </c>
+      <c r="H135" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="I135" s="45">
+        <f>(G128*G129)+(H128*H129)</f>
+        <v>147939</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="47"/>
+      <c r="B136" s="16"/>
+      <c r="C136" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="D136" s="48">
+        <f>(D132-D133)/(SQRT((D132+D133+D134)*(D132+D133+D135)))</f>
+        <v>5.2480925258378767E-2</v>
+      </c>
+      <c r="E136" s="26"/>
+      <c r="F136" s="47"/>
+      <c r="G136" s="16"/>
+      <c r="H136" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="I136" s="48">
+        <f>(I132-I133)/(SQRT((I132+I133+I134)*(I132+I133+I135)))</f>
+        <v>1.0880259627292804E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="49" t="str">
+        <f>chisquared!A184</f>
+        <v>h1: there is an association between being male and being sentenced to transportation at the Old Bailey (between 1722-1802)</v>
+      </c>
+      <c r="B138" s="50"/>
+      <c r="C138" s="50"/>
+      <c r="D138" s="51"/>
+      <c r="E138" s="26"/>
+      <c r="F138" s="49" t="str">
+        <f>chisquared!L184</f>
+        <v>h1: there is an association between being male and being sentenced to transportation in Surrey/Sussex (between 1722-1802)</v>
+      </c>
+      <c r="G138" s="50"/>
+      <c r="H138" s="50"/>
+      <c r="I138" s="51"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="55"/>
+      <c r="B139" s="56"/>
+      <c r="C139" s="56"/>
+      <c r="D139" s="57"/>
+      <c r="E139" s="26"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="7"/>
+      <c r="H139" s="7"/>
+      <c r="I139" s="8"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="5" t="str">
+        <f>chisquared!A186</f>
+        <v>OBSERVED</v>
+      </c>
+      <c r="B140" s="21" t="str">
+        <f>chisquared!B186</f>
+        <v>transportation</v>
+      </c>
+      <c r="C140" s="21" t="str">
+        <f>chisquared!C186</f>
+        <v>not transportation</v>
+      </c>
+      <c r="D140" s="45"/>
+      <c r="E140" s="26"/>
+      <c r="F140" s="5" t="str">
+        <f>chisquared!L186</f>
+        <v>OBSERVED</v>
+      </c>
+      <c r="G140" s="21" t="str">
+        <f>chisquared!M186</f>
+        <v>transportation</v>
+      </c>
+      <c r="H140" s="21" t="str">
+        <f>chisquared!N186</f>
+        <v>not transportation</v>
+      </c>
+      <c r="I140" s="45"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="5" t="str">
+        <f>chisquared!A187</f>
+        <v>male</v>
+      </c>
+      <c r="B141" s="24">
+        <f>chisquared!B187</f>
+        <v>142528</v>
+      </c>
+      <c r="C141" s="24">
+        <f>chisquared!C187</f>
+        <v>227741</v>
+      </c>
+      <c r="D141" s="45">
+        <f>chisquared!D187</f>
+        <v>370269</v>
+      </c>
+      <c r="E141" s="26"/>
+      <c r="F141" s="5" t="str">
+        <f>chisquared!L187</f>
+        <v>male</v>
+      </c>
+      <c r="G141" s="24">
+        <f>chisquared!M187</f>
+        <v>383</v>
+      </c>
+      <c r="H141" s="24">
+        <f>chisquared!N187</f>
+        <v>1362</v>
+      </c>
+      <c r="I141" s="45">
+        <f>chisquared!O187</f>
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="5" t="str">
+        <f>chisquared!A188</f>
+        <v>not male</v>
+      </c>
+      <c r="B142" s="25">
+        <f>chisquared!B188</f>
+        <v>43423</v>
+      </c>
+      <c r="C142" s="25">
+        <f>chisquared!C188</f>
+        <v>58413</v>
+      </c>
+      <c r="D142" s="45">
+        <f>chisquared!D188</f>
+        <v>101836</v>
+      </c>
+      <c r="E142" s="26"/>
+      <c r="F142" s="5" t="str">
+        <f>chisquared!L188</f>
+        <v>not male</v>
+      </c>
+      <c r="G142" s="25">
+        <f>chisquared!M188</f>
+        <v>40</v>
+      </c>
+      <c r="H142" s="25">
+        <f>chisquared!N188</f>
+        <v>129</v>
+      </c>
+      <c r="I142" s="45">
+        <f>chisquared!O188</f>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="5"/>
+      <c r="B143" s="6">
+        <f>chisquared!B189</f>
+        <v>185951</v>
+      </c>
+      <c r="C143" s="6">
+        <f>chisquared!C189</f>
+        <v>286154</v>
+      </c>
+      <c r="D143" s="45">
+        <f>chisquared!D189</f>
+        <v>472105</v>
+      </c>
+      <c r="E143" s="26"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="6">
+        <f>chisquared!M189</f>
+        <v>423</v>
+      </c>
+      <c r="H143" s="6">
+        <f>chisquared!N189</f>
+        <v>1491</v>
+      </c>
+      <c r="I143" s="45">
+        <f>chisquared!O189</f>
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="46"/>
+      <c r="B144" s="7"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="45"/>
+      <c r="E144" s="26"/>
+      <c r="F144" s="46"/>
+      <c r="G144" s="7"/>
+      <c r="H144" s="6"/>
+      <c r="I144" s="45"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="46"/>
+      <c r="B145" s="7"/>
+      <c r="C145" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="D145" s="45">
+        <f>B141*C142</f>
+        <v>8325488064</v>
+      </c>
+      <c r="E145" s="26"/>
+      <c r="F145" s="46"/>
+      <c r="G145" s="7"/>
+      <c r="H145" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="I145" s="45">
+        <f>G141*H142</f>
+        <v>49407</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="46"/>
+      <c r="B146" s="7"/>
+      <c r="C146" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="D146" s="45">
+        <f>C141*B142</f>
+        <v>9889197443</v>
+      </c>
+      <c r="E146" s="26"/>
+      <c r="F146" s="46"/>
+      <c r="G146" s="7"/>
+      <c r="H146" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="I146" s="45">
+        <f>H141*G142</f>
+        <v>54480</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="46"/>
+      <c r="B147" s="7"/>
+      <c r="C147" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="D147" s="45">
+        <f>(B141*C141)+(B142*C142)</f>
+        <v>34995936947</v>
+      </c>
+      <c r="E147" s="26"/>
+      <c r="F147" s="46"/>
+      <c r="G147" s="7"/>
+      <c r="H147" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="I147" s="45">
+        <f>(G141*H141)+(G142*H142)</f>
+        <v>526806</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="46"/>
+      <c r="B148" s="7" t="str">
+        <f>IF(ABS(D149)&gt;0.8,$F$4,IF(ABS(D149)&gt;0.6,$E$4,IF(ABS(D149)&gt;0.4,$D$4,IF(ABS(D149)&gt;0.2,$C$4,$B$4))))</f>
+        <v>Very Weak</v>
+      </c>
+      <c r="C148" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="D148" s="45">
+        <f>(B141*B142)+(C141*C142)</f>
+        <v>19492028377</v>
+      </c>
+      <c r="E148" s="26"/>
+      <c r="F148" s="46"/>
+      <c r="G148" s="7" t="str">
+        <f>IF(ABS(I149)&gt;0.8,$F$4,IF(ABS(I149)&gt;0.6,$E$4,IF(ABS(I149)&gt;0.4,$D$4,IF(ABS(I149)&gt;0.2,$C$4,$B$4))))</f>
+        <v>Very Weak</v>
+      </c>
+      <c r="H148" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="I148" s="45">
+        <f>(G141*G142)+(H141*H142)</f>
+        <v>191018</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="47"/>
+      <c r="B149" s="16"/>
+      <c r="C149" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="D149" s="48">
+        <f>(D145-D146)/(SQRT((D145+D146+D147)*(D145+D146+D148)))</f>
+        <v>-3.4909813494259347E-2</v>
+      </c>
+      <c r="E149" s="26"/>
+      <c r="F149" s="47"/>
+      <c r="G149" s="16"/>
+      <c r="H149" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="I149" s="48">
+        <f>(I145-I146)/(SQRT((I145+I146+I147)*(I145+I146+I148)))</f>
+        <v>-1.176291040022002E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="49" t="str">
+        <f>chisquared!A202</f>
+        <v>h1: there is an association between being male and being sentenced to imprisonment at the Old Bailey (between 1722-1802)</v>
+      </c>
+      <c r="B151" s="50"/>
+      <c r="C151" s="50"/>
+      <c r="D151" s="51"/>
+      <c r="E151" s="26"/>
+      <c r="F151" s="49" t="str">
+        <f>chisquared!L202</f>
+        <v>h1: there is an association between being male and being sentenced to imprisonment in Surrey/Sussex (between 1722-1802)</v>
+      </c>
+      <c r="G151" s="50"/>
+      <c r="H151" s="50"/>
+      <c r="I151" s="51"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="55"/>
+      <c r="B152" s="56"/>
+      <c r="C152" s="56"/>
+      <c r="D152" s="57"/>
+      <c r="E152" s="26"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="7"/>
+      <c r="H152" s="7"/>
+      <c r="I152" s="8"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" s="5" t="str">
+        <f>chisquared!A204</f>
+        <v>OBSERVED</v>
+      </c>
+      <c r="B153" s="21" t="str">
+        <f>chisquared!B204</f>
+        <v>imprisonment</v>
+      </c>
+      <c r="C153" s="21" t="str">
+        <f>chisquared!C204</f>
+        <v>not imprisonment</v>
+      </c>
+      <c r="D153" s="45"/>
+      <c r="E153" s="26"/>
+      <c r="F153" s="5" t="str">
+        <f>chisquared!L204</f>
+        <v>OBSERVED</v>
+      </c>
+      <c r="G153" s="21" t="str">
+        <f>chisquared!M204</f>
+        <v>imprisonment</v>
+      </c>
+      <c r="H153" s="21" t="str">
+        <f>chisquared!N204</f>
+        <v>not imprisonment</v>
+      </c>
+      <c r="I153" s="45"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" s="5" t="str">
+        <f>chisquared!A205</f>
+        <v>male</v>
+      </c>
+      <c r="B154" s="24">
+        <f>chisquared!B205</f>
+        <v>46315</v>
+      </c>
+      <c r="C154" s="24">
+        <f>chisquared!C205</f>
+        <v>380790</v>
+      </c>
+      <c r="D154" s="45">
+        <f>chisquared!D205</f>
+        <v>427105</v>
+      </c>
+      <c r="E154" s="26"/>
+      <c r="F154" s="5" t="str">
+        <f>chisquared!L205</f>
+        <v>male</v>
+      </c>
+      <c r="G154" s="24">
+        <f>chisquared!M205</f>
+        <v>24</v>
+      </c>
+      <c r="H154" s="24">
+        <f>chisquared!N205</f>
+        <v>1721</v>
+      </c>
+      <c r="I154" s="45">
+        <f>chisquared!O205</f>
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="5" t="str">
+        <f>chisquared!A206</f>
+        <v>not male</v>
+      </c>
+      <c r="B155" s="25">
+        <f>chisquared!B206</f>
+        <v>11400</v>
+      </c>
+      <c r="C155" s="25">
+        <f>chisquared!C206</f>
+        <v>90436</v>
+      </c>
+      <c r="D155" s="45">
+        <f>chisquared!D206</f>
+        <v>101836</v>
+      </c>
+      <c r="E155" s="26"/>
+      <c r="F155" s="5" t="str">
+        <f>chisquared!L206</f>
+        <v>not male</v>
+      </c>
+      <c r="G155" s="25">
+        <f>chisquared!M206</f>
+        <v>16</v>
+      </c>
+      <c r="H155" s="25">
+        <f>chisquared!N206</f>
+        <v>153</v>
+      </c>
+      <c r="I155" s="45">
+        <f>chisquared!O206</f>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="5"/>
+      <c r="B156" s="6">
+        <f>chisquared!B207</f>
+        <v>57715</v>
+      </c>
+      <c r="C156" s="6">
+        <f>chisquared!C207</f>
+        <v>471226</v>
+      </c>
+      <c r="D156" s="45">
+        <f>chisquared!D207</f>
+        <v>528941</v>
+      </c>
+      <c r="E156" s="26"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="6">
+        <f>chisquared!M207</f>
+        <v>40</v>
+      </c>
+      <c r="H156" s="6">
+        <f>chisquared!N207</f>
+        <v>1874</v>
+      </c>
+      <c r="I156" s="45">
+        <f>chisquared!O207</f>
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="46"/>
+      <c r="B157" s="7"/>
+      <c r="C157" s="6"/>
+      <c r="D157" s="45"/>
+      <c r="E157" s="26"/>
+      <c r="F157" s="46"/>
+      <c r="G157" s="7"/>
+      <c r="H157" s="6"/>
+      <c r="I157" s="45"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="46"/>
+      <c r="B158" s="7"/>
+      <c r="C158" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="D158" s="45">
+        <f>B154*C155</f>
+        <v>4188543340</v>
+      </c>
+      <c r="E158" s="26"/>
+      <c r="F158" s="46"/>
+      <c r="G158" s="7"/>
+      <c r="H158" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="I158" s="45">
+        <f>G154*H155</f>
+        <v>3672</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="46"/>
+      <c r="B159" s="7"/>
+      <c r="C159" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="D159" s="45">
+        <f>C154*B155</f>
+        <v>4341006000</v>
+      </c>
+      <c r="E159" s="26"/>
+      <c r="F159" s="46"/>
+      <c r="G159" s="7"/>
+      <c r="H159" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="I159" s="45">
+        <f>H154*G155</f>
+        <v>27536</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="46"/>
+      <c r="B160" s="7"/>
+      <c r="C160" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="D160" s="45">
+        <f>(B154*C154)+(B155*C155)</f>
+        <v>18667259250</v>
+      </c>
+      <c r="E160" s="26"/>
+      <c r="F160" s="46"/>
+      <c r="G160" s="7"/>
+      <c r="H160" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="I160" s="45">
+        <f>(G154*H154)+(G155*H155)</f>
+        <v>43752</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" s="46"/>
+      <c r="B161" s="7" t="str">
+        <f>IF(ABS(D162)&gt;0.8,$F$4,IF(ABS(D162)&gt;0.6,$E$4,IF(ABS(D162)&gt;0.4,$D$4,IF(ABS(D162)&gt;0.2,$C$4,$B$4))))</f>
+        <v>Very Weak</v>
+      </c>
+      <c r="C161" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="D161" s="45">
+        <f>(B154*B155)+(C154*C155)</f>
+        <v>34965115440</v>
+      </c>
+      <c r="E161" s="26"/>
+      <c r="F161" s="46"/>
+      <c r="G161" s="7" t="str">
+        <f>IF(ABS(I162)&gt;0.8,$F$4,IF(ABS(I162)&gt;0.6,$E$4,IF(ABS(I162)&gt;0.4,$D$4,IF(ABS(I162)&gt;0.2,$C$4,$B$4))))</f>
+        <v>Very Weak</v>
+      </c>
+      <c r="H161" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="I161" s="45">
+        <f>(G154*G155)+(H154*H155)</f>
+        <v>263697</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="47"/>
+      <c r="B162" s="16"/>
+      <c r="C162" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="D162" s="48">
+        <f>(D158-D159)/(SQRT((D158+D159+D160)*(D158+D159+D161)))</f>
+        <v>-4.4328856271572438E-3</v>
+      </c>
+      <c r="E162" s="26"/>
+      <c r="F162" s="47"/>
+      <c r="G162" s="16"/>
+      <c r="H162" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="I162" s="48">
+        <f>(I158-I159)/(SQRT((I158+I159+I160)*(I158+I159+I161)))</f>
+        <v>-0.16050456297885812</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" s="49" t="str">
+        <f>chisquared!A220</f>
+        <v>h1: there is an association between being female and being sentenced to death for infanticide at the Old Bailey (between 1663-1802)</v>
+      </c>
+      <c r="B164" s="50"/>
+      <c r="C164" s="50"/>
+      <c r="D164" s="51"/>
+      <c r="E164" s="26"/>
+      <c r="F164" s="49" t="str">
+        <f>chisquared!L220</f>
+        <v>h1: there is an association between being female and being sentenced to death for infanticide in Surrey/Sussex (between 1663-1802)</v>
+      </c>
+      <c r="G164" s="50"/>
+      <c r="H164" s="50"/>
+      <c r="I164" s="51"/>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" s="55"/>
+      <c r="B165" s="56"/>
+      <c r="C165" s="56"/>
+      <c r="D165" s="57"/>
+      <c r="E165" s="26"/>
+      <c r="F165" s="5"/>
+      <c r="G165" s="7"/>
+      <c r="H165" s="7"/>
+      <c r="I165" s="8"/>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" s="5" t="str">
+        <f>chisquared!A222</f>
+        <v>OBSERVED</v>
+      </c>
+      <c r="B166" s="21" t="str">
+        <f>chisquared!B222</f>
+        <v>infanticide</v>
+      </c>
+      <c r="C166" s="21" t="str">
+        <f>chisquared!C222</f>
+        <v>not infanticide</v>
+      </c>
+      <c r="D166" s="45"/>
+      <c r="E166" s="26"/>
+      <c r="F166" s="5" t="str">
+        <f>chisquared!L222</f>
+        <v>OBSERVED</v>
+      </c>
+      <c r="G166" s="21" t="str">
+        <f>chisquared!M222</f>
+        <v>infanticide</v>
+      </c>
+      <c r="H166" s="21" t="str">
+        <f>chisquared!N222</f>
+        <v>not infanticide</v>
+      </c>
+      <c r="I166" s="45"/>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" s="5" t="str">
+        <f>chisquared!A223</f>
+        <v>female</v>
+      </c>
+      <c r="B167" s="24">
+        <f>chisquared!B223</f>
+        <v>62</v>
+      </c>
+      <c r="C167" s="24">
+        <f>chisquared!C223</f>
+        <v>2472</v>
+      </c>
+      <c r="D167" s="45">
+        <f>chisquared!D223</f>
+        <v>2534</v>
+      </c>
+      <c r="E167" s="26"/>
+      <c r="F167" s="5" t="str">
+        <f>chisquared!L223</f>
+        <v>female</v>
+      </c>
+      <c r="G167" s="24">
+        <f>chisquared!M223</f>
+        <v>4</v>
+      </c>
+      <c r="H167" s="24">
+        <f>chisquared!N223</f>
+        <v>33</v>
+      </c>
+      <c r="I167" s="45">
+        <f>chisquared!O223</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" s="5" t="str">
+        <f>chisquared!A224</f>
+        <v>not female</v>
+      </c>
+      <c r="B168" s="25">
+        <f>chisquared!B224</f>
+        <v>0</v>
+      </c>
+      <c r="C168" s="25">
+        <f>chisquared!C224</f>
+        <v>10498</v>
+      </c>
+      <c r="D168" s="45">
+        <f>chisquared!D224</f>
+        <v>10498</v>
+      </c>
+      <c r="E168" s="26"/>
+      <c r="F168" s="5" t="str">
+        <f>chisquared!L224</f>
+        <v>not female</v>
+      </c>
+      <c r="G168" s="25">
+        <f>chisquared!M224</f>
+        <v>0</v>
+      </c>
+      <c r="H168" s="25">
+        <f>chisquared!N224</f>
+        <v>481</v>
+      </c>
+      <c r="I168" s="45">
+        <f>chisquared!O224</f>
+        <v>481</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" s="5"/>
+      <c r="B169" s="6">
+        <f>chisquared!B225</f>
+        <v>62</v>
+      </c>
+      <c r="C169" s="6">
+        <f>chisquared!C225</f>
+        <v>12970</v>
+      </c>
+      <c r="D169" s="45">
+        <f>chisquared!D225</f>
+        <v>13032</v>
+      </c>
+      <c r="E169" s="26"/>
+      <c r="F169" s="5"/>
+      <c r="G169" s="6">
+        <f>chisquared!M225</f>
+        <v>4</v>
+      </c>
+      <c r="H169" s="6">
+        <f>chisquared!N225</f>
+        <v>514</v>
+      </c>
+      <c r="I169" s="45">
+        <f>chisquared!O225</f>
+        <v>518</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" s="46"/>
+      <c r="B170" s="7"/>
+      <c r="C170" s="6"/>
+      <c r="D170" s="45"/>
+      <c r="E170" s="26"/>
+      <c r="F170" s="46"/>
+      <c r="G170" s="7"/>
+      <c r="H170" s="6"/>
+      <c r="I170" s="45"/>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" s="46"/>
+      <c r="B171" s="7"/>
+      <c r="C171" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="D171" s="45">
+        <f>B167*C168</f>
+        <v>650876</v>
+      </c>
+      <c r="E171" s="26"/>
+      <c r="F171" s="46"/>
+      <c r="G171" s="7"/>
+      <c r="H171" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="I171" s="45">
+        <f>G167*H168</f>
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" s="46"/>
+      <c r="B172" s="7"/>
+      <c r="C172" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="D172" s="45">
+        <f>C167*B168</f>
+        <v>0</v>
+      </c>
+      <c r="E172" s="26"/>
+      <c r="F172" s="46"/>
+      <c r="G172" s="7"/>
+      <c r="H172" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="I172" s="45">
+        <f>H167*G168</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" s="46"/>
+      <c r="B173" s="7"/>
+      <c r="C173" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="D173" s="45">
+        <f>(B167*C167)+(B168*C168)</f>
+        <v>153264</v>
+      </c>
+      <c r="E173" s="26"/>
+      <c r="F173" s="46"/>
+      <c r="G173" s="7"/>
+      <c r="H173" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="I173" s="45">
+        <f>(G167*H167)+(G168*H168)</f>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" s="46"/>
+      <c r="B174" s="7" t="str">
+        <f>IF(ABS(D175)&gt;0.8,$F$4,IF(ABS(D175)&gt;0.6,$E$4,IF(ABS(D175)&gt;0.4,$D$4,IF(ABS(D175)&gt;0.2,$C$4,$B$4))))</f>
+        <v>Very Weak</v>
+      </c>
+      <c r="C174" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="D174" s="45">
+        <f>(B167*B168)+(C167*C168)</f>
+        <v>25951056</v>
+      </c>
+      <c r="E174" s="26"/>
+      <c r="F174" s="46"/>
+      <c r="G174" s="7" t="str">
+        <f>IF(ABS(I175)&gt;0.8,$F$4,IF(ABS(I175)&gt;0.6,$E$4,IF(ABS(I175)&gt;0.4,$D$4,IF(ABS(I175)&gt;0.2,$C$4,$B$4))))</f>
+        <v>Weak</v>
+      </c>
+      <c r="H174" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="I174" s="45">
+        <f>(G167*G168)+(H167*H168)</f>
+        <v>15873</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="47"/>
+      <c r="B175" s="16"/>
+      <c r="C175" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="D175" s="48">
+        <f>(D171-D172)/(SQRT((D171+D172+D173)*(D171+D172+D174)))</f>
+        <v>0.14072648352583414</v>
+      </c>
+      <c r="E175" s="26"/>
+      <c r="F175" s="47"/>
+      <c r="G175" s="16"/>
+      <c r="H175" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="I175" s="48">
+        <f>(I171-I172)/(SQRT((I171+I172+I173)*(I171+I172+I174)))</f>
+        <v>0.31806809832974015</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" s="49" t="str">
+        <f>chisquared!A238</f>
+        <v>h1: there is an association between being charged with Homicide and found guilty at the Old Bailey (1660-1740 &amp; 1740-1802)</v>
+      </c>
+      <c r="B177" s="50"/>
+      <c r="C177" s="50"/>
+      <c r="D177" s="51"/>
+      <c r="E177" s="26"/>
+      <c r="F177" s="49" t="str">
+        <f>chisquared!L238</f>
+        <v>h1: there is an association between being charged with Homicide and found guilty in Surrey/Sussex (1660-1740 &amp; 1740-1802)</v>
+      </c>
+      <c r="G177" s="50"/>
+      <c r="H177" s="50"/>
+      <c r="I177" s="51"/>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" s="55"/>
+      <c r="B178" s="56"/>
+      <c r="C178" s="56"/>
+      <c r="D178" s="57"/>
+      <c r="E178" s="26"/>
+      <c r="F178" s="5"/>
+      <c r="G178" s="7"/>
+      <c r="H178" s="7"/>
+      <c r="I178" s="8"/>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" s="5" t="str">
+        <f>chisquared!A240</f>
+        <v>OBSERVED</v>
+      </c>
+      <c r="B179" s="21" t="str">
+        <f>chisquared!B240</f>
+        <v>Guilty</v>
+      </c>
+      <c r="C179" s="21" t="str">
+        <f>chisquared!C240</f>
+        <v>Not Guilty</v>
+      </c>
+      <c r="D179" s="45"/>
+      <c r="E179" s="26"/>
+      <c r="F179" s="5" t="str">
+        <f>chisquared!L240</f>
+        <v>OBSERVED</v>
+      </c>
+      <c r="G179" s="21" t="str">
+        <f>chisquared!M240</f>
+        <v>Guilty</v>
+      </c>
+      <c r="H179" s="21" t="str">
+        <f>chisquared!N240</f>
+        <v>Not Guilty</v>
+      </c>
+      <c r="I179" s="45"/>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" s="5" t="str">
+        <f>chisquared!A241</f>
+        <v>1660-1740</v>
+      </c>
+      <c r="B180" s="24">
+        <f>chisquared!B241</f>
+        <v>3185</v>
+      </c>
+      <c r="C180" s="24">
+        <f>chisquared!C241</f>
+        <v>608</v>
+      </c>
+      <c r="D180" s="45">
+        <f>chisquared!D241</f>
+        <v>3793</v>
+      </c>
+      <c r="E180" s="26"/>
+      <c r="F180" s="5" t="str">
+        <f>chisquared!L241</f>
+        <v>1660-1740</v>
+      </c>
+      <c r="G180" s="24">
+        <f>chisquared!M241</f>
+        <v>27.373000000000001</v>
+      </c>
+      <c r="H180" s="24">
+        <f>chisquared!N241</f>
+        <v>91.334999999999994</v>
+      </c>
+      <c r="I180" s="45">
+        <f>chisquared!O241</f>
+        <v>118.708</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" s="5" t="str">
+        <f>chisquared!A242</f>
+        <v>1740-1802</v>
+      </c>
+      <c r="B181" s="25">
+        <f>chisquared!B242</f>
+        <v>11576</v>
+      </c>
+      <c r="C181" s="25">
+        <f>chisquared!C242</f>
+        <v>4673</v>
+      </c>
+      <c r="D181" s="45">
+        <f>chisquared!D242</f>
+        <v>16249</v>
+      </c>
+      <c r="E181" s="26"/>
+      <c r="F181" s="5" t="str">
+        <f>chisquared!L242</f>
+        <v>1740-1802</v>
+      </c>
+      <c r="G181" s="25">
+        <f>chisquared!M242</f>
+        <v>34.695</v>
+      </c>
+      <c r="H181" s="25">
+        <f>chisquared!N242</f>
+        <v>29.979999999999997</v>
+      </c>
+      <c r="I181" s="45">
+        <f>chisquared!O242</f>
+        <v>64.674999999999997</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" s="5"/>
+      <c r="B182" s="6">
+        <f>chisquared!B243</f>
+        <v>14761</v>
+      </c>
+      <c r="C182" s="6">
+        <f>chisquared!C243</f>
+        <v>5281</v>
+      </c>
+      <c r="D182" s="45">
+        <f>chisquared!D243</f>
+        <v>20042</v>
+      </c>
+      <c r="E182" s="26"/>
+      <c r="F182" s="5"/>
+      <c r="G182" s="6">
+        <f>chisquared!M243</f>
+        <v>62.067999999999998</v>
+      </c>
+      <c r="H182" s="6">
+        <f>chisquared!N243</f>
+        <v>121.315</v>
+      </c>
+      <c r="I182" s="45">
+        <f>chisquared!O243</f>
+        <v>183.38299999999998</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" s="46"/>
+      <c r="B183" s="7"/>
+      <c r="C183" s="6"/>
+      <c r="D183" s="45"/>
+      <c r="E183" s="26"/>
+      <c r="F183" s="46"/>
+      <c r="G183" s="7"/>
+      <c r="H183" s="6"/>
+      <c r="I183" s="45"/>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" s="46"/>
+      <c r="B184" s="7"/>
+      <c r="C184" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="D184" s="45">
+        <f>B180*C181</f>
+        <v>14883505</v>
+      </c>
+      <c r="E184" s="26"/>
+      <c r="F184" s="46"/>
+      <c r="G184" s="7"/>
+      <c r="H184" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="I184" s="45">
+        <f>G180*H181</f>
+        <v>820.64253999999994</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" s="46"/>
+      <c r="B185" s="7"/>
+      <c r="C185" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="D185" s="45">
+        <f>C180*B181</f>
+        <v>7038208</v>
+      </c>
+      <c r="E185" s="26"/>
+      <c r="F185" s="46"/>
+      <c r="G185" s="7"/>
+      <c r="H185" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="I185" s="45">
+        <f>H180*G181</f>
+        <v>3168.8678249999998</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" s="46"/>
+      <c r="B186" s="7"/>
+      <c r="C186" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="D186" s="45">
+        <f>(B180*C180)+(B181*C181)</f>
+        <v>56031128</v>
+      </c>
+      <c r="E186" s="26"/>
+      <c r="F186" s="46"/>
+      <c r="G186" s="7"/>
+      <c r="H186" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="I186" s="45">
+        <f>(G180*H180)+(G181*H181)</f>
+        <v>3540.2690549999998</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" s="46"/>
+      <c r="B187" s="7" t="str">
+        <f>IF(ABS(D188)&gt;0.8,$F$4,IF(ABS(D188)&gt;0.6,$E$4,IF(ABS(D188)&gt;0.4,$D$4,IF(ABS(D188)&gt;0.2,$C$4,$B$4))))</f>
+        <v>Very Weak</v>
+      </c>
+      <c r="C187" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="D187" s="45">
+        <f>(B180*B181)+(C180*C181)</f>
+        <v>39710744</v>
+      </c>
+      <c r="E187" s="26"/>
+      <c r="F187" s="46"/>
+      <c r="G187" s="7" t="str">
+        <f>IF(ABS(I188)&gt;0.8,$F$4,IF(ABS(I188)&gt;0.6,$E$4,IF(ABS(I188)&gt;0.4,$D$4,IF(ABS(I188)&gt;0.2,$C$4,$B$4))))</f>
+        <v>Weak</v>
+      </c>
+      <c r="H187" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="I187" s="45">
+        <f>(G180*G181)+(H180*H181)</f>
+        <v>3687.9295349999998</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="47"/>
+      <c r="B188" s="16"/>
+      <c r="C188" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="D188" s="48">
+        <f>(D184-D185)/(SQRT((D184+D185+D186)*(D184+D185+D187)))</f>
+        <v>0.11318494777651014</v>
+      </c>
+      <c r="E188" s="26"/>
+      <c r="F188" s="47"/>
+      <c r="G188" s="16"/>
+      <c r="H188" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="I188" s="48">
+        <f>(I184-I185)/(SQRT((I184+I185+I186)*(I184+I185+I187)))</f>
+        <v>-0.30884489019832889</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="46">
+    <mergeCell ref="A165:D165"/>
+    <mergeCell ref="A177:D177"/>
+    <mergeCell ref="F177:I177"/>
+    <mergeCell ref="A178:D178"/>
+    <mergeCell ref="A139:D139"/>
+    <mergeCell ref="A151:D151"/>
+    <mergeCell ref="F151:I151"/>
+    <mergeCell ref="A152:D152"/>
+    <mergeCell ref="A164:D164"/>
+    <mergeCell ref="F164:I164"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="F125:I125"/>
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="A138:D138"/>
+    <mergeCell ref="F138:I138"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="F99:I99"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A112:D112"/>
+    <mergeCell ref="F112:I112"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="F73:I73"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="F86:I86"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="U6:X6"/>
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="Z7:AC7"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="P6:S6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD84"/>
   <sheetViews>
@@ -18537,7 +23213,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AL15"/>
   <sheetViews>
@@ -20217,12 +24893,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/new_data_worksheet_2.xlsx
+++ b/new_data_worksheet_2.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ma_public\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF115F7-EC66-49FB-AD8E-BF6D1A6D63C8}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="chisquared" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
     <sheet name="oldBailey_descStats" sheetId="5" r:id="rId5"/>
     <sheet name="Notes" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -741,9 +735,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -770,7 +764,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -780,6 +774,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,7 +902,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -958,16 +964,31 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -980,21 +1001,48 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1301,17 +1349,17 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM254"/>
   <sheetViews>
-    <sheetView topLeftCell="A226" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -6129,16 +6177,16 @@
       <c r="T83" s="7"/>
       <c r="U83" s="8"/>
       <c r="W83" s="5"/>
-      <c r="X83" s="43" t="s">
+      <c r="X83" s="49" t="s">
         <v>218</v>
       </c>
-      <c r="Y83" s="43"/>
+      <c r="Y83" s="49"/>
       <c r="Z83" s="6"/>
       <c r="AA83" s="7"/>
-      <c r="AB83" s="43" t="s">
+      <c r="AB83" s="49" t="s">
         <v>216</v>
       </c>
-      <c r="AC83" s="43"/>
+      <c r="AC83" s="49"/>
       <c r="AD83" s="7"/>
       <c r="AE83" s="7"/>
       <c r="AF83" s="8"/>
@@ -13307,11 +13355,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:N2"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13487,86 +13535,86 @@
       <c r="K5" s="32"/>
     </row>
     <row r="6" spans="1:35" s="37" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="M6" s="44" t="s">
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="M6" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44"/>
-      <c r="S6" s="44" t="s">
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="S6" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="T6" s="44"/>
-      <c r="U6" s="44"/>
-      <c r="V6" s="44"/>
-      <c r="W6" s="44"/>
-      <c r="Y6" s="44" t="s">
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="50"/>
+      <c r="W6" s="50"/>
+      <c r="Y6" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="Z6" s="44"/>
-      <c r="AA6" s="44"/>
-      <c r="AB6" s="44"/>
-      <c r="AC6" s="44"/>
-      <c r="AE6" s="44" t="s">
+      <c r="Z6" s="50"/>
+      <c r="AA6" s="50"/>
+      <c r="AB6" s="50"/>
+      <c r="AC6" s="50"/>
+      <c r="AE6" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="AF6" s="44"/>
-      <c r="AG6" s="44"/>
-      <c r="AH6" s="44"/>
-      <c r="AI6" s="44"/>
+      <c r="AF6" s="50"/>
+      <c r="AG6" s="50"/>
+      <c r="AH6" s="50"/>
+      <c r="AI6" s="50"/>
     </row>
     <row r="7" spans="1:35" s="38" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
       <c r="F7" s="39"/>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="M7" s="44" t="s">
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="M7" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="S7" s="44" t="s">
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="S7" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="T7" s="44"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="44"/>
-      <c r="Y7" s="44" t="s">
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="50"/>
+      <c r="Y7" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="Z7" s="44"/>
-      <c r="AA7" s="44"/>
-      <c r="AB7" s="44"/>
-      <c r="AC7" s="44"/>
-      <c r="AE7" s="44" t="s">
+      <c r="Z7" s="50"/>
+      <c r="AA7" s="50"/>
+      <c r="AB7" s="50"/>
+      <c r="AC7" s="50"/>
+      <c r="AE7" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="AF7" s="44"/>
-      <c r="AG7" s="44"/>
-      <c r="AH7" s="44"/>
-      <c r="AI7" s="44"/>
+      <c r="AF7" s="50"/>
+      <c r="AG7" s="50"/>
+      <c r="AH7" s="50"/>
+      <c r="AI7" s="50"/>
     </row>
     <row r="8" spans="1:35" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
@@ -13793,21 +13841,21 @@
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="1:35" s="38" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
       <c r="F12" s="39"/>
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
@@ -13906,20 +13954,20 @@
       <c r="K16" s="26"/>
     </row>
     <row r="17" spans="1:11" s="38" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="G17" s="44" t="s">
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="G17" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
@@ -14018,20 +14066,20 @@
       <c r="K21" s="26"/>
     </row>
     <row r="22" spans="1:11" s="38" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="G22" s="44" t="s">
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="G22" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="35" t="s">
@@ -14130,20 +14178,20 @@
       <c r="K26" s="26"/>
     </row>
     <row r="27" spans="1:11" s="38" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="G27" s="44" t="s">
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="G27" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="35" t="s">
@@ -14233,20 +14281,20 @@
       <c r="K31" s="26"/>
     </row>
     <row r="32" spans="1:11" s="38" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="G32" s="44" t="s">
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="G32" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="35" t="s">
@@ -14332,23 +14380,23 @@
       <c r="K35" s="26"/>
     </row>
     <row r="37" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="44" t="str">
+      <c r="A37" s="50" t="str">
         <f>chisquared!A148</f>
         <v>h1: there is an association between male homicide guilty verdicts pre 1740 and post 1740 at the Old Bailey</v>
       </c>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
       <c r="F37" s="38"/>
-      <c r="G37" s="44" t="str">
+      <c r="G37" s="58" t="str">
         <f>chisquared!L148</f>
         <v>h1: there is an association between male homicide guilty verdicts pre 1740 and post 1740 in Surrey/Sussex</v>
       </c>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="44"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="58"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="35" t="s">
@@ -14369,21 +14417,21 @@
         <v>159</v>
       </c>
       <c r="F38" s="26"/>
-      <c r="G38" s="35" t="s">
+      <c r="G38" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="H38" s="36">
+      <c r="H38" s="60">
         <f>chisquared!P162</f>
         <v>19.896196845047292</v>
       </c>
-      <c r="I38" s="34" t="s">
+      <c r="I38" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="J38" s="36">
+      <c r="J38" s="60">
         <f>SQRT(H38/H39)</f>
         <v>0.26897919382224139</v>
       </c>
-      <c r="K38" s="26" t="s">
+      <c r="K38" s="62" t="s">
         <v>162</v>
       </c>
     </row>
@@ -14404,21 +14452,21 @@
       </c>
       <c r="E39" s="26"/>
       <c r="F39" s="26"/>
-      <c r="G39" s="35" t="s">
+      <c r="G39" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="H39" s="36">
+      <c r="H39" s="60">
         <f>chisquared!O153</f>
         <v>275</v>
       </c>
-      <c r="I39" s="34" t="s">
+      <c r="I39" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="J39" s="36">
+      <c r="J39" s="60">
         <f>J38*J38</f>
         <v>7.2349806709262901E-2</v>
       </c>
-      <c r="K39" s="26"/>
+      <c r="K39" s="62"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="26"/>
@@ -14432,35 +14480,35 @@
       </c>
       <c r="E40" s="26"/>
       <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="35" t="s">
+      <c r="G40" s="62"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="J40" s="36">
+      <c r="J40" s="60">
         <f>SQRT(J39/(1+J39))</f>
         <v>0.25974694520752228</v>
       </c>
-      <c r="K40" s="26"/>
+      <c r="K40" s="62"/>
     </row>
     <row r="42" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="44" t="str">
+      <c r="A42" s="50" t="str">
         <f>chisquared!A166</f>
         <v>h1: there is an association between being male and being sentenced to death at the Old Bailey (between 1722-1802)</v>
       </c>
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
       <c r="F42" s="38"/>
-      <c r="G42" s="44" t="str">
+      <c r="G42" s="50" t="str">
         <f>chisquared!L166</f>
         <v>h1: there is an association between being male and being sentenced to death in Surrey/Sussex (between 1722-1802)</v>
       </c>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="44"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="50"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="35" t="s">
@@ -14556,23 +14604,23 @@
       <c r="K45" s="26"/>
     </row>
     <row r="47" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="44" t="str">
+      <c r="A47" s="50" t="str">
         <f>chisquared!A184</f>
         <v>h1: there is an association between being male and being sentenced to transportation at the Old Bailey (between 1722-1802)</v>
       </c>
-      <c r="B47" s="44"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
       <c r="F47" s="38"/>
-      <c r="G47" s="44" t="str">
+      <c r="G47" s="50" t="str">
         <f>chisquared!L184</f>
         <v>h1: there is an association between being male and being sentenced to transportation in Surrey/Sussex (between 1722-1802)</v>
       </c>
-      <c r="H47" s="44"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="44"/>
-      <c r="K47" s="44"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="50"/>
+      <c r="K47" s="50"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="35" t="s">
@@ -14668,23 +14716,23 @@
       <c r="K50" s="26"/>
     </row>
     <row r="52" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="44" t="str">
+      <c r="A52" s="50" t="str">
         <f>chisquared!A202</f>
         <v>h1: there is an association between being male and being sentenced to imprisonment at the Old Bailey (between 1722-1802)</v>
       </c>
-      <c r="B52" s="44"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="50"/>
       <c r="F52" s="38"/>
-      <c r="G52" s="44" t="str">
+      <c r="G52" s="50" t="str">
         <f>chisquared!L202</f>
         <v>h1: there is an association between being male and being sentenced to imprisonment in Surrey/Sussex (between 1722-1802)</v>
       </c>
-      <c r="H52" s="44"/>
-      <c r="I52" s="44"/>
-      <c r="J52" s="44"/>
-      <c r="K52" s="44"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="50"/>
+      <c r="K52" s="50"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="35" t="s">
@@ -14780,23 +14828,23 @@
       <c r="K55" s="26"/>
     </row>
     <row r="57" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="44" t="str">
+      <c r="A57" s="50" t="str">
         <f>chisquared!A220</f>
         <v>h1: there is an association between being female and being sentenced to death for infanticide at the Old Bailey (between 1663-1802)</v>
       </c>
-      <c r="B57" s="44"/>
-      <c r="C57" s="44"/>
-      <c r="D57" s="44"/>
-      <c r="E57" s="44"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="50"/>
       <c r="F57" s="38"/>
-      <c r="G57" s="44" t="str">
+      <c r="G57" s="58" t="str">
         <f>chisquared!L220</f>
         <v>h1: there is an association between being female and being sentenced to death for infanticide in Surrey/Sussex (between 1663-1802)</v>
       </c>
-      <c r="H57" s="44"/>
-      <c r="I57" s="44"/>
-      <c r="J57" s="44"/>
-      <c r="K57" s="44"/>
+      <c r="H57" s="58"/>
+      <c r="I57" s="58"/>
+      <c r="J57" s="58"/>
+      <c r="K57" s="58"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="35" t="s">
@@ -14817,21 +14865,21 @@
         <v>159</v>
       </c>
       <c r="F58" s="26"/>
-      <c r="G58" s="35" t="s">
+      <c r="G58" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="H58" s="36">
+      <c r="H58" s="60">
         <f>chisquared!P234</f>
         <v>52.404669260700395</v>
       </c>
-      <c r="I58" s="34" t="s">
+      <c r="I58" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="J58" s="36">
+      <c r="J58" s="60">
         <f>SQRT(H58/H59)</f>
         <v>0.3180680983297402</v>
       </c>
-      <c r="K58" s="26" t="s">
+      <c r="K58" s="62" t="s">
         <v>163</v>
       </c>
     </row>
@@ -14852,21 +14900,21 @@
       </c>
       <c r="E59" s="26"/>
       <c r="F59" s="26"/>
-      <c r="G59" s="35" t="s">
+      <c r="G59" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="H59" s="36">
+      <c r="H59" s="60">
         <f>chisquared!O225</f>
         <v>518</v>
       </c>
-      <c r="I59" s="34" t="s">
+      <c r="I59" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="J59" s="36">
+      <c r="J59" s="60">
         <f>J58*J58</f>
         <v>0.10116731517509728</v>
       </c>
-      <c r="K59" s="26"/>
+      <c r="K59" s="62"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="26"/>
@@ -14880,35 +14928,35 @@
       </c>
       <c r="E60" s="26"/>
       <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="35" t="s">
+      <c r="G60" s="62"/>
+      <c r="H60" s="62"/>
+      <c r="I60" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="J60" s="36">
+      <c r="J60" s="60">
         <f>SQRT(J59/(1+J59))</f>
         <v>0.30310524825452073</v>
       </c>
-      <c r="K60" s="26"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="44" t="str">
+      <c r="K60" s="62"/>
+    </row>
+    <row r="62" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="50" t="str">
         <f>chisquared!A238</f>
         <v>h1: there is an association between being charged with Homicide and found guilty at the Old Bailey (1660-1740 &amp; 1740-1802)</v>
       </c>
-      <c r="B62" s="44"/>
-      <c r="C62" s="44"/>
-      <c r="D62" s="44"/>
-      <c r="E62" s="44"/>
+      <c r="B62" s="50"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="50"/>
       <c r="F62" s="38"/>
-      <c r="G62" s="44" t="str">
+      <c r="G62" s="58" t="str">
         <f>chisquared!L238</f>
         <v>h1: there is an association between being charged with Homicide and found guilty in Surrey/Sussex (1660-1740 &amp; 1740-1802)</v>
       </c>
-      <c r="H62" s="44"/>
-      <c r="I62" s="44"/>
-      <c r="J62" s="44"/>
-      <c r="K62" s="44"/>
+      <c r="H62" s="58"/>
+      <c r="I62" s="58"/>
+      <c r="J62" s="58"/>
+      <c r="K62" s="58"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="35" t="s">
@@ -14929,21 +14977,21 @@
         <v>159</v>
       </c>
       <c r="F63" s="26"/>
-      <c r="G63" s="35" t="s">
+      <c r="G63" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="H63" s="36">
+      <c r="H63" s="60">
         <f>chisquared!P252</f>
         <v>17.492017933551274</v>
       </c>
-      <c r="I63" s="34" t="s">
+      <c r="I63" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="J63" s="36">
+      <c r="J63" s="60">
         <f>SQRT(H63/H64)</f>
         <v>0.30884489019832884</v>
       </c>
-      <c r="K63" s="26" t="s">
+      <c r="K63" s="62" t="s">
         <v>163</v>
       </c>
     </row>
@@ -14964,21 +15012,21 @@
       </c>
       <c r="E64" s="26"/>
       <c r="F64" s="26"/>
-      <c r="G64" s="35" t="s">
+      <c r="G64" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="H64" s="36">
+      <c r="H64" s="60">
         <f>chisquared!O243</f>
         <v>183.38299999999998</v>
       </c>
-      <c r="I64" s="34" t="s">
+      <c r="I64" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="J64" s="36">
+      <c r="J64" s="60">
         <f>J63*J63</f>
         <v>9.5385166201617799E-2</v>
       </c>
-      <c r="K64" s="26"/>
+      <c r="K64" s="62"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="26"/>
@@ -14992,28 +15040,31 @@
       </c>
       <c r="E65" s="26"/>
       <c r="F65" s="26"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="35" t="s">
+      <c r="G65" s="62"/>
+      <c r="H65" s="62"/>
+      <c r="I65" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="J65" s="36">
+      <c r="J65" s="60">
         <f>SQRT(J64/(1+J64))</f>
         <v>0.29509169888364611</v>
       </c>
-      <c r="K65" s="26"/>
+      <c r="K65" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AE7:AI7"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="M7:Q7"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="S7:W7"/>
-    <mergeCell ref="Y6:AC6"/>
-    <mergeCell ref="Y7:AC7"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="G52:K52"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="G57:K57"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="G62:K62"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="G37:K37"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="G47:K47"/>
     <mergeCell ref="A32:E32"/>
     <mergeCell ref="G7:K7"/>
     <mergeCell ref="G12:K12"/>
@@ -15026,18 +15077,15 @@
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="G37:K37"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="G47:K47"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="G52:K52"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="G57:K57"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="G62:K62"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AE7:AI7"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="S7:W7"/>
+    <mergeCell ref="Y6:AC6"/>
+    <mergeCell ref="Y7:AC7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15045,11 +15093,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{763B1C3C-ACDF-4E91-B784-59FAE74FEFAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="K182" sqref="K182"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="G122" sqref="G122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15146,86 +15194,86 @@
       <c r="D5" s="32"/>
     </row>
     <row r="6" spans="1:29" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F6" s="52" t="str">
+      <c r="F6" s="57" t="str">
         <f>chisquared!L1</f>
         <v>Assumption #1: Rape, Attempted Rape are all crimes committed by only men; Infanticide is only committed by women; Even split of other crimes between men and women</v>
       </c>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="K6" s="52" t="str">
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="K6" s="57" t="str">
         <f>chisquared!W1</f>
         <v>Assumption #2: Rape, Attempted Rape are all crimes committed by only men; Infanticide is only committed by women; 70% of crime is male with 30% of crime female for all other crimes (average distribution found in Old Bailey)</v>
       </c>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="P6" s="52" t="str">
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="P6" s="57" t="str">
         <f>chisquared!AH1</f>
         <v>Assumption #3: Rape, Attempted Rape are all crimes committed by only men; Infanticide is only committed by women; 85% of crime is male with 15% of crime female for all other crimes (averagre distribution of property crimes)</v>
       </c>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="52"/>
-      <c r="U6" s="52" t="str">
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="U6" s="57" t="str">
         <f>chisquared!AS1</f>
         <v>Assumption #4: Rape, Attempted Rape are all crimes committed by only men; Infanticide is only committed by women; 100% of crime is male with 0% of crime female for all other crimes (women are somehow acquitted of all other crimes)</v>
       </c>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Z6" s="52" t="str">
+      <c r="V6" s="57"/>
+      <c r="W6" s="57"/>
+      <c r="X6" s="57"/>
+      <c r="Z6" s="57" t="str">
         <f>chisquared!BD1</f>
         <v>Assumption #5: Rape, Attempted Rape are all crimes committed by only men; Infanticide is only committed by women; 0% of crime is male with 100% of crime female for all other crimes (men are somehow acquitted of all other crimes)</v>
       </c>
-      <c r="AA6" s="52"/>
-      <c r="AB6" s="52"/>
-      <c r="AC6" s="52"/>
+      <c r="AA6" s="57"/>
+      <c r="AB6" s="57"/>
+      <c r="AC6" s="57"/>
     </row>
     <row r="7" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="str">
+      <c r="A7" s="54" t="str">
         <f>chisquared!A2</f>
         <v>h1: there is an association between being male and property offences at the old bailey</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="51"/>
-      <c r="F7" s="49" t="str">
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="56"/>
+      <c r="F7" s="54" t="str">
         <f>chisquared!L2</f>
         <v>h1: there is an association between being male and property offences in Surrey &amp; Sussex</v>
       </c>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="51"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="56"/>
       <c r="J7" s="42"/>
-      <c r="K7" s="49" t="str">
+      <c r="K7" s="54" t="str">
         <f>chisquared!W2</f>
         <v>h1: there is an association between being male and property offences in Surrey &amp; Sussex</v>
       </c>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="51"/>
-      <c r="P7" s="49" t="str">
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="56"/>
+      <c r="P7" s="54" t="str">
         <f>chisquared!AH2</f>
         <v>h1: there is an association between being male and property offences in Surrey &amp; Sussex</v>
       </c>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="51"/>
-      <c r="U7" s="49" t="str">
+      <c r="Q7" s="55"/>
+      <c r="R7" s="55"/>
+      <c r="S7" s="56"/>
+      <c r="U7" s="54" t="str">
         <f>chisquared!AS2</f>
         <v>h1: there is an association between being male and property offences in Surrey &amp; Sussex</v>
       </c>
-      <c r="V7" s="50"/>
-      <c r="W7" s="50"/>
-      <c r="X7" s="51"/>
-      <c r="Z7" s="49" t="str">
+      <c r="V7" s="55"/>
+      <c r="W7" s="55"/>
+      <c r="X7" s="56"/>
+      <c r="Z7" s="54" t="str">
         <f>chisquared!BD2</f>
         <v>h1: there is an association between being male and property offences in Surrey &amp; Sussex</v>
       </c>
-      <c r="AA7" s="50"/>
-      <c r="AB7" s="50"/>
-      <c r="AC7" s="51"/>
+      <c r="AA7" s="55"/>
+      <c r="AB7" s="55"/>
+      <c r="AC7" s="56"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
@@ -15269,7 +15317,7 @@
         <f>chisquared!C4</f>
         <v>not property offence</v>
       </c>
-      <c r="D9" s="45"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="42"/>
       <c r="F9" s="5" t="str">
         <f>chisquared!L4</f>
@@ -15283,7 +15331,7 @@
         <f>chisquared!N4</f>
         <v>not property offence</v>
       </c>
-      <c r="I9" s="45"/>
+      <c r="I9" s="43"/>
       <c r="J9" s="42"/>
       <c r="K9" s="5" t="str">
         <f>chisquared!W4</f>
@@ -15297,7 +15345,7 @@
         <f>chisquared!Y4</f>
         <v>not property offence</v>
       </c>
-      <c r="N9" s="45"/>
+      <c r="N9" s="43"/>
       <c r="P9" s="5" t="str">
         <f>chisquared!AH4</f>
         <v>OBSERVED</v>
@@ -15310,7 +15358,7 @@
         <f>chisquared!AJ4</f>
         <v>not property offence</v>
       </c>
-      <c r="S9" s="45"/>
+      <c r="S9" s="43"/>
       <c r="T9" s="26"/>
       <c r="U9" s="5" t="str">
         <f>chisquared!AS4</f>
@@ -15324,7 +15372,7 @@
         <f>chisquared!AU4</f>
         <v>not property offence</v>
       </c>
-      <c r="X9" s="45"/>
+      <c r="X9" s="43"/>
       <c r="Y9" s="26"/>
       <c r="Z9" s="5" t="str">
         <f>chisquared!BD4</f>
@@ -15338,7 +15386,7 @@
         <f>chisquared!BF4</f>
         <v>not property offence</v>
       </c>
-      <c r="AC9" s="45"/>
+      <c r="AC9" s="43"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="str">
@@ -15353,7 +15401,7 @@
         <f>chisquared!C5</f>
         <v>32423</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="43">
         <f>chisquared!D5</f>
         <v>775078</v>
       </c>
@@ -15370,7 +15418,7 @@
         <f>chisquared!N5</f>
         <v>3167.5</v>
       </c>
-      <c r="I10" s="45">
+      <c r="I10" s="43">
         <f>chisquared!O5</f>
         <v>5752.5</v>
       </c>
@@ -15387,7 +15435,7 @@
         <f>chisquared!Y5</f>
         <v>4414.5</v>
       </c>
-      <c r="N10" s="45">
+      <c r="N10" s="43">
         <f>chisquared!Z5</f>
         <v>8033.5</v>
       </c>
@@ -15403,7 +15451,7 @@
         <f>chisquared!AJ5</f>
         <v>5349.75</v>
       </c>
-      <c r="S10" s="45">
+      <c r="S10" s="43">
         <f>chisquared!AK5</f>
         <v>9744.25</v>
       </c>
@@ -15420,7 +15468,7 @@
         <f>chisquared!AU5</f>
         <v>6285</v>
       </c>
-      <c r="X10" s="45">
+      <c r="X10" s="43">
         <f>chisquared!AV5</f>
         <v>11455</v>
       </c>
@@ -15437,7 +15485,7 @@
         <f>chisquared!BF5</f>
         <v>50</v>
       </c>
-      <c r="AC10" s="45">
+      <c r="AC10" s="43">
         <f>chisquared!BG5</f>
         <v>50</v>
       </c>
@@ -15455,7 +15503,7 @@
         <f>chisquared!C6</f>
         <v>9808</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="43">
         <f>chisquared!D6</f>
         <v>179034</v>
       </c>
@@ -15472,7 +15520,7 @@
         <f>chisquared!N6</f>
         <v>3160.5</v>
       </c>
-      <c r="I11" s="45">
+      <c r="I11" s="43">
         <f>chisquared!O6</f>
         <v>5745.5</v>
       </c>
@@ -15489,7 +15537,7 @@
         <f>chisquared!Y6</f>
         <v>1913.5</v>
       </c>
-      <c r="N11" s="45">
+      <c r="N11" s="43">
         <f>chisquared!Z6</f>
         <v>3464.5</v>
       </c>
@@ -15505,7 +15553,7 @@
         <f>chisquared!AJ6</f>
         <v>978.25</v>
       </c>
-      <c r="S11" s="45">
+      <c r="S11" s="43">
         <f>chisquared!AK6</f>
         <v>1753.75</v>
       </c>
@@ -15522,7 +15570,7 @@
         <f>chisquared!AU6</f>
         <v>43</v>
       </c>
-      <c r="X11" s="45">
+      <c r="X11" s="43">
         <f>chisquared!AV6</f>
         <v>43</v>
       </c>
@@ -15539,7 +15587,7 @@
         <f>chisquared!BF6</f>
         <v>6278</v>
       </c>
-      <c r="AC11" s="45">
+      <c r="AC11" s="43">
         <f>chisquared!BG6</f>
         <v>11448</v>
       </c>
@@ -15554,7 +15602,7 @@
         <f>chisquared!C7</f>
         <v>42231</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="43">
         <f>chisquared!D7</f>
         <v>954112</v>
       </c>
@@ -15568,7 +15616,7 @@
         <f>chisquared!N7</f>
         <v>6328</v>
       </c>
-      <c r="I12" s="45">
+      <c r="I12" s="43">
         <f>chisquared!O7</f>
         <v>11498</v>
       </c>
@@ -15582,7 +15630,7 @@
         <f>chisquared!Y7</f>
         <v>6328</v>
       </c>
-      <c r="N12" s="45">
+      <c r="N12" s="43">
         <f>chisquared!Z7</f>
         <v>11498</v>
       </c>
@@ -15595,7 +15643,7 @@
         <f>chisquared!AJ7</f>
         <v>6328</v>
       </c>
-      <c r="S12" s="45">
+      <c r="S12" s="43">
         <f>chisquared!AK7</f>
         <v>11498</v>
       </c>
@@ -15609,7 +15657,7 @@
         <f>chisquared!AU7</f>
         <v>6328</v>
       </c>
-      <c r="X12" s="45">
+      <c r="X12" s="43">
         <f>chisquared!AV7</f>
         <v>11498</v>
       </c>
@@ -15623,336 +15671,336 @@
         <f>chisquared!BF7</f>
         <v>6328</v>
       </c>
-      <c r="AC12" s="45">
+      <c r="AC12" s="43">
         <f>chisquared!BG7</f>
         <v>11498</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="7"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="45"/>
+      <c r="D13" s="43"/>
       <c r="E13" s="42"/>
-      <c r="F13" s="46"/>
+      <c r="F13" s="44"/>
       <c r="G13" s="7"/>
       <c r="H13" s="6"/>
-      <c r="I13" s="45"/>
-      <c r="K13" s="46"/>
+      <c r="I13" s="43"/>
+      <c r="K13" s="44"/>
       <c r="L13" s="7"/>
       <c r="M13" s="6"/>
-      <c r="N13" s="45"/>
-      <c r="P13" s="46"/>
+      <c r="N13" s="43"/>
+      <c r="P13" s="44"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="6"/>
-      <c r="S13" s="45"/>
-      <c r="U13" s="46"/>
+      <c r="S13" s="43"/>
+      <c r="U13" s="44"/>
       <c r="V13" s="7"/>
       <c r="W13" s="6"/>
-      <c r="X13" s="45"/>
-      <c r="Z13" s="46"/>
+      <c r="X13" s="43"/>
+      <c r="Z13" s="44"/>
       <c r="AA13" s="7"/>
       <c r="AB13" s="6"/>
-      <c r="AC13" s="45"/>
+      <c r="AC13" s="43"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="46"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="7"/>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="D14" s="45">
+      <c r="D14" s="43">
         <f>B10*C11</f>
         <v>7283960240</v>
       </c>
       <c r="E14" s="42"/>
-      <c r="F14" s="46"/>
+      <c r="F14" s="44"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="53" t="s">
+      <c r="H14" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="I14" s="45">
+      <c r="I14" s="43">
         <f>G10*H11</f>
         <v>8169892.5</v>
       </c>
-      <c r="K14" s="46"/>
+      <c r="K14" s="44"/>
       <c r="L14" s="7"/>
-      <c r="M14" s="53" t="s">
+      <c r="M14" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="N14" s="45">
+      <c r="N14" s="43">
         <f>L10*M11</f>
         <v>6924956.4999999991</v>
       </c>
-      <c r="P14" s="46"/>
+      <c r="P14" s="44"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="53" t="s">
+      <c r="R14" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="S14" s="45">
+      <c r="S14" s="43">
         <f>Q10*R11</f>
         <v>4298919.625</v>
       </c>
-      <c r="U14" s="46"/>
+      <c r="U14" s="44"/>
       <c r="V14" s="7"/>
-      <c r="W14" s="53" t="s">
+      <c r="W14" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="X14" s="45">
+      <c r="X14" s="43">
         <f>V10*W11</f>
         <v>222310</v>
       </c>
-      <c r="Z14" s="46"/>
+      <c r="Z14" s="44"/>
       <c r="AA14" s="7"/>
-      <c r="AB14" s="53" t="s">
+      <c r="AB14" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="AC14" s="45">
+      <c r="AC14" s="43">
         <f>AA10*AB11</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="46"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="D15" s="45">
+      <c r="D15" s="43">
         <f>C10*B11</f>
         <v>5486814598</v>
       </c>
       <c r="E15" s="42"/>
-      <c r="F15" s="46"/>
+      <c r="F15" s="44"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="53" t="s">
+      <c r="H15" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="I15" s="45">
+      <c r="I15" s="43">
         <f>H10*G11</f>
         <v>8187987.5</v>
       </c>
-      <c r="K15" s="46"/>
+      <c r="K15" s="44"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="53" t="s">
+      <c r="M15" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="N15" s="45">
+      <c r="N15" s="43">
         <f>M10*L11</f>
         <v>6846889.5</v>
       </c>
-      <c r="P15" s="46"/>
+      <c r="P15" s="44"/>
       <c r="Q15" s="7"/>
-      <c r="R15" s="53" t="s">
+      <c r="R15" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="S15" s="45">
+      <c r="S15" s="43">
         <f>R10*Q11</f>
         <v>4148731.125</v>
       </c>
-      <c r="U15" s="46"/>
+      <c r="U15" s="44"/>
       <c r="V15" s="7"/>
-      <c r="W15" s="53" t="s">
+      <c r="W15" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="X15" s="45">
+      <c r="X15" s="43">
         <f>W10*V11</f>
         <v>0</v>
       </c>
-      <c r="Z15" s="46"/>
+      <c r="Z15" s="44"/>
       <c r="AA15" s="7"/>
-      <c r="AB15" s="53" t="s">
+      <c r="AB15" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="AC15" s="45">
+      <c r="AC15" s="43">
         <f>AB10*AA11</f>
         <v>258500</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="46"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="7"/>
-      <c r="C16" s="53" t="s">
+      <c r="C16" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="D16" s="45">
+      <c r="D16" s="43">
         <f>(B10*C10)+(B11*C11)</f>
         <v>25738871673</v>
       </c>
       <c r="E16" s="42"/>
-      <c r="F16" s="46"/>
+      <c r="F16" s="44"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="53" t="s">
+      <c r="H16" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="I16" s="45">
+      <c r="I16" s="43">
         <f>(G10*H10)+(G11*H11)</f>
         <v>16357880</v>
       </c>
-      <c r="K16" s="46"/>
+      <c r="K16" s="44"/>
       <c r="L16" s="7"/>
-      <c r="M16" s="53" t="s">
+      <c r="M16" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="N16" s="45">
+      <c r="N16" s="43">
         <f>(L10*M10)+(L11*M11)</f>
         <v>18943914</v>
       </c>
-      <c r="P16" s="46"/>
+      <c r="P16" s="44"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="53" t="s">
+      <c r="R16" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="S16" s="45">
+      <c r="S16" s="43">
         <f>(Q10*R10)+(Q11*R11)</f>
         <v>24268109.25</v>
       </c>
-      <c r="U16" s="46"/>
+      <c r="U16" s="44"/>
       <c r="V16" s="7"/>
-      <c r="W16" s="53" t="s">
+      <c r="W16" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="X16" s="45">
+      <c r="X16" s="43">
         <f>(V10*W10)+(V11*W11)</f>
         <v>32493450</v>
       </c>
-      <c r="Z16" s="46"/>
+      <c r="Z16" s="44"/>
       <c r="AA16" s="7"/>
-      <c r="AB16" s="53" t="s">
+      <c r="AB16" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="AC16" s="45">
+      <c r="AC16" s="43">
         <f>(AA10*AB10)+(AA11*AB11)</f>
         <v>32457260</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" s="46"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="7" t="str">
         <f>IF(ABS(D18)&gt;0.8,$F$4,IF(ABS(D18)&gt;0.6,$E$4,IF(ABS(D18)&gt;0.4,$D$4,IF(ABS(D18)&gt;0.2,$C$4,$B$4))))</f>
         <v>Very Weak</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="D17" s="45">
+      <c r="D17" s="43">
         <f>(B10*B11)+(C10*C11)</f>
         <v>125994539814</v>
       </c>
       <c r="E17" s="42"/>
-      <c r="F17" s="46"/>
+      <c r="F17" s="44"/>
       <c r="G17" s="7" t="str">
         <f>IF(ABS(I18)&gt;0.8,$F$4,IF(ABS(I18)&gt;0.6,$E$4,IF(ABS(I18)&gt;0.4,$D$4,IF(ABS(I18)&gt;0.2,$C$4,$B$4))))</f>
         <v>Very Weak</v>
       </c>
-      <c r="H17" s="53" t="s">
+      <c r="H17" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="I17" s="45">
+      <c r="I17" s="43">
         <f>(G10*G11)+(H10*H11)</f>
         <v>16693108.75</v>
       </c>
-      <c r="K17" s="46"/>
+      <c r="K17" s="44"/>
       <c r="L17" s="7" t="str">
         <f>IF(ABS(N18)&gt;0.8,$F$4,IF(ABS(N18)&gt;0.6,$E$4,IF(ABS(N18)&gt;0.4,$D$4,IF(ABS(N18)&gt;0.2,$C$4,$B$4))))</f>
         <v>Very Weak</v>
       </c>
-      <c r="M17" s="53" t="s">
+      <c r="M17" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="N17" s="45">
+      <c r="N17" s="43">
         <f>(L10*L11)+(M10*M11)</f>
         <v>14060214.75</v>
       </c>
-      <c r="P17" s="46"/>
+      <c r="P17" s="44"/>
       <c r="Q17" s="7" t="str">
         <f>IF(ABS(S18)&gt;0.8,$F$4,IF(ABS(S18)&gt;0.6,$E$4,IF(ABS(S18)&gt;0.4,$D$4,IF(ABS(S18)&gt;0.2,$C$4,$B$4))))</f>
         <v>Very Weak</v>
       </c>
-      <c r="R17" s="53" t="s">
+      <c r="R17" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="S17" s="45">
+      <c r="S17" s="43">
         <f>(Q10*Q11)+(R10*R11)</f>
         <v>8641327.6875</v>
       </c>
-      <c r="U17" s="46"/>
+      <c r="U17" s="44"/>
       <c r="V17" s="7" t="str">
         <f>IF(ABS(X18)&gt;0.8,$F$4,IF(ABS(X18)&gt;0.6,$E$4,IF(ABS(X18)&gt;0.4,$D$4,IF(ABS(X18)&gt;0.2,$C$4,$B$4))))</f>
         <v>Very Weak</v>
       </c>
-      <c r="W17" s="53" t="s">
+      <c r="W17" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="X17" s="45">
+      <c r="X17" s="43">
         <f>(V10*V11)+(W10*W11)</f>
         <v>270255</v>
       </c>
-      <c r="Z17" s="46"/>
+      <c r="Z17" s="44"/>
       <c r="AA17" s="7" t="str">
         <f>IF(ABS(AC18)&gt;0.8,$F$4,IF(ABS(AC18)&gt;0.6,$E$4,IF(ABS(AC18)&gt;0.4,$D$4,IF(ABS(AC18)&gt;0.2,$C$4,$B$4))))</f>
         <v>Very Weak</v>
       </c>
-      <c r="AB17" s="53" t="s">
+      <c r="AB17" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="AC17" s="45">
+      <c r="AC17" s="43">
         <f>(AA10*AA11)+(AB10*AB11)</f>
         <v>313900</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="47"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="16"/>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="D18" s="48">
+      <c r="D18" s="46">
         <f>(D14-D15)/(SQRT((D14+D15+D16)*(D14+D15+D17)))</f>
         <v>2.4584311246501254E-2</v>
       </c>
-      <c r="F18" s="47"/>
+      <c r="F18" s="45"/>
       <c r="G18" s="16"/>
-      <c r="H18" s="54" t="s">
+      <c r="H18" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="I18" s="48">
+      <c r="I18" s="46">
         <f>(I14-I15)/(SQRT((I14+I15+I16)*(I14+I15+I17)))</f>
         <v>-5.5028522525847807E-4</v>
       </c>
-      <c r="K18" s="47"/>
+      <c r="K18" s="45"/>
       <c r="L18" s="16"/>
-      <c r="M18" s="54" t="s">
+      <c r="M18" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="N18" s="48">
+      <c r="N18" s="46">
         <f>(N14-N15)/(SQRT((N14+N15+N16)*(N14+N15+N17)))</f>
         <v>2.5871183821500562E-3</v>
       </c>
-      <c r="P18" s="47"/>
+      <c r="P18" s="45"/>
       <c r="Q18" s="16"/>
-      <c r="R18" s="54" t="s">
+      <c r="R18" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="S18" s="48">
+      <c r="S18" s="46">
         <f>(S14-S15)/(SQRT((S14+S15+S16)*(S14+S15+S17)))</f>
         <v>6.3518483696409023E-3</v>
       </c>
-      <c r="U18" s="47"/>
+      <c r="U18" s="45"/>
       <c r="V18" s="16"/>
-      <c r="W18" s="54" t="s">
+      <c r="W18" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="X18" s="48">
+      <c r="X18" s="46">
         <f>(X14-X15)/(SQRT((X14+X15+X16)*(X14+X15+X17)))</f>
         <v>5.5379460084725274E-2</v>
       </c>
-      <c r="Z18" s="47"/>
+      <c r="Z18" s="45"/>
       <c r="AA18" s="16"/>
-      <c r="AB18" s="54" t="s">
+      <c r="AB18" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="AC18" s="48">
+      <c r="AC18" s="46">
         <f>(AC14-AC15)/(SQRT((AC14+AC15+AC16)*(AC14+AC15+AC17)))</f>
         <v>-5.9735462161708525E-2</v>
       </c>
@@ -15961,21 +16009,21 @@
       <c r="C19" s="42"/>
       <c r="D19" s="42"/>
     </row>
-    <row r="20" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49" t="str">
+    <row r="20" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="54" t="str">
         <f>chisquared!A20</f>
         <v>h1: there is an association between being guilty and property offences at the Old Bailey</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="51"/>
-      <c r="F20" s="49" t="str">
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="56"/>
+      <c r="F20" s="54" t="str">
         <f>chisquared!L20</f>
         <v>h1: there is an association between being guilty and property offences in Surrey &amp; Sussex</v>
       </c>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="51"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="56"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
@@ -16000,7 +16048,7 @@
         <f>chisquared!C22</f>
         <v>not property offence</v>
       </c>
-      <c r="D22" s="45"/>
+      <c r="D22" s="43"/>
       <c r="F22" s="5" t="str">
         <f>chisquared!L22</f>
         <v>OBSERVED</v>
@@ -16013,7 +16061,7 @@
         <f>chisquared!N22</f>
         <v>not property offence</v>
       </c>
-      <c r="I22" s="45"/>
+      <c r="I22" s="43"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="str">
@@ -16028,7 +16076,7 @@
         <f>chisquared!C23</f>
         <v>34216</v>
       </c>
-      <c r="D23" s="45">
+      <c r="D23" s="43">
         <f>chisquared!D23</f>
         <v>798170</v>
       </c>
@@ -16044,7 +16092,7 @@
         <f>chisquared!N23</f>
         <v>526</v>
       </c>
-      <c r="I23" s="45">
+      <c r="I23" s="43">
         <f>chisquared!O23</f>
         <v>3097</v>
       </c>
@@ -16062,7 +16110,7 @@
         <f>chisquared!C24</f>
         <v>9105</v>
       </c>
-      <c r="D24" s="45">
+      <c r="D24" s="43">
         <f>chisquared!D24</f>
         <v>169170</v>
       </c>
@@ -16078,7 +16126,7 @@
         <f>chisquared!N24</f>
         <v>546</v>
       </c>
-      <c r="I24" s="45">
+      <c r="I24" s="43">
         <f>chisquared!O24</f>
         <v>2328</v>
       </c>
@@ -16093,7 +16141,7 @@
         <f>chisquared!C25</f>
         <v>43321</v>
       </c>
-      <c r="D25" s="45">
+      <c r="D25" s="43">
         <f>chisquared!D25</f>
         <v>967340</v>
       </c>
@@ -16106,144 +16154,144 @@
         <f>chisquared!N25</f>
         <v>1072</v>
       </c>
-      <c r="I25" s="45">
+      <c r="I25" s="43">
         <f>chisquared!O25</f>
         <v>5425</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="7"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="45"/>
-      <c r="F26" s="46"/>
+      <c r="D26" s="43"/>
+      <c r="F26" s="44"/>
       <c r="G26" s="7"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="45"/>
+      <c r="I26" s="43"/>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A27" s="46"/>
+      <c r="A27" s="44"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="53" t="s">
+      <c r="C27" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="D27" s="45">
+      <c r="D27" s="43">
         <f>B23*C24</f>
         <v>6955801170</v>
       </c>
-      <c r="F27" s="46"/>
+      <c r="F27" s="44"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="53" t="s">
+      <c r="H27" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="I27" s="45">
+      <c r="I27" s="43">
         <f>G23*H24</f>
         <v>1403766</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A28" s="46"/>
+      <c r="A28" s="44"/>
       <c r="B28" s="7"/>
-      <c r="C28" s="53" t="s">
+      <c r="C28" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="D28" s="45">
+      <c r="D28" s="43">
         <f>C23*B24</f>
         <v>5476784040</v>
       </c>
-      <c r="F28" s="46"/>
+      <c r="F28" s="44"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="53" t="s">
+      <c r="H28" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="I28" s="45">
+      <c r="I28" s="43">
         <f>H23*G24</f>
         <v>937332</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A29" s="46"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="53" t="s">
+      <c r="C29" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="D29" s="45">
+      <c r="D29" s="43">
         <f>(B23*C23)+(B24*C24)</f>
         <v>27596841889</v>
       </c>
-      <c r="F29" s="46"/>
+      <c r="F29" s="44"/>
       <c r="G29" s="7"/>
-      <c r="H29" s="53" t="s">
+      <c r="H29" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="I29" s="45">
+      <c r="I29" s="43">
         <f>(G23*H23)+(G24*H24)</f>
         <v>2325318</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A30" s="46"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="7" t="str">
         <f>IF(ABS(D31)&gt;0.8,$F$4,IF(ABS(D31)&gt;0.6,$E$4,IF(ABS(D31)&gt;0.4,$D$4,IF(ABS(D31)&gt;0.2,$C$4,$B$4))))</f>
         <v>Very Weak</v>
       </c>
-      <c r="C30" s="53" t="s">
+      <c r="C30" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="D30" s="45">
+      <c r="D30" s="43">
         <f>(B23*B24)+(C23*C24)</f>
         <v>122593833690</v>
       </c>
-      <c r="F30" s="46"/>
+      <c r="F30" s="44"/>
       <c r="G30" s="7" t="str">
         <f>IF(ABS(I31)&gt;0.8,$F$4,IF(ABS(I31)&gt;0.6,$E$4,IF(ABS(I31)&gt;0.4,$D$4,IF(ABS(I31)&gt;0.2,$C$4,$B$4))))</f>
         <v>Very Weak</v>
       </c>
-      <c r="H30" s="53" t="s">
+      <c r="H30" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="I30" s="45">
+      <c r="I30" s="43">
         <f>(G23*G24)+(H23*H24)</f>
         <v>4868718</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="47"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="16"/>
-      <c r="C31" s="54" t="s">
+      <c r="C31" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="D31" s="48">
+      <c r="D31" s="46">
         <f>(D27-D28)/(SQRT((D27+D28+D29)*(D27+D28+D30)))</f>
         <v>2.0117506111218E-2</v>
       </c>
-      <c r="F31" s="47"/>
+      <c r="F31" s="45"/>
       <c r="G31" s="16"/>
-      <c r="H31" s="54" t="s">
+      <c r="H31" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="I31" s="48">
+      <c r="I31" s="46">
         <f>(I27-I28)/(SQRT((I27+I28+I29)*(I27+I28+I30)))</f>
         <v>8.0414873522702601E-2</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="49" t="str">
+    <row r="33" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="54" t="str">
         <f>chisquared!A39</f>
         <v>h1: there is an association between being male and being sentenced to death for property offences at the old bailey</v>
       </c>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="51"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="56"/>
       <c r="E33" s="26"/>
-      <c r="F33" s="49" t="str">
+      <c r="F33" s="54" t="str">
         <f>chisquared!L39</f>
         <v>h1: there is an association between being male and being sentenced to death for property offences in surrey</v>
       </c>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="51"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="56"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
@@ -16269,7 +16317,7 @@
         <f>chisquared!C41</f>
         <v>not property offence</v>
       </c>
-      <c r="D35" s="45"/>
+      <c r="D35" s="43"/>
       <c r="E35" s="26"/>
       <c r="F35" s="5" t="str">
         <f>chisquared!L41</f>
@@ -16283,7 +16331,7 @@
         <f>chisquared!N41</f>
         <v>not property offence</v>
       </c>
-      <c r="I35" s="45"/>
+      <c r="I35" s="43"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="str">
@@ -16298,7 +16346,7 @@
         <f>chisquared!C42</f>
         <v>19407</v>
       </c>
-      <c r="D36" s="45">
+      <c r="D36" s="43">
         <f>chisquared!D42</f>
         <v>259538</v>
       </c>
@@ -16315,7 +16363,7 @@
         <f>chisquared!N42</f>
         <v>52</v>
       </c>
-      <c r="I36" s="45">
+      <c r="I36" s="43">
         <f>chisquared!O42</f>
         <v>285</v>
       </c>
@@ -16333,7 +16381,7 @@
         <f>chisquared!C43</f>
         <v>5199</v>
       </c>
-      <c r="D37" s="45">
+      <c r="D37" s="43">
         <f>chisquared!D43</f>
         <v>54881</v>
       </c>
@@ -16350,7 +16398,7 @@
         <f>chisquared!N43</f>
         <v>4</v>
       </c>
-      <c r="I37" s="45">
+      <c r="I37" s="43">
         <f>chisquared!O43</f>
         <v>12</v>
       </c>
@@ -16365,7 +16413,7 @@
         <f>chisquared!C44</f>
         <v>24606</v>
       </c>
-      <c r="D38" s="45">
+      <c r="D38" s="43">
         <f>chisquared!D44</f>
         <v>314419</v>
       </c>
@@ -16379,129 +16427,129 @@
         <f>chisquared!N44</f>
         <v>56</v>
       </c>
-      <c r="I38" s="45">
+      <c r="I38" s="43">
         <f>chisquared!O44</f>
         <v>297</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="46"/>
+      <c r="A39" s="44"/>
       <c r="B39" s="7"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="45"/>
+      <c r="D39" s="43"/>
       <c r="E39" s="26"/>
-      <c r="F39" s="46"/>
+      <c r="F39" s="44"/>
       <c r="G39" s="7"/>
       <c r="H39" s="6"/>
-      <c r="I39" s="45"/>
+      <c r="I39" s="43"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="46"/>
+      <c r="A40" s="44"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="53" t="s">
+      <c r="C40" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="D40" s="45">
+      <c r="D40" s="43">
         <f>B36*C37</f>
         <v>1248441069</v>
       </c>
       <c r="E40" s="26"/>
-      <c r="F40" s="46"/>
+      <c r="F40" s="44"/>
       <c r="G40" s="7"/>
-      <c r="H40" s="53" t="s">
+      <c r="H40" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="I40" s="45">
+      <c r="I40" s="43">
         <f>G36*H37</f>
         <v>932</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="46"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="53" t="s">
+      <c r="C41" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="D41" s="45">
+      <c r="D41" s="43">
         <f>C36*B37</f>
         <v>964178574</v>
       </c>
       <c r="E41" s="26"/>
-      <c r="F41" s="46"/>
+      <c r="F41" s="44"/>
       <c r="G41" s="7"/>
-      <c r="H41" s="53" t="s">
+      <c r="H41" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="I41" s="45">
+      <c r="I41" s="43">
         <f>H36*G37</f>
         <v>416</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="46"/>
+      <c r="A42" s="44"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="53" t="s">
+      <c r="C42" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="D42" s="45">
+      <c r="D42" s="43">
         <f>(B36*C36)+(B37*C37)</f>
         <v>4918519035</v>
       </c>
       <c r="E42" s="26"/>
-      <c r="F42" s="46"/>
+      <c r="F42" s="44"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="53" t="s">
+      <c r="H42" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="I42" s="45">
+      <c r="I42" s="43">
         <f>(G36*H36)+(G37*H37)</f>
         <v>12148</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="46"/>
+      <c r="A43" s="44"/>
       <c r="B43" s="7" t="str">
         <f>IF(ABS(D44)&gt;0.8,$F$4,IF(ABS(D44)&gt;0.6,$E$4,IF(ABS(D44)&gt;0.4,$D$4,IF(ABS(D44)&gt;0.2,$C$4,$B$4))))</f>
         <v>Very Weak</v>
       </c>
-      <c r="C43" s="53" t="s">
+      <c r="C43" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="D43" s="45">
+      <c r="D43" s="43">
         <f>(B36*B37)+(C36*C37)</f>
         <v>12031085335</v>
       </c>
       <c r="E43" s="26"/>
-      <c r="F43" s="46"/>
+      <c r="F43" s="44"/>
       <c r="G43" s="7" t="str">
         <f>IF(ABS(I44)&gt;0.8,$F$4,IF(ABS(I44)&gt;0.6,$E$4,IF(ABS(I44)&gt;0.4,$D$4,IF(ABS(I44)&gt;0.2,$C$4,$B$4))))</f>
         <v>Very Weak</v>
       </c>
-      <c r="H43" s="53" t="s">
+      <c r="H43" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="I43" s="45">
+      <c r="I43" s="43">
         <f>(G36*G37)+(H36*H37)</f>
         <v>2072</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="47"/>
+      <c r="A44" s="45"/>
       <c r="B44" s="16"/>
-      <c r="C44" s="54" t="s">
+      <c r="C44" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="D44" s="48">
+      <c r="D44" s="46">
         <f>(D40-D41)/(SQRT((D40+D41+D42)*(D40+D41+D43)))</f>
         <v>2.8205164538170582E-2</v>
       </c>
       <c r="E44" s="26"/>
-      <c r="F44" s="47"/>
+      <c r="F44" s="45"/>
       <c r="G44" s="16"/>
-      <c r="H44" s="54" t="s">
+      <c r="H44" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="I44" s="48">
+      <c r="I44" s="46">
         <f>(I40-I41)/(SQRT((I40+I41+I42)*(I40+I41+I43)))</f>
         <v>7.5951107988000241E-2</v>
       </c>
@@ -16512,22 +16560,22 @@
         <v>From Beattie first and then the Old Bailey</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="49" t="str">
+    <row r="47" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="54" t="str">
         <f>chisquared!A58</f>
         <v>h1: there is an association between being male and found guilty in Homicide Cases (or for Manslaughter) at the Old Bailey</v>
       </c>
-      <c r="B47" s="50"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="51"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="56"/>
       <c r="E47" s="26"/>
-      <c r="F47" s="49" t="str">
+      <c r="F47" s="54" t="str">
         <f>chisquared!L58</f>
         <v>h1: there is an association between being male and found guilty in Homicide Cases (or for Manslaughter) in Surrey/Sussex</v>
       </c>
-      <c r="G47" s="50"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="51"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="56"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
@@ -16553,7 +16601,7 @@
         <f>chisquared!C60</f>
         <v>not guilty</v>
       </c>
-      <c r="D49" s="45"/>
+      <c r="D49" s="43"/>
       <c r="E49" s="26"/>
       <c r="F49" s="5" t="str">
         <f>chisquared!L60</f>
@@ -16567,7 +16615,7 @@
         <f>chisquared!N60</f>
         <v>not guilty</v>
       </c>
-      <c r="I49" s="45"/>
+      <c r="I49" s="43"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="str">
@@ -16582,7 +16630,7 @@
         <f>chisquared!C61</f>
         <v>5950</v>
       </c>
-      <c r="D50" s="45">
+      <c r="D50" s="43">
         <f>chisquared!D61</f>
         <v>24272</v>
       </c>
@@ -16599,7 +16647,7 @@
         <f>chisquared!N61</f>
         <v>171</v>
       </c>
-      <c r="I50" s="45">
+      <c r="I50" s="43">
         <f>chisquared!O61</f>
         <v>307</v>
       </c>
@@ -16617,7 +16665,7 @@
         <f>chisquared!C62</f>
         <v>1704</v>
       </c>
-      <c r="D51" s="45">
+      <c r="D51" s="43">
         <f>chisquared!D62</f>
         <v>6061</v>
       </c>
@@ -16634,7 +16682,7 @@
         <f>chisquared!N62</f>
         <v>26</v>
       </c>
-      <c r="I51" s="45">
+      <c r="I51" s="43">
         <f>chisquared!O62</f>
         <v>42</v>
       </c>
@@ -16649,7 +16697,7 @@
         <f>chisquared!C63</f>
         <v>7654</v>
       </c>
-      <c r="D52" s="45">
+      <c r="D52" s="43">
         <f>chisquared!D63</f>
         <v>30333</v>
       </c>
@@ -16663,150 +16711,150 @@
         <f>chisquared!N63</f>
         <v>197</v>
       </c>
-      <c r="I52" s="45">
+      <c r="I52" s="43">
         <f>chisquared!O63</f>
         <v>349</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="46"/>
+      <c r="A53" s="44"/>
       <c r="B53" s="7"/>
       <c r="C53" s="6"/>
-      <c r="D53" s="45"/>
+      <c r="D53" s="43"/>
       <c r="E53" s="26"/>
-      <c r="F53" s="46"/>
+      <c r="F53" s="44"/>
       <c r="G53" s="7"/>
       <c r="H53" s="6"/>
-      <c r="I53" s="45"/>
+      <c r="I53" s="43"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="46"/>
+      <c r="A54" s="44"/>
       <c r="B54" s="7"/>
-      <c r="C54" s="53" t="s">
+      <c r="C54" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="D54" s="45">
+      <c r="D54" s="43">
         <f>B50*C51</f>
         <v>31220688</v>
       </c>
       <c r="E54" s="26"/>
-      <c r="F54" s="46"/>
+      <c r="F54" s="44"/>
       <c r="G54" s="7"/>
-      <c r="H54" s="53" t="s">
+      <c r="H54" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="I54" s="45">
+      <c r="I54" s="43">
         <f>G50*H51</f>
         <v>3536</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="46"/>
+      <c r="A55" s="44"/>
       <c r="B55" s="7"/>
-      <c r="C55" s="53" t="s">
+      <c r="C55" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="D55" s="45">
+      <c r="D55" s="43">
         <f>C50*B51</f>
         <v>25924150</v>
       </c>
       <c r="E55" s="26"/>
-      <c r="F55" s="46"/>
+      <c r="F55" s="44"/>
       <c r="G55" s="7"/>
-      <c r="H55" s="53" t="s">
+      <c r="H55" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="I55" s="45">
+      <c r="I55" s="43">
         <f>H50*G51</f>
         <v>2736</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="46"/>
+      <c r="A56" s="44"/>
       <c r="B56" s="7"/>
-      <c r="C56" s="53" t="s">
+      <c r="C56" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="D56" s="45">
+      <c r="D56" s="43">
         <f>(B50*C50)+(B51*C51)</f>
         <v>116440228</v>
       </c>
       <c r="E56" s="26"/>
-      <c r="F56" s="46"/>
+      <c r="F56" s="44"/>
       <c r="G56" s="7"/>
-      <c r="H56" s="53" t="s">
+      <c r="H56" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="I56" s="45">
+      <c r="I56" s="43">
         <f>(G50*H50)+(G51*H51)</f>
         <v>23672</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="46"/>
+      <c r="A57" s="44"/>
       <c r="B57" s="7" t="str">
         <f>IF(ABS(D58)&gt;0.8,$F$4,IF(ABS(D58)&gt;0.6,$E$4,IF(ABS(D58)&gt;0.4,$D$4,IF(ABS(D58)&gt;0.2,$C$4,$B$4))))</f>
         <v>Very Weak</v>
       </c>
-      <c r="C57" s="53" t="s">
+      <c r="C57" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="D57" s="45">
+      <c r="D57" s="43">
         <f>(B50*B51)+(C50*C51)</f>
         <v>89967754</v>
       </c>
       <c r="E57" s="26"/>
-      <c r="F57" s="46"/>
+      <c r="F57" s="44"/>
       <c r="G57" s="7" t="str">
         <f>IF(ABS(I58)&gt;0.8,$F$4,IF(ABS(I58)&gt;0.6,$E$4,IF(ABS(I58)&gt;0.4,$D$4,IF(ABS(I58)&gt;0.2,$C$4,$B$4))))</f>
         <v>Very Weak</v>
       </c>
-      <c r="H57" s="53" t="s">
+      <c r="H57" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="I57" s="45">
+      <c r="I57" s="43">
         <f>(G50*G51)+(H50*H51)</f>
         <v>6622</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="47"/>
+      <c r="A58" s="45"/>
       <c r="B58" s="16"/>
-      <c r="C58" s="54" t="s">
+      <c r="C58" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="D58" s="48">
+      <c r="D58" s="46">
         <f>(D54-D55)/(SQRT((D54+D55+D56)*(D54+D55+D57)))</f>
         <v>3.31444631709873E-2</v>
       </c>
       <c r="E58" s="26"/>
-      <c r="F58" s="47"/>
+      <c r="F58" s="45"/>
       <c r="G58" s="16"/>
-      <c r="H58" s="54" t="s">
+      <c r="H58" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="I58" s="48">
+      <c r="I58" s="46">
         <f>(I54-I55)/(SQRT((I54+I55+I56)*(I54+I55+I57)))</f>
         <v>4.0713763260088416E-2</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="49" t="str">
+    <row r="60" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="54" t="str">
         <f>chisquared!A76</f>
         <v>h1: there is an association between being male and found guilty in Property Cases vs Murder Cases at the Old Bailey</v>
       </c>
-      <c r="B60" s="50"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="51"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="56"/>
       <c r="E60" s="26"/>
-      <c r="F60" s="49" t="str">
+      <c r="F60" s="54" t="str">
         <f>chisquared!L76</f>
         <v>h1: there is an association between being male and found guilty in Property Cases vs Murder Cases in Surrey/Sussex</v>
       </c>
-      <c r="G60" s="50"/>
-      <c r="H60" s="50"/>
-      <c r="I60" s="51"/>
+      <c r="G60" s="55"/>
+      <c r="H60" s="55"/>
+      <c r="I60" s="56"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
@@ -16819,7 +16867,7 @@
       <c r="H61" s="7"/>
       <c r="I61" s="8"/>
     </row>
-    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="str">
         <f>chisquared!A78</f>
         <v>OBSERVED</v>
@@ -16832,7 +16880,7 @@
         <f>chisquared!C78</f>
         <v>guilty of murder</v>
       </c>
-      <c r="D62" s="45"/>
+      <c r="D62" s="43"/>
       <c r="E62" s="26"/>
       <c r="F62" s="5" t="str">
         <f>chisquared!L78</f>
@@ -16846,7 +16894,7 @@
         <f>chisquared!N78</f>
         <v>guilty of murder</v>
       </c>
-      <c r="I62" s="45"/>
+      <c r="I62" s="43"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="str">
@@ -16861,7 +16909,7 @@
         <f>chisquared!C79</f>
         <v>18322</v>
       </c>
-      <c r="D63" s="45">
+      <c r="D63" s="43">
         <f>chisquared!D79</f>
         <v>636581</v>
       </c>
@@ -16878,7 +16926,7 @@
         <f>chisquared!N79</f>
         <v>51.959000000000003</v>
       </c>
-      <c r="I63" s="45">
+      <c r="I63" s="43">
         <f>chisquared!O79</f>
         <v>2131.223</v>
       </c>
@@ -16896,7 +16944,7 @@
         <f>chisquared!C80</f>
         <v>4357</v>
       </c>
-      <c r="D64" s="45">
+      <c r="D64" s="43">
         <f>chisquared!D80</f>
         <v>139831</v>
       </c>
@@ -16913,7 +16961,7 @@
         <f>chisquared!N80</f>
         <v>4.9969999999999999</v>
       </c>
-      <c r="I64" s="45">
+      <c r="I64" s="43">
         <f>chisquared!O80</f>
         <v>492.51300000000003</v>
       </c>
@@ -16928,7 +16976,7 @@
         <f>chisquared!C81</f>
         <v>22679</v>
       </c>
-      <c r="D65" s="45">
+      <c r="D65" s="43">
         <f>chisquared!D81</f>
         <v>776412</v>
       </c>
@@ -16942,159 +16990,159 @@
         <f>chisquared!N81</f>
         <v>56.956000000000003</v>
       </c>
-      <c r="I65" s="45">
+      <c r="I65" s="43">
         <f>chisquared!O81</f>
         <v>2623.7359999999999</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="46"/>
+      <c r="A66" s="44"/>
       <c r="B66" s="7"/>
       <c r="C66" s="6"/>
-      <c r="D66" s="45"/>
+      <c r="D66" s="43"/>
       <c r="E66" s="26"/>
-      <c r="F66" s="46"/>
+      <c r="F66" s="44"/>
       <c r="G66" s="7"/>
       <c r="H66" s="6"/>
-      <c r="I66" s="45"/>
+      <c r="I66" s="43"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="46"/>
+      <c r="A67" s="44"/>
       <c r="B67" s="7"/>
-      <c r="C67" s="53" t="s">
+      <c r="C67" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="D67" s="45">
+      <c r="D67" s="43">
         <f>B63*C64</f>
         <v>2693754463</v>
       </c>
       <c r="E67" s="26"/>
-      <c r="F67" s="46"/>
+      <c r="F67" s="44"/>
       <c r="G67" s="7"/>
-      <c r="H67" s="53" t="s">
+      <c r="H67" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="I67" s="45">
+      <c r="I67" s="43">
         <f>G63*H64</f>
         <v>10390.082208</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="46"/>
+      <c r="A68" s="44"/>
       <c r="B68" s="7"/>
-      <c r="C68" s="53" t="s">
+      <c r="C68" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="D68" s="45">
+      <c r="D68" s="43">
         <f>C63*B64</f>
         <v>2482154628</v>
       </c>
       <c r="E68" s="26"/>
-      <c r="F68" s="46"/>
+      <c r="F68" s="44"/>
       <c r="G68" s="7"/>
-      <c r="H68" s="53" t="s">
+      <c r="H68" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="I68" s="45">
+      <c r="I68" s="43">
         <f>H63*G64</f>
         <v>25330.843844000003</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="46"/>
+      <c r="A69" s="44"/>
       <c r="B69" s="7"/>
-      <c r="C69" s="53" t="s">
+      <c r="C69" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="D69" s="45">
+      <c r="D69" s="43">
         <f>(B63*C63)+(B64*C64)</f>
         <v>11918001616</v>
       </c>
       <c r="E69" s="26"/>
-      <c r="F69" s="46"/>
+      <c r="F69" s="44"/>
       <c r="G69" s="7"/>
-      <c r="H69" s="53" t="s">
+      <c r="H69" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="I69" s="45">
+      <c r="I69" s="43">
         <f>(G63*H63)+(G64*H64)</f>
         <v>110472.59562800002</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="46"/>
+      <c r="A70" s="44"/>
       <c r="B70" s="7" t="str">
         <f>IF(ABS(D71)&gt;0.8,$F$4,IF(ABS(D71)&gt;0.6,$E$4,IF(ABS(D71)&gt;0.4,$D$4,IF(ABS(D71)&gt;0.2,$C$4,$B$4))))</f>
         <v>Very Weak</v>
       </c>
-      <c r="C70" s="53" t="s">
+      <c r="C70" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="D70" s="45">
+      <c r="D70" s="43">
         <f>(B63*B64)+(C63*C64)</f>
         <v>83837848720</v>
       </c>
       <c r="E70" s="26"/>
-      <c r="F70" s="46"/>
+      <c r="F70" s="44"/>
       <c r="G70" s="7" t="str">
         <f>IF(ABS(I71)&gt;0.8,$F$4,IF(ABS(I71)&gt;0.6,$E$4,IF(ABS(I71)&gt;0.4,$D$4,IF(ABS(I71)&gt;0.2,$C$4,$B$4))))</f>
         <v>Very Weak</v>
       </c>
-      <c r="H70" s="53" t="s">
+      <c r="H70" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="I70" s="45">
+      <c r="I70" s="43">
         <f>(G63*G64)+(H63*H64)</f>
         <v>1013934.107347</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="47"/>
+      <c r="A71" s="45"/>
       <c r="B71" s="16"/>
-      <c r="C71" s="54" t="s">
+      <c r="C71" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="D71" s="48">
+      <c r="D71" s="46">
         <f>(D67-D68)/(SQRT((D67+D68+D69)*(D67+D68+D70)))</f>
         <v>5.4245790378314434E-3</v>
       </c>
       <c r="E71" s="26"/>
-      <c r="F71" s="47"/>
+      <c r="F71" s="45"/>
       <c r="G71" s="16"/>
-      <c r="H71" s="54" t="s">
+      <c r="H71" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="I71" s="48">
+      <c r="I71" s="46">
         <f>(I67-I68)/(SQRT((I67+I68+I69)*(I67+I68+I70)))</f>
         <v>-3.8140411708340864E-2</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="49" t="str">
+    <row r="73" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="54" t="str">
         <f>chisquared!A94</f>
         <v>h1: there is an association between being rape/attempted rape and pre/post 1740 at the Old Bailey</v>
       </c>
-      <c r="B73" s="50"/>
-      <c r="C73" s="50"/>
-      <c r="D73" s="51"/>
+      <c r="B73" s="55"/>
+      <c r="C73" s="55"/>
+      <c r="D73" s="56"/>
       <c r="E73" s="26"/>
-      <c r="F73" s="49" t="str">
+      <c r="F73" s="54" t="str">
         <f>chisquared!L94</f>
         <v>h1: there is an association between being rape/attempted rape and pre/post 1740 in Surrey/Sussex</v>
       </c>
-      <c r="G73" s="50"/>
-      <c r="H73" s="50"/>
-      <c r="I73" s="51"/>
+      <c r="G73" s="55"/>
+      <c r="H73" s="55"/>
+      <c r="I73" s="56"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="55" t="str">
+      <c r="A74" s="51" t="str">
         <f>chisquared!A95</f>
         <v>- Can't be done, rape and attempted rape are combined into "sexual crimes"</v>
       </c>
-      <c r="B74" s="56"/>
-      <c r="C74" s="56"/>
-      <c r="D74" s="57"/>
+      <c r="B74" s="52"/>
+      <c r="C74" s="52"/>
+      <c r="D74" s="53"/>
       <c r="E74" s="26"/>
       <c r="F74" s="5"/>
       <c r="G74" s="7"/>
@@ -17114,7 +17162,7 @@
         <f>chisquared!C96</f>
         <v>attempted rape</v>
       </c>
-      <c r="D75" s="45"/>
+      <c r="D75" s="43"/>
       <c r="E75" s="26"/>
       <c r="F75" s="5" t="str">
         <f>chisquared!L96</f>
@@ -17128,7 +17176,7 @@
         <f>chisquared!N96</f>
         <v>attempted rape</v>
       </c>
-      <c r="I75" s="45"/>
+      <c r="I75" s="43"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="str">
@@ -17143,7 +17191,7 @@
         <f>chisquared!C97</f>
         <v>0</v>
       </c>
-      <c r="D76" s="45">
+      <c r="D76" s="43">
         <f>chisquared!D97</f>
         <v>0</v>
       </c>
@@ -17160,7 +17208,7 @@
         <f>chisquared!N97</f>
         <v>19</v>
       </c>
-      <c r="I76" s="45">
+      <c r="I76" s="43">
         <f>chisquared!O97</f>
         <v>39</v>
       </c>
@@ -17178,7 +17226,7 @@
         <f>chisquared!C98</f>
         <v>0</v>
       </c>
-      <c r="D77" s="45">
+      <c r="D77" s="43">
         <f>chisquared!D98</f>
         <v>0</v>
       </c>
@@ -17195,7 +17243,7 @@
         <f>chisquared!N98</f>
         <v>86</v>
       </c>
-      <c r="I77" s="45">
+      <c r="I77" s="43">
         <f>chisquared!O98</f>
         <v>125</v>
       </c>
@@ -17210,7 +17258,7 @@
         <f>chisquared!C99</f>
         <v>0</v>
       </c>
-      <c r="D78" s="45">
+      <c r="D78" s="43">
         <f>chisquared!D99</f>
         <v>0</v>
       </c>
@@ -17224,156 +17272,156 @@
         <f>chisquared!N99</f>
         <v>105</v>
       </c>
-      <c r="I78" s="45">
+      <c r="I78" s="43">
         <f>chisquared!O99</f>
         <v>164</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="46"/>
+      <c r="A79" s="44"/>
       <c r="B79" s="7"/>
       <c r="C79" s="6"/>
-      <c r="D79" s="45"/>
+      <c r="D79" s="43"/>
       <c r="E79" s="26"/>
-      <c r="F79" s="46"/>
+      <c r="F79" s="44"/>
       <c r="G79" s="7"/>
       <c r="H79" s="6"/>
-      <c r="I79" s="45"/>
+      <c r="I79" s="43"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="46"/>
+      <c r="A80" s="44"/>
       <c r="B80" s="7"/>
-      <c r="C80" s="53" t="s">
+      <c r="C80" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="D80" s="45">
+      <c r="D80" s="43">
         <f>B76*C77</f>
         <v>0</v>
       </c>
       <c r="E80" s="26"/>
-      <c r="F80" s="46"/>
+      <c r="F80" s="44"/>
       <c r="G80" s="7"/>
-      <c r="H80" s="53" t="s">
+      <c r="H80" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="I80" s="45">
+      <c r="I80" s="43">
         <f>G76*H77</f>
         <v>1720</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="46"/>
+      <c r="A81" s="44"/>
       <c r="B81" s="7"/>
-      <c r="C81" s="53" t="s">
+      <c r="C81" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="D81" s="45">
+      <c r="D81" s="43">
         <f>C76*B77</f>
         <v>0</v>
       </c>
       <c r="E81" s="26"/>
-      <c r="F81" s="46"/>
+      <c r="F81" s="44"/>
       <c r="G81" s="7"/>
-      <c r="H81" s="53" t="s">
+      <c r="H81" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="I81" s="45">
+      <c r="I81" s="43">
         <f>H76*G77</f>
         <v>741</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="46"/>
+      <c r="A82" s="44"/>
       <c r="B82" s="7"/>
-      <c r="C82" s="53" t="s">
+      <c r="C82" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="D82" s="45">
+      <c r="D82" s="43">
         <f>(B76*C76)+(B77*C77)</f>
         <v>0</v>
       </c>
       <c r="E82" s="26"/>
-      <c r="F82" s="46"/>
+      <c r="F82" s="44"/>
       <c r="G82" s="7"/>
-      <c r="H82" s="53" t="s">
+      <c r="H82" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="I82" s="45">
+      <c r="I82" s="43">
         <f>(G76*H76)+(G77*H77)</f>
         <v>3734</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="46"/>
+      <c r="A83" s="44"/>
       <c r="B83" s="7" t="e">
         <f>IF(ABS(D84)&gt;0.8,$F$4,IF(ABS(D84)&gt;0.6,$E$4,IF(ABS(D84)&gt;0.4,$D$4,IF(ABS(D84)&gt;0.2,$C$4,$B$4))))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C83" s="53" t="s">
+      <c r="C83" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="D83" s="45">
+      <c r="D83" s="43">
         <f>(B76*B77)+(C76*C77)</f>
         <v>0</v>
       </c>
       <c r="E83" s="26"/>
-      <c r="F83" s="46"/>
+      <c r="F83" s="44"/>
       <c r="G83" s="7" t="str">
         <f>IF(ABS(I84)&gt;0.8,$F$4,IF(ABS(I84)&gt;0.6,$E$4,IF(ABS(I84)&gt;0.4,$D$4,IF(ABS(I84)&gt;0.2,$C$4,$B$4))))</f>
         <v>Very Weak</v>
       </c>
-      <c r="H83" s="53" t="s">
+      <c r="H83" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="I83" s="45">
+      <c r="I83" s="43">
         <f>(G76*G77)+(H76*H77)</f>
         <v>2414</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="47"/>
+      <c r="A84" s="45"/>
       <c r="B84" s="16"/>
-      <c r="C84" s="54" t="s">
+      <c r="C84" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="D84" s="48" t="e">
+      <c r="D84" s="46" t="e">
         <f>(D80-D81)/(SQRT((D80+D81+D82)*(D80+D81+D83)))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E84" s="26"/>
-      <c r="F84" s="47"/>
+      <c r="F84" s="45"/>
       <c r="G84" s="16"/>
-      <c r="H84" s="54" t="s">
+      <c r="H84" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="I84" s="48">
+      <c r="I84" s="46">
         <f>(I80-I81)/(SQRT((I80+I81+I82)*(I80+I81+I83)))</f>
         <v>0.17814544667124804</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="49" t="str">
+    <row r="86" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="54" t="str">
         <f>chisquared!A112</f>
         <v>h1: there is an association between being sentenced to death for different crimes as a male at the Old Bailey</v>
       </c>
-      <c r="B86" s="50"/>
-      <c r="C86" s="50"/>
-      <c r="D86" s="51"/>
+      <c r="B86" s="55"/>
+      <c r="C86" s="55"/>
+      <c r="D86" s="56"/>
       <c r="E86" s="26"/>
-      <c r="F86" s="49" t="str">
+      <c r="F86" s="54" t="str">
         <f>chisquared!L112</f>
         <v>h1: there is an association between being sentenced to death for different crimes as a male in Surrey/Sussex</v>
       </c>
-      <c r="G86" s="50"/>
-      <c r="H86" s="50"/>
-      <c r="I86" s="51"/>
+      <c r="G86" s="55"/>
+      <c r="H86" s="55"/>
+      <c r="I86" s="56"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="55"/>
-      <c r="B87" s="56"/>
-      <c r="C87" s="56"/>
-      <c r="D87" s="57"/>
+      <c r="A87" s="51"/>
+      <c r="B87" s="52"/>
+      <c r="C87" s="52"/>
+      <c r="D87" s="53"/>
       <c r="E87" s="26"/>
       <c r="F87" s="5"/>
       <c r="G87" s="7"/>
@@ -17393,7 +17441,7 @@
         <f>chisquared!C114</f>
         <v>not property crimes</v>
       </c>
-      <c r="D88" s="45"/>
+      <c r="D88" s="43"/>
       <c r="E88" s="26"/>
       <c r="F88" s="5" t="str">
         <f>chisquared!L114</f>
@@ -17407,7 +17455,7 @@
         <f>chisquared!N114</f>
         <v>not property crimes</v>
       </c>
-      <c r="I88" s="45"/>
+      <c r="I88" s="43"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="str">
@@ -17422,7 +17470,7 @@
         <f>chisquared!C115</f>
         <v>19407</v>
       </c>
-      <c r="D89" s="45">
+      <c r="D89" s="43">
         <f>chisquared!D115</f>
         <v>259538</v>
       </c>
@@ -17439,7 +17487,7 @@
         <f>chisquared!N115</f>
         <v>72</v>
       </c>
-      <c r="I89" s="45">
+      <c r="I89" s="43">
         <f>chisquared!O115</f>
         <v>481</v>
       </c>
@@ -17457,7 +17505,7 @@
         <f>chisquared!C116</f>
         <v>5199</v>
       </c>
-      <c r="D90" s="45">
+      <c r="D90" s="43">
         <f>chisquared!D116</f>
         <v>54881</v>
       </c>
@@ -17474,7 +17522,7 @@
         <f>chisquared!N116</f>
         <v>10</v>
       </c>
-      <c r="I90" s="45">
+      <c r="I90" s="43">
         <f>chisquared!O116</f>
         <v>37</v>
       </c>
@@ -17489,7 +17537,7 @@
         <f>chisquared!C117</f>
         <v>24606</v>
       </c>
-      <c r="D91" s="45">
+      <c r="D91" s="43">
         <f>chisquared!D117</f>
         <v>314419</v>
       </c>
@@ -17503,159 +17551,159 @@
         <f>chisquared!N117</f>
         <v>82</v>
       </c>
-      <c r="I91" s="45">
+      <c r="I91" s="43">
         <f>chisquared!O117</f>
         <v>518</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="46"/>
+      <c r="A92" s="44"/>
       <c r="B92" s="7"/>
       <c r="C92" s="6"/>
-      <c r="D92" s="45"/>
+      <c r="D92" s="43"/>
       <c r="E92" s="26"/>
-      <c r="F92" s="46"/>
+      <c r="F92" s="44"/>
       <c r="G92" s="7"/>
       <c r="H92" s="6"/>
-      <c r="I92" s="45"/>
+      <c r="I92" s="43"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="46"/>
+      <c r="A93" s="44"/>
       <c r="B93" s="7"/>
-      <c r="C93" s="53" t="s">
+      <c r="C93" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="D93" s="45">
+      <c r="D93" s="43">
         <f>B89*C90</f>
         <v>1248441069</v>
       </c>
       <c r="E93" s="26"/>
-      <c r="F93" s="46"/>
+      <c r="F93" s="44"/>
       <c r="G93" s="7"/>
-      <c r="H93" s="53" t="s">
+      <c r="H93" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="I93" s="45">
+      <c r="I93" s="43">
         <f>G89*H90</f>
         <v>4090</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="46"/>
+      <c r="A94" s="44"/>
       <c r="B94" s="7"/>
-      <c r="C94" s="53" t="s">
+      <c r="C94" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="D94" s="45">
+      <c r="D94" s="43">
         <f>C89*B90</f>
         <v>964178574</v>
       </c>
       <c r="E94" s="26"/>
-      <c r="F94" s="46"/>
+      <c r="F94" s="44"/>
       <c r="G94" s="7"/>
-      <c r="H94" s="53" t="s">
+      <c r="H94" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="I94" s="45">
+      <c r="I94" s="43">
         <f>H89*G90</f>
         <v>1944</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="46"/>
+      <c r="A95" s="44"/>
       <c r="B95" s="7"/>
-      <c r="C95" s="53" t="s">
+      <c r="C95" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="D95" s="45">
+      <c r="D95" s="43">
         <f>(B89*C89)+(B90*C90)</f>
         <v>4918519035</v>
       </c>
       <c r="E95" s="26"/>
-      <c r="F95" s="46"/>
+      <c r="F95" s="44"/>
       <c r="G95" s="7"/>
-      <c r="H95" s="53" t="s">
+      <c r="H95" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="I95" s="45">
+      <c r="I95" s="43">
         <f>(G89*H89)+(G90*H90)</f>
         <v>29718</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="46"/>
+      <c r="A96" s="44"/>
       <c r="B96" s="7" t="str">
         <f>IF(ABS(D97)&gt;0.8,$F$4,IF(ABS(D97)&gt;0.6,$E$4,IF(ABS(D97)&gt;0.4,$D$4,IF(ABS(D97)&gt;0.2,$C$4,$B$4))))</f>
         <v>Very Weak</v>
       </c>
-      <c r="C96" s="53" t="s">
+      <c r="C96" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="D96" s="45">
+      <c r="D96" s="43">
         <f>(B89*B90)+(C89*C90)</f>
         <v>12031085335</v>
       </c>
       <c r="E96" s="26"/>
-      <c r="F96" s="46"/>
+      <c r="F96" s="44"/>
       <c r="G96" s="7" t="str">
         <f>IF(ABS(I97)&gt;0.8,$F$4,IF(ABS(I97)&gt;0.6,$E$4,IF(ABS(I97)&gt;0.4,$D$4,IF(ABS(I97)&gt;0.2,$C$4,$B$4))))</f>
         <v>Very Weak</v>
       </c>
-      <c r="H96" s="53" t="s">
+      <c r="H96" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="I96" s="45">
+      <c r="I96" s="43">
         <f>(G89*G90)+(H89*H90)</f>
         <v>11763</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="47"/>
+      <c r="A97" s="45"/>
       <c r="B97" s="16"/>
-      <c r="C97" s="54" t="s">
+      <c r="C97" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="D97" s="48">
+      <c r="D97" s="46">
         <f>(D93-D94)/(SQRT((D93+D94+D95)*(D93+D94+D96)))</f>
         <v>2.8205164538170582E-2</v>
       </c>
       <c r="E97" s="26"/>
-      <c r="F97" s="47"/>
+      <c r="F97" s="45"/>
       <c r="G97" s="16"/>
-      <c r="H97" s="54" t="s">
+      <c r="H97" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="I97" s="48">
+      <c r="I97" s="46">
         <f>(I93-I94)/(SQRT((I93+I94+I95)*(I93+I94+I96)))</f>
         <v>8.5075820561194879E-2</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="49" t="str">
+    <row r="99" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="54" t="str">
         <f>chisquared!A130</f>
         <v>h1: there is an association between being guilty and being a primary accusee (rather than accessory) at the Old Bailey</v>
       </c>
-      <c r="B99" s="50"/>
-      <c r="C99" s="50"/>
-      <c r="D99" s="51"/>
+      <c r="B99" s="55"/>
+      <c r="C99" s="55"/>
+      <c r="D99" s="56"/>
       <c r="E99" s="26"/>
-      <c r="F99" s="49" t="str">
+      <c r="F99" s="54" t="str">
         <f>chisquared!L130</f>
         <v>h1: there is an association between being guilty and being a primary accusee (rather than accessory) in Surrey/Sussex</v>
       </c>
-      <c r="G99" s="50"/>
-      <c r="H99" s="50"/>
-      <c r="I99" s="51"/>
+      <c r="G99" s="55"/>
+      <c r="H99" s="55"/>
+      <c r="I99" s="56"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="55" t="str">
+      <c r="A100" s="51" t="str">
         <f>chisquared!A131</f>
         <v>- Can't be either accused or not; no way to be an accessory</v>
       </c>
-      <c r="B100" s="56"/>
-      <c r="C100" s="56"/>
-      <c r="D100" s="57"/>
+      <c r="B100" s="52"/>
+      <c r="C100" s="52"/>
+      <c r="D100" s="53"/>
       <c r="E100" s="26"/>
       <c r="F100" s="5"/>
       <c r="G100" s="7"/>
@@ -17675,7 +17723,7 @@
         <f>chisquared!C132</f>
         <v>not guilty</v>
       </c>
-      <c r="D101" s="45"/>
+      <c r="D101" s="43"/>
       <c r="E101" s="26"/>
       <c r="F101" s="5" t="str">
         <f>chisquared!L132</f>
@@ -17689,7 +17737,7 @@
         <f>chisquared!N132</f>
         <v>not guilty</v>
       </c>
-      <c r="I101" s="45"/>
+      <c r="I101" s="43"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="str">
@@ -17704,7 +17752,7 @@
         <f>chisquared!C133</f>
         <v>0</v>
       </c>
-      <c r="D102" s="45">
+      <c r="D102" s="43">
         <f>chisquared!D133</f>
         <v>0</v>
       </c>
@@ -17721,7 +17769,7 @@
         <f>chisquared!N133</f>
         <v>126</v>
       </c>
-      <c r="I102" s="45">
+      <c r="I102" s="43">
         <f>chisquared!O133</f>
         <v>271</v>
       </c>
@@ -17739,7 +17787,7 @@
         <f>chisquared!C134</f>
         <v>0</v>
       </c>
-      <c r="D103" s="45">
+      <c r="D103" s="43">
         <f>chisquared!D134</f>
         <v>0</v>
       </c>
@@ -17756,7 +17804,7 @@
         <f>chisquared!N134</f>
         <v>18</v>
       </c>
-      <c r="I103" s="45">
+      <c r="I103" s="43">
         <f>chisquared!O134</f>
         <v>24</v>
       </c>
@@ -17771,7 +17819,7 @@
         <f>chisquared!C135</f>
         <v>0</v>
       </c>
-      <c r="D104" s="45">
+      <c r="D104" s="43">
         <f>chisquared!D135</f>
         <v>0</v>
       </c>
@@ -17785,161 +17833,161 @@
         <f>chisquared!N135</f>
         <v>144</v>
       </c>
-      <c r="I104" s="45">
+      <c r="I104" s="43">
         <f>chisquared!O135</f>
         <v>295</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="46"/>
+      <c r="A105" s="44"/>
       <c r="B105" s="7"/>
       <c r="C105" s="6"/>
-      <c r="D105" s="45"/>
+      <c r="D105" s="43"/>
       <c r="E105" s="26"/>
-      <c r="F105" s="46"/>
+      <c r="F105" s="44"/>
       <c r="G105" s="7"/>
       <c r="H105" s="6"/>
-      <c r="I105" s="45"/>
+      <c r="I105" s="43"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="46"/>
+      <c r="A106" s="44"/>
       <c r="B106" s="7"/>
-      <c r="C106" s="53" t="s">
+      <c r="C106" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="D106" s="45">
+      <c r="D106" s="43">
         <f>B102*C103</f>
         <v>0</v>
       </c>
       <c r="E106" s="26"/>
-      <c r="F106" s="46"/>
+      <c r="F106" s="44"/>
       <c r="G106" s="7"/>
-      <c r="H106" s="53" t="s">
+      <c r="H106" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="I106" s="45">
+      <c r="I106" s="43">
         <f>G102*H103</f>
         <v>2610</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="46"/>
+      <c r="A107" s="44"/>
       <c r="B107" s="7"/>
-      <c r="C107" s="53" t="s">
+      <c r="C107" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="D107" s="45">
+      <c r="D107" s="43">
         <f>C102*B103</f>
         <v>0</v>
       </c>
       <c r="E107" s="26"/>
-      <c r="F107" s="46"/>
+      <c r="F107" s="44"/>
       <c r="G107" s="7"/>
-      <c r="H107" s="53" t="s">
+      <c r="H107" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="I107" s="45">
+      <c r="I107" s="43">
         <f>H102*G103</f>
         <v>756</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="46"/>
+      <c r="A108" s="44"/>
       <c r="B108" s="7"/>
-      <c r="C108" s="53" t="s">
+      <c r="C108" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="D108" s="45">
+      <c r="D108" s="43">
         <f>(B102*C102)+(B103*C103)</f>
         <v>0</v>
       </c>
       <c r="E108" s="26"/>
-      <c r="F108" s="46"/>
+      <c r="F108" s="44"/>
       <c r="G108" s="7"/>
-      <c r="H108" s="53" t="s">
+      <c r="H108" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="I108" s="45">
+      <c r="I108" s="43">
         <f>(G102*H102)+(G103*H103)</f>
         <v>18378</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="46"/>
+      <c r="A109" s="44"/>
       <c r="B109" s="7" t="e">
         <f>IF(ABS(D110)&gt;0.8,$F$4,IF(ABS(D110)&gt;0.6,$E$4,IF(ABS(D110)&gt;0.4,$D$4,IF(ABS(D110)&gt;0.2,$C$4,$B$4))))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C109" s="53" t="s">
+      <c r="C109" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="D109" s="45">
+      <c r="D109" s="43">
         <f>(B102*B103)+(C102*C103)</f>
         <v>0</v>
       </c>
       <c r="E109" s="26"/>
-      <c r="F109" s="46"/>
+      <c r="F109" s="44"/>
       <c r="G109" s="7" t="str">
         <f>IF(ABS(I110)&gt;0.8,$F$4,IF(ABS(I110)&gt;0.6,$E$4,IF(ABS(I110)&gt;0.4,$D$4,IF(ABS(I110)&gt;0.2,$C$4,$B$4))))</f>
         <v>Very Weak</v>
       </c>
-      <c r="H109" s="53" t="s">
+      <c r="H109" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="I109" s="45">
+      <c r="I109" s="43">
         <f>(G102*G103)+(H102*H103)</f>
         <v>3138</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="47"/>
+      <c r="A110" s="45"/>
       <c r="B110" s="16"/>
-      <c r="C110" s="54" t="s">
+      <c r="C110" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="D110" s="48" t="e">
+      <c r="D110" s="46" t="e">
         <f>(D106-D107)/(SQRT((D106+D107+D108)*(D106+D107+D109)))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E110" s="26"/>
-      <c r="F110" s="47"/>
+      <c r="F110" s="45"/>
       <c r="G110" s="16"/>
-      <c r="H110" s="54" t="s">
+      <c r="H110" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="I110" s="48">
+      <c r="I110" s="46">
         <f>(I106-I107)/(SQRT((I106+I107+I108)*(I106+I107+I109)))</f>
         <v>0.15590130258656587</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="49" t="str">
+    <row r="112" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="54" t="str">
         <f>chisquared!A148</f>
         <v>h1: there is an association between male homicide guilty verdicts pre 1740 and post 1740 at the Old Bailey</v>
       </c>
-      <c r="B112" s="50"/>
-      <c r="C112" s="50"/>
-      <c r="D112" s="51"/>
+      <c r="B112" s="55"/>
+      <c r="C112" s="55"/>
+      <c r="D112" s="56"/>
       <c r="E112" s="26"/>
-      <c r="F112" s="49" t="str">
+      <c r="F112" s="63" t="str">
         <f>chisquared!L148</f>
         <v>h1: there is an association between male homicide guilty verdicts pre 1740 and post 1740 in Surrey/Sussex</v>
       </c>
-      <c r="G112" s="50"/>
-      <c r="H112" s="50"/>
-      <c r="I112" s="51"/>
+      <c r="G112" s="64"/>
+      <c r="H112" s="64"/>
+      <c r="I112" s="65"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="55"/>
-      <c r="B113" s="56"/>
-      <c r="C113" s="56"/>
-      <c r="D113" s="57"/>
+      <c r="A113" s="51"/>
+      <c r="B113" s="52"/>
+      <c r="C113" s="52"/>
+      <c r="D113" s="53"/>
       <c r="E113" s="26"/>
-      <c r="F113" s="5"/>
-      <c r="G113" s="7"/>
-      <c r="H113" s="7"/>
-      <c r="I113" s="8"/>
+      <c r="F113" s="66"/>
+      <c r="G113" s="67"/>
+      <c r="H113" s="67"/>
+      <c r="I113" s="68"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="str">
@@ -17954,21 +18002,21 @@
         <f>chisquared!C150</f>
         <v>not guilty</v>
       </c>
-      <c r="D114" s="45"/>
+      <c r="D114" s="43"/>
       <c r="E114" s="26"/>
-      <c r="F114" s="5" t="str">
+      <c r="F114" s="66" t="str">
         <f>chisquared!L150</f>
         <v>OBSERVED</v>
       </c>
-      <c r="G114" s="21" t="str">
+      <c r="G114" s="69" t="str">
         <f>chisquared!M150</f>
         <v>guilty</v>
       </c>
-      <c r="H114" s="21" t="str">
+      <c r="H114" s="69" t="str">
         <f>chisquared!N150</f>
         <v>not guilty</v>
       </c>
-      <c r="I114" s="45"/>
+      <c r="I114" s="70"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="str">
@@ -17983,24 +18031,24 @@
         <f>chisquared!C151</f>
         <v>610</v>
       </c>
-      <c r="D115" s="45">
+      <c r="D115" s="43">
         <f>chisquared!D151</f>
         <v>3797</v>
       </c>
       <c r="E115" s="26"/>
-      <c r="F115" s="5" t="str">
+      <c r="F115" s="66" t="str">
         <f>chisquared!L151</f>
         <v>pre-1740</v>
       </c>
-      <c r="G115" s="24">
+      <c r="G115" s="78">
         <f>chisquared!M151</f>
         <v>75</v>
       </c>
-      <c r="H115" s="24">
+      <c r="H115" s="78">
         <f>chisquared!N151</f>
         <v>91</v>
       </c>
-      <c r="I115" s="45">
+      <c r="I115" s="70">
         <f>chisquared!O151</f>
         <v>166</v>
       </c>
@@ -18018,24 +18066,24 @@
         <f>chisquared!C152</f>
         <v>5293</v>
       </c>
-      <c r="D116" s="45">
+      <c r="D116" s="43">
         <f>chisquared!D152</f>
         <v>20431</v>
       </c>
       <c r="E116" s="26"/>
-      <c r="F116" s="5" t="str">
+      <c r="F116" s="66" t="str">
         <f>chisquared!L152</f>
         <v>post-1740</v>
       </c>
-      <c r="G116" s="25">
+      <c r="G116" s="79">
         <f>chisquared!M152</f>
         <v>79</v>
       </c>
-      <c r="H116" s="25">
+      <c r="H116" s="79">
         <f>chisquared!N152</f>
         <v>30</v>
       </c>
-      <c r="I116" s="45">
+      <c r="I116" s="70">
         <f>chisquared!O152</f>
         <v>109</v>
       </c>
@@ -18050,170 +18098,170 @@
         <f>chisquared!C153</f>
         <v>5903</v>
       </c>
-      <c r="D117" s="45">
+      <c r="D117" s="43">
         <f>chisquared!D153</f>
         <v>24228</v>
       </c>
       <c r="E117" s="26"/>
-      <c r="F117" s="5"/>
-      <c r="G117" s="6">
+      <c r="F117" s="66"/>
+      <c r="G117" s="71">
         <f>chisquared!M153</f>
         <v>154</v>
       </c>
-      <c r="H117" s="6">
+      <c r="H117" s="71">
         <f>chisquared!N153</f>
         <v>121</v>
       </c>
-      <c r="I117" s="45">
+      <c r="I117" s="70">
         <f>chisquared!O153</f>
         <v>275</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="46"/>
+      <c r="A118" s="44"/>
       <c r="B118" s="7"/>
       <c r="C118" s="6"/>
-      <c r="D118" s="45"/>
+      <c r="D118" s="43"/>
       <c r="E118" s="26"/>
-      <c r="F118" s="46"/>
-      <c r="G118" s="7"/>
-      <c r="H118" s="6"/>
-      <c r="I118" s="45"/>
+      <c r="F118" s="72"/>
+      <c r="G118" s="67"/>
+      <c r="H118" s="71"/>
+      <c r="I118" s="70"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="46"/>
+      <c r="A119" s="44"/>
       <c r="B119" s="7"/>
-      <c r="C119" s="53" t="s">
+      <c r="C119" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="D119" s="45">
+      <c r="D119" s="43">
         <f>B115*C116</f>
         <v>16868791</v>
       </c>
       <c r="E119" s="26"/>
-      <c r="F119" s="46"/>
-      <c r="G119" s="7"/>
-      <c r="H119" s="53" t="s">
+      <c r="F119" s="72"/>
+      <c r="G119" s="67"/>
+      <c r="H119" s="73" t="s">
         <v>226</v>
       </c>
-      <c r="I119" s="45">
+      <c r="I119" s="70">
         <f>G115*H116</f>
         <v>2250</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="46"/>
+      <c r="A120" s="44"/>
       <c r="B120" s="7"/>
-      <c r="C120" s="53" t="s">
+      <c r="C120" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="D120" s="45">
+      <c r="D120" s="43">
         <f>C115*B116</f>
         <v>9234180</v>
       </c>
       <c r="E120" s="26"/>
-      <c r="F120" s="46"/>
-      <c r="G120" s="7"/>
-      <c r="H120" s="53" t="s">
+      <c r="F120" s="72"/>
+      <c r="G120" s="67"/>
+      <c r="H120" s="73" t="s">
         <v>227</v>
       </c>
-      <c r="I120" s="45">
+      <c r="I120" s="70">
         <f>H115*G116</f>
         <v>7189</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="46"/>
+      <c r="A121" s="44"/>
       <c r="B121" s="7"/>
-      <c r="C121" s="53" t="s">
+      <c r="C121" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="D121" s="45">
+      <c r="D121" s="43">
         <f>(B115*C115)+(B116*C116)</f>
         <v>82069504</v>
       </c>
       <c r="E121" s="26"/>
-      <c r="F121" s="46"/>
-      <c r="G121" s="7"/>
-      <c r="H121" s="53" t="s">
+      <c r="F121" s="72"/>
+      <c r="G121" s="67"/>
+      <c r="H121" s="73" t="s">
         <v>228</v>
       </c>
-      <c r="I121" s="45">
+      <c r="I121" s="70">
         <f>(G115*H115)+(G116*H116)</f>
         <v>9195</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="46"/>
+      <c r="A122" s="44"/>
       <c r="B122" s="7" t="str">
         <f>IF(ABS(D123)&gt;0.8,$F$4,IF(ABS(D123)&gt;0.6,$E$4,IF(ABS(D123)&gt;0.4,$D$4,IF(ABS(D123)&gt;0.2,$C$4,$B$4))))</f>
         <v>Very Weak</v>
       </c>
-      <c r="C122" s="53" t="s">
+      <c r="C122" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="D122" s="45">
+      <c r="D122" s="43">
         <f>(B115*B116)+(C115*C116)</f>
         <v>51473536</v>
       </c>
       <c r="E122" s="26"/>
-      <c r="F122" s="46"/>
-      <c r="G122" s="7" t="str">
+      <c r="F122" s="72"/>
+      <c r="G122" s="67" t="str">
         <f>IF(ABS(I123)&gt;0.8,$F$4,IF(ABS(I123)&gt;0.6,$E$4,IF(ABS(I123)&gt;0.4,$D$4,IF(ABS(I123)&gt;0.2,$C$4,$B$4))))</f>
         <v>Weak</v>
       </c>
-      <c r="H122" s="53" t="s">
+      <c r="H122" s="73" t="s">
         <v>229</v>
       </c>
-      <c r="I122" s="45">
+      <c r="I122" s="70">
         <f>(G115*G116)+(H115*H116)</f>
         <v>8655</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="47"/>
+      <c r="A123" s="45"/>
       <c r="B123" s="16"/>
-      <c r="C123" s="54" t="s">
+      <c r="C123" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="D123" s="48">
+      <c r="D123" s="46">
         <f>(D119-D120)/(SQRT((D119+D120+D121)*(D119+D120+D122)))</f>
         <v>8.3341904383829712E-2</v>
       </c>
       <c r="E123" s="26"/>
-      <c r="F123" s="47"/>
-      <c r="G123" s="16"/>
-      <c r="H123" s="54" t="s">
+      <c r="F123" s="74"/>
+      <c r="G123" s="75"/>
+      <c r="H123" s="76" t="s">
         <v>230</v>
       </c>
-      <c r="I123" s="48">
+      <c r="I123" s="77">
         <f>(I119-I120)/(SQRT((I119+I120+I121)*(I119+I120+I122)))</f>
         <v>-0.26897919382224134</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="49" t="str">
+    <row r="125" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="54" t="str">
         <f>chisquared!A166</f>
         <v>h1: there is an association between being male and being sentenced to death at the Old Bailey (between 1722-1802)</v>
       </c>
-      <c r="B125" s="50"/>
-      <c r="C125" s="50"/>
-      <c r="D125" s="51"/>
+      <c r="B125" s="55"/>
+      <c r="C125" s="55"/>
+      <c r="D125" s="56"/>
       <c r="E125" s="26"/>
-      <c r="F125" s="49" t="str">
+      <c r="F125" s="54" t="str">
         <f>chisquared!L166</f>
         <v>h1: there is an association between being male and being sentenced to death in Surrey/Sussex (between 1722-1802)</v>
       </c>
-      <c r="G125" s="50"/>
-      <c r="H125" s="50"/>
-      <c r="I125" s="51"/>
+      <c r="G125" s="55"/>
+      <c r="H125" s="55"/>
+      <c r="I125" s="56"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="55"/>
-      <c r="B126" s="56"/>
-      <c r="C126" s="56"/>
-      <c r="D126" s="57"/>
+      <c r="A126" s="51"/>
+      <c r="B126" s="52"/>
+      <c r="C126" s="52"/>
+      <c r="D126" s="53"/>
       <c r="E126" s="26"/>
       <c r="F126" s="5"/>
       <c r="G126" s="7"/>
@@ -18233,7 +18281,7 @@
         <f>chisquared!C168</f>
         <v>not death</v>
       </c>
-      <c r="D127" s="45"/>
+      <c r="D127" s="43"/>
       <c r="E127" s="26"/>
       <c r="F127" s="5" t="str">
         <f>chisquared!L168</f>
@@ -18247,7 +18295,7 @@
         <f>chisquared!N168</f>
         <v>not death</v>
       </c>
-      <c r="I127" s="45"/>
+      <c r="I127" s="43"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="str">
@@ -18262,7 +18310,7 @@
         <f>chisquared!C169</f>
         <v>226969</v>
       </c>
-      <c r="D128" s="45">
+      <c r="D128" s="43">
         <f>chisquared!D169</f>
         <v>370269</v>
       </c>
@@ -18279,7 +18327,7 @@
         <f>chisquared!N169</f>
         <v>803</v>
       </c>
-      <c r="I128" s="45">
+      <c r="I128" s="43">
         <f>chisquared!O169</f>
         <v>1745</v>
       </c>
@@ -18297,7 +18345,7 @@
         <f>chisquared!C170</f>
         <v>68710</v>
       </c>
-      <c r="D129" s="45">
+      <c r="D129" s="43">
         <f>chisquared!D170</f>
         <v>101836</v>
       </c>
@@ -18314,7 +18362,7 @@
         <f>chisquared!N170</f>
         <v>81</v>
       </c>
-      <c r="I129" s="45">
+      <c r="I129" s="43">
         <f>chisquared!O170</f>
         <v>169</v>
       </c>
@@ -18329,7 +18377,7 @@
         <f>chisquared!C171</f>
         <v>295679</v>
       </c>
-      <c r="D130" s="45">
+      <c r="D130" s="43">
         <f>chisquared!D171</f>
         <v>472105</v>
       </c>
@@ -18343,156 +18391,156 @@
         <f>chisquared!N171</f>
         <v>884</v>
       </c>
-      <c r="I130" s="45">
+      <c r="I130" s="43">
         <f>chisquared!O171</f>
         <v>1914</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="46"/>
+      <c r="A131" s="44"/>
       <c r="B131" s="7"/>
       <c r="C131" s="6"/>
-      <c r="D131" s="45"/>
+      <c r="D131" s="43"/>
       <c r="E131" s="26"/>
-      <c r="F131" s="46"/>
+      <c r="F131" s="44"/>
       <c r="G131" s="7"/>
       <c r="H131" s="6"/>
-      <c r="I131" s="45"/>
+      <c r="I131" s="43"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="46"/>
+      <c r="A132" s="44"/>
       <c r="B132" s="7"/>
-      <c r="C132" s="53" t="s">
+      <c r="C132" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="D132" s="45">
+      <c r="D132" s="43">
         <f>B128*C129</f>
         <v>9846143000</v>
       </c>
       <c r="E132" s="26"/>
-      <c r="F132" s="46"/>
+      <c r="F132" s="44"/>
       <c r="G132" s="7"/>
-      <c r="H132" s="53" t="s">
+      <c r="H132" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="I132" s="45">
+      <c r="I132" s="43">
         <f>G128*H129</f>
         <v>76302</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="46"/>
+      <c r="A133" s="44"/>
       <c r="B133" s="7"/>
-      <c r="C133" s="53" t="s">
+      <c r="C133" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="D133" s="45">
+      <c r="D133" s="43">
         <f>C128*B129</f>
         <v>7518575094</v>
       </c>
       <c r="E133" s="26"/>
-      <c r="F133" s="46"/>
+      <c r="F133" s="44"/>
       <c r="G133" s="7"/>
-      <c r="H133" s="53" t="s">
+      <c r="H133" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="I133" s="45">
+      <c r="I133" s="43">
         <f>H128*G129</f>
         <v>70664</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="46"/>
+      <c r="A134" s="44"/>
       <c r="B134" s="7"/>
-      <c r="C134" s="53" t="s">
+      <c r="C134" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="D134" s="45">
+      <c r="D134" s="43">
         <f>(B128*C128)+(B129*C129)</f>
         <v>34800745160</v>
       </c>
       <c r="E134" s="26"/>
-      <c r="F134" s="46"/>
+      <c r="F134" s="44"/>
       <c r="G134" s="7"/>
-      <c r="H134" s="53" t="s">
+      <c r="H134" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="I134" s="45">
+      <c r="I134" s="43">
         <f>(G128*H128)+(G129*H129)</f>
         <v>763554</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="46"/>
+      <c r="A135" s="44"/>
       <c r="B135" s="7" t="str">
         <f>IF(ABS(D136)&gt;0.8,$F$4,IF(ABS(D136)&gt;0.6,$E$4,IF(ABS(D136)&gt;0.4,$D$4,IF(ABS(D136)&gt;0.2,$C$4,$B$4))))</f>
         <v>Very Weak</v>
       </c>
-      <c r="C135" s="53" t="s">
+      <c r="C135" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="D135" s="45">
+      <c r="D135" s="43">
         <f>(B128*B129)+(C128*C129)</f>
         <v>20341995790</v>
       </c>
       <c r="E135" s="26"/>
-      <c r="F135" s="46"/>
+      <c r="F135" s="44"/>
       <c r="G135" s="7" t="str">
         <f>IF(ABS(I136)&gt;0.8,$F$4,IF(ABS(I136)&gt;0.6,$E$4,IF(ABS(I136)&gt;0.4,$D$4,IF(ABS(I136)&gt;0.2,$C$4,$B$4))))</f>
         <v>Very Weak</v>
       </c>
-      <c r="H135" s="53" t="s">
+      <c r="H135" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="I135" s="45">
+      <c r="I135" s="43">
         <f>(G128*G129)+(H128*H129)</f>
         <v>147939</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="47"/>
+      <c r="A136" s="45"/>
       <c r="B136" s="16"/>
-      <c r="C136" s="54" t="s">
+      <c r="C136" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="D136" s="48">
+      <c r="D136" s="46">
         <f>(D132-D133)/(SQRT((D132+D133+D134)*(D132+D133+D135)))</f>
         <v>5.2480925258378767E-2</v>
       </c>
       <c r="E136" s="26"/>
-      <c r="F136" s="47"/>
+      <c r="F136" s="45"/>
       <c r="G136" s="16"/>
-      <c r="H136" s="54" t="s">
+      <c r="H136" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="I136" s="48">
+      <c r="I136" s="46">
         <f>(I132-I133)/(SQRT((I132+I133+I134)*(I132+I133+I135)))</f>
         <v>1.0880259627292804E-2</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="49" t="str">
+    <row r="138" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="54" t="str">
         <f>chisquared!A184</f>
         <v>h1: there is an association between being male and being sentenced to transportation at the Old Bailey (between 1722-1802)</v>
       </c>
-      <c r="B138" s="50"/>
-      <c r="C138" s="50"/>
-      <c r="D138" s="51"/>
+      <c r="B138" s="55"/>
+      <c r="C138" s="55"/>
+      <c r="D138" s="56"/>
       <c r="E138" s="26"/>
-      <c r="F138" s="49" t="str">
+      <c r="F138" s="54" t="str">
         <f>chisquared!L184</f>
         <v>h1: there is an association between being male and being sentenced to transportation in Surrey/Sussex (between 1722-1802)</v>
       </c>
-      <c r="G138" s="50"/>
-      <c r="H138" s="50"/>
-      <c r="I138" s="51"/>
+      <c r="G138" s="55"/>
+      <c r="H138" s="55"/>
+      <c r="I138" s="56"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="55"/>
-      <c r="B139" s="56"/>
-      <c r="C139" s="56"/>
-      <c r="D139" s="57"/>
+      <c r="A139" s="51"/>
+      <c r="B139" s="52"/>
+      <c r="C139" s="52"/>
+      <c r="D139" s="53"/>
       <c r="E139" s="26"/>
       <c r="F139" s="5"/>
       <c r="G139" s="7"/>
@@ -18512,7 +18560,7 @@
         <f>chisquared!C186</f>
         <v>not transportation</v>
       </c>
-      <c r="D140" s="45"/>
+      <c r="D140" s="43"/>
       <c r="E140" s="26"/>
       <c r="F140" s="5" t="str">
         <f>chisquared!L186</f>
@@ -18526,7 +18574,7 @@
         <f>chisquared!N186</f>
         <v>not transportation</v>
       </c>
-      <c r="I140" s="45"/>
+      <c r="I140" s="43"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="str">
@@ -18541,7 +18589,7 @@
         <f>chisquared!C187</f>
         <v>227741</v>
       </c>
-      <c r="D141" s="45">
+      <c r="D141" s="43">
         <f>chisquared!D187</f>
         <v>370269</v>
       </c>
@@ -18558,7 +18606,7 @@
         <f>chisquared!N187</f>
         <v>1362</v>
       </c>
-      <c r="I141" s="45">
+      <c r="I141" s="43">
         <f>chisquared!O187</f>
         <v>1745</v>
       </c>
@@ -18576,7 +18624,7 @@
         <f>chisquared!C188</f>
         <v>58413</v>
       </c>
-      <c r="D142" s="45">
+      <c r="D142" s="43">
         <f>chisquared!D188</f>
         <v>101836</v>
       </c>
@@ -18593,7 +18641,7 @@
         <f>chisquared!N188</f>
         <v>129</v>
       </c>
-      <c r="I142" s="45">
+      <c r="I142" s="43">
         <f>chisquared!O188</f>
         <v>169</v>
       </c>
@@ -18608,7 +18656,7 @@
         <f>chisquared!C189</f>
         <v>286154</v>
       </c>
-      <c r="D143" s="45">
+      <c r="D143" s="43">
         <f>chisquared!D189</f>
         <v>472105</v>
       </c>
@@ -18622,156 +18670,156 @@
         <f>chisquared!N189</f>
         <v>1491</v>
       </c>
-      <c r="I143" s="45">
+      <c r="I143" s="43">
         <f>chisquared!O189</f>
         <v>1914</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" s="46"/>
+      <c r="A144" s="44"/>
       <c r="B144" s="7"/>
       <c r="C144" s="6"/>
-      <c r="D144" s="45"/>
+      <c r="D144" s="43"/>
       <c r="E144" s="26"/>
-      <c r="F144" s="46"/>
+      <c r="F144" s="44"/>
       <c r="G144" s="7"/>
       <c r="H144" s="6"/>
-      <c r="I144" s="45"/>
+      <c r="I144" s="43"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="46"/>
+      <c r="A145" s="44"/>
       <c r="B145" s="7"/>
-      <c r="C145" s="53" t="s">
+      <c r="C145" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="D145" s="45">
+      <c r="D145" s="43">
         <f>B141*C142</f>
         <v>8325488064</v>
       </c>
       <c r="E145" s="26"/>
-      <c r="F145" s="46"/>
+      <c r="F145" s="44"/>
       <c r="G145" s="7"/>
-      <c r="H145" s="53" t="s">
+      <c r="H145" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="I145" s="45">
+      <c r="I145" s="43">
         <f>G141*H142</f>
         <v>49407</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="46"/>
+      <c r="A146" s="44"/>
       <c r="B146" s="7"/>
-      <c r="C146" s="53" t="s">
+      <c r="C146" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="D146" s="45">
+      <c r="D146" s="43">
         <f>C141*B142</f>
         <v>9889197443</v>
       </c>
       <c r="E146" s="26"/>
-      <c r="F146" s="46"/>
+      <c r="F146" s="44"/>
       <c r="G146" s="7"/>
-      <c r="H146" s="53" t="s">
+      <c r="H146" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="I146" s="45">
+      <c r="I146" s="43">
         <f>H141*G142</f>
         <v>54480</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="46"/>
+      <c r="A147" s="44"/>
       <c r="B147" s="7"/>
-      <c r="C147" s="53" t="s">
+      <c r="C147" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="D147" s="45">
+      <c r="D147" s="43">
         <f>(B141*C141)+(B142*C142)</f>
         <v>34995936947</v>
       </c>
       <c r="E147" s="26"/>
-      <c r="F147" s="46"/>
+      <c r="F147" s="44"/>
       <c r="G147" s="7"/>
-      <c r="H147" s="53" t="s">
+      <c r="H147" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="I147" s="45">
+      <c r="I147" s="43">
         <f>(G141*H141)+(G142*H142)</f>
         <v>526806</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="46"/>
+      <c r="A148" s="44"/>
       <c r="B148" s="7" t="str">
         <f>IF(ABS(D149)&gt;0.8,$F$4,IF(ABS(D149)&gt;0.6,$E$4,IF(ABS(D149)&gt;0.4,$D$4,IF(ABS(D149)&gt;0.2,$C$4,$B$4))))</f>
         <v>Very Weak</v>
       </c>
-      <c r="C148" s="53" t="s">
+      <c r="C148" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="D148" s="45">
+      <c r="D148" s="43">
         <f>(B141*B142)+(C141*C142)</f>
         <v>19492028377</v>
       </c>
       <c r="E148" s="26"/>
-      <c r="F148" s="46"/>
+      <c r="F148" s="44"/>
       <c r="G148" s="7" t="str">
         <f>IF(ABS(I149)&gt;0.8,$F$4,IF(ABS(I149)&gt;0.6,$E$4,IF(ABS(I149)&gt;0.4,$D$4,IF(ABS(I149)&gt;0.2,$C$4,$B$4))))</f>
         <v>Very Weak</v>
       </c>
-      <c r="H148" s="53" t="s">
+      <c r="H148" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="I148" s="45">
+      <c r="I148" s="43">
         <f>(G141*G142)+(H141*H142)</f>
         <v>191018</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="47"/>
+      <c r="A149" s="45"/>
       <c r="B149" s="16"/>
-      <c r="C149" s="54" t="s">
+      <c r="C149" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="D149" s="48">
+      <c r="D149" s="46">
         <f>(D145-D146)/(SQRT((D145+D146+D147)*(D145+D146+D148)))</f>
         <v>-3.4909813494259347E-2</v>
       </c>
       <c r="E149" s="26"/>
-      <c r="F149" s="47"/>
+      <c r="F149" s="45"/>
       <c r="G149" s="16"/>
-      <c r="H149" s="54" t="s">
+      <c r="H149" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="I149" s="48">
+      <c r="I149" s="46">
         <f>(I145-I146)/(SQRT((I145+I146+I147)*(I145+I146+I148)))</f>
         <v>-1.176291040022002E-2</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="49" t="str">
+    <row r="151" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="54" t="str">
         <f>chisquared!A202</f>
         <v>h1: there is an association between being male and being sentenced to imprisonment at the Old Bailey (between 1722-1802)</v>
       </c>
-      <c r="B151" s="50"/>
-      <c r="C151" s="50"/>
-      <c r="D151" s="51"/>
+      <c r="B151" s="55"/>
+      <c r="C151" s="55"/>
+      <c r="D151" s="56"/>
       <c r="E151" s="26"/>
-      <c r="F151" s="49" t="str">
+      <c r="F151" s="54" t="str">
         <f>chisquared!L202</f>
         <v>h1: there is an association between being male and being sentenced to imprisonment in Surrey/Sussex (between 1722-1802)</v>
       </c>
-      <c r="G151" s="50"/>
-      <c r="H151" s="50"/>
-      <c r="I151" s="51"/>
+      <c r="G151" s="55"/>
+      <c r="H151" s="55"/>
+      <c r="I151" s="56"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="55"/>
-      <c r="B152" s="56"/>
-      <c r="C152" s="56"/>
-      <c r="D152" s="57"/>
+      <c r="A152" s="51"/>
+      <c r="B152" s="52"/>
+      <c r="C152" s="52"/>
+      <c r="D152" s="53"/>
       <c r="E152" s="26"/>
       <c r="F152" s="5"/>
       <c r="G152" s="7"/>
@@ -18791,7 +18839,7 @@
         <f>chisquared!C204</f>
         <v>not imprisonment</v>
       </c>
-      <c r="D153" s="45"/>
+      <c r="D153" s="43"/>
       <c r="E153" s="26"/>
       <c r="F153" s="5" t="str">
         <f>chisquared!L204</f>
@@ -18805,7 +18853,7 @@
         <f>chisquared!N204</f>
         <v>not imprisonment</v>
       </c>
-      <c r="I153" s="45"/>
+      <c r="I153" s="43"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="str">
@@ -18820,7 +18868,7 @@
         <f>chisquared!C205</f>
         <v>380790</v>
       </c>
-      <c r="D154" s="45">
+      <c r="D154" s="43">
         <f>chisquared!D205</f>
         <v>427105</v>
       </c>
@@ -18837,7 +18885,7 @@
         <f>chisquared!N205</f>
         <v>1721</v>
       </c>
-      <c r="I154" s="45">
+      <c r="I154" s="43">
         <f>chisquared!O205</f>
         <v>1745</v>
       </c>
@@ -18855,7 +18903,7 @@
         <f>chisquared!C206</f>
         <v>90436</v>
       </c>
-      <c r="D155" s="45">
+      <c r="D155" s="43">
         <f>chisquared!D206</f>
         <v>101836</v>
       </c>
@@ -18872,7 +18920,7 @@
         <f>chisquared!N206</f>
         <v>153</v>
       </c>
-      <c r="I155" s="45">
+      <c r="I155" s="43">
         <f>chisquared!O206</f>
         <v>169</v>
       </c>
@@ -18887,7 +18935,7 @@
         <f>chisquared!C207</f>
         <v>471226</v>
       </c>
-      <c r="D156" s="45">
+      <c r="D156" s="43">
         <f>chisquared!D207</f>
         <v>528941</v>
       </c>
@@ -18901,161 +18949,161 @@
         <f>chisquared!N207</f>
         <v>1874</v>
       </c>
-      <c r="I156" s="45">
+      <c r="I156" s="43">
         <f>chisquared!O207</f>
         <v>1914</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157" s="46"/>
+      <c r="A157" s="44"/>
       <c r="B157" s="7"/>
       <c r="C157" s="6"/>
-      <c r="D157" s="45"/>
+      <c r="D157" s="43"/>
       <c r="E157" s="26"/>
-      <c r="F157" s="46"/>
+      <c r="F157" s="44"/>
       <c r="G157" s="7"/>
       <c r="H157" s="6"/>
-      <c r="I157" s="45"/>
+      <c r="I157" s="43"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" s="46"/>
+      <c r="A158" s="44"/>
       <c r="B158" s="7"/>
-      <c r="C158" s="53" t="s">
+      <c r="C158" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="D158" s="45">
+      <c r="D158" s="43">
         <f>B154*C155</f>
         <v>4188543340</v>
       </c>
       <c r="E158" s="26"/>
-      <c r="F158" s="46"/>
+      <c r="F158" s="44"/>
       <c r="G158" s="7"/>
-      <c r="H158" s="53" t="s">
+      <c r="H158" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="I158" s="45">
+      <c r="I158" s="43">
         <f>G154*H155</f>
         <v>3672</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A159" s="46"/>
+      <c r="A159" s="44"/>
       <c r="B159" s="7"/>
-      <c r="C159" s="53" t="s">
+      <c r="C159" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="D159" s="45">
+      <c r="D159" s="43">
         <f>C154*B155</f>
         <v>4341006000</v>
       </c>
       <c r="E159" s="26"/>
-      <c r="F159" s="46"/>
+      <c r="F159" s="44"/>
       <c r="G159" s="7"/>
-      <c r="H159" s="53" t="s">
+      <c r="H159" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="I159" s="45">
+      <c r="I159" s="43">
         <f>H154*G155</f>
         <v>27536</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A160" s="46"/>
+      <c r="A160" s="44"/>
       <c r="B160" s="7"/>
-      <c r="C160" s="53" t="s">
+      <c r="C160" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="D160" s="45">
+      <c r="D160" s="43">
         <f>(B154*C154)+(B155*C155)</f>
         <v>18667259250</v>
       </c>
       <c r="E160" s="26"/>
-      <c r="F160" s="46"/>
+      <c r="F160" s="44"/>
       <c r="G160" s="7"/>
-      <c r="H160" s="53" t="s">
+      <c r="H160" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="I160" s="45">
+      <c r="I160" s="43">
         <f>(G154*H154)+(G155*H155)</f>
         <v>43752</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" s="46"/>
+      <c r="A161" s="44"/>
       <c r="B161" s="7" t="str">
         <f>IF(ABS(D162)&gt;0.8,$F$4,IF(ABS(D162)&gt;0.6,$E$4,IF(ABS(D162)&gt;0.4,$D$4,IF(ABS(D162)&gt;0.2,$C$4,$B$4))))</f>
         <v>Very Weak</v>
       </c>
-      <c r="C161" s="53" t="s">
+      <c r="C161" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="D161" s="45">
+      <c r="D161" s="43">
         <f>(B154*B155)+(C154*C155)</f>
         <v>34965115440</v>
       </c>
       <c r="E161" s="26"/>
-      <c r="F161" s="46"/>
+      <c r="F161" s="44"/>
       <c r="G161" s="7" t="str">
         <f>IF(ABS(I162)&gt;0.8,$F$4,IF(ABS(I162)&gt;0.6,$E$4,IF(ABS(I162)&gt;0.4,$D$4,IF(ABS(I162)&gt;0.2,$C$4,$B$4))))</f>
         <v>Very Weak</v>
       </c>
-      <c r="H161" s="53" t="s">
+      <c r="H161" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="I161" s="45">
+      <c r="I161" s="43">
         <f>(G154*G155)+(H154*H155)</f>
         <v>263697</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="47"/>
+      <c r="A162" s="45"/>
       <c r="B162" s="16"/>
-      <c r="C162" s="54" t="s">
+      <c r="C162" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="D162" s="48">
+      <c r="D162" s="46">
         <f>(D158-D159)/(SQRT((D158+D159+D160)*(D158+D159+D161)))</f>
         <v>-4.4328856271572438E-3</v>
       </c>
       <c r="E162" s="26"/>
-      <c r="F162" s="47"/>
+      <c r="F162" s="45"/>
       <c r="G162" s="16"/>
-      <c r="H162" s="54" t="s">
+      <c r="H162" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="I162" s="48">
+      <c r="I162" s="46">
         <f>(I158-I159)/(SQRT((I158+I159+I160)*(I158+I159+I161)))</f>
         <v>-0.16050456297885812</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A164" s="49" t="str">
+    <row r="164" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="54" t="str">
         <f>chisquared!A220</f>
         <v>h1: there is an association between being female and being sentenced to death for infanticide at the Old Bailey (between 1663-1802)</v>
       </c>
-      <c r="B164" s="50"/>
-      <c r="C164" s="50"/>
-      <c r="D164" s="51"/>
+      <c r="B164" s="55"/>
+      <c r="C164" s="55"/>
+      <c r="D164" s="56"/>
       <c r="E164" s="26"/>
-      <c r="F164" s="49" t="str">
+      <c r="F164" s="63" t="str">
         <f>chisquared!L220</f>
         <v>h1: there is an association between being female and being sentenced to death for infanticide in Surrey/Sussex (between 1663-1802)</v>
       </c>
-      <c r="G164" s="50"/>
-      <c r="H164" s="50"/>
-      <c r="I164" s="51"/>
+      <c r="G164" s="64"/>
+      <c r="H164" s="64"/>
+      <c r="I164" s="65"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A165" s="55"/>
-      <c r="B165" s="56"/>
-      <c r="C165" s="56"/>
-      <c r="D165" s="57"/>
+      <c r="A165" s="51"/>
+      <c r="B165" s="52"/>
+      <c r="C165" s="52"/>
+      <c r="D165" s="53"/>
       <c r="E165" s="26"/>
-      <c r="F165" s="5"/>
-      <c r="G165" s="7"/>
-      <c r="H165" s="7"/>
-      <c r="I165" s="8"/>
+      <c r="F165" s="66"/>
+      <c r="G165" s="67"/>
+      <c r="H165" s="67"/>
+      <c r="I165" s="68"/>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="str">
@@ -19070,21 +19118,21 @@
         <f>chisquared!C222</f>
         <v>not infanticide</v>
       </c>
-      <c r="D166" s="45"/>
+      <c r="D166" s="43"/>
       <c r="E166" s="26"/>
-      <c r="F166" s="5" t="str">
+      <c r="F166" s="66" t="str">
         <f>chisquared!L222</f>
         <v>OBSERVED</v>
       </c>
-      <c r="G166" s="21" t="str">
+      <c r="G166" s="69" t="str">
         <f>chisquared!M222</f>
         <v>infanticide</v>
       </c>
-      <c r="H166" s="21" t="str">
+      <c r="H166" s="69" t="str">
         <f>chisquared!N222</f>
         <v>not infanticide</v>
       </c>
-      <c r="I166" s="45"/>
+      <c r="I166" s="70"/>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="str">
@@ -19099,24 +19147,24 @@
         <f>chisquared!C223</f>
         <v>2472</v>
       </c>
-      <c r="D167" s="45">
+      <c r="D167" s="43">
         <f>chisquared!D223</f>
         <v>2534</v>
       </c>
       <c r="E167" s="26"/>
-      <c r="F167" s="5" t="str">
+      <c r="F167" s="66" t="str">
         <f>chisquared!L223</f>
         <v>female</v>
       </c>
-      <c r="G167" s="24">
+      <c r="G167" s="78">
         <f>chisquared!M223</f>
         <v>4</v>
       </c>
-      <c r="H167" s="24">
+      <c r="H167" s="78">
         <f>chisquared!N223</f>
         <v>33</v>
       </c>
-      <c r="I167" s="45">
+      <c r="I167" s="70">
         <f>chisquared!O223</f>
         <v>37</v>
       </c>
@@ -19134,24 +19182,24 @@
         <f>chisquared!C224</f>
         <v>10498</v>
       </c>
-      <c r="D168" s="45">
+      <c r="D168" s="43">
         <f>chisquared!D224</f>
         <v>10498</v>
       </c>
       <c r="E168" s="26"/>
-      <c r="F168" s="5" t="str">
+      <c r="F168" s="66" t="str">
         <f>chisquared!L224</f>
         <v>not female</v>
       </c>
-      <c r="G168" s="25">
+      <c r="G168" s="79">
         <f>chisquared!M224</f>
         <v>0</v>
       </c>
-      <c r="H168" s="25">
+      <c r="H168" s="79">
         <f>chisquared!N224</f>
         <v>481</v>
       </c>
-      <c r="I168" s="45">
+      <c r="I168" s="70">
         <f>chisquared!O224</f>
         <v>481</v>
       </c>
@@ -19166,175 +19214,175 @@
         <f>chisquared!C225</f>
         <v>12970</v>
       </c>
-      <c r="D169" s="45">
+      <c r="D169" s="43">
         <f>chisquared!D225</f>
         <v>13032</v>
       </c>
       <c r="E169" s="26"/>
-      <c r="F169" s="5"/>
-      <c r="G169" s="6">
+      <c r="F169" s="66"/>
+      <c r="G169" s="71">
         <f>chisquared!M225</f>
         <v>4</v>
       </c>
-      <c r="H169" s="6">
+      <c r="H169" s="71">
         <f>chisquared!N225</f>
         <v>514</v>
       </c>
-      <c r="I169" s="45">
+      <c r="I169" s="70">
         <f>chisquared!O225</f>
         <v>518</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A170" s="46"/>
+      <c r="A170" s="44"/>
       <c r="B170" s="7"/>
       <c r="C170" s="6"/>
-      <c r="D170" s="45"/>
+      <c r="D170" s="43"/>
       <c r="E170" s="26"/>
-      <c r="F170" s="46"/>
-      <c r="G170" s="7"/>
-      <c r="H170" s="6"/>
-      <c r="I170" s="45"/>
+      <c r="F170" s="72"/>
+      <c r="G170" s="67"/>
+      <c r="H170" s="71"/>
+      <c r="I170" s="70"/>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A171" s="46"/>
+      <c r="A171" s="44"/>
       <c r="B171" s="7"/>
-      <c r="C171" s="53" t="s">
+      <c r="C171" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="D171" s="45">
+      <c r="D171" s="43">
         <f>B167*C168</f>
         <v>650876</v>
       </c>
       <c r="E171" s="26"/>
-      <c r="F171" s="46"/>
-      <c r="G171" s="7"/>
-      <c r="H171" s="53" t="s">
+      <c r="F171" s="72"/>
+      <c r="G171" s="67"/>
+      <c r="H171" s="73" t="s">
         <v>226</v>
       </c>
-      <c r="I171" s="45">
+      <c r="I171" s="70">
         <f>G167*H168</f>
         <v>1924</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A172" s="46"/>
+      <c r="A172" s="44"/>
       <c r="B172" s="7"/>
-      <c r="C172" s="53" t="s">
+      <c r="C172" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="D172" s="45">
+      <c r="D172" s="43">
         <f>C167*B168</f>
         <v>0</v>
       </c>
       <c r="E172" s="26"/>
-      <c r="F172" s="46"/>
-      <c r="G172" s="7"/>
-      <c r="H172" s="53" t="s">
+      <c r="F172" s="72"/>
+      <c r="G172" s="67"/>
+      <c r="H172" s="73" t="s">
         <v>227</v>
       </c>
-      <c r="I172" s="45">
+      <c r="I172" s="70">
         <f>H167*G168</f>
         <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A173" s="46"/>
+      <c r="A173" s="44"/>
       <c r="B173" s="7"/>
-      <c r="C173" s="53" t="s">
+      <c r="C173" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="D173" s="45">
+      <c r="D173" s="43">
         <f>(B167*C167)+(B168*C168)</f>
         <v>153264</v>
       </c>
       <c r="E173" s="26"/>
-      <c r="F173" s="46"/>
-      <c r="G173" s="7"/>
-      <c r="H173" s="53" t="s">
+      <c r="F173" s="72"/>
+      <c r="G173" s="67"/>
+      <c r="H173" s="73" t="s">
         <v>228</v>
       </c>
-      <c r="I173" s="45">
+      <c r="I173" s="70">
         <f>(G167*H167)+(G168*H168)</f>
         <v>132</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A174" s="46"/>
+      <c r="A174" s="44"/>
       <c r="B174" s="7" t="str">
         <f>IF(ABS(D175)&gt;0.8,$F$4,IF(ABS(D175)&gt;0.6,$E$4,IF(ABS(D175)&gt;0.4,$D$4,IF(ABS(D175)&gt;0.2,$C$4,$B$4))))</f>
         <v>Very Weak</v>
       </c>
-      <c r="C174" s="53" t="s">
+      <c r="C174" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="D174" s="45">
+      <c r="D174" s="43">
         <f>(B167*B168)+(C167*C168)</f>
         <v>25951056</v>
       </c>
       <c r="E174" s="26"/>
-      <c r="F174" s="46"/>
-      <c r="G174" s="7" t="str">
+      <c r="F174" s="72"/>
+      <c r="G174" s="67" t="str">
         <f>IF(ABS(I175)&gt;0.8,$F$4,IF(ABS(I175)&gt;0.6,$E$4,IF(ABS(I175)&gt;0.4,$D$4,IF(ABS(I175)&gt;0.2,$C$4,$B$4))))</f>
         <v>Weak</v>
       </c>
-      <c r="H174" s="53" t="s">
+      <c r="H174" s="73" t="s">
         <v>229</v>
       </c>
-      <c r="I174" s="45">
+      <c r="I174" s="70">
         <f>(G167*G168)+(H167*H168)</f>
         <v>15873</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="47"/>
+      <c r="A175" s="45"/>
       <c r="B175" s="16"/>
-      <c r="C175" s="54" t="s">
+      <c r="C175" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="D175" s="48">
+      <c r="D175" s="46">
         <f>(D171-D172)/(SQRT((D171+D172+D173)*(D171+D172+D174)))</f>
         <v>0.14072648352583414</v>
       </c>
       <c r="E175" s="26"/>
-      <c r="F175" s="47"/>
-      <c r="G175" s="16"/>
-      <c r="H175" s="54" t="s">
+      <c r="F175" s="74"/>
+      <c r="G175" s="75"/>
+      <c r="H175" s="76" t="s">
         <v>230</v>
       </c>
-      <c r="I175" s="48">
+      <c r="I175" s="77">
         <f>(I171-I172)/(SQRT((I171+I172+I173)*(I171+I172+I174)))</f>
         <v>0.31806809832974015</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A177" s="49" t="str">
+    <row r="177" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="54" t="str">
         <f>chisquared!A238</f>
         <v>h1: there is an association between being charged with Homicide and found guilty at the Old Bailey (1660-1740 &amp; 1740-1802)</v>
       </c>
-      <c r="B177" s="50"/>
-      <c r="C177" s="50"/>
-      <c r="D177" s="51"/>
+      <c r="B177" s="55"/>
+      <c r="C177" s="55"/>
+      <c r="D177" s="56"/>
       <c r="E177" s="26"/>
-      <c r="F177" s="49" t="str">
+      <c r="F177" s="63" t="str">
         <f>chisquared!L238</f>
         <v>h1: there is an association between being charged with Homicide and found guilty in Surrey/Sussex (1660-1740 &amp; 1740-1802)</v>
       </c>
-      <c r="G177" s="50"/>
-      <c r="H177" s="50"/>
-      <c r="I177" s="51"/>
+      <c r="G177" s="64"/>
+      <c r="H177" s="64"/>
+      <c r="I177" s="65"/>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A178" s="55"/>
-      <c r="B178" s="56"/>
-      <c r="C178" s="56"/>
-      <c r="D178" s="57"/>
+      <c r="A178" s="51"/>
+      <c r="B178" s="52"/>
+      <c r="C178" s="52"/>
+      <c r="D178" s="53"/>
       <c r="E178" s="26"/>
-      <c r="F178" s="5"/>
-      <c r="G178" s="7"/>
-      <c r="H178" s="7"/>
-      <c r="I178" s="8"/>
+      <c r="F178" s="66"/>
+      <c r="G178" s="67"/>
+      <c r="H178" s="67"/>
+      <c r="I178" s="68"/>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="str">
@@ -19349,21 +19397,21 @@
         <f>chisquared!C240</f>
         <v>Not Guilty</v>
       </c>
-      <c r="D179" s="45"/>
+      <c r="D179" s="43"/>
       <c r="E179" s="26"/>
-      <c r="F179" s="5" t="str">
+      <c r="F179" s="66" t="str">
         <f>chisquared!L240</f>
         <v>OBSERVED</v>
       </c>
-      <c r="G179" s="21" t="str">
+      <c r="G179" s="69" t="str">
         <f>chisquared!M240</f>
         <v>Guilty</v>
       </c>
-      <c r="H179" s="21" t="str">
+      <c r="H179" s="69" t="str">
         <f>chisquared!N240</f>
         <v>Not Guilty</v>
       </c>
-      <c r="I179" s="45"/>
+      <c r="I179" s="70"/>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="str">
@@ -19378,24 +19426,24 @@
         <f>chisquared!C241</f>
         <v>608</v>
       </c>
-      <c r="D180" s="45">
+      <c r="D180" s="43">
         <f>chisquared!D241</f>
         <v>3793</v>
       </c>
       <c r="E180" s="26"/>
-      <c r="F180" s="5" t="str">
+      <c r="F180" s="66" t="str">
         <f>chisquared!L241</f>
         <v>1660-1740</v>
       </c>
-      <c r="G180" s="24">
+      <c r="G180" s="78">
         <f>chisquared!M241</f>
         <v>27.373000000000001</v>
       </c>
-      <c r="H180" s="24">
+      <c r="H180" s="78">
         <f>chisquared!N241</f>
         <v>91.334999999999994</v>
       </c>
-      <c r="I180" s="45">
+      <c r="I180" s="70">
         <f>chisquared!O241</f>
         <v>118.708</v>
       </c>
@@ -19413,24 +19461,24 @@
         <f>chisquared!C242</f>
         <v>4673</v>
       </c>
-      <c r="D181" s="45">
+      <c r="D181" s="43">
         <f>chisquared!D242</f>
         <v>16249</v>
       </c>
       <c r="E181" s="26"/>
-      <c r="F181" s="5" t="str">
+      <c r="F181" s="66" t="str">
         <f>chisquared!L242</f>
         <v>1740-1802</v>
       </c>
-      <c r="G181" s="25">
+      <c r="G181" s="79">
         <f>chisquared!M242</f>
         <v>34.695</v>
       </c>
-      <c r="H181" s="25">
+      <c r="H181" s="79">
         <f>chisquared!N242</f>
         <v>29.979999999999997</v>
       </c>
-      <c r="I181" s="45">
+      <c r="I181" s="70">
         <f>chisquared!O242</f>
         <v>64.674999999999997</v>
       </c>
@@ -19445,149 +19493,185 @@
         <f>chisquared!C243</f>
         <v>5281</v>
       </c>
-      <c r="D182" s="45">
+      <c r="D182" s="43">
         <f>chisquared!D243</f>
         <v>20042</v>
       </c>
       <c r="E182" s="26"/>
-      <c r="F182" s="5"/>
-      <c r="G182" s="6">
+      <c r="F182" s="66"/>
+      <c r="G182" s="71">
         <f>chisquared!M243</f>
         <v>62.067999999999998</v>
       </c>
-      <c r="H182" s="6">
+      <c r="H182" s="71">
         <f>chisquared!N243</f>
         <v>121.315</v>
       </c>
-      <c r="I182" s="45">
+      <c r="I182" s="70">
         <f>chisquared!O243</f>
         <v>183.38299999999998</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A183" s="46"/>
+      <c r="A183" s="44"/>
       <c r="B183" s="7"/>
       <c r="C183" s="6"/>
-      <c r="D183" s="45"/>
+      <c r="D183" s="43"/>
       <c r="E183" s="26"/>
-      <c r="F183" s="46"/>
-      <c r="G183" s="7"/>
-      <c r="H183" s="6"/>
-      <c r="I183" s="45"/>
+      <c r="F183" s="72"/>
+      <c r="G183" s="67"/>
+      <c r="H183" s="71"/>
+      <c r="I183" s="70"/>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A184" s="46"/>
+      <c r="A184" s="44"/>
       <c r="B184" s="7"/>
-      <c r="C184" s="53" t="s">
+      <c r="C184" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="D184" s="45">
+      <c r="D184" s="43">
         <f>B180*C181</f>
         <v>14883505</v>
       </c>
       <c r="E184" s="26"/>
-      <c r="F184" s="46"/>
-      <c r="G184" s="7"/>
-      <c r="H184" s="53" t="s">
+      <c r="F184" s="72"/>
+      <c r="G184" s="67"/>
+      <c r="H184" s="73" t="s">
         <v>226</v>
       </c>
-      <c r="I184" s="45">
+      <c r="I184" s="70">
         <f>G180*H181</f>
         <v>820.64253999999994</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A185" s="46"/>
+      <c r="A185" s="44"/>
       <c r="B185" s="7"/>
-      <c r="C185" s="53" t="s">
+      <c r="C185" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="D185" s="45">
+      <c r="D185" s="43">
         <f>C180*B181</f>
         <v>7038208</v>
       </c>
       <c r="E185" s="26"/>
-      <c r="F185" s="46"/>
-      <c r="G185" s="7"/>
-      <c r="H185" s="53" t="s">
+      <c r="F185" s="72"/>
+      <c r="G185" s="67"/>
+      <c r="H185" s="73" t="s">
         <v>227</v>
       </c>
-      <c r="I185" s="45">
+      <c r="I185" s="70">
         <f>H180*G181</f>
         <v>3168.8678249999998</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A186" s="46"/>
+      <c r="A186" s="44"/>
       <c r="B186" s="7"/>
-      <c r="C186" s="53" t="s">
+      <c r="C186" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="D186" s="45">
+      <c r="D186" s="43">
         <f>(B180*C180)+(B181*C181)</f>
         <v>56031128</v>
       </c>
       <c r="E186" s="26"/>
-      <c r="F186" s="46"/>
-      <c r="G186" s="7"/>
-      <c r="H186" s="53" t="s">
+      <c r="F186" s="72"/>
+      <c r="G186" s="67"/>
+      <c r="H186" s="73" t="s">
         <v>228</v>
       </c>
-      <c r="I186" s="45">
+      <c r="I186" s="70">
         <f>(G180*H180)+(G181*H181)</f>
         <v>3540.2690549999998</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A187" s="46"/>
+      <c r="A187" s="44"/>
       <c r="B187" s="7" t="str">
         <f>IF(ABS(D188)&gt;0.8,$F$4,IF(ABS(D188)&gt;0.6,$E$4,IF(ABS(D188)&gt;0.4,$D$4,IF(ABS(D188)&gt;0.2,$C$4,$B$4))))</f>
         <v>Very Weak</v>
       </c>
-      <c r="C187" s="53" t="s">
+      <c r="C187" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="D187" s="45">
+      <c r="D187" s="43">
         <f>(B180*B181)+(C180*C181)</f>
         <v>39710744</v>
       </c>
       <c r="E187" s="26"/>
-      <c r="F187" s="46"/>
-      <c r="G187" s="7" t="str">
+      <c r="F187" s="72"/>
+      <c r="G187" s="67" t="str">
         <f>IF(ABS(I188)&gt;0.8,$F$4,IF(ABS(I188)&gt;0.6,$E$4,IF(ABS(I188)&gt;0.4,$D$4,IF(ABS(I188)&gt;0.2,$C$4,$B$4))))</f>
         <v>Weak</v>
       </c>
-      <c r="H187" s="53" t="s">
+      <c r="H187" s="73" t="s">
         <v>229</v>
       </c>
-      <c r="I187" s="45">
+      <c r="I187" s="70">
         <f>(G180*G181)+(H180*H181)</f>
         <v>3687.9295349999998</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="47"/>
+      <c r="A188" s="45"/>
       <c r="B188" s="16"/>
-      <c r="C188" s="54" t="s">
+      <c r="C188" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="D188" s="48">
+      <c r="D188" s="46">
         <f>(D184-D185)/(SQRT((D184+D185+D186)*(D184+D185+D187)))</f>
         <v>0.11318494777651014</v>
       </c>
       <c r="E188" s="26"/>
-      <c r="F188" s="47"/>
-      <c r="G188" s="16"/>
-      <c r="H188" s="54" t="s">
+      <c r="F188" s="74"/>
+      <c r="G188" s="75"/>
+      <c r="H188" s="76" t="s">
         <v>230</v>
       </c>
-      <c r="I188" s="48">
+      <c r="I188" s="77">
         <f>(I184-I185)/(SQRT((I184+I185+I186)*(I184+I185+I187)))</f>
         <v>-0.30884489019832889</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="U6:X6"/>
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="Z7:AC7"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="F86:I86"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="F73:I73"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="F99:I99"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A112:D112"/>
+    <mergeCell ref="F112:I112"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="F125:I125"/>
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="A138:D138"/>
+    <mergeCell ref="F138:I138"/>
     <mergeCell ref="A165:D165"/>
     <mergeCell ref="A177:D177"/>
     <mergeCell ref="F177:I177"/>
@@ -19598,42 +19682,6 @@
     <mergeCell ref="A152:D152"/>
     <mergeCell ref="A164:D164"/>
     <mergeCell ref="F164:I164"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="F125:I125"/>
-    <mergeCell ref="A126:D126"/>
-    <mergeCell ref="A138:D138"/>
-    <mergeCell ref="F138:I138"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="F99:I99"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A112:D112"/>
-    <mergeCell ref="F112:I112"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="F73:I73"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="F86:I86"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="U6:X6"/>
-    <mergeCell ref="Z6:AC6"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="Z7:AC7"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="P6:S6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -19641,7 +19689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD84"/>
   <sheetViews>
     <sheetView topLeftCell="A53" workbookViewId="0">
@@ -23214,7 +23262,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -24894,7 +24942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/new_data_worksheet_2.xlsx
+++ b/new_data_worksheet_2.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ma_public\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54E4360-47BF-4301-ADE6-E5E715B0AABD}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16440"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chisquared" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
     <sheet name="oldBailey_descStats" sheetId="5" r:id="rId5"/>
     <sheet name="Notes" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -735,7 +741,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -902,7 +908,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -974,55 +980,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1043,6 +1000,94 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1349,18 +1394,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="A238" sqref="A238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6177,16 +6222,16 @@
       <c r="T83" s="7"/>
       <c r="U83" s="8"/>
       <c r="W83" s="5"/>
-      <c r="X83" s="49" t="s">
+      <c r="X83" s="63" t="s">
         <v>218</v>
       </c>
-      <c r="Y83" s="49"/>
+      <c r="Y83" s="63"/>
       <c r="Z83" s="6"/>
       <c r="AA83" s="7"/>
-      <c r="AB83" s="49" t="s">
+      <c r="AB83" s="63" t="s">
         <v>216</v>
       </c>
-      <c r="AC83" s="49"/>
+      <c r="AC83" s="63"/>
       <c r="AD83" s="7"/>
       <c r="AE83" s="7"/>
       <c r="AF83" s="8"/>
@@ -13355,11 +13400,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AI65"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView topLeftCell="C43" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13535,86 +13580,86 @@
       <c r="K5" s="32"/>
     </row>
     <row r="6" spans="1:35" s="37" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G6" s="50" t="s">
+      <c r="G6" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="M6" s="50" t="s">
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="M6" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="S6" s="50" t="s">
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="S6" s="64" t="s">
         <v>179</v>
       </c>
-      <c r="T6" s="50"/>
-      <c r="U6" s="50"/>
-      <c r="V6" s="50"/>
-      <c r="W6" s="50"/>
-      <c r="Y6" s="50" t="s">
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="64"/>
+      <c r="Y6" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="Z6" s="50"/>
-      <c r="AA6" s="50"/>
-      <c r="AB6" s="50"/>
-      <c r="AC6" s="50"/>
-      <c r="AE6" s="50" t="s">
+      <c r="Z6" s="64"/>
+      <c r="AA6" s="64"/>
+      <c r="AB6" s="64"/>
+      <c r="AC6" s="64"/>
+      <c r="AE6" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="AF6" s="50"/>
-      <c r="AG6" s="50"/>
-      <c r="AH6" s="50"/>
-      <c r="AI6" s="50"/>
+      <c r="AF6" s="64"/>
+      <c r="AG6" s="64"/>
+      <c r="AH6" s="64"/>
+      <c r="AI6" s="64"/>
     </row>
     <row r="7" spans="1:35" s="38" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
       <c r="F7" s="39"/>
-      <c r="G7" s="50" t="s">
+      <c r="G7" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="M7" s="50" t="s">
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="M7" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
-      <c r="S7" s="50" t="s">
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="64"/>
+      <c r="S7" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="T7" s="50"/>
-      <c r="U7" s="50"/>
-      <c r="V7" s="50"/>
-      <c r="W7" s="50"/>
-      <c r="Y7" s="50" t="s">
+      <c r="T7" s="64"/>
+      <c r="U7" s="64"/>
+      <c r="V7" s="64"/>
+      <c r="W7" s="64"/>
+      <c r="Y7" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="Z7" s="50"/>
-      <c r="AA7" s="50"/>
-      <c r="AB7" s="50"/>
-      <c r="AC7" s="50"/>
-      <c r="AE7" s="50" t="s">
+      <c r="Z7" s="64"/>
+      <c r="AA7" s="64"/>
+      <c r="AB7" s="64"/>
+      <c r="AC7" s="64"/>
+      <c r="AE7" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="AF7" s="50"/>
-      <c r="AG7" s="50"/>
-      <c r="AH7" s="50"/>
-      <c r="AI7" s="50"/>
+      <c r="AF7" s="64"/>
+      <c r="AG7" s="64"/>
+      <c r="AH7" s="64"/>
+      <c r="AI7" s="64"/>
     </row>
     <row r="8" spans="1:35" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
@@ -13841,21 +13886,21 @@
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="1:35" s="38" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="64" t="s">
         <v>173</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
       <c r="F12" s="39"/>
-      <c r="G12" s="50" t="s">
+      <c r="G12" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
@@ -13954,20 +13999,20 @@
       <c r="K16" s="26"/>
     </row>
     <row r="17" spans="1:11" s="38" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="G17" s="50" t="s">
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="G17" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
@@ -14066,20 +14111,20 @@
       <c r="K21" s="26"/>
     </row>
     <row r="22" spans="1:11" s="38" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="G22" s="50" t="s">
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="G22" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="35" t="s">
@@ -14178,20 +14223,20 @@
       <c r="K26" s="26"/>
     </row>
     <row r="27" spans="1:11" s="38" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="G27" s="50" t="s">
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="G27" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="35" t="s">
@@ -14281,20 +14326,20 @@
       <c r="K31" s="26"/>
     </row>
     <row r="32" spans="1:11" s="38" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="50" t="s">
+      <c r="A32" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="G32" s="50" t="s">
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="G32" s="64" t="s">
         <v>172</v>
       </c>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="64"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="35" t="s">
@@ -14379,136 +14424,137 @@
       </c>
       <c r="K35" s="26"/>
     </row>
+    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="50" t="str">
+      <c r="A37" s="75" t="str">
         <f>chisquared!A148</f>
         <v>h1: there is an association between male homicide guilty verdicts pre 1740 and post 1740 at the Old Bailey</v>
       </c>
-      <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="58" t="str">
+      <c r="B37" s="76"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="78" t="str">
         <f>chisquared!L148</f>
         <v>h1: there is an association between male homicide guilty verdicts pre 1740 and post 1740 in Surrey/Sussex</v>
       </c>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="58"/>
+      <c r="H37" s="78"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="78"/>
+      <c r="K37" s="79"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="80" t="s">
         <v>175</v>
       </c>
-      <c r="B38" s="36">
+      <c r="B38" s="81">
         <f>chisquared!E162</f>
         <v>168.28461168176366</v>
       </c>
-      <c r="C38" s="34" t="s">
+      <c r="C38" s="82" t="s">
         <v>176</v>
       </c>
-      <c r="D38" s="36">
+      <c r="D38" s="81">
         <f>SQRT(B38/B39)</f>
         <v>8.3341904383829712E-2</v>
       </c>
-      <c r="E38" s="26" t="s">
+      <c r="E38" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F38" s="26"/>
-      <c r="G38" s="59" t="s">
+      <c r="F38" s="7"/>
+      <c r="G38" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="H38" s="60">
+      <c r="H38" s="84">
         <f>chisquared!P162</f>
         <v>19.896196845047292</v>
       </c>
-      <c r="I38" s="61" t="s">
+      <c r="I38" s="85" t="s">
         <v>141</v>
       </c>
-      <c r="J38" s="60">
+      <c r="J38" s="84">
         <f>SQRT(H38/H39)</f>
         <v>0.26897919382224139</v>
       </c>
-      <c r="K38" s="62" t="s">
+      <c r="K38" s="51" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="35" t="s">
+      <c r="A39" s="80" t="s">
         <v>174</v>
       </c>
-      <c r="B39" s="36">
+      <c r="B39" s="81">
         <f>chisquared!D153</f>
         <v>24228</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="C39" s="82" t="s">
         <v>177</v>
       </c>
-      <c r="D39" s="36">
+      <c r="D39" s="81">
         <f>D38*D38</f>
         <v>6.9458730263234139E-3</v>
       </c>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="59" t="s">
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="H39" s="60">
+      <c r="H39" s="84">
         <f>chisquared!O153</f>
         <v>275</v>
       </c>
-      <c r="I39" s="61" t="s">
+      <c r="I39" s="85" t="s">
         <v>146</v>
       </c>
-      <c r="J39" s="60">
+      <c r="J39" s="84">
         <f>J38*J38</f>
         <v>7.2349806709262901E-2</v>
       </c>
-      <c r="K39" s="62"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="26"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="35" t="s">
+      <c r="K39" s="51"/>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="45"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="D40" s="36">
+      <c r="D40" s="87">
         <f>SQRT(D39/(1+D39))</f>
         <v>8.3053962382219723E-2</v>
       </c>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="59" t="s">
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="88" t="s">
         <v>145</v>
       </c>
-      <c r="J40" s="60">
+      <c r="J40" s="89">
         <f>SQRT(J39/(1+J39))</f>
         <v>0.25974694520752228</v>
       </c>
-      <c r="K40" s="62"/>
+      <c r="K40" s="90"/>
     </row>
     <row r="42" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="50" t="str">
+      <c r="A42" s="64" t="str">
         <f>chisquared!A166</f>
         <v>h1: there is an association between being male and being sentenced to death at the Old Bailey (between 1722-1802)</v>
       </c>
-      <c r="B42" s="50"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="64"/>
       <c r="F42" s="38"/>
-      <c r="G42" s="50" t="str">
+      <c r="G42" s="64" t="str">
         <f>chisquared!L166</f>
         <v>h1: there is an association between being male and being sentenced to death in Surrey/Sussex (between 1722-1802)</v>
       </c>
-      <c r="H42" s="50"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="50"/>
-      <c r="K42" s="50"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="64"/>
+      <c r="K42" s="64"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="35" t="s">
@@ -14604,23 +14650,23 @@
       <c r="K45" s="26"/>
     </row>
     <row r="47" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="50" t="str">
+      <c r="A47" s="64" t="str">
         <f>chisquared!A184</f>
         <v>h1: there is an association between being male and being sentenced to transportation at the Old Bailey (between 1722-1802)</v>
       </c>
-      <c r="B47" s="50"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="50"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="64"/>
       <c r="F47" s="38"/>
-      <c r="G47" s="50" t="str">
+      <c r="G47" s="64" t="str">
         <f>chisquared!L184</f>
         <v>h1: there is an association between being male and being sentenced to transportation in Surrey/Sussex (between 1722-1802)</v>
       </c>
-      <c r="H47" s="50"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="50"/>
-      <c r="K47" s="50"/>
+      <c r="H47" s="64"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="64"/>
+      <c r="K47" s="64"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="35" t="s">
@@ -14715,356 +14761,356 @@
       </c>
       <c r="K50" s="26"/>
     </row>
+    <row r="51" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="50" t="str">
+      <c r="A52" s="75" t="str">
         <f>chisquared!A202</f>
         <v>h1: there is an association between being male and being sentenced to imprisonment at the Old Bailey (between 1722-1802)</v>
       </c>
-      <c r="B52" s="50"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="50"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="50" t="str">
+      <c r="B52" s="76"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="76"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="77"/>
+      <c r="G52" s="76" t="str">
         <f>chisquared!L202</f>
         <v>h1: there is an association between being male and being sentenced to imprisonment in Surrey/Sussex (between 1722-1802)</v>
       </c>
-      <c r="H52" s="50"/>
-      <c r="I52" s="50"/>
-      <c r="J52" s="50"/>
-      <c r="K52" s="50"/>
+      <c r="H52" s="76"/>
+      <c r="I52" s="76"/>
+      <c r="J52" s="76"/>
+      <c r="K52" s="91"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="35" t="s">
+      <c r="A53" s="80" t="s">
         <v>175</v>
       </c>
-      <c r="B53" s="36">
+      <c r="B53" s="81">
         <f>chisquared!E216</f>
         <v>10.393941888224864</v>
       </c>
-      <c r="C53" s="34" t="s">
+      <c r="C53" s="82" t="s">
         <v>176</v>
       </c>
-      <c r="D53" s="36">
+      <c r="D53" s="81">
         <f>SQRT(B53/B54)</f>
         <v>4.4328856271572421E-3</v>
       </c>
-      <c r="E53" s="26" t="s">
+      <c r="E53" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F53" s="26"/>
-      <c r="G53" s="35" t="s">
+      <c r="F53" s="7"/>
+      <c r="G53" s="92" t="s">
         <v>136</v>
       </c>
-      <c r="H53" s="36">
+      <c r="H53" s="81">
         <f>chisquared!P216</f>
         <v>49.307922006683519</v>
       </c>
-      <c r="I53" s="34" t="s">
+      <c r="I53" s="82" t="s">
         <v>141</v>
       </c>
-      <c r="J53" s="36">
+      <c r="J53" s="81">
         <f>SQRT(H53/H54)</f>
         <v>0.16050456297885812</v>
       </c>
-      <c r="K53" s="26" t="s">
+      <c r="K53" s="8" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="35" t="s">
+      <c r="A54" s="80" t="s">
         <v>174</v>
       </c>
-      <c r="B54" s="36">
+      <c r="B54" s="81">
         <f>chisquared!D207</f>
         <v>528941</v>
       </c>
-      <c r="C54" s="34" t="s">
+      <c r="C54" s="82" t="s">
         <v>177</v>
       </c>
-      <c r="D54" s="36">
+      <c r="D54" s="81">
         <f>D53*D53</f>
         <v>1.9650474983457256E-5</v>
       </c>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="35" t="s">
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="92" t="s">
         <v>139</v>
       </c>
-      <c r="H54" s="36">
+      <c r="H54" s="81">
         <f>chisquared!O207</f>
         <v>1914</v>
       </c>
-      <c r="I54" s="34" t="s">
+      <c r="I54" s="82" t="s">
         <v>146</v>
       </c>
-      <c r="J54" s="36">
+      <c r="J54" s="81">
         <f>J53*J53</f>
         <v>2.5761714737034234E-2</v>
       </c>
-      <c r="K54" s="26"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="26"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="35" t="s">
+      <c r="K54" s="8"/>
+    </row>
+    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="45"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="D55" s="36">
+      <c r="D55" s="87">
         <f>SQRT(D54/(1+D54))</f>
         <v>4.4328420736450659E-3</v>
       </c>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="35" t="s">
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="J55" s="36">
+      <c r="J55" s="87">
         <f>SQRT(J54/(1+J54))</f>
         <v>0.15847623346413706</v>
       </c>
-      <c r="K55" s="26"/>
-    </row>
+      <c r="K55" s="17"/>
+    </row>
+    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="50" t="str">
+      <c r="A57" s="75" t="str">
         <f>chisquared!A220</f>
         <v>h1: there is an association between being female and being sentenced to death for infanticide at the Old Bailey (between 1663-1802)</v>
       </c>
-      <c r="B57" s="50"/>
-      <c r="C57" s="50"/>
-      <c r="D57" s="50"/>
-      <c r="E57" s="50"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="58" t="str">
+      <c r="B57" s="76"/>
+      <c r="C57" s="76"/>
+      <c r="D57" s="76"/>
+      <c r="E57" s="76"/>
+      <c r="F57" s="77"/>
+      <c r="G57" s="78" t="str">
         <f>chisquared!L220</f>
         <v>h1: there is an association between being female and being sentenced to death for infanticide in Surrey/Sussex (between 1663-1802)</v>
       </c>
-      <c r="H57" s="58"/>
-      <c r="I57" s="58"/>
-      <c r="J57" s="58"/>
-      <c r="K57" s="58"/>
+      <c r="H57" s="78"/>
+      <c r="I57" s="78"/>
+      <c r="J57" s="78"/>
+      <c r="K57" s="79"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="35" t="s">
+      <c r="A58" s="80" t="s">
         <v>175</v>
       </c>
-      <c r="B58" s="36">
+      <c r="B58" s="81">
         <f>chisquared!E234</f>
         <v>258.08498733340673</v>
       </c>
-      <c r="C58" s="34" t="s">
+      <c r="C58" s="82" t="s">
         <v>176</v>
       </c>
-      <c r="D58" s="36">
+      <c r="D58" s="81">
         <f>SQRT(B58/B59)</f>
         <v>0.14072648352583414</v>
       </c>
-      <c r="E58" s="26" t="s">
+      <c r="E58" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F58" s="26"/>
-      <c r="G58" s="59" t="s">
+      <c r="F58" s="7"/>
+      <c r="G58" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="H58" s="60">
+      <c r="H58" s="84">
         <f>chisquared!P234</f>
         <v>52.404669260700395</v>
       </c>
-      <c r="I58" s="61" t="s">
+      <c r="I58" s="85" t="s">
         <v>141</v>
       </c>
-      <c r="J58" s="60">
+      <c r="J58" s="84">
         <f>SQRT(H58/H59)</f>
         <v>0.3180680983297402</v>
       </c>
-      <c r="K58" s="62" t="s">
+      <c r="K58" s="51" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="35" t="s">
+      <c r="A59" s="80" t="s">
         <v>174</v>
       </c>
-      <c r="B59" s="36">
+      <c r="B59" s="81">
         <f>chisquared!D225</f>
         <v>13032</v>
       </c>
-      <c r="C59" s="34" t="s">
+      <c r="C59" s="82" t="s">
         <v>177</v>
       </c>
-      <c r="D59" s="36">
+      <c r="D59" s="81">
         <f>D58*D58</f>
         <v>1.9803943165546869E-2</v>
       </c>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="59" t="s">
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="H59" s="60">
+      <c r="H59" s="84">
         <f>chisquared!O225</f>
         <v>518</v>
       </c>
-      <c r="I59" s="61" t="s">
+      <c r="I59" s="85" t="s">
         <v>146</v>
       </c>
-      <c r="J59" s="60">
+      <c r="J59" s="84">
         <f>J58*J58</f>
         <v>0.10116731517509728</v>
       </c>
-      <c r="K59" s="62"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="26"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="35" t="s">
+      <c r="K59" s="51"/>
+    </row>
+    <row r="60" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="45"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="D60" s="36">
+      <c r="D60" s="87">
         <f>SQRT(D59/(1+D59))</f>
         <v>0.13935337527456859</v>
       </c>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="62"/>
-      <c r="H60" s="62"/>
-      <c r="I60" s="59" t="s">
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="58"/>
+      <c r="H60" s="58"/>
+      <c r="I60" s="88" t="s">
         <v>145</v>
       </c>
-      <c r="J60" s="60">
+      <c r="J60" s="89">
         <f>SQRT(J59/(1+J59))</f>
         <v>0.30310524825452073</v>
       </c>
-      <c r="K60" s="62"/>
-    </row>
+      <c r="K60" s="90"/>
+    </row>
+    <row r="61" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="62" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="50" t="str">
+      <c r="A62" s="75" t="str">
         <f>chisquared!A238</f>
         <v>h1: there is an association between being charged with Homicide and found guilty at the Old Bailey (1660-1740 &amp; 1740-1802)</v>
       </c>
-      <c r="B62" s="50"/>
-      <c r="C62" s="50"/>
-      <c r="D62" s="50"/>
-      <c r="E62" s="50"/>
-      <c r="F62" s="38"/>
-      <c r="G62" s="58" t="str">
+      <c r="B62" s="76"/>
+      <c r="C62" s="76"/>
+      <c r="D62" s="76"/>
+      <c r="E62" s="76"/>
+      <c r="F62" s="77"/>
+      <c r="G62" s="78" t="str">
         <f>chisquared!L238</f>
         <v>h1: there is an association between being charged with Homicide and found guilty in Surrey/Sussex (1660-1740 &amp; 1740-1802)</v>
       </c>
-      <c r="H62" s="58"/>
-      <c r="I62" s="58"/>
-      <c r="J62" s="58"/>
-      <c r="K62" s="58"/>
+      <c r="H62" s="78"/>
+      <c r="I62" s="78"/>
+      <c r="J62" s="78"/>
+      <c r="K62" s="79"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="35" t="s">
+      <c r="A63" s="80" t="s">
         <v>175</v>
       </c>
-      <c r="B63" s="36">
+      <c r="B63" s="81">
         <f>chisquared!E252</f>
         <v>256.7547030243598</v>
       </c>
-      <c r="C63" s="34" t="s">
+      <c r="C63" s="82" t="s">
         <v>176</v>
       </c>
-      <c r="D63" s="36">
+      <c r="D63" s="81">
         <f>SQRT(B63/B64)</f>
         <v>0.11318494777651016</v>
       </c>
-      <c r="E63" s="26" t="s">
+      <c r="E63" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F63" s="26"/>
-      <c r="G63" s="59" t="s">
+      <c r="F63" s="7"/>
+      <c r="G63" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="H63" s="60">
+      <c r="H63" s="84">
         <f>chisquared!P252</f>
         <v>17.492017933551274</v>
       </c>
-      <c r="I63" s="61" t="s">
+      <c r="I63" s="85" t="s">
         <v>141</v>
       </c>
-      <c r="J63" s="60">
+      <c r="J63" s="84">
         <f>SQRT(H63/H64)</f>
         <v>0.30884489019832884</v>
       </c>
-      <c r="K63" s="62" t="s">
+      <c r="K63" s="51" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="35" t="s">
+      <c r="A64" s="80" t="s">
         <v>174</v>
       </c>
-      <c r="B64" s="36">
+      <c r="B64" s="81">
         <f>chisquared!D243</f>
         <v>20042</v>
       </c>
-      <c r="C64" s="34" t="s">
+      <c r="C64" s="82" t="s">
         <v>177</v>
       </c>
-      <c r="D64" s="36">
+      <c r="D64" s="81">
         <f>D63*D63</f>
         <v>1.2810832403171331E-2</v>
       </c>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="59" t="s">
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="H64" s="60">
+      <c r="H64" s="84">
         <f>chisquared!O243</f>
         <v>183.38299999999998</v>
       </c>
-      <c r="I64" s="61" t="s">
+      <c r="I64" s="85" t="s">
         <v>146</v>
       </c>
-      <c r="J64" s="60">
+      <c r="J64" s="84">
         <f>J63*J63</f>
         <v>9.5385166201617799E-2</v>
       </c>
-      <c r="K64" s="62"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="26"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="35" t="s">
+      <c r="K64" s="51"/>
+    </row>
+    <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="45"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="D65" s="36">
+      <c r="D65" s="87">
         <f>SQRT(D64/(1+D64))</f>
         <v>0.11246684339536961</v>
       </c>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="62"/>
-      <c r="H65" s="62"/>
-      <c r="I65" s="59" t="s">
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="58"/>
+      <c r="H65" s="58"/>
+      <c r="I65" s="88" t="s">
         <v>145</v>
       </c>
-      <c r="J65" s="60">
+      <c r="J65" s="89">
         <f>SQRT(J64/(1+J64))</f>
         <v>0.29509169888364611</v>
       </c>
-      <c r="K65" s="62"/>
+      <c r="K65" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="G52:K52"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="G57:K57"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="G62:K62"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="G37:K37"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="G47:K47"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AE7:AI7"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="S7:W7"/>
+    <mergeCell ref="Y6:AC6"/>
+    <mergeCell ref="Y7:AC7"/>
     <mergeCell ref="A32:E32"/>
     <mergeCell ref="G7:K7"/>
     <mergeCell ref="G12:K12"/>
@@ -15077,15 +15123,18 @@
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="A27:E27"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AE7:AI7"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="M7:Q7"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="S7:W7"/>
-    <mergeCell ref="Y6:AC6"/>
-    <mergeCell ref="Y7:AC7"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="G37:K37"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="G47:K47"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="G52:K52"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="G57:K57"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="G62:K62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15093,11 +15142,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AC188"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="G122" sqref="G122"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="F181" sqref="F181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15194,86 +15243,86 @@
       <c r="D5" s="32"/>
     </row>
     <row r="6" spans="1:29" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F6" s="57" t="str">
+      <c r="F6" s="68" t="str">
         <f>chisquared!L1</f>
         <v>Assumption #1: Rape, Attempted Rape are all crimes committed by only men; Infanticide is only committed by women; Even split of other crimes between men and women</v>
       </c>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="K6" s="57" t="str">
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="K6" s="68" t="str">
         <f>chisquared!W1</f>
         <v>Assumption #2: Rape, Attempted Rape are all crimes committed by only men; Infanticide is only committed by women; 70% of crime is male with 30% of crime female for all other crimes (average distribution found in Old Bailey)</v>
       </c>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="P6" s="57" t="str">
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="P6" s="68" t="str">
         <f>chisquared!AH1</f>
         <v>Assumption #3: Rape, Attempted Rape are all crimes committed by only men; Infanticide is only committed by women; 85% of crime is male with 15% of crime female for all other crimes (averagre distribution of property crimes)</v>
       </c>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="57"/>
-      <c r="S6" s="57"/>
-      <c r="U6" s="57" t="str">
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="U6" s="68" t="str">
         <f>chisquared!AS1</f>
         <v>Assumption #4: Rape, Attempted Rape are all crimes committed by only men; Infanticide is only committed by women; 100% of crime is male with 0% of crime female for all other crimes (women are somehow acquitted of all other crimes)</v>
       </c>
-      <c r="V6" s="57"/>
-      <c r="W6" s="57"/>
-      <c r="X6" s="57"/>
-      <c r="Z6" s="57" t="str">
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
+      <c r="Z6" s="68" t="str">
         <f>chisquared!BD1</f>
         <v>Assumption #5: Rape, Attempted Rape are all crimes committed by only men; Infanticide is only committed by women; 0% of crime is male with 100% of crime female for all other crimes (men are somehow acquitted of all other crimes)</v>
       </c>
-      <c r="AA6" s="57"/>
-      <c r="AB6" s="57"/>
-      <c r="AC6" s="57"/>
+      <c r="AA6" s="68"/>
+      <c r="AB6" s="68"/>
+      <c r="AC6" s="68"/>
     </row>
     <row r="7" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="54" t="str">
+      <c r="A7" s="65" t="str">
         <f>chisquared!A2</f>
         <v>h1: there is an association between being male and property offences at the old bailey</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="56"/>
-      <c r="F7" s="54" t="str">
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="67"/>
+      <c r="F7" s="65" t="str">
         <f>chisquared!L2</f>
         <v>h1: there is an association between being male and property offences in Surrey &amp; Sussex</v>
       </c>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="56"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="67"/>
       <c r="J7" s="42"/>
-      <c r="K7" s="54" t="str">
+      <c r="K7" s="65" t="str">
         <f>chisquared!W2</f>
         <v>h1: there is an association between being male and property offences in Surrey &amp; Sussex</v>
       </c>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="56"/>
-      <c r="P7" s="54" t="str">
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="67"/>
+      <c r="P7" s="65" t="str">
         <f>chisquared!AH2</f>
         <v>h1: there is an association between being male and property offences in Surrey &amp; Sussex</v>
       </c>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="55"/>
-      <c r="S7" s="56"/>
-      <c r="U7" s="54" t="str">
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="67"/>
+      <c r="U7" s="65" t="str">
         <f>chisquared!AS2</f>
         <v>h1: there is an association between being male and property offences in Surrey &amp; Sussex</v>
       </c>
-      <c r="V7" s="55"/>
-      <c r="W7" s="55"/>
-      <c r="X7" s="56"/>
-      <c r="Z7" s="54" t="str">
+      <c r="V7" s="66"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="67"/>
+      <c r="Z7" s="65" t="str">
         <f>chisquared!BD2</f>
         <v>h1: there is an association between being male and property offences in Surrey &amp; Sussex</v>
       </c>
-      <c r="AA7" s="55"/>
-      <c r="AB7" s="55"/>
-      <c r="AC7" s="56"/>
+      <c r="AA7" s="66"/>
+      <c r="AB7" s="66"/>
+      <c r="AC7" s="67"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
@@ -16010,20 +16059,20 @@
       <c r="D19" s="42"/>
     </row>
     <row r="20" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="54" t="str">
+      <c r="A20" s="65" t="str">
         <f>chisquared!A20</f>
         <v>h1: there is an association between being guilty and property offences at the Old Bailey</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="56"/>
-      <c r="F20" s="54" t="str">
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="67"/>
+      <c r="F20" s="65" t="str">
         <f>chisquared!L20</f>
         <v>h1: there is an association between being guilty and property offences in Surrey &amp; Sussex</v>
       </c>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="56"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="67"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
@@ -16277,21 +16326,21 @@
     </row>
     <row r="32" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="54" t="str">
+      <c r="A33" s="65" t="str">
         <f>chisquared!A39</f>
         <v>h1: there is an association between being male and being sentenced to death for property offences at the old bailey</v>
       </c>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="56"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="67"/>
       <c r="E33" s="26"/>
-      <c r="F33" s="54" t="str">
+      <c r="F33" s="65" t="str">
         <f>chisquared!L39</f>
         <v>h1: there is an association between being male and being sentenced to death for property offences in surrey</v>
       </c>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="56"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="67"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
@@ -16561,21 +16610,21 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="54" t="str">
+      <c r="A47" s="65" t="str">
         <f>chisquared!A58</f>
         <v>h1: there is an association between being male and found guilty in Homicide Cases (or for Manslaughter) at the Old Bailey</v>
       </c>
-      <c r="B47" s="55"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="56"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="67"/>
       <c r="E47" s="26"/>
-      <c r="F47" s="54" t="str">
+      <c r="F47" s="65" t="str">
         <f>chisquared!L58</f>
         <v>h1: there is an association between being male and found guilty in Homicide Cases (or for Manslaughter) in Surrey/Sussex</v>
       </c>
-      <c r="G47" s="55"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="56"/>
+      <c r="G47" s="66"/>
+      <c r="H47" s="66"/>
+      <c r="I47" s="67"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
@@ -16840,21 +16889,21 @@
     </row>
     <row r="59" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="60" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="54" t="str">
+      <c r="A60" s="65" t="str">
         <f>chisquared!A76</f>
         <v>h1: there is an association between being male and found guilty in Property Cases vs Murder Cases at the Old Bailey</v>
       </c>
-      <c r="B60" s="55"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="56"/>
+      <c r="B60" s="66"/>
+      <c r="C60" s="66"/>
+      <c r="D60" s="67"/>
       <c r="E60" s="26"/>
-      <c r="F60" s="54" t="str">
+      <c r="F60" s="65" t="str">
         <f>chisquared!L76</f>
         <v>h1: there is an association between being male and found guilty in Property Cases vs Murder Cases in Surrey/Sussex</v>
       </c>
-      <c r="G60" s="55"/>
-      <c r="H60" s="55"/>
-      <c r="I60" s="56"/>
+      <c r="G60" s="66"/>
+      <c r="H60" s="66"/>
+      <c r="I60" s="67"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
@@ -17119,30 +17168,30 @@
     </row>
     <row r="72" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="73" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="54" t="str">
+      <c r="A73" s="65" t="str">
         <f>chisquared!A94</f>
         <v>h1: there is an association between being rape/attempted rape and pre/post 1740 at the Old Bailey</v>
       </c>
-      <c r="B73" s="55"/>
-      <c r="C73" s="55"/>
-      <c r="D73" s="56"/>
+      <c r="B73" s="66"/>
+      <c r="C73" s="66"/>
+      <c r="D73" s="67"/>
       <c r="E73" s="26"/>
-      <c r="F73" s="54" t="str">
+      <c r="F73" s="65" t="str">
         <f>chisquared!L94</f>
         <v>h1: there is an association between being rape/attempted rape and pre/post 1740 in Surrey/Sussex</v>
       </c>
-      <c r="G73" s="55"/>
-      <c r="H73" s="55"/>
-      <c r="I73" s="56"/>
+      <c r="G73" s="66"/>
+      <c r="H73" s="66"/>
+      <c r="I73" s="67"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="51" t="str">
+      <c r="A74" s="69" t="str">
         <f>chisquared!A95</f>
         <v>- Can't be done, rape and attempted rape are combined into "sexual crimes"</v>
       </c>
-      <c r="B74" s="52"/>
-      <c r="C74" s="52"/>
-      <c r="D74" s="53"/>
+      <c r="B74" s="70"/>
+      <c r="C74" s="70"/>
+      <c r="D74" s="71"/>
       <c r="E74" s="26"/>
       <c r="F74" s="5"/>
       <c r="G74" s="7"/>
@@ -17401,27 +17450,27 @@
     </row>
     <row r="85" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="86" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="54" t="str">
+      <c r="A86" s="65" t="str">
         <f>chisquared!A112</f>
         <v>h1: there is an association between being sentenced to death for different crimes as a male at the Old Bailey</v>
       </c>
-      <c r="B86" s="55"/>
-      <c r="C86" s="55"/>
-      <c r="D86" s="56"/>
+      <c r="B86" s="66"/>
+      <c r="C86" s="66"/>
+      <c r="D86" s="67"/>
       <c r="E86" s="26"/>
-      <c r="F86" s="54" t="str">
+      <c r="F86" s="65" t="str">
         <f>chisquared!L112</f>
         <v>h1: there is an association between being sentenced to death for different crimes as a male in Surrey/Sussex</v>
       </c>
-      <c r="G86" s="55"/>
-      <c r="H86" s="55"/>
-      <c r="I86" s="56"/>
+      <c r="G86" s="66"/>
+      <c r="H86" s="66"/>
+      <c r="I86" s="67"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="51"/>
-      <c r="B87" s="52"/>
-      <c r="C87" s="52"/>
-      <c r="D87" s="53"/>
+      <c r="A87" s="69"/>
+      <c r="B87" s="70"/>
+      <c r="C87" s="70"/>
+      <c r="D87" s="71"/>
       <c r="E87" s="26"/>
       <c r="F87" s="5"/>
       <c r="G87" s="7"/>
@@ -17680,30 +17729,30 @@
     </row>
     <row r="98" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="99" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="54" t="str">
+      <c r="A99" s="65" t="str">
         <f>chisquared!A130</f>
         <v>h1: there is an association between being guilty and being a primary accusee (rather than accessory) at the Old Bailey</v>
       </c>
-      <c r="B99" s="55"/>
-      <c r="C99" s="55"/>
-      <c r="D99" s="56"/>
+      <c r="B99" s="66"/>
+      <c r="C99" s="66"/>
+      <c r="D99" s="67"/>
       <c r="E99" s="26"/>
-      <c r="F99" s="54" t="str">
+      <c r="F99" s="65" t="str">
         <f>chisquared!L130</f>
         <v>h1: there is an association between being guilty and being a primary accusee (rather than accessory) in Surrey/Sussex</v>
       </c>
-      <c r="G99" s="55"/>
-      <c r="H99" s="55"/>
-      <c r="I99" s="56"/>
+      <c r="G99" s="66"/>
+      <c r="H99" s="66"/>
+      <c r="I99" s="67"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="51" t="str">
+      <c r="A100" s="69" t="str">
         <f>chisquared!A131</f>
         <v>- Can't be either accused or not; no way to be an accessory</v>
       </c>
-      <c r="B100" s="52"/>
-      <c r="C100" s="52"/>
-      <c r="D100" s="53"/>
+      <c r="B100" s="70"/>
+      <c r="C100" s="70"/>
+      <c r="D100" s="71"/>
       <c r="E100" s="26"/>
       <c r="F100" s="5"/>
       <c r="G100" s="7"/>
@@ -17962,32 +18011,32 @@
     </row>
     <row r="111" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="112" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="54" t="str">
+      <c r="A112" s="65" t="str">
         <f>chisquared!A148</f>
         <v>h1: there is an association between male homicide guilty verdicts pre 1740 and post 1740 at the Old Bailey</v>
       </c>
-      <c r="B112" s="55"/>
-      <c r="C112" s="55"/>
-      <c r="D112" s="56"/>
+      <c r="B112" s="66"/>
+      <c r="C112" s="66"/>
+      <c r="D112" s="67"/>
       <c r="E112" s="26"/>
-      <c r="F112" s="63" t="str">
+      <c r="F112" s="72" t="str">
         <f>chisquared!L148</f>
         <v>h1: there is an association between male homicide guilty verdicts pre 1740 and post 1740 in Surrey/Sussex</v>
       </c>
-      <c r="G112" s="64"/>
-      <c r="H112" s="64"/>
-      <c r="I112" s="65"/>
+      <c r="G112" s="73"/>
+      <c r="H112" s="73"/>
+      <c r="I112" s="74"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="51"/>
-      <c r="B113" s="52"/>
-      <c r="C113" s="52"/>
-      <c r="D113" s="53"/>
+      <c r="A113" s="69"/>
+      <c r="B113" s="70"/>
+      <c r="C113" s="70"/>
+      <c r="D113" s="71"/>
       <c r="E113" s="26"/>
-      <c r="F113" s="66"/>
-      <c r="G113" s="67"/>
-      <c r="H113" s="67"/>
-      <c r="I113" s="68"/>
+      <c r="F113" s="49"/>
+      <c r="G113" s="50"/>
+      <c r="H113" s="50"/>
+      <c r="I113" s="51"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="str">
@@ -18004,19 +18053,19 @@
       </c>
       <c r="D114" s="43"/>
       <c r="E114" s="26"/>
-      <c r="F114" s="66" t="str">
+      <c r="F114" s="49" t="str">
         <f>chisquared!L150</f>
         <v>OBSERVED</v>
       </c>
-      <c r="G114" s="69" t="str">
+      <c r="G114" s="52" t="str">
         <f>chisquared!M150</f>
         <v>guilty</v>
       </c>
-      <c r="H114" s="69" t="str">
+      <c r="H114" s="52" t="str">
         <f>chisquared!N150</f>
         <v>not guilty</v>
       </c>
-      <c r="I114" s="70"/>
+      <c r="I114" s="53"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="str">
@@ -18036,19 +18085,19 @@
         <v>3797</v>
       </c>
       <c r="E115" s="26"/>
-      <c r="F115" s="66" t="str">
+      <c r="F115" s="49" t="str">
         <f>chisquared!L151</f>
         <v>pre-1740</v>
       </c>
-      <c r="G115" s="78">
+      <c r="G115" s="61">
         <f>chisquared!M151</f>
         <v>75</v>
       </c>
-      <c r="H115" s="78">
+      <c r="H115" s="61">
         <f>chisquared!N151</f>
         <v>91</v>
       </c>
-      <c r="I115" s="70">
+      <c r="I115" s="53">
         <f>chisquared!O151</f>
         <v>166</v>
       </c>
@@ -18071,19 +18120,19 @@
         <v>20431</v>
       </c>
       <c r="E116" s="26"/>
-      <c r="F116" s="66" t="str">
+      <c r="F116" s="49" t="str">
         <f>chisquared!L152</f>
         <v>post-1740</v>
       </c>
-      <c r="G116" s="79">
+      <c r="G116" s="62">
         <f>chisquared!M152</f>
         <v>79</v>
       </c>
-      <c r="H116" s="79">
+      <c r="H116" s="62">
         <f>chisquared!N152</f>
         <v>30</v>
       </c>
-      <c r="I116" s="70">
+      <c r="I116" s="53">
         <f>chisquared!O152</f>
         <v>109</v>
       </c>
@@ -18103,16 +18152,16 @@
         <v>24228</v>
       </c>
       <c r="E117" s="26"/>
-      <c r="F117" s="66"/>
-      <c r="G117" s="71">
+      <c r="F117" s="49"/>
+      <c r="G117" s="54">
         <f>chisquared!M153</f>
         <v>154</v>
       </c>
-      <c r="H117" s="71">
+      <c r="H117" s="54">
         <f>chisquared!N153</f>
         <v>121</v>
       </c>
-      <c r="I117" s="70">
+      <c r="I117" s="53">
         <f>chisquared!O153</f>
         <v>275</v>
       </c>
@@ -18123,10 +18172,10 @@
       <c r="C118" s="6"/>
       <c r="D118" s="43"/>
       <c r="E118" s="26"/>
-      <c r="F118" s="72"/>
-      <c r="G118" s="67"/>
-      <c r="H118" s="71"/>
-      <c r="I118" s="70"/>
+      <c r="F118" s="55"/>
+      <c r="G118" s="50"/>
+      <c r="H118" s="54"/>
+      <c r="I118" s="53"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="44"/>
@@ -18139,12 +18188,12 @@
         <v>16868791</v>
       </c>
       <c r="E119" s="26"/>
-      <c r="F119" s="72"/>
-      <c r="G119" s="67"/>
-      <c r="H119" s="73" t="s">
+      <c r="F119" s="55"/>
+      <c r="G119" s="50"/>
+      <c r="H119" s="56" t="s">
         <v>226</v>
       </c>
-      <c r="I119" s="70">
+      <c r="I119" s="53">
         <f>G115*H116</f>
         <v>2250</v>
       </c>
@@ -18160,12 +18209,12 @@
         <v>9234180</v>
       </c>
       <c r="E120" s="26"/>
-      <c r="F120" s="72"/>
-      <c r="G120" s="67"/>
-      <c r="H120" s="73" t="s">
+      <c r="F120" s="55"/>
+      <c r="G120" s="50"/>
+      <c r="H120" s="56" t="s">
         <v>227</v>
       </c>
-      <c r="I120" s="70">
+      <c r="I120" s="53">
         <f>H115*G116</f>
         <v>7189</v>
       </c>
@@ -18181,12 +18230,12 @@
         <v>82069504</v>
       </c>
       <c r="E121" s="26"/>
-      <c r="F121" s="72"/>
-      <c r="G121" s="67"/>
-      <c r="H121" s="73" t="s">
+      <c r="F121" s="55"/>
+      <c r="G121" s="50"/>
+      <c r="H121" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="I121" s="70">
+      <c r="I121" s="53">
         <f>(G115*H115)+(G116*H116)</f>
         <v>9195</v>
       </c>
@@ -18205,15 +18254,15 @@
         <v>51473536</v>
       </c>
       <c r="E122" s="26"/>
-      <c r="F122" s="72"/>
-      <c r="G122" s="67" t="str">
+      <c r="F122" s="55"/>
+      <c r="G122" s="50" t="str">
         <f>IF(ABS(I123)&gt;0.8,$F$4,IF(ABS(I123)&gt;0.6,$E$4,IF(ABS(I123)&gt;0.4,$D$4,IF(ABS(I123)&gt;0.2,$C$4,$B$4))))</f>
         <v>Weak</v>
       </c>
-      <c r="H122" s="73" t="s">
+      <c r="H122" s="56" t="s">
         <v>229</v>
       </c>
-      <c r="I122" s="70">
+      <c r="I122" s="53">
         <f>(G115*G116)+(H115*H116)</f>
         <v>8655</v>
       </c>
@@ -18229,39 +18278,39 @@
         <v>8.3341904383829712E-2</v>
       </c>
       <c r="E123" s="26"/>
-      <c r="F123" s="74"/>
-      <c r="G123" s="75"/>
-      <c r="H123" s="76" t="s">
+      <c r="F123" s="57"/>
+      <c r="G123" s="58"/>
+      <c r="H123" s="59" t="s">
         <v>230</v>
       </c>
-      <c r="I123" s="77">
+      <c r="I123" s="60">
         <f>(I119-I120)/(SQRT((I119+I120+I121)*(I119+I120+I122)))</f>
         <v>-0.26897919382224134</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="125" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="54" t="str">
+      <c r="A125" s="65" t="str">
         <f>chisquared!A166</f>
         <v>h1: there is an association between being male and being sentenced to death at the Old Bailey (between 1722-1802)</v>
       </c>
-      <c r="B125" s="55"/>
-      <c r="C125" s="55"/>
-      <c r="D125" s="56"/>
+      <c r="B125" s="66"/>
+      <c r="C125" s="66"/>
+      <c r="D125" s="67"/>
       <c r="E125" s="26"/>
-      <c r="F125" s="54" t="str">
+      <c r="F125" s="65" t="str">
         <f>chisquared!L166</f>
         <v>h1: there is an association between being male and being sentenced to death in Surrey/Sussex (between 1722-1802)</v>
       </c>
-      <c r="G125" s="55"/>
-      <c r="H125" s="55"/>
-      <c r="I125" s="56"/>
+      <c r="G125" s="66"/>
+      <c r="H125" s="66"/>
+      <c r="I125" s="67"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="51"/>
-      <c r="B126" s="52"/>
-      <c r="C126" s="52"/>
-      <c r="D126" s="53"/>
+      <c r="A126" s="69"/>
+      <c r="B126" s="70"/>
+      <c r="C126" s="70"/>
+      <c r="D126" s="71"/>
       <c r="E126" s="26"/>
       <c r="F126" s="5"/>
       <c r="G126" s="7"/>
@@ -18520,27 +18569,27 @@
     </row>
     <row r="137" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="138" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="54" t="str">
+      <c r="A138" s="65" t="str">
         <f>chisquared!A184</f>
         <v>h1: there is an association between being male and being sentenced to transportation at the Old Bailey (between 1722-1802)</v>
       </c>
-      <c r="B138" s="55"/>
-      <c r="C138" s="55"/>
-      <c r="D138" s="56"/>
+      <c r="B138" s="66"/>
+      <c r="C138" s="66"/>
+      <c r="D138" s="67"/>
       <c r="E138" s="26"/>
-      <c r="F138" s="54" t="str">
+      <c r="F138" s="65" t="str">
         <f>chisquared!L184</f>
         <v>h1: there is an association between being male and being sentenced to transportation in Surrey/Sussex (between 1722-1802)</v>
       </c>
-      <c r="G138" s="55"/>
-      <c r="H138" s="55"/>
-      <c r="I138" s="56"/>
+      <c r="G138" s="66"/>
+      <c r="H138" s="66"/>
+      <c r="I138" s="67"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="51"/>
-      <c r="B139" s="52"/>
-      <c r="C139" s="52"/>
-      <c r="D139" s="53"/>
+      <c r="A139" s="69"/>
+      <c r="B139" s="70"/>
+      <c r="C139" s="70"/>
+      <c r="D139" s="71"/>
       <c r="E139" s="26"/>
       <c r="F139" s="5"/>
       <c r="G139" s="7"/>
@@ -18799,27 +18848,27 @@
     </row>
     <row r="150" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="151" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="54" t="str">
+      <c r="A151" s="65" t="str">
         <f>chisquared!A202</f>
         <v>h1: there is an association between being male and being sentenced to imprisonment at the Old Bailey (between 1722-1802)</v>
       </c>
-      <c r="B151" s="55"/>
-      <c r="C151" s="55"/>
-      <c r="D151" s="56"/>
+      <c r="B151" s="66"/>
+      <c r="C151" s="66"/>
+      <c r="D151" s="67"/>
       <c r="E151" s="26"/>
-      <c r="F151" s="54" t="str">
+      <c r="F151" s="65" t="str">
         <f>chisquared!L202</f>
         <v>h1: there is an association between being male and being sentenced to imprisonment in Surrey/Sussex (between 1722-1802)</v>
       </c>
-      <c r="G151" s="55"/>
-      <c r="H151" s="55"/>
-      <c r="I151" s="56"/>
+      <c r="G151" s="66"/>
+      <c r="H151" s="66"/>
+      <c r="I151" s="67"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="51"/>
-      <c r="B152" s="52"/>
-      <c r="C152" s="52"/>
-      <c r="D152" s="53"/>
+      <c r="A152" s="69"/>
+      <c r="B152" s="70"/>
+      <c r="C152" s="70"/>
+      <c r="D152" s="71"/>
       <c r="E152" s="26"/>
       <c r="F152" s="5"/>
       <c r="G152" s="7"/>
@@ -19078,32 +19127,32 @@
     </row>
     <row r="163" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="164" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="54" t="str">
+      <c r="A164" s="65" t="str">
         <f>chisquared!A220</f>
         <v>h1: there is an association between being female and being sentenced to death for infanticide at the Old Bailey (between 1663-1802)</v>
       </c>
-      <c r="B164" s="55"/>
-      <c r="C164" s="55"/>
-      <c r="D164" s="56"/>
+      <c r="B164" s="66"/>
+      <c r="C164" s="66"/>
+      <c r="D164" s="67"/>
       <c r="E164" s="26"/>
-      <c r="F164" s="63" t="str">
+      <c r="F164" s="72" t="str">
         <f>chisquared!L220</f>
         <v>h1: there is an association between being female and being sentenced to death for infanticide in Surrey/Sussex (between 1663-1802)</v>
       </c>
-      <c r="G164" s="64"/>
-      <c r="H164" s="64"/>
-      <c r="I164" s="65"/>
+      <c r="G164" s="73"/>
+      <c r="H164" s="73"/>
+      <c r="I164" s="74"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A165" s="51"/>
-      <c r="B165" s="52"/>
-      <c r="C165" s="52"/>
-      <c r="D165" s="53"/>
+      <c r="A165" s="69"/>
+      <c r="B165" s="70"/>
+      <c r="C165" s="70"/>
+      <c r="D165" s="71"/>
       <c r="E165" s="26"/>
-      <c r="F165" s="66"/>
-      <c r="G165" s="67"/>
-      <c r="H165" s="67"/>
-      <c r="I165" s="68"/>
+      <c r="F165" s="49"/>
+      <c r="G165" s="50"/>
+      <c r="H165" s="50"/>
+      <c r="I165" s="51"/>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="str">
@@ -19120,19 +19169,19 @@
       </c>
       <c r="D166" s="43"/>
       <c r="E166" s="26"/>
-      <c r="F166" s="66" t="str">
+      <c r="F166" s="49" t="str">
         <f>chisquared!L222</f>
         <v>OBSERVED</v>
       </c>
-      <c r="G166" s="69" t="str">
+      <c r="G166" s="52" t="str">
         <f>chisquared!M222</f>
         <v>infanticide</v>
       </c>
-      <c r="H166" s="69" t="str">
+      <c r="H166" s="52" t="str">
         <f>chisquared!N222</f>
         <v>not infanticide</v>
       </c>
-      <c r="I166" s="70"/>
+      <c r="I166" s="53"/>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="str">
@@ -19152,19 +19201,19 @@
         <v>2534</v>
       </c>
       <c r="E167" s="26"/>
-      <c r="F167" s="66" t="str">
+      <c r="F167" s="49" t="str">
         <f>chisquared!L223</f>
         <v>female</v>
       </c>
-      <c r="G167" s="78">
+      <c r="G167" s="61">
         <f>chisquared!M223</f>
         <v>4</v>
       </c>
-      <c r="H167" s="78">
+      <c r="H167" s="61">
         <f>chisquared!N223</f>
         <v>33</v>
       </c>
-      <c r="I167" s="70">
+      <c r="I167" s="53">
         <f>chisquared!O223</f>
         <v>37</v>
       </c>
@@ -19187,19 +19236,19 @@
         <v>10498</v>
       </c>
       <c r="E168" s="26"/>
-      <c r="F168" s="66" t="str">
+      <c r="F168" s="49" t="str">
         <f>chisquared!L224</f>
         <v>not female</v>
       </c>
-      <c r="G168" s="79">
+      <c r="G168" s="62">
         <f>chisquared!M224</f>
         <v>0</v>
       </c>
-      <c r="H168" s="79">
+      <c r="H168" s="62">
         <f>chisquared!N224</f>
         <v>481</v>
       </c>
-      <c r="I168" s="70">
+      <c r="I168" s="53">
         <f>chisquared!O224</f>
         <v>481</v>
       </c>
@@ -19219,16 +19268,16 @@
         <v>13032</v>
       </c>
       <c r="E169" s="26"/>
-      <c r="F169" s="66"/>
-      <c r="G169" s="71">
+      <c r="F169" s="49"/>
+      <c r="G169" s="54">
         <f>chisquared!M225</f>
         <v>4</v>
       </c>
-      <c r="H169" s="71">
+      <c r="H169" s="54">
         <f>chisquared!N225</f>
         <v>514</v>
       </c>
-      <c r="I169" s="70">
+      <c r="I169" s="53">
         <f>chisquared!O225</f>
         <v>518</v>
       </c>
@@ -19239,10 +19288,10 @@
       <c r="C170" s="6"/>
       <c r="D170" s="43"/>
       <c r="E170" s="26"/>
-      <c r="F170" s="72"/>
-      <c r="G170" s="67"/>
-      <c r="H170" s="71"/>
-      <c r="I170" s="70"/>
+      <c r="F170" s="55"/>
+      <c r="G170" s="50"/>
+      <c r="H170" s="54"/>
+      <c r="I170" s="53"/>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="44"/>
@@ -19255,12 +19304,12 @@
         <v>650876</v>
       </c>
       <c r="E171" s="26"/>
-      <c r="F171" s="72"/>
-      <c r="G171" s="67"/>
-      <c r="H171" s="73" t="s">
+      <c r="F171" s="55"/>
+      <c r="G171" s="50"/>
+      <c r="H171" s="56" t="s">
         <v>226</v>
       </c>
-      <c r="I171" s="70">
+      <c r="I171" s="53">
         <f>G167*H168</f>
         <v>1924</v>
       </c>
@@ -19276,12 +19325,12 @@
         <v>0</v>
       </c>
       <c r="E172" s="26"/>
-      <c r="F172" s="72"/>
-      <c r="G172" s="67"/>
-      <c r="H172" s="73" t="s">
+      <c r="F172" s="55"/>
+      <c r="G172" s="50"/>
+      <c r="H172" s="56" t="s">
         <v>227</v>
       </c>
-      <c r="I172" s="70">
+      <c r="I172" s="53">
         <f>H167*G168</f>
         <v>0</v>
       </c>
@@ -19297,12 +19346,12 @@
         <v>153264</v>
       </c>
       <c r="E173" s="26"/>
-      <c r="F173" s="72"/>
-      <c r="G173" s="67"/>
-      <c r="H173" s="73" t="s">
+      <c r="F173" s="55"/>
+      <c r="G173" s="50"/>
+      <c r="H173" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="I173" s="70">
+      <c r="I173" s="53">
         <f>(G167*H167)+(G168*H168)</f>
         <v>132</v>
       </c>
@@ -19321,15 +19370,15 @@
         <v>25951056</v>
       </c>
       <c r="E174" s="26"/>
-      <c r="F174" s="72"/>
-      <c r="G174" s="67" t="str">
+      <c r="F174" s="55"/>
+      <c r="G174" s="50" t="str">
         <f>IF(ABS(I175)&gt;0.8,$F$4,IF(ABS(I175)&gt;0.6,$E$4,IF(ABS(I175)&gt;0.4,$D$4,IF(ABS(I175)&gt;0.2,$C$4,$B$4))))</f>
         <v>Weak</v>
       </c>
-      <c r="H174" s="73" t="s">
+      <c r="H174" s="56" t="s">
         <v>229</v>
       </c>
-      <c r="I174" s="70">
+      <c r="I174" s="53">
         <f>(G167*G168)+(H167*H168)</f>
         <v>15873</v>
       </c>
@@ -19345,44 +19394,44 @@
         <v>0.14072648352583414</v>
       </c>
       <c r="E175" s="26"/>
-      <c r="F175" s="74"/>
-      <c r="G175" s="75"/>
-      <c r="H175" s="76" t="s">
+      <c r="F175" s="57"/>
+      <c r="G175" s="58"/>
+      <c r="H175" s="59" t="s">
         <v>230</v>
       </c>
-      <c r="I175" s="77">
+      <c r="I175" s="60">
         <f>(I171-I172)/(SQRT((I171+I172+I173)*(I171+I172+I174)))</f>
         <v>0.31806809832974015</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="177" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="54" t="str">
+      <c r="A177" s="65" t="str">
         <f>chisquared!A238</f>
         <v>h1: there is an association between being charged with Homicide and found guilty at the Old Bailey (1660-1740 &amp; 1740-1802)</v>
       </c>
-      <c r="B177" s="55"/>
-      <c r="C177" s="55"/>
-      <c r="D177" s="56"/>
+      <c r="B177" s="66"/>
+      <c r="C177" s="66"/>
+      <c r="D177" s="67"/>
       <c r="E177" s="26"/>
-      <c r="F177" s="63" t="str">
+      <c r="F177" s="72" t="str">
         <f>chisquared!L238</f>
         <v>h1: there is an association between being charged with Homicide and found guilty in Surrey/Sussex (1660-1740 &amp; 1740-1802)</v>
       </c>
-      <c r="G177" s="64"/>
-      <c r="H177" s="64"/>
-      <c r="I177" s="65"/>
+      <c r="G177" s="73"/>
+      <c r="H177" s="73"/>
+      <c r="I177" s="74"/>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A178" s="51"/>
-      <c r="B178" s="52"/>
-      <c r="C178" s="52"/>
-      <c r="D178" s="53"/>
+      <c r="A178" s="69"/>
+      <c r="B178" s="70"/>
+      <c r="C178" s="70"/>
+      <c r="D178" s="71"/>
       <c r="E178" s="26"/>
-      <c r="F178" s="66"/>
-      <c r="G178" s="67"/>
-      <c r="H178" s="67"/>
-      <c r="I178" s="68"/>
+      <c r="F178" s="49"/>
+      <c r="G178" s="50"/>
+      <c r="H178" s="50"/>
+      <c r="I178" s="51"/>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="str">
@@ -19399,19 +19448,19 @@
       </c>
       <c r="D179" s="43"/>
       <c r="E179" s="26"/>
-      <c r="F179" s="66" t="str">
+      <c r="F179" s="49" t="str">
         <f>chisquared!L240</f>
         <v>OBSERVED</v>
       </c>
-      <c r="G179" s="69" t="str">
+      <c r="G179" s="52" t="str">
         <f>chisquared!M240</f>
         <v>Guilty</v>
       </c>
-      <c r="H179" s="69" t="str">
+      <c r="H179" s="52" t="str">
         <f>chisquared!N240</f>
         <v>Not Guilty</v>
       </c>
-      <c r="I179" s="70"/>
+      <c r="I179" s="53"/>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="str">
@@ -19431,19 +19480,19 @@
         <v>3793</v>
       </c>
       <c r="E180" s="26"/>
-      <c r="F180" s="66" t="str">
+      <c r="F180" s="49" t="str">
         <f>chisquared!L241</f>
         <v>1660-1740</v>
       </c>
-      <c r="G180" s="78">
+      <c r="G180" s="61">
         <f>chisquared!M241</f>
         <v>27.373000000000001</v>
       </c>
-      <c r="H180" s="78">
+      <c r="H180" s="61">
         <f>chisquared!N241</f>
         <v>91.334999999999994</v>
       </c>
-      <c r="I180" s="70">
+      <c r="I180" s="53">
         <f>chisquared!O241</f>
         <v>118.708</v>
       </c>
@@ -19466,19 +19515,19 @@
         <v>16249</v>
       </c>
       <c r="E181" s="26"/>
-      <c r="F181" s="66" t="str">
+      <c r="F181" s="49" t="str">
         <f>chisquared!L242</f>
         <v>1740-1802</v>
       </c>
-      <c r="G181" s="79">
+      <c r="G181" s="62">
         <f>chisquared!M242</f>
         <v>34.695</v>
       </c>
-      <c r="H181" s="79">
+      <c r="H181" s="62">
         <f>chisquared!N242</f>
         <v>29.979999999999997</v>
       </c>
-      <c r="I181" s="70">
+      <c r="I181" s="53">
         <f>chisquared!O242</f>
         <v>64.674999999999997</v>
       </c>
@@ -19498,16 +19547,16 @@
         <v>20042</v>
       </c>
       <c r="E182" s="26"/>
-      <c r="F182" s="66"/>
-      <c r="G182" s="71">
+      <c r="F182" s="49"/>
+      <c r="G182" s="54">
         <f>chisquared!M243</f>
         <v>62.067999999999998</v>
       </c>
-      <c r="H182" s="71">
+      <c r="H182" s="54">
         <f>chisquared!N243</f>
         <v>121.315</v>
       </c>
-      <c r="I182" s="70">
+      <c r="I182" s="53">
         <f>chisquared!O243</f>
         <v>183.38299999999998</v>
       </c>
@@ -19518,10 +19567,10 @@
       <c r="C183" s="6"/>
       <c r="D183" s="43"/>
       <c r="E183" s="26"/>
-      <c r="F183" s="72"/>
-      <c r="G183" s="67"/>
-      <c r="H183" s="71"/>
-      <c r="I183" s="70"/>
+      <c r="F183" s="55"/>
+      <c r="G183" s="50"/>
+      <c r="H183" s="54"/>
+      <c r="I183" s="53"/>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="44"/>
@@ -19534,12 +19583,12 @@
         <v>14883505</v>
       </c>
       <c r="E184" s="26"/>
-      <c r="F184" s="72"/>
-      <c r="G184" s="67"/>
-      <c r="H184" s="73" t="s">
+      <c r="F184" s="55"/>
+      <c r="G184" s="50"/>
+      <c r="H184" s="56" t="s">
         <v>226</v>
       </c>
-      <c r="I184" s="70">
+      <c r="I184" s="53">
         <f>G180*H181</f>
         <v>820.64253999999994</v>
       </c>
@@ -19555,12 +19604,12 @@
         <v>7038208</v>
       </c>
       <c r="E185" s="26"/>
-      <c r="F185" s="72"/>
-      <c r="G185" s="67"/>
-      <c r="H185" s="73" t="s">
+      <c r="F185" s="55"/>
+      <c r="G185" s="50"/>
+      <c r="H185" s="56" t="s">
         <v>227</v>
       </c>
-      <c r="I185" s="70">
+      <c r="I185" s="53">
         <f>H180*G181</f>
         <v>3168.8678249999998</v>
       </c>
@@ -19576,12 +19625,12 @@
         <v>56031128</v>
       </c>
       <c r="E186" s="26"/>
-      <c r="F186" s="72"/>
-      <c r="G186" s="67"/>
-      <c r="H186" s="73" t="s">
+      <c r="F186" s="55"/>
+      <c r="G186" s="50"/>
+      <c r="H186" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="I186" s="70">
+      <c r="I186" s="53">
         <f>(G180*H180)+(G181*H181)</f>
         <v>3540.2690549999998</v>
       </c>
@@ -19600,15 +19649,15 @@
         <v>39710744</v>
       </c>
       <c r="E187" s="26"/>
-      <c r="F187" s="72"/>
-      <c r="G187" s="67" t="str">
+      <c r="F187" s="55"/>
+      <c r="G187" s="50" t="str">
         <f>IF(ABS(I188)&gt;0.8,$F$4,IF(ABS(I188)&gt;0.6,$E$4,IF(ABS(I188)&gt;0.4,$D$4,IF(ABS(I188)&gt;0.2,$C$4,$B$4))))</f>
         <v>Weak</v>
       </c>
-      <c r="H187" s="73" t="s">
+      <c r="H187" s="56" t="s">
         <v>229</v>
       </c>
-      <c r="I187" s="70">
+      <c r="I187" s="53">
         <f>(G180*G181)+(H180*H181)</f>
         <v>3687.9295349999998</v>
       </c>
@@ -19624,29 +19673,40 @@
         <v>0.11318494777651014</v>
       </c>
       <c r="E188" s="26"/>
-      <c r="F188" s="74"/>
-      <c r="G188" s="75"/>
-      <c r="H188" s="76" t="s">
+      <c r="F188" s="57"/>
+      <c r="G188" s="58"/>
+      <c r="H188" s="59" t="s">
         <v>230</v>
       </c>
-      <c r="I188" s="77">
+      <c r="I188" s="60">
         <f>(I184-I185)/(SQRT((I184+I185+I186)*(I184+I185+I187)))</f>
         <v>-0.30884489019832889</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="U6:X6"/>
-    <mergeCell ref="Z6:AC6"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="Z7:AC7"/>
-    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="A165:D165"/>
+    <mergeCell ref="A177:D177"/>
+    <mergeCell ref="F177:I177"/>
+    <mergeCell ref="A178:D178"/>
+    <mergeCell ref="A139:D139"/>
+    <mergeCell ref="A151:D151"/>
+    <mergeCell ref="F151:I151"/>
+    <mergeCell ref="A152:D152"/>
+    <mergeCell ref="A164:D164"/>
+    <mergeCell ref="F164:I164"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="F125:I125"/>
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="A138:D138"/>
+    <mergeCell ref="F138:I138"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="F99:I99"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A112:D112"/>
+    <mergeCell ref="F112:I112"/>
     <mergeCell ref="A86:D86"/>
     <mergeCell ref="F86:I86"/>
     <mergeCell ref="A20:D20"/>
@@ -19660,28 +19720,17 @@
     <mergeCell ref="A73:D73"/>
     <mergeCell ref="F73:I73"/>
     <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="F99:I99"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A112:D112"/>
-    <mergeCell ref="F112:I112"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="F125:I125"/>
-    <mergeCell ref="A126:D126"/>
-    <mergeCell ref="A138:D138"/>
-    <mergeCell ref="F138:I138"/>
-    <mergeCell ref="A165:D165"/>
-    <mergeCell ref="A177:D177"/>
-    <mergeCell ref="F177:I177"/>
-    <mergeCell ref="A178:D178"/>
-    <mergeCell ref="A139:D139"/>
-    <mergeCell ref="A151:D151"/>
-    <mergeCell ref="F151:I151"/>
-    <mergeCell ref="A152:D152"/>
-    <mergeCell ref="A164:D164"/>
-    <mergeCell ref="F164:I164"/>
+    <mergeCell ref="U6:X6"/>
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="Z7:AC7"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K7:N7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -19689,7 +19738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AD84"/>
   <sheetViews>
     <sheetView topLeftCell="A53" workbookViewId="0">
@@ -23262,7 +23311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AL15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -24942,7 +24991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
